--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfogo_000\Documents\Listas Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfogo_000\Documents\GitHub\JogosDoBotafogo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="115">
   <si>
     <t>Sim</t>
   </si>
@@ -764,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,6 +929,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,7 +1229,7 @@
   <dimension ref="A1:AE125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,34 +1262,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="59"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
@@ -1424,14 +1427,14 @@
       </c>
       <c r="O3" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="6">
         <f>COUNTIF(J2:J1004,"Nilton Santos")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1450,15 +1453,15 @@
       </c>
       <c r="V3" s="41">
         <f>COUNTIF(F3:F1007, "Derrota")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W3" s="36">
         <f>SUM(G3:G1001)</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="X3" s="42">
         <f>SUM(H3:H1001)</f>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="43">
         <f>COUNTIF(K3:K1006,"Sim")</f>
@@ -1466,7 +1469,7 @@
       </c>
       <c r="Z3" s="41">
         <f>COUNTIF(K3:K1006,"Não")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="46"/>
       <c r="AB3" s="46"/>
@@ -1513,7 +1516,7 @@
       </c>
       <c r="M4" s="17">
         <f>COUNTIF(B3:B1005,"Fluminense")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>24</v>
@@ -2371,7 +2374,7 @@
       </c>
       <c r="S16" s="30">
         <f>COUNTIF(E3:E1060, "2017")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T16" s="47"/>
       <c r="U16" s="48"/>
@@ -7711,7 +7714,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="56">
-        <f t="shared" ref="A110:A119" si="5">SUM(A109+1)</f>
+        <f t="shared" ref="A110:A120" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
       <c r="B110" s="56" t="s">
@@ -8220,17 +8223,40 @@
       <c r="Z119" s="46"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
-      <c r="I120" s="46"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="46"/>
+      <c r="A120" s="58">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43043</v>
+      </c>
+      <c r="E120" s="58">
+        <v>2017</v>
+      </c>
+      <c r="F120" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G120" s="58">
+        <v>1</v>
+      </c>
+      <c r="H120" s="58">
+        <v>2</v>
+      </c>
+      <c r="I120" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="J120" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" s="58" t="s">
+        <v>49</v>
+      </c>
       <c r="L120" s="46"/>
       <c r="M120" s="46"/>
       <c r="N120" s="46"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="114">
   <si>
     <t>Sim</t>
   </si>
@@ -360,9 +360,6 @@
   </si>
   <si>
     <t>Avaí</t>
-  </si>
-  <si>
-    <t>Atlético-MG</t>
   </si>
   <si>
     <t>3 x 4</t>
@@ -764,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,6 +926,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,34 +1262,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="60"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
@@ -1427,14 +1427,14 @@
       </c>
       <c r="O3" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="6">
         <f>COUNTIF(J2:J1004,"Nilton Santos")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="V3" s="41">
         <f>COUNTIF(F3:F1007, "Derrota")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W3" s="36">
         <f>SUM(G3:G1001)</f>
@@ -1461,11 +1461,11 @@
       </c>
       <c r="X3" s="42">
         <f>SUM(H3:H1001)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y3" s="43">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="41">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="M7" s="17">
         <f>COUNTIF(B3:B1003,"Atlético Mineiro")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="22" t="s">
         <v>12</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="M13" s="17">
         <f>COUNTIF(B3:B977,"Atlético Paranaense")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="S16" s="30">
         <f>COUNTIF(E3:E1060, "2017")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T16" s="47"/>
       <c r="U16" s="48"/>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M48" s="56">
         <f>COUNTIF(B3:B1000,"Nacional-URU")</f>
@@ -7361,7 +7361,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C103" s="27" t="s">
         <v>15</v>
@@ -7514,7 +7514,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C106" s="55" t="s">
         <v>17</v>
@@ -7568,7 +7568,7 @@
         <v>81</v>
       </c>
       <c r="C107" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D107" s="1">
         <v>42945</v>
@@ -7667,7 +7667,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C109" s="56" t="s">
         <v>19</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="56">
-        <f t="shared" ref="A110:A120" si="5">SUM(A109+1)</f>
+        <f t="shared" ref="A110:A121" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
       <c r="B110" s="56" t="s">
@@ -8274,17 +8274,40 @@
       <c r="Z120" s="46"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
-      <c r="I121" s="46"/>
-      <c r="J121" s="46"/>
-      <c r="K121" s="46"/>
+      <c r="A121" s="59">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43050</v>
+      </c>
+      <c r="E121" s="59">
+        <v>2017</v>
+      </c>
+      <c r="F121" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G121" s="59">
+        <v>0</v>
+      </c>
+      <c r="H121" s="59">
+        <v>1</v>
+      </c>
+      <c r="I121" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J121" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" s="59" t="s">
+        <v>0</v>
+      </c>
       <c r="L121" s="46"/>
       <c r="M121" s="46"/>
       <c r="N121" s="46"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="115">
   <si>
     <t>Sim</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Nacional-URU</t>
+  </si>
+  <si>
+    <t>Atlético Goianiense</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -746,17 +749,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -922,10 +914,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,37 +1289,37 @@
       <c r="AE1" s="46"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="55" t="s">
         <v>66</v>
       </c>
       <c r="L2" s="25" t="s">
@@ -1427,14 +1419,14 @@
       </c>
       <c r="O3" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="6">
         <f>COUNTIF(J2:J1004,"Nilton Santos")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1453,15 +1445,15 @@
       </c>
       <c r="V3" s="41">
         <f>COUNTIF(F3:F1007, "Derrota")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W3" s="36">
         <f>SUM(G3:G1001)</f>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X3" s="42">
         <f>SUM(H3:H1001)</f>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Y3" s="43">
         <f>COUNTIF(K3:K1006,"Sim")</f>
@@ -1469,7 +1461,7 @@
       </c>
       <c r="Z3" s="41">
         <f>COUNTIF(K3:K1006,"Não")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA3" s="46"/>
       <c r="AB3" s="46"/>
@@ -1553,14 +1545,14 @@
       <c r="AE4" s="46"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <f>SUM(A4+1)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1">
@@ -1578,10 +1570,10 @@
       <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1629,14 +1621,14 @@
       <c r="AE5" s="46"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <f t="shared" ref="A6:A7" si="0">SUM(A5+1)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1">
@@ -1654,10 +1646,10 @@
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1705,14 +1697,14 @@
       <c r="AE6" s="46"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1">
@@ -1730,10 +1722,10 @@
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1781,14 +1773,14 @@
       <c r="AE7" s="46"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <f t="shared" ref="A8:A18" si="1">SUM(A7+1)</f>
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1">
@@ -1806,10 +1798,10 @@
       <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="55" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1852,14 +1844,14 @@
       <c r="AE8" s="46"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1">
@@ -1877,10 +1869,10 @@
       <c r="H9" s="15">
         <v>2</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1923,14 +1915,14 @@
       <c r="AE9" s="46"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="1">
@@ -1948,10 +1940,10 @@
       <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1969,7 +1961,7 @@
       <c r="P10" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="54">
         <f>COUNTIF(J3:J1008,"Mário Helênio")</f>
         <v>1</v>
       </c>
@@ -1994,14 +1986,14 @@
       <c r="AE10" s="46"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
+      <c r="A11" s="55">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1">
@@ -2019,10 +2011,10 @@
       <c r="H11" s="15">
         <v>4</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2060,14 +2052,14 @@
       <c r="AE11" s="46"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1">
@@ -2085,7 +2077,7 @@
       <c r="H12" s="15">
         <v>0</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2126,14 +2118,14 @@
       <c r="AE12" s="46"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1">
@@ -2151,7 +2143,7 @@
       <c r="H13" s="15">
         <v>1</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2192,14 +2184,14 @@
       <c r="AE13" s="46"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1">
@@ -2217,7 +2209,7 @@
       <c r="H14" s="15">
         <v>2</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2258,14 +2250,14 @@
       <c r="AE14" s="46"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="56">
+      <c r="A15" s="55">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1">
@@ -2283,10 +2275,10 @@
       <c r="H15" s="15">
         <v>1</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2324,14 +2316,14 @@
       <c r="AE15" s="46"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1">
@@ -2349,10 +2341,10 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="56" t="s">
+      <c r="J16" s="55" t="s">
         <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2374,7 +2366,7 @@
       </c>
       <c r="S16" s="30">
         <f>COUNTIF(E3:E1060, "2017")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T16" s="47"/>
       <c r="U16" s="48"/>
@@ -2390,14 +2382,14 @@
       <c r="AE16" s="46"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="55" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="1">
@@ -2415,10 +2407,10 @@
       <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2451,14 +2443,14 @@
       <c r="AE17" s="46"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="56">
+      <c r="A18" s="55">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1">
@@ -2476,10 +2468,10 @@
       <c r="H18" s="15">
         <v>1</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2512,14 +2504,14 @@
       <c r="AE18" s="46"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
+      <c r="A19" s="55">
         <f t="shared" ref="A19:A24" si="2">SUM(A18+1)</f>
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="1">
@@ -2537,10 +2529,10 @@
       <c r="H19" s="15">
         <v>1</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="56" t="s">
+      <c r="J19" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2573,14 +2565,14 @@
       <c r="AE19" s="46"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="55">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="1">
@@ -2598,10 +2590,10 @@
       <c r="H20" s="15">
         <v>2</v>
       </c>
-      <c r="I20" s="56" t="s">
+      <c r="I20" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2634,14 +2626,14 @@
       <c r="AE20" s="46"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="56">
+      <c r="A21" s="55">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="55" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="1">
@@ -2659,10 +2651,10 @@
       <c r="H21" s="15">
         <v>3</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2695,14 +2687,14 @@
       <c r="AE21" s="46"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
+      <c r="A22" s="55">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1">
@@ -2720,10 +2712,10 @@
       <c r="H22" s="15">
         <v>1</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="56" t="s">
+      <c r="J22" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2756,14 +2748,14 @@
       <c r="AE22" s="46"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="56">
+      <c r="A23" s="55">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="1">
@@ -2781,10 +2773,10 @@
       <c r="H23" s="15">
         <v>2</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="56" t="s">
+      <c r="J23" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2817,14 +2809,14 @@
       <c r="AE23" s="46"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="56">
+      <c r="A24" s="55">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1">
@@ -2842,10 +2834,10 @@
       <c r="H24" s="15">
         <v>1</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2878,14 +2870,14 @@
       <c r="AE24" s="46"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="56">
+      <c r="A25" s="55">
         <f t="shared" ref="A25:A39" si="3">SUM(A24+1)</f>
         <v>23</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="1">
@@ -2903,10 +2895,10 @@
       <c r="H25" s="15">
         <v>0</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="56" t="s">
+      <c r="J25" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2939,14 +2931,14 @@
       <c r="AE25" s="46"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="56">
+      <c r="A26" s="55">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="1">
@@ -2964,10 +2956,10 @@
       <c r="H26" s="15">
         <v>1</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -3000,14 +2992,14 @@
       <c r="AE26" s="46"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="55">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1">
@@ -3025,10 +3017,10 @@
       <c r="H27" s="15">
         <v>1</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3061,7 +3053,7 @@
       <c r="AE27" s="46"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="56">
+      <c r="A28" s="55">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -3122,14 +3114,14 @@
       <c r="AE28" s="46"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="56">
+      <c r="A29" s="55">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="1">
@@ -3147,10 +3139,10 @@
       <c r="H29" s="15">
         <v>1</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="56" t="s">
+      <c r="J29" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3183,14 +3175,14 @@
       <c r="AE29" s="46"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+      <c r="A30" s="55">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="1">
@@ -3208,10 +3200,10 @@
       <c r="H30" s="15">
         <v>0</v>
       </c>
-      <c r="I30" s="56" t="s">
+      <c r="I30" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="56" t="s">
+      <c r="J30" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3244,14 +3236,14 @@
       <c r="AE30" s="46"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="55">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1">
@@ -3269,10 +3261,10 @@
       <c r="H31" s="15">
         <v>1</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="56" t="s">
+      <c r="J31" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3305,14 +3297,14 @@
       <c r="AE31" s="46"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="56">
+      <c r="A32" s="55">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1">
@@ -3330,10 +3322,10 @@
       <c r="H32" s="15">
         <v>1</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="56" t="s">
+      <c r="J32" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3366,14 +3358,14 @@
       <c r="AE32" s="46"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="56">
+      <c r="A33" s="55">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="1">
@@ -3391,10 +3383,10 @@
       <c r="H33" s="15">
         <v>2</v>
       </c>
-      <c r="I33" s="56" t="s">
+      <c r="I33" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3427,14 +3419,14 @@
       <c r="AE33" s="46"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="56">
+      <c r="A34" s="55">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="1">
@@ -3452,10 +3444,10 @@
       <c r="H34" s="15">
         <v>1</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="55" t="s">
         <v>36</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3488,14 +3480,14 @@
       <c r="AE34" s="46"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="56">
+      <c r="A35" s="55">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1">
@@ -3513,10 +3505,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="56" t="s">
+      <c r="I35" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="56" t="s">
+      <c r="J35" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -3549,14 +3541,14 @@
       <c r="AE35" s="46"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="56">
+      <c r="A36" s="55">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="1">
@@ -3574,10 +3566,10 @@
       <c r="H36" s="15">
         <v>0</v>
       </c>
-      <c r="I36" s="56" t="s">
+      <c r="I36" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="56" t="s">
+      <c r="J36" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -3610,14 +3602,14 @@
       <c r="AE36" s="46"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="56">
+      <c r="A37" s="55">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="55" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="1">
@@ -3635,10 +3627,10 @@
       <c r="H37" s="15">
         <v>2</v>
       </c>
-      <c r="I37" s="56" t="s">
+      <c r="I37" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="56" t="s">
+      <c r="J37" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3671,14 +3663,14 @@
       <c r="AE37" s="46"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
+      <c r="A38" s="55">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="1">
@@ -3696,10 +3688,10 @@
       <c r="H38" s="15">
         <v>2</v>
       </c>
-      <c r="I38" s="56" t="s">
+      <c r="I38" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="56" t="s">
+      <c r="J38" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3732,14 +3724,14 @@
       <c r="AE38" s="46"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="56">
+      <c r="A39" s="55">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1">
@@ -3757,10 +3749,10 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-      <c r="I39" s="56" t="s">
+      <c r="I39" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="56" t="s">
+      <c r="J39" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -3793,14 +3785,14 @@
       <c r="AE39" s="46"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="56">
+      <c r="A40" s="55">
         <f t="shared" ref="A40:A109" si="4">SUM(A39+1)</f>
         <v>38</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="55" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1">
@@ -3818,10 +3810,10 @@
       <c r="H40" s="15">
         <v>2</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I40" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="56" t="s">
+      <c r="J40" s="55" t="s">
         <v>36</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -3854,14 +3846,14 @@
       <c r="AE40" s="46"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="56">
+      <c r="A41" s="55">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="1">
@@ -3879,10 +3871,10 @@
       <c r="H41" s="15">
         <v>1</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="56" t="s">
+      <c r="J41" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -3915,14 +3907,14 @@
       <c r="AE41" s="46"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="56">
+      <c r="A42" s="55">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="1">
@@ -3940,10 +3932,10 @@
       <c r="H42" s="15">
         <v>1</v>
       </c>
-      <c r="I42" s="56" t="s">
+      <c r="I42" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="56" t="s">
+      <c r="J42" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -3976,14 +3968,14 @@
       <c r="AE42" s="46"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="56">
+      <c r="A43" s="55">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="1">
@@ -4001,7 +3993,7 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="55" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -4037,14 +4029,14 @@
       <c r="AE43" s="46"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="56">
+      <c r="A44" s="55">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="1">
@@ -4062,10 +4054,10 @@
       <c r="H44" s="15">
         <v>1</v>
       </c>
-      <c r="I44" s="56" t="s">
+      <c r="I44" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="56" t="s">
+      <c r="J44" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="7" t="s">
@@ -4098,14 +4090,14 @@
       <c r="AE44" s="46"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="56">
+      <c r="A45" s="55">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="1">
@@ -4123,10 +4115,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="I45" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="56" t="s">
+      <c r="J45" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -4159,14 +4151,14 @@
       <c r="AE45" s="46"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="56">
+      <c r="A46" s="55">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1">
@@ -4184,10 +4176,10 @@
       <c r="H46" s="15">
         <v>0</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="56" t="s">
+      <c r="J46" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="7" t="s">
@@ -4220,14 +4212,14 @@
       <c r="AE46" s="46"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
+      <c r="A47" s="55">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="1">
@@ -4245,10 +4237,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="56" t="s">
+      <c r="I47" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="56" t="s">
+      <c r="J47" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
@@ -4281,14 +4273,14 @@
       <c r="AE47" s="46"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="56">
+      <c r="A48" s="55">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="1">
@@ -4306,10 +4298,10 @@
       <c r="H48" s="15">
         <v>1</v>
       </c>
-      <c r="I48" s="56" t="s">
+      <c r="I48" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="56" t="s">
+      <c r="J48" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="7" t="s">
@@ -4318,7 +4310,7 @@
       <c r="L48" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="56">
+      <c r="M48" s="55">
         <f>COUNTIF(B3:B1000,"Nacional-URU")</f>
         <v>1</v>
       </c>
@@ -4342,14 +4334,14 @@
       <c r="AE48" s="46"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="55">
+      <c r="A49" s="54">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1">
@@ -4367,17 +4359,22 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="I49" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="56" t="s">
+      <c r="J49" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="47"/>
-      <c r="M49" s="54"/>
+      <c r="L49" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49" s="59">
+        <f>COUNTIF(B4:B1001,"Atlético Goianiense")</f>
+        <v>1</v>
+      </c>
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
@@ -4398,14 +4395,14 @@
       <c r="AE49" s="46"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="56">
+      <c r="A50" s="55">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="1">
@@ -4423,10 +4420,10 @@
       <c r="H50" s="15">
         <v>0</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="I50" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="56" t="s">
+      <c r="J50" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
@@ -4454,14 +4451,14 @@
       <c r="AE50" s="46"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="56">
+      <c r="A51" s="55">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="18">
@@ -4479,10 +4476,10 @@
       <c r="H51" s="20">
         <v>3</v>
       </c>
-      <c r="I51" s="55" t="s">
+      <c r="I51" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="55" t="s">
+      <c r="J51" s="54" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="11" t="s">
@@ -4510,14 +4507,14 @@
       <c r="AE51" s="46"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="56">
+      <c r="A52" s="55">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="56" t="s">
+      <c r="C52" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="1">
@@ -4535,10 +4532,10 @@
       <c r="H52" s="15">
         <v>1</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="I52" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="56" t="s">
+      <c r="J52" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
@@ -4566,14 +4563,14 @@
       <c r="AE52" s="46"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="56">
+      <c r="A53" s="55">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="1">
@@ -4591,10 +4588,10 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="56" t="s">
+      <c r="I53" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="56" t="s">
+      <c r="J53" s="55" t="s">
         <v>36</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -4622,14 +4619,14 @@
       <c r="AE53" s="46"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="56">
+      <c r="A54" s="55">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1">
@@ -4647,10 +4644,10 @@
       <c r="H54" s="15">
         <v>0</v>
       </c>
-      <c r="I54" s="56" t="s">
+      <c r="I54" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="56" t="s">
+      <c r="J54" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K54" s="7" t="s">
@@ -4678,14 +4675,14 @@
       <c r="AE54" s="46"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="56">
+      <c r="A55" s="55">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="1">
@@ -4703,10 +4700,10 @@
       <c r="H55" s="15">
         <v>1</v>
       </c>
-      <c r="I55" s="56" t="s">
+      <c r="I55" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="56" t="s">
+      <c r="J55" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -4734,14 +4731,14 @@
       <c r="AE55" s="46"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="56">
+      <c r="A56" s="55">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="1">
@@ -4759,10 +4756,10 @@
       <c r="H56" s="15">
         <v>0</v>
       </c>
-      <c r="I56" s="56" t="s">
+      <c r="I56" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="56" t="s">
+      <c r="J56" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="7" t="s">
@@ -4790,14 +4787,14 @@
       <c r="AE56" s="46"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="56">
+      <c r="A57" s="55">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="55" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="1">
@@ -4815,10 +4812,10 @@
       <c r="H57" s="15">
         <v>3</v>
       </c>
-      <c r="I57" s="56" t="s">
+      <c r="I57" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="56" t="s">
+      <c r="J57" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -4846,14 +4843,14 @@
       <c r="AE57" s="46"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="56">
+      <c r="A58" s="55">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="1">
@@ -4871,10 +4868,10 @@
       <c r="H58" s="15">
         <v>0</v>
       </c>
-      <c r="I58" s="56" t="s">
+      <c r="I58" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="56" t="s">
+      <c r="J58" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K58" s="7" t="s">
@@ -4902,14 +4899,14 @@
       <c r="AE58" s="46"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="56">
+      <c r="A59" s="55">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="1">
@@ -4927,10 +4924,10 @@
       <c r="H59" s="15">
         <v>1</v>
       </c>
-      <c r="I59" s="56" t="s">
+      <c r="I59" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="56" t="s">
+      <c r="J59" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K59" s="7" t="s">
@@ -4958,14 +4955,14 @@
       <c r="AE59" s="46"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="1">
@@ -4983,10 +4980,10 @@
       <c r="H60" s="15">
         <v>1</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="56" t="s">
+      <c r="J60" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
@@ -5014,14 +5011,14 @@
       <c r="AE60" s="46"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="56">
+      <c r="A61" s="55">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="1">
@@ -5039,10 +5036,10 @@
       <c r="H61" s="15">
         <v>2</v>
       </c>
-      <c r="I61" s="56" t="s">
+      <c r="I61" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="56" t="s">
+      <c r="J61" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K61" s="7" t="s">
@@ -5070,14 +5067,14 @@
       <c r="AE61" s="46"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="56">
+      <c r="A62" s="55">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="55" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="1">
@@ -5095,10 +5092,10 @@
       <c r="H62" s="15">
         <v>1</v>
       </c>
-      <c r="I62" s="56" t="s">
+      <c r="I62" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J62" s="56" t="s">
+      <c r="J62" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="7" t="s">
@@ -5126,14 +5123,14 @@
       <c r="AE62" s="46"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="56">
+      <c r="A63" s="55">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="1">
@@ -5151,10 +5148,10 @@
       <c r="H63" s="15">
         <v>0</v>
       </c>
-      <c r="I63" s="56" t="s">
+      <c r="I63" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="56" t="s">
+      <c r="J63" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
@@ -5182,14 +5179,14 @@
       <c r="AE63" s="46"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="56">
+      <c r="A64" s="55">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="1">
@@ -5207,10 +5204,10 @@
       <c r="H64" s="15">
         <v>0</v>
       </c>
-      <c r="I64" s="56" t="s">
+      <c r="I64" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J64" s="56" t="s">
+      <c r="J64" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
@@ -5238,14 +5235,14 @@
       <c r="AE64" s="46"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="56">
+      <c r="A65" s="55">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="55" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="1">
@@ -5263,10 +5260,10 @@
       <c r="H65" s="15">
         <v>1</v>
       </c>
-      <c r="I65" s="56" t="s">
+      <c r="I65" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J65" s="56" t="s">
+      <c r="J65" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
@@ -5294,14 +5291,14 @@
       <c r="AE65" s="46"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="56">
+      <c r="A66" s="55">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="1">
@@ -5319,10 +5316,10 @@
       <c r="H66" s="15">
         <v>1</v>
       </c>
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="56" t="s">
+      <c r="J66" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
@@ -5350,14 +5347,14 @@
       <c r="AE66" s="46"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="56">
+      <c r="A67" s="55">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="1">
@@ -5375,10 +5372,10 @@
       <c r="H67" s="15">
         <v>0</v>
       </c>
-      <c r="I67" s="56" t="s">
+      <c r="I67" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J67" s="56" t="s">
+      <c r="J67" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -5406,14 +5403,14 @@
       <c r="AE67" s="46"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="56">
+      <c r="A68" s="55">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1">
@@ -5431,10 +5428,10 @@
       <c r="H68" s="15">
         <v>3</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J68" s="56" t="s">
+      <c r="J68" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K68" s="7" t="s">
@@ -5462,14 +5459,14 @@
       <c r="AE68" s="46"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="56">
+      <c r="A69" s="55">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="B69" s="56" t="s">
+      <c r="B69" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1">
@@ -5487,10 +5484,10 @@
       <c r="H69" s="15">
         <v>0</v>
       </c>
-      <c r="I69" s="56" t="s">
+      <c r="I69" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="56" t="s">
+      <c r="J69" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K69" s="7" t="s">
@@ -5518,14 +5515,14 @@
       <c r="AE69" s="46"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="56">
+      <c r="A70" s="55">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="55" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
@@ -5543,10 +5540,10 @@
       <c r="H70" s="15">
         <v>3</v>
       </c>
-      <c r="I70" s="56" t="s">
+      <c r="I70" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="56" t="s">
+      <c r="J70" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="7" t="s">
@@ -5574,14 +5571,14 @@
       <c r="AE70" s="46"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="56">
+      <c r="A71" s="55">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="1">
@@ -5599,10 +5596,10 @@
       <c r="H71" s="15">
         <v>0</v>
       </c>
-      <c r="I71" s="56" t="s">
+      <c r="I71" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J71" s="56" t="s">
+      <c r="J71" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -5630,14 +5627,14 @@
       <c r="AE71" s="46"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="56">
+      <c r="A72" s="55">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="1">
@@ -5655,10 +5652,10 @@
       <c r="H72" s="15">
         <v>1</v>
       </c>
-      <c r="I72" s="56" t="s">
+      <c r="I72" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="56" t="s">
+      <c r="J72" s="55" t="s">
         <v>36</v>
       </c>
       <c r="K72" s="7" t="s">
@@ -5686,14 +5683,14 @@
       <c r="AE72" s="46"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="56">
+      <c r="A73" s="55">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="1">
@@ -5711,10 +5708,10 @@
       <c r="H73" s="15">
         <v>0</v>
       </c>
-      <c r="I73" s="56" t="s">
+      <c r="I73" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="56" t="s">
+      <c r="J73" s="55" t="s">
         <v>36</v>
       </c>
       <c r="K73" s="7" t="s">
@@ -5742,14 +5739,14 @@
       <c r="AE73" s="46"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="56">
+      <c r="A74" s="55">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="1">
@@ -5767,10 +5764,10 @@
       <c r="H74" s="15">
         <v>1</v>
       </c>
-      <c r="I74" s="56" t="s">
+      <c r="I74" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="56" t="s">
+      <c r="J74" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K74" s="7" t="s">
@@ -5798,14 +5795,14 @@
       <c r="AE74" s="46"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="56">
+      <c r="A75" s="55">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D75" s="1">
@@ -5823,10 +5820,10 @@
       <c r="H75" s="15">
         <v>1</v>
       </c>
-      <c r="I75" s="56" t="s">
+      <c r="I75" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="56" t="s">
+      <c r="J75" s="55" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="7" t="s">
@@ -5854,14 +5851,14 @@
       <c r="AE75" s="46"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="56">
+      <c r="A76" s="55">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="55" t="s">
         <v>77</v>
       </c>
       <c r="D76" s="1">
@@ -5879,7 +5876,7 @@
       <c r="H76" s="15">
         <v>1</v>
       </c>
-      <c r="I76" s="56" t="s">
+      <c r="I76" s="55" t="s">
         <v>38</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -5910,14 +5907,14 @@
       <c r="AE76" s="46"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="56">
+      <c r="A77" s="55">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="56" t="s">
+      <c r="C77" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="1">
@@ -5935,10 +5932,10 @@
       <c r="H77" s="15">
         <v>1</v>
       </c>
-      <c r="I77" s="56" t="s">
+      <c r="I77" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J77" s="56" t="s">
+      <c r="J77" s="55" t="s">
         <v>80</v>
       </c>
       <c r="K77" s="7" t="s">
@@ -5966,14 +5963,14 @@
       <c r="AE77" s="46"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="56">
+      <c r="A78" s="55">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="1">
@@ -5991,10 +5988,10 @@
       <c r="H78" s="15">
         <v>1</v>
       </c>
-      <c r="I78" s="56" t="s">
+      <c r="I78" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="56" t="s">
+      <c r="J78" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K78" s="7" t="s">
@@ -6022,35 +6019,35 @@
       <c r="AE78" s="46"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="56">
+      <c r="A79" s="55">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="1">
         <v>42617</v>
       </c>
-      <c r="E79" s="56">
+      <c r="E79" s="55">
         <v>2016</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="56">
+      <c r="G79" s="55">
         <v>2</v>
       </c>
       <c r="H79" s="15">
         <v>1</v>
       </c>
-      <c r="I79" s="56" t="s">
+      <c r="I79" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J79" s="56" t="s">
+      <c r="J79" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K79" s="7" t="s">
@@ -6078,35 +6075,35 @@
       <c r="AE79" s="46"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="56">
+      <c r="A80" s="55">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="56" t="s">
+      <c r="C80" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D80" s="1">
         <v>42620</v>
       </c>
-      <c r="E80" s="56">
+      <c r="E80" s="55">
         <v>2016</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="56">
+      <c r="G80" s="55">
         <v>1</v>
       </c>
       <c r="H80" s="15">
         <v>0</v>
       </c>
-      <c r="I80" s="56" t="s">
+      <c r="I80" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="56" t="s">
+      <c r="J80" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K80" s="7" t="s">
@@ -6134,14 +6131,14 @@
       <c r="AE80" s="46"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="56">
+      <c r="A81" s="55">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="1">
@@ -6150,19 +6147,19 @@
       <c r="E81" s="15">
         <v>2016</v>
       </c>
-      <c r="F81" s="56" t="s">
+      <c r="F81" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="56">
+      <c r="G81" s="55">
         <v>1</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
       </c>
-      <c r="I81" s="56" t="s">
+      <c r="I81" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J81" s="56" t="s">
+      <c r="J81" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K81" s="7" t="s">
@@ -6190,14 +6187,14 @@
       <c r="AE81" s="46"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="56">
+      <c r="A82" s="55">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="55" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="1">
@@ -6206,19 +6203,19 @@
       <c r="E82" s="15">
         <v>2016</v>
       </c>
-      <c r="F82" s="56" t="s">
+      <c r="F82" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="56">
+      <c r="G82" s="55">
         <v>3</v>
       </c>
       <c r="H82" s="15">
         <v>2</v>
       </c>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="56" t="s">
+      <c r="J82" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K82" s="7" t="s">
@@ -6246,14 +6243,14 @@
       <c r="AE82" s="46"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="56">
+      <c r="A83" s="55">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1">
@@ -6262,19 +6259,19 @@
       <c r="E83" s="15">
         <v>2016</v>
       </c>
-      <c r="F83" s="56" t="s">
+      <c r="F83" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G83" s="56">
+      <c r="G83" s="55">
         <v>0</v>
       </c>
       <c r="H83" s="15">
         <v>0</v>
       </c>
-      <c r="I83" s="56" t="s">
+      <c r="I83" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J83" s="56" t="s">
+      <c r="J83" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K83" s="7" t="s">
@@ -6302,14 +6299,14 @@
       <c r="AE83" s="46"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="56">
+      <c r="A84" s="55">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="56" t="s">
+      <c r="C84" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D84" s="1">
@@ -6318,19 +6315,19 @@
       <c r="E84" s="15">
         <v>2016</v>
       </c>
-      <c r="F84" s="56" t="s">
+      <c r="F84" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G84" s="56">
+      <c r="G84" s="55">
         <v>0</v>
       </c>
       <c r="H84" s="15">
         <v>2</v>
       </c>
-      <c r="I84" s="56" t="s">
+      <c r="I84" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="56" t="s">
+      <c r="J84" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K84" s="7" t="s">
@@ -6358,14 +6355,14 @@
       <c r="AE84" s="46"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="56">
+      <c r="A85" s="55">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C85" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D85" s="1">
@@ -6374,19 +6371,19 @@
       <c r="E85" s="15">
         <v>2016</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="55">
         <v>1</v>
       </c>
       <c r="H85" s="15">
         <v>1</v>
       </c>
-      <c r="I85" s="56" t="s">
+      <c r="I85" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="56" t="s">
+      <c r="J85" s="55" t="s">
         <v>95</v>
       </c>
       <c r="K85" s="7" t="s">
@@ -6414,7 +6411,7 @@
       <c r="AE85" s="46"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="56">
+      <c r="A86" s="55">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
@@ -6430,19 +6427,19 @@
       <c r="E86" s="28">
         <v>2017</v>
       </c>
-      <c r="F86" s="56" t="s">
+      <c r="F86" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="56">
+      <c r="G86" s="55">
         <v>1</v>
       </c>
       <c r="H86" s="15">
         <v>1</v>
       </c>
-      <c r="I86" s="56" t="s">
+      <c r="I86" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J86" s="56" t="s">
+      <c r="J86" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K86" s="7" t="s">
@@ -6470,14 +6467,14 @@
       <c r="AE86" s="46"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="56">
+      <c r="A87" s="55">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="1">
@@ -6486,19 +6483,19 @@
       <c r="E87" s="15">
         <v>2017</v>
       </c>
-      <c r="F87" s="56" t="s">
+      <c r="F87" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="56">
+      <c r="G87" s="55">
         <v>2</v>
       </c>
       <c r="H87" s="15">
         <v>1</v>
       </c>
-      <c r="I87" s="56" t="s">
+      <c r="I87" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J87" s="56" t="s">
+      <c r="J87" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K87" s="7" t="s">
@@ -6526,35 +6523,35 @@
       <c r="AE87" s="46"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="56">
+      <c r="A88" s="55">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1">
         <v>42770</v>
       </c>
-      <c r="E88" s="56">
+      <c r="E88" s="55">
         <v>2017</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="56">
+      <c r="G88" s="55">
         <v>2</v>
       </c>
-      <c r="H88" s="56">
-        <v>1</v>
-      </c>
-      <c r="I88" s="56" t="s">
+      <c r="H88" s="55">
+        <v>1</v>
+      </c>
+      <c r="I88" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="56" t="s">
+      <c r="J88" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K88" s="7" t="s">
@@ -6582,35 +6579,35 @@
       <c r="AE88" s="46"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="55">
+      <c r="A89" s="54">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D89" s="18">
         <v>42781</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="54">
         <v>2017</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="55">
-        <v>1</v>
-      </c>
-      <c r="H89" s="55">
-        <v>0</v>
-      </c>
-      <c r="I89" s="55" t="s">
+      <c r="G89" s="54">
+        <v>1</v>
+      </c>
+      <c r="H89" s="54">
+        <v>0</v>
+      </c>
+      <c r="I89" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J89" s="55" t="s">
+      <c r="J89" s="54" t="s">
         <v>1</v>
       </c>
       <c r="K89" s="11" t="s">
@@ -6638,14 +6635,14 @@
       <c r="AE89" s="46"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="56">
+      <c r="A90" s="55">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="56" t="s">
+      <c r="C90" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="1">
@@ -6654,19 +6651,19 @@
       <c r="E90" s="15">
         <v>2017</v>
       </c>
-      <c r="F90" s="56" t="s">
+      <c r="F90" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="56">
+      <c r="G90" s="55">
         <v>1</v>
       </c>
       <c r="H90" s="15">
         <v>0</v>
       </c>
-      <c r="I90" s="56" t="s">
+      <c r="I90" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J90" s="56" t="s">
+      <c r="J90" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K90" s="7" t="s">
@@ -6694,14 +6691,14 @@
       <c r="AE90" s="46"/>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="56">
+      <c r="A91" s="55">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="56" t="s">
+      <c r="C91" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="1">
@@ -6710,19 +6707,19 @@
       <c r="E91" s="15">
         <v>2017</v>
       </c>
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G91" s="56">
+      <c r="G91" s="55">
         <v>0</v>
       </c>
       <c r="H91" s="15">
         <v>0</v>
       </c>
-      <c r="I91" s="56" t="s">
+      <c r="I91" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="56" t="s">
+      <c r="J91" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K91" s="7" t="s">
@@ -6750,14 +6747,14 @@
       <c r="AE91" s="46"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="56">
+      <c r="A92" s="55">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1">
@@ -6766,19 +6763,19 @@
       <c r="E92" s="15">
         <v>2017</v>
       </c>
-      <c r="F92" s="56" t="s">
+      <c r="F92" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G92" s="56">
+      <c r="G92" s="55">
         <v>2</v>
       </c>
       <c r="H92" s="15">
         <v>3</v>
       </c>
-      <c r="I92" s="56" t="s">
+      <c r="I92" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="56" t="s">
+      <c r="J92" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K92" s="7" t="s">
@@ -6806,14 +6803,14 @@
       <c r="AE92" s="46"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="56">
+      <c r="A93" s="55">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="C93" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="1">
@@ -6822,19 +6819,19 @@
       <c r="E93" s="15">
         <v>2017</v>
       </c>
-      <c r="F93" s="56" t="s">
+      <c r="F93" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="56">
+      <c r="G93" s="55">
         <v>3</v>
       </c>
       <c r="H93" s="15">
         <v>1</v>
       </c>
-      <c r="I93" s="56" t="s">
+      <c r="I93" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="56" t="s">
+      <c r="J93" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K93" s="7" t="s">
@@ -6862,14 +6859,14 @@
       <c r="AE93" s="46"/>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="56">
+      <c r="A94" s="55">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="56" t="s">
+      <c r="C94" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D94" s="1">
@@ -6878,19 +6875,19 @@
       <c r="E94" s="15">
         <v>2017</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G94" s="56">
+      <c r="G94" s="55">
         <v>0</v>
       </c>
       <c r="H94" s="15">
         <v>2</v>
       </c>
-      <c r="I94" s="56" t="s">
+      <c r="I94" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J94" s="56" t="s">
+      <c r="J94" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K94" s="7" t="s">
@@ -6918,14 +6915,14 @@
       <c r="AE94" s="46"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="56">
+      <c r="A95" s="55">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D95" s="1">
@@ -6934,19 +6931,19 @@
       <c r="E95" s="15">
         <v>2017</v>
       </c>
-      <c r="F95" s="56" t="s">
+      <c r="F95" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="56">
+      <c r="G95" s="55">
         <v>2</v>
       </c>
       <c r="H95" s="15">
         <v>1</v>
       </c>
-      <c r="I95" s="56" t="s">
+      <c r="I95" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="56" t="s">
+      <c r="J95" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K95" s="7" t="s">
@@ -6974,14 +6971,14 @@
       <c r="AE95" s="46"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="56">
+      <c r="A96" s="55">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="56" t="s">
+      <c r="C96" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="1">
@@ -6990,19 +6987,19 @@
       <c r="E96" s="15">
         <v>2017</v>
       </c>
-      <c r="F96" s="56" t="s">
+      <c r="F96" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G96" s="56">
+      <c r="G96" s="55">
         <v>0</v>
       </c>
       <c r="H96" s="15">
         <v>2</v>
       </c>
-      <c r="I96" s="56" t="s">
+      <c r="I96" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J96" s="56" t="s">
+      <c r="J96" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K96" s="7" t="s">
@@ -7030,14 +7027,14 @@
       <c r="AE96" s="46"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="56">
+      <c r="A97" s="55">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="56" t="s">
+      <c r="C97" s="55" t="s">
         <v>110</v>
       </c>
       <c r="D97" s="1">
@@ -7046,19 +7043,19 @@
       <c r="E97" s="15">
         <v>2017</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="56">
+      <c r="G97" s="55">
         <v>1</v>
       </c>
       <c r="H97" s="15">
         <v>0</v>
       </c>
-      <c r="I97" s="56" t="s">
+      <c r="I97" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J97" s="56" t="s">
+      <c r="J97" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K97" s="7" t="s">
@@ -7086,14 +7083,14 @@
       <c r="AE97" s="46"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="56">
+      <c r="A98" s="55">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="56" t="s">
+      <c r="C98" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1">
@@ -7102,19 +7099,19 @@
       <c r="E98" s="15">
         <v>2017</v>
       </c>
-      <c r="F98" s="56" t="s">
+      <c r="F98" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="56">
+      <c r="G98" s="55">
         <v>2</v>
       </c>
       <c r="H98" s="15">
         <v>0</v>
       </c>
-      <c r="I98" s="56" t="s">
+      <c r="I98" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J98" s="56" t="s">
+      <c r="J98" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
@@ -7142,14 +7139,14 @@
       <c r="AE98" s="46"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="56">
+      <c r="A99" s="55">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="55" t="s">
         <v>110</v>
       </c>
       <c r="D99" s="1">
@@ -7158,19 +7155,19 @@
       <c r="E99" s="15">
         <v>2017</v>
       </c>
-      <c r="F99" s="56" t="s">
+      <c r="F99" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="56">
+      <c r="G99" s="55">
         <v>1</v>
       </c>
       <c r="H99" s="15">
         <v>0</v>
       </c>
-      <c r="I99" s="56" t="s">
+      <c r="I99" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="56" t="s">
+      <c r="J99" s="55" t="s">
         <v>1</v>
       </c>
       <c r="K99" s="7" t="s">
@@ -7198,14 +7195,14 @@
       <c r="AE99" s="46"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="55">
+      <c r="A100" s="54">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D100" s="18">
@@ -7214,19 +7211,19 @@
       <c r="E100" s="20">
         <v>2017</v>
       </c>
-      <c r="F100" s="55" t="s">
+      <c r="F100" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G100" s="55">
+      <c r="G100" s="54">
         <v>2</v>
       </c>
       <c r="H100" s="20">
         <v>2</v>
       </c>
-      <c r="I100" s="55" t="s">
+      <c r="I100" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J100" s="55" t="s">
+      <c r="J100" s="54" t="s">
         <v>1</v>
       </c>
       <c r="K100" s="11" t="s">
@@ -7254,14 +7251,14 @@
       <c r="AE100" s="46"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="56">
+      <c r="A101" s="55">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D101" s="1">
@@ -7270,22 +7267,22 @@
       <c r="E101" s="15">
         <v>2017</v>
       </c>
-      <c r="F101" s="56" t="s">
+      <c r="F101" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G101" s="56">
+      <c r="G101" s="55">
         <v>3</v>
       </c>
       <c r="H101" s="15">
         <v>1</v>
       </c>
-      <c r="I101" s="56" t="s">
+      <c r="I101" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" s="56" t="s">
+      <c r="J101" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K101" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L101" s="46"/>
@@ -7305,14 +7302,14 @@
       <c r="Z101" s="46"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="56">
+      <c r="A102" s="55">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D102" s="1">
@@ -7321,22 +7318,22 @@
       <c r="E102" s="15">
         <v>2017</v>
       </c>
-      <c r="F102" s="56" t="s">
+      <c r="F102" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G102" s="56">
+      <c r="G102" s="55">
         <v>0</v>
       </c>
       <c r="H102" s="15">
         <v>2</v>
       </c>
-      <c r="I102" s="56" t="s">
+      <c r="I102" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K102" s="56" t="s">
+      <c r="J102" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L102" s="46"/>
@@ -7356,7 +7353,7 @@
       <c r="Z102" s="46"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="55">
+      <c r="A103" s="54">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
@@ -7407,14 +7404,14 @@
       <c r="Z103" s="46"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="55">
+      <c r="A104" s="54">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D104" s="18">
@@ -7423,22 +7420,22 @@
       <c r="E104" s="20">
         <v>2017</v>
       </c>
-      <c r="F104" s="55" t="s">
+      <c r="F104" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G104" s="55">
+      <c r="G104" s="54">
         <v>1</v>
       </c>
       <c r="H104" s="20">
         <v>0</v>
       </c>
-      <c r="I104" s="55" t="s">
+      <c r="I104" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J104" s="55" t="s">
+      <c r="J104" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K104" s="55" t="s">
+      <c r="K104" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L104" s="46"/>
@@ -7458,14 +7455,14 @@
       <c r="Z104" s="46"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="56">
+      <c r="A105" s="55">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="1">
@@ -7474,22 +7471,22 @@
       <c r="E105" s="15">
         <v>2017</v>
       </c>
-      <c r="F105" s="56" t="s">
+      <c r="F105" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="56">
+      <c r="G105" s="55">
         <v>2</v>
       </c>
       <c r="H105" s="15">
         <v>1</v>
       </c>
-      <c r="I105" s="56" t="s">
+      <c r="I105" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K105" s="56" t="s">
+      <c r="J105" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L105" s="46"/>
@@ -7509,14 +7506,14 @@
       <c r="Z105" s="46"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="55">
+      <c r="A106" s="54">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="C106" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="18">
@@ -7525,22 +7522,22 @@
       <c r="E106" s="20">
         <v>2017</v>
       </c>
-      <c r="F106" s="55" t="s">
+      <c r="F106" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="55">
+      <c r="G106" s="54">
         <v>3</v>
       </c>
       <c r="H106" s="20">
         <v>0</v>
       </c>
-      <c r="I106" s="55" t="s">
+      <c r="I106" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J106" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K106" s="55" t="s">
+      <c r="J106" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="54" t="s">
         <v>49</v>
       </c>
       <c r="L106" s="46"/>
@@ -7560,14 +7557,14 @@
       <c r="Z106" s="46"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="56">
+      <c r="A107" s="55">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="55" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="1">
@@ -7576,22 +7573,22 @@
       <c r="E107" s="15">
         <v>2017</v>
       </c>
-      <c r="F107" s="56" t="s">
+      <c r="F107" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="G107" s="56">
+      <c r="G107" s="55">
         <v>3</v>
       </c>
       <c r="H107" s="15">
         <v>4</v>
       </c>
-      <c r="I107" s="56" t="s">
+      <c r="I107" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K107" s="56" t="s">
+      <c r="J107" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L107" s="46"/>
@@ -7611,14 +7608,14 @@
       <c r="Z107" s="46"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="55">
+      <c r="A108" s="54">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C108" s="55" t="s">
+      <c r="C108" s="54" t="s">
         <v>105</v>
       </c>
       <c r="D108" s="18">
@@ -7627,22 +7624,22 @@
       <c r="E108" s="20">
         <v>2017</v>
       </c>
-      <c r="F108" s="55" t="s">
+      <c r="F108" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G108" s="55">
+      <c r="G108" s="54">
         <v>1</v>
       </c>
       <c r="H108" s="20">
         <v>2</v>
       </c>
-      <c r="I108" s="55" t="s">
+      <c r="I108" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="J108" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K108" s="55" t="s">
+      <c r="J108" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="54" t="s">
         <v>49</v>
       </c>
       <c r="L108" s="46"/>
@@ -7662,14 +7659,14 @@
       <c r="Z108" s="46"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="56">
+      <c r="A109" s="55">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="56" t="s">
+      <c r="C109" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="1">
@@ -7678,22 +7675,22 @@
       <c r="E109" s="15">
         <v>2017</v>
       </c>
-      <c r="F109" s="56" t="s">
+      <c r="F109" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G109" s="56">
+      <c r="G109" s="55">
         <v>2</v>
       </c>
       <c r="H109" s="15">
         <v>0</v>
       </c>
-      <c r="I109" s="56" t="s">
+      <c r="I109" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J109" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K109" s="56" t="s">
+      <c r="J109" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L109" s="46"/>
@@ -7713,14 +7710,14 @@
       <c r="Z109" s="46"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="56">
-        <f t="shared" ref="A110:A121" si="5">SUM(A109+1)</f>
+      <c r="A110" s="55">
+        <f t="shared" ref="A110:A122" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="56" t="s">
+      <c r="C110" s="55" t="s">
         <v>31</v>
       </c>
       <c r="D110" s="1">
@@ -7729,22 +7726,22 @@
       <c r="E110" s="15">
         <v>2017</v>
       </c>
-      <c r="F110" s="56" t="s">
+      <c r="F110" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="56">
+      <c r="G110" s="55">
         <v>1</v>
       </c>
       <c r="H110" s="15">
         <v>0</v>
       </c>
-      <c r="I110" s="56" t="s">
+      <c r="I110" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J110" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K110" s="56" t="s">
+      <c r="J110" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L110" s="46"/>
@@ -7764,14 +7761,14 @@
       <c r="Z110" s="46"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="56">
+      <c r="A111" s="55">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="B111" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="56" t="s">
+      <c r="C111" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="1">
@@ -7780,22 +7777,22 @@
       <c r="E111" s="15">
         <v>2017</v>
       </c>
-      <c r="F111" s="56" t="s">
+      <c r="F111" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G111" s="56">
+      <c r="G111" s="55">
         <v>0</v>
       </c>
       <c r="H111" s="15">
         <v>0</v>
       </c>
-      <c r="I111" s="56" t="s">
+      <c r="I111" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J111" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K111" s="56" t="s">
+      <c r="J111" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L111" s="46"/>
@@ -7815,14 +7812,14 @@
       <c r="Z111" s="46"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="55">
+      <c r="A112" s="54">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="18">
@@ -7831,22 +7828,22 @@
       <c r="E112" s="20">
         <v>2017</v>
       </c>
-      <c r="F112" s="55" t="s">
+      <c r="F112" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="G112" s="55">
+      <c r="G112" s="54">
         <v>0</v>
       </c>
       <c r="H112" s="20">
         <v>1</v>
       </c>
-      <c r="I112" s="55" t="s">
+      <c r="I112" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="55" t="s">
+      <c r="J112" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K112" s="55" t="s">
+      <c r="K112" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L112" s="46"/>
@@ -7866,14 +7863,14 @@
       <c r="Z112" s="46"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" s="56">
+      <c r="A113" s="55">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="1">
@@ -7882,22 +7879,22 @@
       <c r="E113" s="15">
         <v>2017</v>
       </c>
-      <c r="F113" s="56" t="s">
+      <c r="F113" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="56">
+      <c r="G113" s="55">
         <v>2</v>
       </c>
       <c r="H113" s="15">
         <v>0</v>
       </c>
-      <c r="I113" s="56" t="s">
+      <c r="I113" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K113" s="56" t="s">
+      <c r="J113" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L113" s="46"/>
@@ -7917,14 +7914,14 @@
       <c r="Z113" s="46"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="56">
+      <c r="A114" s="55">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="56" t="s">
+      <c r="C114" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="1">
@@ -7933,22 +7930,22 @@
       <c r="E114" s="15">
         <v>2017</v>
       </c>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G114" s="56">
+      <c r="G114" s="55">
         <v>0</v>
       </c>
       <c r="H114" s="15">
         <v>0</v>
       </c>
-      <c r="I114" s="56" t="s">
+      <c r="I114" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K114" s="56" t="s">
+      <c r="J114" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="55" t="s">
         <v>0</v>
       </c>
       <c r="L114" s="46"/>
@@ -7968,14 +7965,14 @@
       <c r="Z114" s="46"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" s="57">
+      <c r="A115" s="56">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B115" s="57" t="s">
+      <c r="B115" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="C115" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="1">
@@ -7984,22 +7981,22 @@
       <c r="E115" s="15">
         <v>2017</v>
       </c>
-      <c r="F115" s="57" t="s">
+      <c r="F115" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="57">
+      <c r="G115" s="56">
         <v>2</v>
       </c>
       <c r="H115" s="15">
         <v>0</v>
       </c>
-      <c r="I115" s="57" t="s">
+      <c r="I115" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="K115" s="57" t="s">
+      <c r="J115" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="56" t="s">
         <v>49</v>
       </c>
       <c r="L115" s="46"/>
@@ -8019,38 +8016,38 @@
       <c r="Z115" s="46"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" s="57">
+      <c r="A116" s="56">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B116" s="57" t="s">
+      <c r="B116" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="57" t="s">
+      <c r="C116" s="56" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="1">
         <v>43009</v>
       </c>
-      <c r="E116" s="57">
+      <c r="E116" s="56">
         <v>2017</v>
       </c>
-      <c r="F116" s="57" t="s">
+      <c r="F116" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G116" s="57">
+      <c r="G116" s="56">
         <v>2</v>
       </c>
-      <c r="H116" s="57">
+      <c r="H116" s="56">
         <v>3</v>
       </c>
-      <c r="I116" s="57" t="s">
+      <c r="I116" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="K116" s="57" t="s">
+      <c r="J116" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" s="56" t="s">
         <v>0</v>
       </c>
       <c r="L116" s="46"/>
@@ -8070,38 +8067,38 @@
       <c r="Z116" s="46"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="57">
+      <c r="A117" s="56">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B117" s="57" t="s">
+      <c r="B117" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="C117" s="56" t="s">
         <v>107</v>
       </c>
       <c r="D117" s="1">
         <v>43019</v>
       </c>
-      <c r="E117" s="57">
+      <c r="E117" s="56">
         <v>2017</v>
       </c>
-      <c r="F117" s="57" t="s">
+      <c r="F117" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="57">
+      <c r="G117" s="56">
         <v>2</v>
       </c>
-      <c r="H117" s="57">
-        <v>1</v>
-      </c>
-      <c r="I117" s="57" t="s">
+      <c r="H117" s="56">
+        <v>1</v>
+      </c>
+      <c r="I117" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J117" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="K117" s="57" t="s">
+      <c r="J117" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="56" t="s">
         <v>49</v>
       </c>
       <c r="L117" s="46"/>
@@ -8121,38 +8118,38 @@
       <c r="Z117" s="46"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" s="57">
+      <c r="A118" s="56">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B118" s="57" t="s">
+      <c r="B118" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="57" t="s">
+      <c r="C118" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="1">
         <v>43022</v>
       </c>
-      <c r="E118" s="57">
+      <c r="E118" s="56">
         <v>2017</v>
       </c>
-      <c r="F118" s="57" t="s">
+      <c r="F118" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G118" s="57">
-        <v>0</v>
-      </c>
-      <c r="H118" s="57">
-        <v>1</v>
-      </c>
-      <c r="I118" s="57" t="s">
+      <c r="G118" s="56">
+        <v>0</v>
+      </c>
+      <c r="H118" s="56">
+        <v>1</v>
+      </c>
+      <c r="I118" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="57" t="s">
+      <c r="J118" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="K118" s="57" t="s">
+      <c r="K118" s="56" t="s">
         <v>0</v>
       </c>
       <c r="L118" s="46"/>
@@ -8172,38 +8169,38 @@
       <c r="Z118" s="46"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="57">
+      <c r="A119" s="56">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B119" s="57" t="s">
+      <c r="B119" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C119" s="57" t="s">
+      <c r="C119" s="56" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="1">
         <v>43031</v>
       </c>
-      <c r="E119" s="57">
+      <c r="E119" s="56">
         <v>2017</v>
       </c>
-      <c r="F119" s="57" t="s">
+      <c r="F119" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="57">
+      <c r="G119" s="56">
         <v>2</v>
       </c>
-      <c r="H119" s="57">
-        <v>1</v>
-      </c>
-      <c r="I119" s="57" t="s">
+      <c r="H119" s="56">
+        <v>1</v>
+      </c>
+      <c r="I119" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J119" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="K119" s="57" t="s">
+      <c r="J119" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K119" s="56" t="s">
         <v>0</v>
       </c>
       <c r="L119" s="46"/>
@@ -8223,38 +8220,38 @@
       <c r="Z119" s="46"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" s="58">
+      <c r="A120" s="57">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B120" s="58" t="s">
+      <c r="B120" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="58" t="s">
+      <c r="C120" s="57" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>43043</v>
       </c>
-      <c r="E120" s="58">
+      <c r="E120" s="57">
         <v>2017</v>
       </c>
-      <c r="F120" s="58" t="s">
+      <c r="F120" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G120" s="58">
-        <v>1</v>
-      </c>
-      <c r="H120" s="58">
+      <c r="G120" s="57">
+        <v>1</v>
+      </c>
+      <c r="H120" s="57">
         <v>2</v>
       </c>
-      <c r="I120" s="58" t="s">
+      <c r="I120" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K120" s="58" t="s">
+      <c r="J120" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" s="57" t="s">
         <v>49</v>
       </c>
       <c r="L120" s="46"/>
@@ -8274,38 +8271,38 @@
       <c r="Z120" s="46"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="59">
+      <c r="A121" s="58">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B121" s="59" t="s">
+      <c r="B121" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="1">
         <v>43050</v>
       </c>
-      <c r="E121" s="59">
+      <c r="E121" s="58">
         <v>2017</v>
       </c>
-      <c r="F121" s="59" t="s">
+      <c r="F121" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G121" s="59">
-        <v>0</v>
-      </c>
-      <c r="H121" s="59">
-        <v>1</v>
-      </c>
-      <c r="I121" s="59" t="s">
+      <c r="G121" s="58">
+        <v>0</v>
+      </c>
+      <c r="H121" s="58">
+        <v>1</v>
+      </c>
+      <c r="I121" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="K121" s="59" t="s">
+      <c r="J121" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" s="58" t="s">
         <v>0</v>
       </c>
       <c r="L121" s="46"/>
@@ -8325,17 +8322,40 @@
       <c r="Z121" s="46"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="46"/>
-      <c r="I122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="46"/>
+      <c r="A122" s="59">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="1">
+        <v>43055</v>
+      </c>
+      <c r="E122" s="59">
+        <v>2017</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G122" s="59">
+        <v>1</v>
+      </c>
+      <c r="H122" s="59">
+        <v>2</v>
+      </c>
+      <c r="I122" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J122" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" s="59" t="s">
+        <v>49</v>
+      </c>
       <c r="L122" s="46"/>
       <c r="M122" s="46"/>
       <c r="N122" s="46"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Atlético Goianiense</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,6 +918,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1220,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,34 +1260,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="61"/>
       <c r="AA1" s="46"/>
       <c r="AB1" s="46"/>
       <c r="AC1" s="46"/>
@@ -1419,14 +1425,14 @@
       </c>
       <c r="O3" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="6">
         <f>COUNTIF(J2:J1004,"Nilton Santos")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1441,7 +1447,7 @@
       </c>
       <c r="U3" s="11">
         <f>COUNTIF(F3:F1007, "Empate")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V3" s="41">
         <f>COUNTIF(F3:F1007, "Derrota")</f>
@@ -1449,15 +1455,15 @@
       </c>
       <c r="W3" s="36">
         <f>SUM(G3:G1001)</f>
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X3" s="42">
         <f>SUM(H3:H1001)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="43">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="41">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -2366,7 +2372,7 @@
       </c>
       <c r="S16" s="30">
         <f>COUNTIF(E3:E1060, "2017")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T16" s="47"/>
       <c r="U16" s="48"/>
@@ -4429,8 +4435,13 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="47"/>
-      <c r="M50" s="51"/>
+      <c r="L50" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" s="60">
+        <f>COUNTIF(B5:B1002,"Cruzeiro")</f>
+        <v>1</v>
+      </c>
       <c r="N50" s="47"/>
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
@@ -7711,7 +7722,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="55">
-        <f t="shared" ref="A110:A122" si="5">SUM(A109+1)</f>
+        <f t="shared" ref="A110:A123" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
       <c r="B110" s="55" t="s">
@@ -8373,17 +8384,40 @@
       <c r="Z122" s="46"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="46"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="46"/>
-      <c r="I123" s="46"/>
-      <c r="J123" s="46"/>
-      <c r="K123" s="46"/>
+      <c r="A123" s="60">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="1">
+        <v>43072</v>
+      </c>
+      <c r="E123" s="60">
+        <v>2017</v>
+      </c>
+      <c r="F123" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G123" s="60">
+        <v>2</v>
+      </c>
+      <c r="H123" s="60">
+        <v>2</v>
+      </c>
+      <c r="I123" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J123" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" s="60" t="s">
+        <v>0</v>
+      </c>
       <c r="L123" s="46"/>
       <c r="M123" s="46"/>
       <c r="N123" s="46"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>2004</v>
       </c>
       <c r="S3" s="7">
-        <f>COUNTIF(E3:E106, "2004")</f>
+        <f>COUNTIF(E3:E9, "2004")</f>
         <v>7</v>
       </c>
       <c r="T3" s="40">
@@ -1534,7 +1534,7 @@
         <v>2005</v>
       </c>
       <c r="S4" s="7">
-        <f>COUNTIF(E3:E106, "2005")</f>
+        <f>COUNTIF(E10:E16, "2005")</f>
         <v>7</v>
       </c>
       <c r="T4" s="47"/>
@@ -1610,7 +1610,7 @@
         <v>2006</v>
       </c>
       <c r="S5" s="7">
-        <f>COUNTIF(E3:E106, "2006")</f>
+        <f>COUNTIF(E17:E23, "2006")</f>
         <v>7</v>
       </c>
       <c r="T5" s="47"/>
@@ -1686,7 +1686,7 @@
         <v>2007</v>
       </c>
       <c r="S6" s="7">
-        <f>COUNTIF(E3:E106, "2007")</f>
+        <f>COUNTIF(E24:E28, "2007")</f>
         <v>5</v>
       </c>
       <c r="T6" s="47"/>
@@ -1762,7 +1762,7 @@
         <v>2008</v>
       </c>
       <c r="S7" s="7">
-        <f>COUNTIF(E3:E106, "2008")</f>
+        <f>COUNTIF(E29:E32, "2008")</f>
         <v>4</v>
       </c>
       <c r="T7" s="47"/>
@@ -1833,7 +1833,7 @@
         <v>2009</v>
       </c>
       <c r="S8" s="7">
-        <f>COUNTIF(E3:E106, "2009")</f>
+        <f>COUNTIF(E33, "2009")</f>
         <v>1</v>
       </c>
       <c r="T8" s="47"/>
@@ -1904,7 +1904,7 @@
         <v>2010</v>
       </c>
       <c r="S9" s="7">
-        <f>COUNTIF(E3:E106, "2010")</f>
+        <f>COUNTIF(E34:E36, "2010")</f>
         <v>3</v>
       </c>
       <c r="T9" s="47"/>
@@ -1975,7 +1975,7 @@
         <v>2011</v>
       </c>
       <c r="S10" s="7">
-        <f>COUNTIF(E3:E106, "2011")</f>
+        <f>COUNTIF(E37:E40, "2011")</f>
         <v>4</v>
       </c>
       <c r="T10" s="47"/>
@@ -2041,7 +2041,7 @@
         <v>2012</v>
       </c>
       <c r="S11" s="7">
-        <f>COUNTIF(E3:E106, "2012")</f>
+        <f>COUNTIF(E41, "2012")</f>
         <v>1</v>
       </c>
       <c r="T11" s="47"/>
@@ -2107,7 +2107,7 @@
         <v>2013</v>
       </c>
       <c r="S12" s="7">
-        <f>COUNTIF(E3:E106, "2013")</f>
+        <f>COUNTIF(E42:E45, "2013")</f>
         <v>4</v>
       </c>
       <c r="T12" s="47"/>
@@ -2173,7 +2173,7 @@
         <v>2014</v>
       </c>
       <c r="S13" s="7">
-        <f>COUNTIF(E3:E106, "2014")</f>
+        <f>COUNTIF(E46:E52, "2014")</f>
         <v>7</v>
       </c>
       <c r="T13" s="47"/>
@@ -2239,7 +2239,7 @@
         <v>2015</v>
       </c>
       <c r="S14" s="7">
-        <f>COUNTIF(E3:E106, "2015")</f>
+        <f>COUNTIF(E53:E71, "2015")</f>
         <v>19</v>
       </c>
       <c r="T14" s="47"/>
@@ -2305,7 +2305,7 @@
         <v>2016</v>
       </c>
       <c r="S15" s="7">
-        <f>COUNTIF(E3:E106, "2016")</f>
+        <f>COUNTIF(E72:E85, "2016")</f>
         <v>14</v>
       </c>
       <c r="T15" s="47"/>
@@ -2371,7 +2371,7 @@
         <v>2017</v>
       </c>
       <c r="S16" s="30">
-        <f>COUNTIF(E3:E1060, "2017")</f>
+        <f>COUNTIF(E86:E123, "2017")</f>
         <v>38</v>
       </c>
       <c r="T16" s="47"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -420,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -647,17 +647,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="6"/>
       </left>
       <right style="thin">
@@ -711,17 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="1"/>
@@ -758,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,34 +837,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,22 +885,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,7 +915,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,72 +1249,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="43" t="s">
         <v>66</v>
       </c>
       <c r="L2" s="24" t="s">
@@ -1369,20 +1353,20 @@
       <c r="W2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="Y2" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1446,39 +1430,39 @@
         <f>COUNTIF(E3, "2002")</f>
         <v>1</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="56">
         <f>COUNTIF(F4:F1008, "Vitória")</f>
         <v>65</v>
       </c>
-      <c r="U3" s="58">
+      <c r="U3" s="55">
         <f>COUNTIF(F4:F1008, "Empate")</f>
-        <v>23</v>
-      </c>
-      <c r="V3" s="59">
+        <v>25</v>
+      </c>
+      <c r="V3" s="56">
         <f>COUNTIF(F4:F1008, "Derrota")</f>
         <v>33</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="57">
         <f>SUM(G4:G1002)</f>
-        <v>195</v>
-      </c>
-      <c r="X3" s="61">
+        <v>197</v>
+      </c>
+      <c r="X3" s="58">
         <f>SUM(H4:H1002)</f>
-        <v>122</v>
-      </c>
-      <c r="Y3" s="62">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="59">
         <f>COUNTIF(K4:K1007,"Sim")</f>
-        <v>70</v>
-      </c>
-      <c r="Z3" s="59">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="56">
         <f>COUNTIF(K4:K1007,"Não")</f>
         <v>52</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1519,21 +1503,21 @@
       </c>
       <c r="M4" s="17">
         <f>COUNTIF(B4:B1006,"Fluminense")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="7">
         <f>COUNTIF(I4:I1008,"Carioca")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="7">
         <f>COUNTIF(J4:J1009,"Maracanã")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="21">
         <v>2004</v>
@@ -1542,14 +1526,14 @@
         <f>COUNTIF(E4:E10, "2004")</f>
         <v>7</v>
       </c>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <f>SUM(A4+1)</f>
         <v>3</v>
       </c>
@@ -1611,28 +1595,28 @@
         <f>COUNTIF(E11:E17, "2005")</f>
         <v>7</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="43">
         <f t="shared" ref="A6:A7" si="0">SUM(A5+1)</f>
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="1">
@@ -1650,10 +1634,10 @@
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="43" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1669,11 +1653,11 @@
       <c r="N6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="49">
         <f>COUNTIF(I2:I1008,"Libertadores")</f>
         <v>7</v>
       </c>
-      <c r="P6" s="63" t="s">
+      <c r="P6" s="60" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="17">
@@ -1687,28 +1671,28 @@
         <f>COUNTIF(E18:E24, "2006")</f>
         <v>7</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1">
@@ -1726,10 +1710,10 @@
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1745,11 +1729,11 @@
       <c r="N7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="49">
         <f>COUNTIF(I4:I1010,"Copa do Brasil")</f>
         <v>6</v>
       </c>
-      <c r="P7" s="63" t="s">
+      <c r="P7" s="60" t="s">
         <v>62</v>
       </c>
       <c r="Q7" s="17">
@@ -1763,28 +1747,28 @@
         <f>COUNTIF(E25:E29, "2007")</f>
         <v>5</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <f t="shared" ref="A8:A18" si="1">SUM(A7+1)</f>
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1">
@@ -1802,10 +1786,10 @@
       <c r="H8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="43" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1832,28 +1816,28 @@
         <f>COUNTIF(E30:E33, "2008")</f>
         <v>4</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1">
@@ -1871,10 +1855,10 @@
       <c r="H9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="43" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1887,12 +1871,12 @@
         <f>COUNTIF(B4:B1007,"Internacional")</f>
         <v>3</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="41"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="40"/>
       <c r="P9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="49">
         <f>COUNTIF(J4:J1009,"Raulino de Oliveira")</f>
         <v>2</v>
       </c>
@@ -1903,28 +1887,28 @@
         <f>COUNTIF(E34, "2009")</f>
         <v>1</v>
       </c>
-      <c r="T9" s="37"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1">
@@ -1942,10 +1926,10 @@
       <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="43" t="s">
         <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1958,12 +1942,12 @@
         <f>COUNTIF(B4:B1005,"Criciúma")</f>
         <v>3</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="41"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="40"/>
       <c r="P10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="49">
         <f>COUNTIF(J4:J1009,"Mário Helênio")</f>
         <v>1</v>
       </c>
@@ -1974,28 +1958,28 @@
         <f>COUNTIF(E35:E37, "2010")</f>
         <v>3</v>
       </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="43">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="1">
@@ -2013,10 +1997,10 @@
       <c r="H11" s="15">
         <v>2</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2029,8 +2013,8 @@
         <f>COUNTIF(B4:B1003,"Nova Iguaçu")</f>
         <v>3</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
       <c r="R11" s="23">
         <v>2011</v>
       </c>
@@ -2038,28 +2022,28 @@
         <f>COUNTIF(E38:E41, "2011")</f>
         <v>4</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="1">
@@ -2077,10 +2061,10 @@
       <c r="H12" s="15">
         <v>4</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2093,10 +2077,10 @@
         <f>COUNTIF(B4:B1013,"Palmeiras")</f>
         <v>4</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="23">
         <v>2012</v>
       </c>
@@ -2104,28 +2088,28 @@
         <f>COUNTIF(E42, "2012")</f>
         <v>1</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1">
@@ -2143,7 +2127,7 @@
       <c r="H13" s="15">
         <v>0</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2159,10 +2143,10 @@
         <f>COUNTIF(B4:B978,"Atlético Paranaense")</f>
         <v>3</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="23">
         <v>2013</v>
       </c>
@@ -2170,28 +2154,28 @@
         <f>COUNTIF(E43:E46, "2013")</f>
         <v>4</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="43">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
@@ -2209,7 +2193,7 @@
       <c r="H14" s="15">
         <v>1</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2225,10 +2209,10 @@
         <f>COUNTIF(B4:B1000,"Bahia")</f>
         <v>3</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
       <c r="R14" s="23">
         <v>2014</v>
       </c>
@@ -2236,28 +2220,28 @@
         <f>COUNTIF(E47:E53, "2014")</f>
         <v>7</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="43">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1">
@@ -2275,7 +2259,7 @@
       <c r="H15" s="15">
         <v>2</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -2291,10 +2275,10 @@
         <f>COUNTIF(B4:B1000,"Chapecoense")</f>
         <v>3</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="23">
         <v>2015</v>
       </c>
@@ -2302,28 +2286,28 @@
         <f>COUNTIF(E54:E72, "2015")</f>
         <v>19</v>
       </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="43">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1">
@@ -2341,10 +2325,10 @@
       <c r="H16" s="15">
         <v>1</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2357,10 +2341,10 @@
         <f>COUNTIF(B4:B999,"Coritiba")</f>
         <v>3</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="23">
         <v>2016</v>
       </c>
@@ -2368,28 +2352,28 @@
         <f>COUNTIF(E73:E86, "2016")</f>
         <v>14</v>
       </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="36"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1">
@@ -2407,10 +2391,10 @@
       <c r="H17" s="15">
         <v>0</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="43" t="s">
         <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2423,39 +2407,39 @@
         <f>COUNTIF(B4:B1006,"Figueirense")</f>
         <v>2</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="35">
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="34">
         <v>2017</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="49">
         <f>COUNTIF(E87:E124, "2017")</f>
         <v>38</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="1">
@@ -2473,10 +2457,10 @@
       <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2489,39 +2473,39 @@
         <f>COUNTIF(B4:B1009,"Madureira")</f>
         <v>2</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="41">
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="40">
         <v>2018</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="49">
         <f>COUNTIF(E125:E160, "2018")</f>
-        <v>1</v>
-      </c>
-      <c r="T18" s="42"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="T18" s="41"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <f t="shared" ref="A19:A24" si="2">SUM(A18+1)</f>
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -2539,10 +2523,10 @@
       <c r="H19" s="15">
         <v>1</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2555,34 +2539,34 @@
         <f>COUNTIF(B4:B1007,"Náutico")</f>
         <v>2</v>
       </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
+      <c r="A20" s="43">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="1">
@@ -2600,10 +2584,10 @@
       <c r="H20" s="15">
         <v>1</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2616,34 +2600,34 @@
         <f>COUNTIF(B4:B1004,"Santa Cruz")</f>
         <v>2</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="1">
@@ -2661,10 +2645,10 @@
       <c r="H21" s="15">
         <v>2</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2677,34 +2661,34 @@
         <f>COUNTIF(B4:B1008,"Vitória")</f>
         <v>3</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="43" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="1">
@@ -2722,10 +2706,10 @@
       <c r="H22" s="15">
         <v>3</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2738,34 +2722,34 @@
         <f>COUNTIF(B4:B1004,"Volta Redonda")</f>
         <v>2</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1">
@@ -2783,10 +2767,10 @@
       <c r="H23" s="15">
         <v>1</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2799,34 +2783,34 @@
         <f>COUNTIF(B4:B1017,"Goiás")</f>
         <v>2</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="1">
@@ -2844,10 +2828,10 @@
       <c r="H24" s="15">
         <v>2</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2860,34 +2844,34 @@
         <f>COUNTIF(B4:B1014,"Santos")</f>
         <v>3</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <f t="shared" ref="A25:A39" si="3">SUM(A24+1)</f>
         <v>23</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="1">
@@ -2905,10 +2889,10 @@
       <c r="H25" s="15">
         <v>1</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2921,34 +2905,34 @@
         <f>COUNTIF(B4:B996,"América-MG")</f>
         <v>1</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="38"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
+      <c r="A26" s="43">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="1">
@@ -2966,10 +2950,10 @@
       <c r="H26" s="15">
         <v>0</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2982,34 +2966,34 @@
         <f>COUNTIF(B4:B1023,"Americano")</f>
         <v>1</v>
       </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="37"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="45">
+      <c r="A27" s="43">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="1">
@@ -3027,10 +3011,10 @@
       <c r="H27" s="15">
         <v>1</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3043,34 +3027,34 @@
         <f>COUNTIF(B4:B1001,"Boa Esporte")</f>
         <v>1</v>
       </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+      <c r="A28" s="43">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1">
@@ -3088,10 +3072,10 @@
       <c r="H28" s="15">
         <v>1</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -3104,27 +3088,27 @@
         <f>COUNTIF(B4:B1006,"Bonsucesso")</f>
         <v>1</v>
       </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
+      <c r="A29" s="43">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -3165,34 +3149,34 @@
         <f>COUNTIF(B4:B1001,"Bragantino")</f>
         <v>1</v>
       </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
+      <c r="A30" s="43">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="1">
@@ -3210,10 +3194,10 @@
       <c r="H30" s="15">
         <v>1</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3226,34 +3210,34 @@
         <f>COUNTIF(B4:B1011,"Ceará")</f>
         <v>1</v>
       </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
+      <c r="A31" s="43">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1">
@@ -3271,10 +3255,10 @@
       <c r="H31" s="15">
         <v>0</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3287,34 +3271,34 @@
         <f>COUNTIF(B4:B993,"Colo-Colo")</f>
         <v>1</v>
       </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
+      <c r="A32" s="43">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1">
@@ -3332,10 +3316,10 @@
       <c r="H32" s="15">
         <v>1</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3348,34 +3332,34 @@
         <f>COUNTIF(B4:B998,"Corinthians")</f>
         <v>2</v>
       </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
+      <c r="A33" s="43">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1">
@@ -3393,10 +3377,10 @@
       <c r="H33" s="15">
         <v>1</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3409,34 +3393,34 @@
         <f>COUNTIF(B4:B1009,"CRB")</f>
         <v>1</v>
       </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
+      <c r="A34" s="43">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="1">
@@ -3454,10 +3438,10 @@
       <c r="H34" s="15">
         <v>2</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3470,34 +3454,34 @@
         <f>COUNTIF(B4:B1014,"Deportivo Quito")</f>
         <v>1</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="45">
+      <c r="A35" s="43">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="1">
@@ -3515,10 +3499,10 @@
       <c r="H35" s="15">
         <v>1</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -3531,34 +3515,34 @@
         <f>COUNTIF(B4:B1002,"Guarani")</f>
         <v>1</v>
       </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
+      <c r="A36" s="43">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="1">
@@ -3576,10 +3560,10 @@
       <c r="H36" s="15">
         <v>0</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -3592,34 +3576,34 @@
         <f>COUNTIF(B4:B1015,"Independiente Del Valle")</f>
         <v>1</v>
       </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="37"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="45">
+      <c r="A37" s="43">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="1">
@@ -3637,10 +3621,10 @@
       <c r="H37" s="15">
         <v>0</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3653,34 +3637,34 @@
         <f>COUNTIF(B4:B998,"Macaé")</f>
         <v>1</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="45">
+      <c r="A38" s="43">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="1">
@@ -3698,10 +3682,10 @@
       <c r="H38" s="15">
         <v>2</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3714,34 +3698,34 @@
         <f>COUNTIF(B4:B1013,"Mogi Mirim")</f>
         <v>1</v>
       </c>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="45">
+      <c r="A39" s="43">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D39" s="1">
@@ -3759,10 +3743,10 @@
       <c r="H39" s="15">
         <v>2</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -3775,34 +3759,34 @@
         <f>COUNTIF(B4:B999,"Olimpia")</f>
         <v>1</v>
       </c>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="45">
+      <c r="A40" s="43">
         <f t="shared" ref="A40:A109" si="4">SUM(A39+1)</f>
         <v>38</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1">
@@ -3820,10 +3804,10 @@
       <c r="H40" s="15">
         <v>0</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -3836,34 +3820,34 @@
         <f>COUNTIF(B4:B1013,"Paysandu")</f>
         <v>1</v>
       </c>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="45">
+      <c r="A41" s="43">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="1">
@@ -3881,10 +3865,10 @@
       <c r="H41" s="15">
         <v>2</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -3897,34 +3881,34 @@
         <f>COUNTIF(B4:B1009,"Ponte Preta")</f>
         <v>2</v>
       </c>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="45">
+      <c r="A42" s="43">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="1">
@@ -3942,10 +3926,10 @@
       <c r="H42" s="15">
         <v>1</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J42" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -3958,34 +3942,34 @@
         <f>COUNTIF(B4:B1012,"Portuguesa-RJ")</f>
         <v>2</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AC42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="43">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="1">
@@ -4003,10 +3987,10 @@
       <c r="H43" s="15">
         <v>1</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K43" s="7" t="s">
@@ -4019,34 +4003,34 @@
         <f>COUNTIF(B4:B1020,"Resende")</f>
         <v>1</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="45">
+      <c r="A44" s="43">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="1">
@@ -4064,7 +4048,7 @@
       <c r="H44" s="15">
         <v>0</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -4080,34 +4064,34 @@
         <f>COUNTIF(B4:B1008,"São Caetano")</f>
         <v>1</v>
       </c>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="45">
+      <c r="A45" s="43">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="1">
@@ -4125,10 +4109,10 @@
       <c r="H45" s="15">
         <v>1</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -4137,38 +4121,38 @@
       <c r="L45" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="50">
         <f>COUNTIF(B4:B1014,"São Paulo")</f>
         <v>2</v>
       </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="43">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="1">
@@ -4186,50 +4170,50 @@
       <c r="H46" s="15">
         <v>0</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L46" s="34" t="s">
+      <c r="L46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="50">
         <f>COUNTIF(B4:B1038,"Paraná")</f>
         <v>1</v>
       </c>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="36"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="45">
+      <c r="A47" s="43">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="1">
@@ -4247,50 +4231,50 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="37" t="s">
+      <c r="L47" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="50">
         <f>COUNTIF(B4:B1038,"Avaí")</f>
         <v>1</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="36"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="36"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="36"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="45">
+      <c r="A48" s="43">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D48" s="1">
@@ -4308,50 +4292,50 @@
       <c r="H48" s="15">
         <v>0</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="41" t="s">
+      <c r="L48" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="50">
         <f>COUNTIF(B4:B1001,"Nacional-URU")</f>
         <v>1</v>
       </c>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="36"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="44">
+      <c r="A49" s="42">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="1">
@@ -4369,50 +4353,50 @@
       <c r="H49" s="15">
         <v>1</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="41" t="s">
+      <c r="L49" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="M49" s="49">
+      <c r="M49" s="50">
         <f>COUNTIF(B5:B1002,"Atlético Goianiense")</f>
         <v>1</v>
       </c>
-      <c r="N49" s="42"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="37"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="36"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="45">
+      <c r="A50" s="43">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="1">
@@ -4430,50 +4414,50 @@
       <c r="H50" s="15">
         <v>0</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J50" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="41" t="s">
+      <c r="L50" s="65" t="s">
         <v>115</v>
       </c>
       <c r="M50" s="50">
         <f>COUNTIF(B6:B1003,"Cruzeiro")</f>
         <v>1</v>
       </c>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="37"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
-      <c r="AE50" s="36"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="35"/>
+      <c r="AD50" s="35"/>
+      <c r="AE50" s="35"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="45">
+      <c r="A51" s="43">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="1">
@@ -4491,43 +4475,43 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-      <c r="AC51" s="36"/>
-      <c r="AD51" s="36"/>
-      <c r="AE51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="35"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="45">
+      <c r="A52" s="43">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="18">
@@ -4545,45 +4529,45 @@
       <c r="H52" s="20">
         <v>3</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J52" s="42" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L52" s="37"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-      <c r="AC52" s="36"/>
-      <c r="AD52" s="36"/>
-      <c r="AE52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="36"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="45">
+      <c r="A53" s="43">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="1">
@@ -4601,45 +4585,45 @@
       <c r="H53" s="15">
         <v>1</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L53" s="37"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
-      <c r="AC53" s="36"/>
-      <c r="AD53" s="36"/>
-      <c r="AE53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="45">
+      <c r="A54" s="43">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D54" s="1">
@@ -4657,45 +4641,45 @@
       <c r="H54" s="15">
         <v>0</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="45" t="s">
+      <c r="J54" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
-      <c r="AC54" s="36"/>
-      <c r="AD54" s="36"/>
-      <c r="AE54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="35"/>
+      <c r="AD54" s="35"/>
+      <c r="AE54" s="35"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="45">
+      <c r="A55" s="43">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1">
@@ -4713,45 +4697,45 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L55" s="37"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="36"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+      <c r="A56" s="43">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="1">
@@ -4769,45 +4753,45 @@
       <c r="H56" s="15">
         <v>1</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="38"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-      <c r="AC56" s="36"/>
-      <c r="AD56" s="36"/>
-      <c r="AE56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="38"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="45">
+      <c r="A57" s="43">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="1">
@@ -4825,45 +4809,45 @@
       <c r="H57" s="15">
         <v>0</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J57" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L57" s="37"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="38"/>
-      <c r="Z57" s="37"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
-      <c r="AC57" s="36"/>
-      <c r="AD57" s="36"/>
-      <c r="AE57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="45">
+      <c r="A58" s="43">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="43" t="s">
         <v>76</v>
       </c>
       <c r="D58" s="1">
@@ -4881,45 +4865,45 @@
       <c r="H58" s="15">
         <v>3</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="45" t="s">
+      <c r="J58" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-      <c r="AC58" s="36"/>
-      <c r="AD58" s="36"/>
-      <c r="AE58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="36"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="45">
+      <c r="A59" s="43">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="1">
@@ -4937,45 +4921,45 @@
       <c r="H59" s="15">
         <v>0</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-      <c r="AC59" s="36"/>
-      <c r="AD59" s="36"/>
-      <c r="AE59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="36"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="45">
+      <c r="A60" s="43">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="1">
@@ -4993,45 +4977,45 @@
       <c r="H60" s="15">
         <v>1</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="36"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="45">
+      <c r="A61" s="43">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="1">
@@ -5049,45 +5033,45 @@
       <c r="H61" s="15">
         <v>1</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I61" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="45" t="s">
+      <c r="J61" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
-      <c r="AC61" s="36"/>
-      <c r="AD61" s="36"/>
-      <c r="AE61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="45">
+      <c r="A62" s="43">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="1">
@@ -5105,45 +5089,45 @@
       <c r="H62" s="15">
         <v>2</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I62" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="36"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="35"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="45">
+      <c r="A63" s="43">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="1">
@@ -5161,45 +5145,45 @@
       <c r="H63" s="15">
         <v>1</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="37"/>
-      <c r="AA63" s="36"/>
-      <c r="AB63" s="36"/>
-      <c r="AC63" s="36"/>
-      <c r="AD63" s="36"/>
-      <c r="AE63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="45">
+      <c r="A64" s="43">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="1">
@@ -5217,45 +5201,45 @@
       <c r="H64" s="15">
         <v>0</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J64" s="45" t="s">
+      <c r="J64" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="36"/>
-      <c r="AB64" s="36"/>
-      <c r="AC64" s="36"/>
-      <c r="AD64" s="36"/>
-      <c r="AE64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="38"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="45">
+      <c r="A65" s="43">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="43" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="1">
@@ -5273,45 +5257,45 @@
       <c r="H65" s="15">
         <v>0</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J65" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="39"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="36"/>
-      <c r="AB65" s="36"/>
-      <c r="AC65" s="36"/>
-      <c r="AD65" s="36"/>
-      <c r="AE65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="36"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="36"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="36"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="36"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="45">
+      <c r="A66" s="43">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="1">
@@ -5329,45 +5313,45 @@
       <c r="H66" s="15">
         <v>1</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J66" s="45" t="s">
+      <c r="J66" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="39"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="37"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="36"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="35"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="45">
+      <c r="A67" s="43">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="1">
@@ -5385,45 +5369,45 @@
       <c r="H67" s="15">
         <v>1</v>
       </c>
-      <c r="I67" s="45" t="s">
+      <c r="I67" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="45" t="s">
+      <c r="J67" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="39"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="37"/>
-      <c r="AA67" s="36"/>
-      <c r="AB67" s="36"/>
-      <c r="AC67" s="36"/>
-      <c r="AD67" s="36"/>
-      <c r="AE67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="36"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="45">
+      <c r="A68" s="43">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C68" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="1">
@@ -5441,45 +5425,45 @@
       <c r="H68" s="15">
         <v>0</v>
       </c>
-      <c r="I68" s="45" t="s">
+      <c r="I68" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J68" s="45" t="s">
+      <c r="J68" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="37"/>
-      <c r="AA68" s="36"/>
-      <c r="AB68" s="36"/>
-      <c r="AC68" s="36"/>
-      <c r="AD68" s="36"/>
-      <c r="AE68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="45">
+      <c r="A69" s="43">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="1">
@@ -5497,45 +5481,45 @@
       <c r="H69" s="15">
         <v>3</v>
       </c>
-      <c r="I69" s="45" t="s">
+      <c r="I69" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="45" t="s">
+      <c r="J69" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36"/>
+      <c r="P69" s="36"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="45">
+      <c r="A70" s="43">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="1">
@@ -5553,45 +5537,45 @@
       <c r="H70" s="15">
         <v>0</v>
       </c>
-      <c r="I70" s="45" t="s">
+      <c r="I70" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="45" t="s">
+      <c r="J70" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="37"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="36"/>
-      <c r="AE70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="P70" s="36"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="36"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="35"/>
+      <c r="AB70" s="35"/>
+      <c r="AC70" s="35"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="45">
+      <c r="A71" s="43">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="1">
@@ -5609,45 +5593,45 @@
       <c r="H71" s="15">
         <v>3</v>
       </c>
-      <c r="I71" s="45" t="s">
+      <c r="I71" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J71" s="45" t="s">
+      <c r="J71" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="36"/>
-      <c r="AB71" s="36"/>
-      <c r="AC71" s="36"/>
-      <c r="AD71" s="36"/>
-      <c r="AE71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="45">
+      <c r="A72" s="43">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="1">
@@ -5665,45 +5649,45 @@
       <c r="H72" s="15">
         <v>0</v>
       </c>
-      <c r="I72" s="45" t="s">
+      <c r="I72" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J72" s="45" t="s">
+      <c r="J72" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="37"/>
-      <c r="AA72" s="36"/>
-      <c r="AB72" s="36"/>
-      <c r="AC72" s="36"/>
-      <c r="AD72" s="36"/>
-      <c r="AE72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="45">
+      <c r="A73" s="43">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="1">
@@ -5721,45 +5705,45 @@
       <c r="H73" s="15">
         <v>1</v>
       </c>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="45" t="s">
+      <c r="J73" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="36"/>
-      <c r="AB73" s="36"/>
-      <c r="AC73" s="36"/>
-      <c r="AD73" s="36"/>
-      <c r="AE73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="45">
+      <c r="A74" s="43">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B74" s="45" t="s">
+      <c r="B74" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="45" t="s">
+      <c r="C74" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D74" s="1">
@@ -5777,45 +5761,45 @@
       <c r="H74" s="15">
         <v>0</v>
       </c>
-      <c r="I74" s="45" t="s">
+      <c r="I74" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="45" t="s">
+      <c r="J74" s="43" t="s">
         <v>36</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="38"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="36"/>
-      <c r="AB74" s="36"/>
-      <c r="AC74" s="36"/>
-      <c r="AD74" s="36"/>
-      <c r="AE74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="36"/>
+      <c r="AA74" s="35"/>
+      <c r="AB74" s="35"/>
+      <c r="AC74" s="35"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="45">
+      <c r="A75" s="43">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C75" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="1">
@@ -5833,45 +5817,45 @@
       <c r="H75" s="15">
         <v>1</v>
       </c>
-      <c r="I75" s="45" t="s">
+      <c r="I75" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="45" t="s">
+      <c r="J75" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="37"/>
-      <c r="AA75" s="36"/>
-      <c r="AB75" s="36"/>
-      <c r="AC75" s="36"/>
-      <c r="AD75" s="36"/>
-      <c r="AE75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="36"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="39"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="36"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="45">
+      <c r="A76" s="43">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="43" t="s">
         <v>75</v>
       </c>
       <c r="D76" s="1">
@@ -5889,45 +5873,45 @@
       <c r="H76" s="15">
         <v>1</v>
       </c>
-      <c r="I76" s="45" t="s">
+      <c r="I76" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J76" s="45" t="s">
+      <c r="J76" s="43" t="s">
         <v>23</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
-      <c r="Q76" s="37"/>
-      <c r="R76" s="37"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="37"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="37"/>
-      <c r="W76" s="39"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="37"/>
-      <c r="AA76" s="36"/>
-      <c r="AB76" s="36"/>
-      <c r="AC76" s="36"/>
-      <c r="AD76" s="36"/>
-      <c r="AE76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="36"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="45">
+      <c r="A77" s="43">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D77" s="1">
@@ -5945,7 +5929,7 @@
       <c r="H77" s="15">
         <v>1</v>
       </c>
-      <c r="I77" s="45" t="s">
+      <c r="I77" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -5954,36 +5938,36 @@
       <c r="K77" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="37"/>
-      <c r="R77" s="37"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="37"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="37"/>
-      <c r="W77" s="39"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="37"/>
-      <c r="AA77" s="36"/>
-      <c r="AB77" s="36"/>
-      <c r="AC77" s="36"/>
-      <c r="AD77" s="36"/>
-      <c r="AE77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="38"/>
+      <c r="X77" s="39"/>
+      <c r="Y77" s="37"/>
+      <c r="Z77" s="36"/>
+      <c r="AA77" s="35"/>
+      <c r="AB77" s="35"/>
+      <c r="AC77" s="35"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="45">
+      <c r="A78" s="43">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="45" t="s">
+      <c r="C78" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="1">
@@ -6001,45 +5985,45 @@
       <c r="H78" s="15">
         <v>1</v>
       </c>
-      <c r="I78" s="45" t="s">
+      <c r="I78" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="45" t="s">
+      <c r="J78" s="43" t="s">
         <v>80</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
-      <c r="Q78" s="37"/>
-      <c r="R78" s="37"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="37"/>
-      <c r="U78" s="38"/>
-      <c r="V78" s="37"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="37"/>
-      <c r="AA78" s="36"/>
-      <c r="AB78" s="36"/>
-      <c r="AC78" s="36"/>
-      <c r="AD78" s="36"/>
-      <c r="AE78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="37"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="35"/>
+      <c r="AB78" s="35"/>
+      <c r="AC78" s="35"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="35"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="45">
+      <c r="A79" s="43">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="C79" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="1">
@@ -6057,157 +6041,157 @@
       <c r="H79" s="15">
         <v>1</v>
       </c>
-      <c r="I79" s="45" t="s">
+      <c r="I79" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J79" s="45" t="s">
+      <c r="J79" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="37"/>
-      <c r="R79" s="37"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="37"/>
-      <c r="U79" s="38"/>
-      <c r="V79" s="37"/>
-      <c r="W79" s="39"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="38"/>
-      <c r="Z79" s="37"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
-      <c r="AC79" s="36"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="37"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="45">
+      <c r="A80" s="43">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="1">
         <v>42617</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E80" s="43">
         <v>2016</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="45">
+      <c r="G80" s="43">
         <v>2</v>
       </c>
       <c r="H80" s="15">
         <v>1</v>
       </c>
-      <c r="I80" s="45" t="s">
+      <c r="I80" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="45" t="s">
+      <c r="J80" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="38"/>
-      <c r="Z80" s="37"/>
-      <c r="AA80" s="36"/>
-      <c r="AB80" s="36"/>
-      <c r="AC80" s="36"/>
-      <c r="AD80" s="36"/>
-      <c r="AE80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36"/>
+      <c r="P80" s="36"/>
+      <c r="Q80" s="36"/>
+      <c r="R80" s="36"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="45">
+      <c r="A81" s="43">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="B81" s="45" t="s">
+      <c r="B81" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C81" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="1">
         <v>42620</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="43">
         <v>2016</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="45">
+      <c r="G81" s="43">
         <v>1</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
       </c>
-      <c r="I81" s="45" t="s">
+      <c r="I81" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J81" s="45" t="s">
+      <c r="J81" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="37"/>
-      <c r="R81" s="37"/>
-      <c r="S81" s="41"/>
-      <c r="T81" s="37"/>
-      <c r="U81" s="38"/>
-      <c r="V81" s="37"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="38"/>
-      <c r="Z81" s="37"/>
-      <c r="AA81" s="36"/>
-      <c r="AB81" s="36"/>
-      <c r="AC81" s="36"/>
-      <c r="AD81" s="36"/>
-      <c r="AE81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="38"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="36"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="45">
+      <c r="A82" s="43">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="45" t="s">
+      <c r="C82" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="1">
@@ -6216,54 +6200,54 @@
       <c r="E82" s="15">
         <v>2016</v>
       </c>
-      <c r="F82" s="45" t="s">
+      <c r="F82" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="45">
+      <c r="G82" s="43">
         <v>1</v>
       </c>
       <c r="H82" s="15">
         <v>0</v>
       </c>
-      <c r="I82" s="45" t="s">
+      <c r="I82" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="45" t="s">
+      <c r="J82" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
-      <c r="Q82" s="37"/>
-      <c r="R82" s="37"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="37"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="37"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="37"/>
-      <c r="AA82" s="36"/>
-      <c r="AB82" s="36"/>
-      <c r="AC82" s="36"/>
-      <c r="AD82" s="36"/>
-      <c r="AE82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="P82" s="36"/>
+      <c r="Q82" s="36"/>
+      <c r="R82" s="36"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="36"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="36"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="45">
+      <c r="A83" s="43">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="B83" s="45" t="s">
+      <c r="B83" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C83" s="43" t="s">
         <v>96</v>
       </c>
       <c r="D83" s="1">
@@ -6272,54 +6256,54 @@
       <c r="E83" s="15">
         <v>2016</v>
       </c>
-      <c r="F83" s="45" t="s">
+      <c r="F83" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="45">
+      <c r="G83" s="43">
         <v>3</v>
       </c>
       <c r="H83" s="15">
         <v>2</v>
       </c>
-      <c r="I83" s="45" t="s">
+      <c r="I83" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J83" s="45" t="s">
+      <c r="J83" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="37"/>
-      <c r="R83" s="37"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="37"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="37"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="37"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
-      <c r="AC83" s="36"/>
-      <c r="AD83" s="36"/>
-      <c r="AE83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="38"/>
+      <c r="X83" s="39"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="45">
+      <c r="A84" s="43">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="1">
@@ -6328,54 +6312,54 @@
       <c r="E84" s="15">
         <v>2016</v>
       </c>
-      <c r="F84" s="45" t="s">
+      <c r="F84" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="45">
+      <c r="G84" s="43">
         <v>0</v>
       </c>
       <c r="H84" s="15">
         <v>0</v>
       </c>
-      <c r="I84" s="45" t="s">
+      <c r="I84" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="45" t="s">
+      <c r="J84" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
-      <c r="Q84" s="37"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="37"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="40"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="37"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36"/>
-      <c r="AE84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="36"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="45">
+      <c r="A85" s="43">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D85" s="1">
@@ -6384,54 +6368,54 @@
       <c r="E85" s="15">
         <v>2016</v>
       </c>
-      <c r="F85" s="45" t="s">
+      <c r="F85" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G85" s="45">
+      <c r="G85" s="43">
         <v>0</v>
       </c>
       <c r="H85" s="15">
         <v>2</v>
       </c>
-      <c r="I85" s="45" t="s">
+      <c r="I85" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="45" t="s">
+      <c r="J85" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="37"/>
-      <c r="R85" s="37"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="38"/>
-      <c r="V85" s="37"/>
-      <c r="W85" s="39"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="38"/>
-      <c r="Z85" s="37"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
-      <c r="AC85" s="36"/>
-      <c r="AD85" s="36"/>
-      <c r="AE85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36"/>
+      <c r="P85" s="36"/>
+      <c r="Q85" s="36"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="36"/>
+      <c r="W85" s="38"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="36"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="45">
+      <c r="A86" s="43">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="C86" s="43" t="s">
         <v>75</v>
       </c>
       <c r="D86" s="1">
@@ -6440,47 +6424,47 @@
       <c r="E86" s="15">
         <v>2016</v>
       </c>
-      <c r="F86" s="45" t="s">
+      <c r="F86" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="45">
+      <c r="G86" s="43">
         <v>1</v>
       </c>
       <c r="H86" s="15">
         <v>1</v>
       </c>
-      <c r="I86" s="45" t="s">
+      <c r="I86" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J86" s="45" t="s">
+      <c r="J86" s="43" t="s">
         <v>95</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
-      <c r="Q86" s="37"/>
-      <c r="R86" s="37"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="38"/>
-      <c r="V86" s="37"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="38"/>
-      <c r="Z86" s="37"/>
-      <c r="AA86" s="36"/>
-      <c r="AB86" s="36"/>
-      <c r="AC86" s="36"/>
-      <c r="AD86" s="36"/>
-      <c r="AE86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="38"/>
+      <c r="X86" s="39"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="45">
+      <c r="A87" s="43">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
@@ -6496,54 +6480,54 @@
       <c r="E87" s="26">
         <v>2017</v>
       </c>
-      <c r="F87" s="45" t="s">
+      <c r="F87" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="45">
+      <c r="G87" s="43">
         <v>1</v>
       </c>
       <c r="H87" s="15">
         <v>1</v>
       </c>
-      <c r="I87" s="45" t="s">
+      <c r="I87" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J87" s="45" t="s">
+      <c r="J87" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="37"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
-      <c r="Q87" s="37"/>
-      <c r="R87" s="37"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="37"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="37"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
-      <c r="AC87" s="36"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="38"/>
+      <c r="X87" s="39"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="45">
+      <c r="A88" s="43">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1">
@@ -6552,166 +6536,166 @@
       <c r="E88" s="15">
         <v>2017</v>
       </c>
-      <c r="F88" s="45" t="s">
+      <c r="F88" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="45">
+      <c r="G88" s="43">
         <v>2</v>
       </c>
       <c r="H88" s="15">
         <v>1</v>
       </c>
-      <c r="I88" s="45" t="s">
+      <c r="I88" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J88" s="45" t="s">
+      <c r="J88" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="38"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="39"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="38"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="36"/>
-      <c r="AC88" s="36"/>
-      <c r="AD88" s="36"/>
-      <c r="AE88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="36"/>
+      <c r="W88" s="38"/>
+      <c r="X88" s="39"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="35"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="44">
+      <c r="A89" s="42">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="1">
         <v>42770</v>
       </c>
-      <c r="E89" s="45">
+      <c r="E89" s="43">
         <v>2017</v>
       </c>
-      <c r="F89" s="45" t="s">
+      <c r="F89" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="45">
+      <c r="G89" s="43">
         <v>2</v>
       </c>
-      <c r="H89" s="45">
-        <v>1</v>
-      </c>
-      <c r="I89" s="45" t="s">
+      <c r="H89" s="43">
+        <v>1</v>
+      </c>
+      <c r="I89" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J89" s="45" t="s">
+      <c r="J89" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="38"/>
-      <c r="V89" s="37"/>
-      <c r="W89" s="39"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="38"/>
-      <c r="Z89" s="37"/>
-      <c r="AA89" s="36"/>
-      <c r="AB89" s="36"/>
-      <c r="AC89" s="36"/>
-      <c r="AD89" s="36"/>
-      <c r="AE89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36"/>
+      <c r="P89" s="36"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="36"/>
+      <c r="W89" s="38"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="45">
+      <c r="A90" s="43">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="18">
         <v>42781</v>
       </c>
-      <c r="E90" s="44">
+      <c r="E90" s="42">
         <v>2017</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="44">
-        <v>1</v>
-      </c>
-      <c r="H90" s="44">
-        <v>0</v>
-      </c>
-      <c r="I90" s="44" t="s">
+      <c r="G90" s="42">
+        <v>1</v>
+      </c>
+      <c r="H90" s="42">
+        <v>0</v>
+      </c>
+      <c r="I90" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J90" s="44" t="s">
+      <c r="J90" s="42" t="s">
         <v>1</v>
       </c>
       <c r="K90" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
-      <c r="Q90" s="37"/>
-      <c r="R90" s="37"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="37"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="37"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="37"/>
-      <c r="AA90" s="36"/>
-      <c r="AB90" s="36"/>
-      <c r="AC90" s="36"/>
-      <c r="AD90" s="36"/>
-      <c r="AE90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="36"/>
+      <c r="W90" s="38"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="45">
+      <c r="A91" s="43">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="45" t="s">
+      <c r="C91" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="1">
@@ -6720,54 +6704,54 @@
       <c r="E91" s="15">
         <v>2017</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="F91" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G91" s="45">
+      <c r="G91" s="43">
         <v>1</v>
       </c>
       <c r="H91" s="15">
         <v>0</v>
       </c>
-      <c r="I91" s="45" t="s">
+      <c r="I91" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="45" t="s">
+      <c r="J91" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="37"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="37"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="37"/>
-      <c r="AA91" s="36"/>
-      <c r="AB91" s="36"/>
-      <c r="AC91" s="36"/>
-      <c r="AD91" s="36"/>
-      <c r="AE91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="38"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="45">
+      <c r="A92" s="43">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="45" t="s">
+      <c r="C92" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="1">
@@ -6776,54 +6760,54 @@
       <c r="E92" s="15">
         <v>2017</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G92" s="45">
+      <c r="G92" s="43">
         <v>0</v>
       </c>
       <c r="H92" s="15">
         <v>0</v>
       </c>
-      <c r="I92" s="45" t="s">
+      <c r="I92" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="45" t="s">
+      <c r="J92" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L92" s="37"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="37"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
-      <c r="Q92" s="37"/>
-      <c r="R92" s="37"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="37"/>
-      <c r="U92" s="38"/>
-      <c r="V92" s="37"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="38"/>
-      <c r="Z92" s="37"/>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="36"/>
-      <c r="AE92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="40"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="39"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="45">
+      <c r="A93" s="43">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="45" t="s">
+      <c r="C93" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1">
@@ -6832,54 +6816,54 @@
       <c r="E93" s="15">
         <v>2017</v>
       </c>
-      <c r="F93" s="45" t="s">
+      <c r="F93" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G93" s="45">
+      <c r="G93" s="43">
         <v>2</v>
       </c>
       <c r="H93" s="15">
         <v>3</v>
       </c>
-      <c r="I93" s="45" t="s">
+      <c r="I93" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="45" t="s">
+      <c r="J93" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="38"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="39"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="38"/>
-      <c r="Z93" s="37"/>
-      <c r="AA93" s="36"/>
-      <c r="AB93" s="36"/>
-      <c r="AC93" s="36"/>
-      <c r="AD93" s="36"/>
-      <c r="AE93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="40"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="36"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="39"/>
+      <c r="Y93" s="37"/>
+      <c r="Z93" s="36"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="45">
+      <c r="A94" s="43">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="45" t="s">
+      <c r="C94" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D94" s="1">
@@ -6888,54 +6872,54 @@
       <c r="E94" s="15">
         <v>2017</v>
       </c>
-      <c r="F94" s="45" t="s">
+      <c r="F94" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G94" s="45">
+      <c r="G94" s="43">
         <v>3</v>
       </c>
       <c r="H94" s="15">
         <v>1</v>
       </c>
-      <c r="I94" s="45" t="s">
+      <c r="I94" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J94" s="45" t="s">
+      <c r="J94" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L94" s="37"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="37"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="37"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="37"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="37"/>
-      <c r="AA94" s="36"/>
-      <c r="AB94" s="36"/>
-      <c r="AC94" s="36"/>
-      <c r="AD94" s="36"/>
-      <c r="AE94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="40"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="36"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="45">
+      <c r="A95" s="43">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B95" s="45" t="s">
+      <c r="B95" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="45" t="s">
+      <c r="C95" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D95" s="1">
@@ -6944,54 +6928,54 @@
       <c r="E95" s="15">
         <v>2017</v>
       </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G95" s="45">
+      <c r="G95" s="43">
         <v>0</v>
       </c>
       <c r="H95" s="15">
         <v>2</v>
       </c>
-      <c r="I95" s="45" t="s">
+      <c r="I95" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J95" s="45" t="s">
+      <c r="J95" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="37"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
-      <c r="Q95" s="37"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="37"/>
-      <c r="U95" s="38"/>
-      <c r="V95" s="37"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="38"/>
-      <c r="Z95" s="37"/>
-      <c r="AA95" s="36"/>
-      <c r="AB95" s="36"/>
-      <c r="AC95" s="36"/>
-      <c r="AD95" s="36"/>
-      <c r="AE95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="40"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="35"/>
+      <c r="AB95" s="35"/>
+      <c r="AC95" s="35"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="35"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="45">
+      <c r="A96" s="43">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="43" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="1">
@@ -7000,54 +6984,54 @@
       <c r="E96" s="15">
         <v>2017</v>
       </c>
-      <c r="F96" s="45" t="s">
+      <c r="F96" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G96" s="45">
+      <c r="G96" s="43">
         <v>2</v>
       </c>
       <c r="H96" s="15">
         <v>1</v>
       </c>
-      <c r="I96" s="45" t="s">
+      <c r="I96" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="45" t="s">
+      <c r="J96" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L96" s="37"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="37"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="37"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="37"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="38"/>
-      <c r="Z96" s="37"/>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="36"/>
-      <c r="AE96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="36"/>
+      <c r="W96" s="38"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="35"/>
+      <c r="AB96" s="35"/>
+      <c r="AC96" s="35"/>
+      <c r="AD96" s="35"/>
+      <c r="AE96" s="35"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="45">
+      <c r="A97" s="43">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="45" t="s">
+      <c r="C97" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="1">
@@ -7056,54 +7040,54 @@
       <c r="E97" s="15">
         <v>2017</v>
       </c>
-      <c r="F97" s="45" t="s">
+      <c r="F97" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G97" s="45">
+      <c r="G97" s="43">
         <v>0</v>
       </c>
       <c r="H97" s="15">
         <v>2</v>
       </c>
-      <c r="I97" s="45" t="s">
+      <c r="I97" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J97" s="45" t="s">
+      <c r="J97" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="37"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
-      <c r="Q97" s="37"/>
-      <c r="R97" s="37"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="37"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="37"/>
-      <c r="W97" s="39"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="38"/>
-      <c r="Z97" s="37"/>
-      <c r="AA97" s="36"/>
-      <c r="AB97" s="36"/>
-      <c r="AC97" s="36"/>
-      <c r="AD97" s="36"/>
-      <c r="AE97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="36"/>
+      <c r="Q97" s="36"/>
+      <c r="R97" s="36"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="36"/>
+      <c r="W97" s="38"/>
+      <c r="X97" s="39"/>
+      <c r="Y97" s="37"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="35"/>
+      <c r="AB97" s="35"/>
+      <c r="AC97" s="35"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="45">
+      <c r="A98" s="43">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B98" s="45" t="s">
+      <c r="B98" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="45" t="s">
+      <c r="C98" s="43" t="s">
         <v>110</v>
       </c>
       <c r="D98" s="1">
@@ -7112,54 +7096,54 @@
       <c r="E98" s="15">
         <v>2017</v>
       </c>
-      <c r="F98" s="45" t="s">
+      <c r="F98" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="45">
+      <c r="G98" s="43">
         <v>1</v>
       </c>
       <c r="H98" s="15">
         <v>0</v>
       </c>
-      <c r="I98" s="45" t="s">
+      <c r="I98" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J98" s="45" t="s">
+      <c r="J98" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
-      <c r="Z98" s="37"/>
-      <c r="AA98" s="36"/>
-      <c r="AB98" s="36"/>
-      <c r="AC98" s="36"/>
-      <c r="AD98" s="36"/>
-      <c r="AE98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="40"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="35"/>
+      <c r="AB98" s="35"/>
+      <c r="AC98" s="35"/>
+      <c r="AD98" s="35"/>
+      <c r="AE98" s="35"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="45">
+      <c r="A99" s="43">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="45" t="s">
+      <c r="C99" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="1">
@@ -7168,54 +7152,54 @@
       <c r="E99" s="15">
         <v>2017</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="45">
+      <c r="G99" s="43">
         <v>2</v>
       </c>
       <c r="H99" s="15">
         <v>0</v>
       </c>
-      <c r="I99" s="45" t="s">
+      <c r="I99" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="45" t="s">
+      <c r="J99" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="37"/>
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="37"/>
-      <c r="Y99" s="37"/>
-      <c r="Z99" s="37"/>
-      <c r="AA99" s="36"/>
-      <c r="AB99" s="36"/>
-      <c r="AC99" s="36"/>
-      <c r="AD99" s="36"/>
-      <c r="AE99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="40"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="35"/>
+      <c r="AB99" s="35"/>
+      <c r="AC99" s="35"/>
+      <c r="AD99" s="35"/>
+      <c r="AE99" s="35"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="44">
+      <c r="A100" s="42">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B100" s="45" t="s">
+      <c r="B100" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="43" t="s">
         <v>110</v>
       </c>
       <c r="D100" s="1">
@@ -7224,54 +7208,54 @@
       <c r="E100" s="15">
         <v>2017</v>
       </c>
-      <c r="F100" s="45" t="s">
+      <c r="F100" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G100" s="45">
+      <c r="G100" s="43">
         <v>1</v>
       </c>
       <c r="H100" s="15">
         <v>0</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="I100" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J100" s="45" t="s">
+      <c r="J100" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L100" s="37"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="37"/>
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="37"/>
-      <c r="Y100" s="37"/>
-      <c r="Z100" s="37"/>
-      <c r="AA100" s="36"/>
-      <c r="AB100" s="36"/>
-      <c r="AC100" s="36"/>
-      <c r="AD100" s="36"/>
-      <c r="AE100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="40"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="35"/>
+      <c r="AB100" s="35"/>
+      <c r="AC100" s="35"/>
+      <c r="AD100" s="35"/>
+      <c r="AE100" s="35"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="45">
+      <c r="A101" s="43">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="44" t="s">
+      <c r="C101" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D101" s="18">
@@ -7280,54 +7264,54 @@
       <c r="E101" s="20">
         <v>2017</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G101" s="44">
+      <c r="G101" s="42">
         <v>2</v>
       </c>
       <c r="H101" s="20">
         <v>2</v>
       </c>
-      <c r="I101" s="44" t="s">
+      <c r="I101" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="44" t="s">
+      <c r="J101" s="42" t="s">
         <v>1</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="37"/>
-      <c r="R101" s="37"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="37"/>
-      <c r="W101" s="37"/>
-      <c r="X101" s="37"/>
-      <c r="Y101" s="37"/>
-      <c r="Z101" s="37"/>
-      <c r="AA101" s="36"/>
-      <c r="AB101" s="36"/>
-      <c r="AC101" s="36"/>
-      <c r="AD101" s="36"/>
-      <c r="AE101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="35"/>
+      <c r="AB101" s="35"/>
+      <c r="AC101" s="35"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="45">
+      <c r="A102" s="43">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="C102" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D102" s="1">
@@ -7336,49 +7320,49 @@
       <c r="E102" s="15">
         <v>2017</v>
       </c>
-      <c r="F102" s="45" t="s">
+      <c r="F102" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G102" s="45">
+      <c r="G102" s="43">
         <v>3</v>
       </c>
       <c r="H102" s="15">
         <v>1</v>
       </c>
-      <c r="I102" s="45" t="s">
+      <c r="I102" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K102" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="36"/>
-      <c r="V102" s="36"/>
-      <c r="W102" s="36"/>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="36"/>
-      <c r="Z102" s="36"/>
+      <c r="J102" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="35"/>
+      <c r="W102" s="35"/>
+      <c r="X102" s="35"/>
+      <c r="Y102" s="35"/>
+      <c r="Z102" s="35"/>
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A103" s="44">
+      <c r="A103" s="42">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="45" t="s">
+      <c r="C103" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D103" s="1">
@@ -7387,42 +7371,42 @@
       <c r="E103" s="15">
         <v>2017</v>
       </c>
-      <c r="F103" s="45" t="s">
+      <c r="F103" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G103" s="45">
+      <c r="G103" s="43">
         <v>0</v>
       </c>
       <c r="H103" s="15">
         <v>2</v>
       </c>
-      <c r="I103" s="45" t="s">
+      <c r="I103" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J103" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K103" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="36"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
+      <c r="J103" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="35"/>
+      <c r="W103" s="35"/>
+      <c r="X103" s="35"/>
+      <c r="Y103" s="35"/>
+      <c r="Z103" s="35"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="44">
+      <c r="A104" s="42">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
@@ -7456,31 +7440,31 @@
       <c r="K104" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="36"/>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="35"/>
+      <c r="U104" s="35"/>
+      <c r="V104" s="35"/>
+      <c r="W104" s="35"/>
+      <c r="X104" s="35"/>
+      <c r="Y104" s="35"/>
+      <c r="Z104" s="35"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="45">
+      <c r="A105" s="43">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="44" t="s">
+      <c r="C105" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="18">
@@ -7489,49 +7473,49 @@
       <c r="E105" s="20">
         <v>2017</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="44">
+      <c r="G105" s="42">
         <v>1</v>
       </c>
       <c r="H105" s="20">
         <v>0</v>
       </c>
-      <c r="I105" s="44" t="s">
+      <c r="I105" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="44" t="s">
+      <c r="J105" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K105" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="36"/>
-      <c r="T105" s="36"/>
-      <c r="U105" s="36"/>
-      <c r="V105" s="36"/>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
+      <c r="K105" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="35"/>
+      <c r="U105" s="35"/>
+      <c r="V105" s="35"/>
+      <c r="W105" s="35"/>
+      <c r="X105" s="35"/>
+      <c r="Y105" s="35"/>
+      <c r="Z105" s="35"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="44">
+      <c r="A106" s="42">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B106" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="45" t="s">
+      <c r="C106" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="1">
@@ -7540,49 +7524,49 @@
       <c r="E106" s="15">
         <v>2017</v>
       </c>
-      <c r="F106" s="45" t="s">
+      <c r="F106" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="45">
+      <c r="G106" s="43">
         <v>2</v>
       </c>
       <c r="H106" s="15">
         <v>1</v>
       </c>
-      <c r="I106" s="45" t="s">
+      <c r="I106" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J106" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K106" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
-      <c r="V106" s="36"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
+      <c r="J106" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
+      <c r="N106" s="35"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="35"/>
+      <c r="R106" s="35"/>
+      <c r="S106" s="35"/>
+      <c r="T106" s="35"/>
+      <c r="U106" s="35"/>
+      <c r="V106" s="35"/>
+      <c r="W106" s="35"/>
+      <c r="X106" s="35"/>
+      <c r="Y106" s="35"/>
+      <c r="Z106" s="35"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="45">
+      <c r="A107" s="43">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="42" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="18">
@@ -7591,49 +7575,49 @@
       <c r="E107" s="20">
         <v>2017</v>
       </c>
-      <c r="F107" s="44" t="s">
+      <c r="F107" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G107" s="44">
+      <c r="G107" s="42">
         <v>3</v>
       </c>
       <c r="H107" s="20">
         <v>0</v>
       </c>
-      <c r="I107" s="44" t="s">
+      <c r="I107" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K107" s="44" t="s">
+      <c r="J107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L107" s="36"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="36"/>
-      <c r="P107" s="36"/>
-      <c r="Q107" s="36"/>
-      <c r="R107" s="36"/>
-      <c r="S107" s="36"/>
-      <c r="T107" s="36"/>
-      <c r="U107" s="36"/>
-      <c r="V107" s="36"/>
-      <c r="W107" s="36"/>
-      <c r="X107" s="36"/>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
+      <c r="N107" s="35"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
+      <c r="Q107" s="35"/>
+      <c r="R107" s="35"/>
+      <c r="S107" s="35"/>
+      <c r="T107" s="35"/>
+      <c r="U107" s="35"/>
+      <c r="V107" s="35"/>
+      <c r="W107" s="35"/>
+      <c r="X107" s="35"/>
+      <c r="Y107" s="35"/>
+      <c r="Z107" s="35"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="44">
+      <c r="A108" s="42">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="45" t="s">
+      <c r="C108" s="43" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="1">
@@ -7642,49 +7626,49 @@
       <c r="E108" s="15">
         <v>2017</v>
       </c>
-      <c r="F108" s="45" t="s">
+      <c r="F108" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G108" s="45">
+      <c r="G108" s="43">
         <v>3</v>
       </c>
       <c r="H108" s="15">
         <v>4</v>
       </c>
-      <c r="I108" s="45" t="s">
+      <c r="I108" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J108" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L108" s="36"/>
-      <c r="M108" s="36"/>
-      <c r="N108" s="36"/>
-      <c r="O108" s="36"/>
-      <c r="P108" s="36"/>
-      <c r="Q108" s="36"/>
-      <c r="R108" s="36"/>
-      <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
-      <c r="U108" s="36"/>
-      <c r="V108" s="36"/>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36"/>
+      <c r="J108" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
+      <c r="N108" s="35"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="35"/>
+      <c r="W108" s="35"/>
+      <c r="X108" s="35"/>
+      <c r="Y108" s="35"/>
+      <c r="Z108" s="35"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="45">
+      <c r="A109" s="43">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="C109" s="42" t="s">
         <v>105</v>
       </c>
       <c r="D109" s="18">
@@ -7693,49 +7677,49 @@
       <c r="E109" s="20">
         <v>2017</v>
       </c>
-      <c r="F109" s="44" t="s">
+      <c r="F109" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G109" s="44">
+      <c r="G109" s="42">
         <v>1</v>
       </c>
       <c r="H109" s="20">
         <v>2</v>
       </c>
-      <c r="I109" s="44" t="s">
+      <c r="I109" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J109" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K109" s="44" t="s">
+      <c r="J109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L109" s="36"/>
-      <c r="M109" s="36"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="36"/>
-      <c r="P109" s="36"/>
-      <c r="Q109" s="36"/>
-      <c r="R109" s="36"/>
-      <c r="S109" s="36"/>
-      <c r="T109" s="36"/>
-      <c r="U109" s="36"/>
-      <c r="V109" s="36"/>
-      <c r="W109" s="36"/>
-      <c r="X109" s="36"/>
-      <c r="Y109" s="36"/>
-      <c r="Z109" s="36"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
+      <c r="N109" s="35"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="35"/>
+      <c r="W109" s="35"/>
+      <c r="X109" s="35"/>
+      <c r="Y109" s="35"/>
+      <c r="Z109" s="35"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="45">
-        <f t="shared" ref="A110:A125" si="5">SUM(A109+1)</f>
+      <c r="A110" s="43">
+        <f t="shared" ref="A110:A126" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="45" t="s">
+      <c r="C110" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="1">
@@ -7744,49 +7728,49 @@
       <c r="E110" s="15">
         <v>2017</v>
       </c>
-      <c r="F110" s="45" t="s">
+      <c r="F110" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="45">
+      <c r="G110" s="43">
         <v>2</v>
       </c>
       <c r="H110" s="15">
         <v>0</v>
       </c>
-      <c r="I110" s="45" t="s">
+      <c r="I110" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J110" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K110" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="36"/>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="36"/>
+      <c r="J110" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
+      <c r="N110" s="35"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="35"/>
+      <c r="W110" s="35"/>
+      <c r="X110" s="35"/>
+      <c r="Y110" s="35"/>
+      <c r="Z110" s="35"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="45">
+      <c r="A111" s="43">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C111" s="45" t="s">
+      <c r="C111" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="1">
@@ -7795,49 +7779,49 @@
       <c r="E111" s="15">
         <v>2017</v>
       </c>
-      <c r="F111" s="45" t="s">
+      <c r="F111" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G111" s="45">
+      <c r="G111" s="43">
         <v>1</v>
       </c>
       <c r="H111" s="15">
         <v>0</v>
       </c>
-      <c r="I111" s="45" t="s">
+      <c r="I111" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J111" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K111" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36"/>
-      <c r="Q111" s="36"/>
-      <c r="R111" s="36"/>
-      <c r="S111" s="36"/>
-      <c r="T111" s="36"/>
-      <c r="U111" s="36"/>
-      <c r="V111" s="36"/>
-      <c r="W111" s="36"/>
-      <c r="X111" s="36"/>
-      <c r="Y111" s="36"/>
-      <c r="Z111" s="36"/>
+      <c r="J111" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
+      <c r="N111" s="35"/>
+      <c r="O111" s="35"/>
+      <c r="P111" s="35"/>
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="35"/>
+      <c r="W111" s="35"/>
+      <c r="X111" s="35"/>
+      <c r="Y111" s="35"/>
+      <c r="Z111" s="35"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="44">
+      <c r="A112" s="42">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="45" t="s">
+      <c r="C112" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="1">
@@ -7846,49 +7830,49 @@
       <c r="E112" s="15">
         <v>2017</v>
       </c>
-      <c r="F112" s="45" t="s">
+      <c r="F112" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G112" s="45">
+      <c r="G112" s="43">
         <v>0</v>
       </c>
       <c r="H112" s="15">
         <v>0</v>
       </c>
-      <c r="I112" s="45" t="s">
+      <c r="I112" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K112" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-      <c r="P112" s="36"/>
-      <c r="Q112" s="36"/>
-      <c r="R112" s="36"/>
-      <c r="S112" s="36"/>
-      <c r="T112" s="36"/>
-      <c r="U112" s="36"/>
-      <c r="V112" s="36"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="36"/>
-      <c r="Y112" s="36"/>
-      <c r="Z112" s="36"/>
+      <c r="J112" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
+      <c r="N112" s="35"/>
+      <c r="O112" s="35"/>
+      <c r="P112" s="35"/>
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="35"/>
+      <c r="W112" s="35"/>
+      <c r="X112" s="35"/>
+      <c r="Y112" s="35"/>
+      <c r="Z112" s="35"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" s="45">
+      <c r="A113" s="43">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="44" t="s">
+      <c r="C113" s="42" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="18">
@@ -7897,49 +7881,49 @@
       <c r="E113" s="20">
         <v>2017</v>
       </c>
-      <c r="F113" s="44" t="s">
+      <c r="F113" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="G113" s="44">
+      <c r="G113" s="42">
         <v>0</v>
       </c>
       <c r="H113" s="20">
         <v>1</v>
       </c>
-      <c r="I113" s="44" t="s">
+      <c r="I113" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="44" t="s">
+      <c r="J113" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K113" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="36"/>
-      <c r="T113" s="36"/>
-      <c r="U113" s="36"/>
-      <c r="V113" s="36"/>
-      <c r="W113" s="36"/>
-      <c r="X113" s="36"/>
-      <c r="Y113" s="36"/>
-      <c r="Z113" s="36"/>
+      <c r="K113" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="35"/>
+      <c r="O113" s="35"/>
+      <c r="P113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="35"/>
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+      <c r="Y113" s="35"/>
+      <c r="Z113" s="35"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="45">
+      <c r="A114" s="43">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="45" t="s">
+      <c r="C114" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="1">
@@ -7948,49 +7932,49 @@
       <c r="E114" s="15">
         <v>2017</v>
       </c>
-      <c r="F114" s="45" t="s">
+      <c r="F114" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="45">
+      <c r="G114" s="43">
         <v>2</v>
       </c>
       <c r="H114" s="15">
         <v>0</v>
       </c>
-      <c r="I114" s="45" t="s">
+      <c r="I114" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K114" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="36"/>
-      <c r="T114" s="36"/>
-      <c r="U114" s="36"/>
-      <c r="V114" s="36"/>
-      <c r="W114" s="36"/>
-      <c r="X114" s="36"/>
-      <c r="Y114" s="36"/>
-      <c r="Z114" s="36"/>
+      <c r="J114" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L114" s="35"/>
+      <c r="M114" s="35"/>
+      <c r="N114" s="35"/>
+      <c r="O114" s="35"/>
+      <c r="P114" s="35"/>
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="35"/>
+      <c r="W114" s="35"/>
+      <c r="X114" s="35"/>
+      <c r="Y114" s="35"/>
+      <c r="Z114" s="35"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" s="46">
+      <c r="A115" s="44">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C115" s="45" t="s">
+      <c r="C115" s="43" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="1">
@@ -7999,49 +7983,49 @@
       <c r="E115" s="15">
         <v>2017</v>
       </c>
-      <c r="F115" s="45" t="s">
+      <c r="F115" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="G115" s="45">
+      <c r="G115" s="43">
         <v>0</v>
       </c>
       <c r="H115" s="15">
         <v>0</v>
       </c>
-      <c r="I115" s="45" t="s">
+      <c r="I115" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K115" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="L115" s="36"/>
-      <c r="M115" s="36"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="36"/>
-      <c r="P115" s="36"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="36"/>
-      <c r="S115" s="36"/>
-      <c r="T115" s="36"/>
-      <c r="U115" s="36"/>
-      <c r="V115" s="36"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
+      <c r="J115" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
+      <c r="N115" s="35"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="35"/>
+      <c r="W115" s="35"/>
+      <c r="X115" s="35"/>
+      <c r="Y115" s="35"/>
+      <c r="Z115" s="35"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" s="46">
+      <c r="A116" s="44">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="C116" s="44" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="1">
@@ -8050,518 +8034,549 @@
       <c r="E116" s="15">
         <v>2017</v>
       </c>
-      <c r="F116" s="46" t="s">
+      <c r="F116" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G116" s="46">
+      <c r="G116" s="44">
         <v>2</v>
       </c>
       <c r="H116" s="15">
         <v>0</v>
       </c>
-      <c r="I116" s="46" t="s">
+      <c r="I116" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K116" s="46" t="s">
+      <c r="J116" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="36"/>
-      <c r="S116" s="36"/>
-      <c r="T116" s="36"/>
-      <c r="U116" s="36"/>
-      <c r="V116" s="36"/>
-      <c r="W116" s="36"/>
-      <c r="X116" s="36"/>
-      <c r="Y116" s="36"/>
-      <c r="Z116" s="36"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="35"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
+      <c r="Q116" s="35"/>
+      <c r="R116" s="35"/>
+      <c r="S116" s="35"/>
+      <c r="T116" s="35"/>
+      <c r="U116" s="35"/>
+      <c r="V116" s="35"/>
+      <c r="W116" s="35"/>
+      <c r="X116" s="35"/>
+      <c r="Y116" s="35"/>
+      <c r="Z116" s="35"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="46">
+      <c r="A117" s="44">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="46" t="s">
+      <c r="C117" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="1">
         <v>43009</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="44">
         <v>2017</v>
       </c>
-      <c r="F117" s="46" t="s">
+      <c r="F117" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G117" s="46">
+      <c r="G117" s="44">
         <v>2</v>
       </c>
-      <c r="H117" s="46">
+      <c r="H117" s="44">
         <v>3</v>
       </c>
-      <c r="I117" s="46" t="s">
+      <c r="I117" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J117" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K117" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="36"/>
-      <c r="Q117" s="36"/>
-      <c r="R117" s="36"/>
-      <c r="S117" s="36"/>
-      <c r="T117" s="36"/>
-      <c r="U117" s="36"/>
-      <c r="V117" s="36"/>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
+      <c r="J117" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+      <c r="N117" s="35"/>
+      <c r="O117" s="35"/>
+      <c r="P117" s="35"/>
+      <c r="Q117" s="35"/>
+      <c r="R117" s="35"/>
+      <c r="S117" s="35"/>
+      <c r="T117" s="35"/>
+      <c r="U117" s="35"/>
+      <c r="V117" s="35"/>
+      <c r="W117" s="35"/>
+      <c r="X117" s="35"/>
+      <c r="Y117" s="35"/>
+      <c r="Z117" s="35"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" s="46">
+      <c r="A118" s="44">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C118" s="46" t="s">
+      <c r="C118" s="44" t="s">
         <v>107</v>
       </c>
       <c r="D118" s="1">
         <v>43019</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="44">
         <v>2017</v>
       </c>
-      <c r="F118" s="46" t="s">
+      <c r="F118" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G118" s="46">
+      <c r="G118" s="44">
         <v>2</v>
       </c>
-      <c r="H118" s="46">
-        <v>1</v>
-      </c>
-      <c r="I118" s="46" t="s">
+      <c r="H118" s="44">
+        <v>1</v>
+      </c>
+      <c r="I118" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K118" s="46" t="s">
+      <c r="J118" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K118" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="36"/>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
+      <c r="N118" s="35"/>
+      <c r="O118" s="35"/>
+      <c r="P118" s="35"/>
+      <c r="Q118" s="35"/>
+      <c r="R118" s="35"/>
+      <c r="S118" s="35"/>
+      <c r="T118" s="35"/>
+      <c r="U118" s="35"/>
+      <c r="V118" s="35"/>
+      <c r="W118" s="35"/>
+      <c r="X118" s="35"/>
+      <c r="Y118" s="35"/>
+      <c r="Z118" s="35"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="46">
+      <c r="A119" s="44">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C119" s="46" t="s">
+      <c r="C119" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="1">
         <v>43022</v>
       </c>
-      <c r="E119" s="46">
+      <c r="E119" s="44">
         <v>2017</v>
       </c>
-      <c r="F119" s="46" t="s">
+      <c r="F119" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G119" s="46">
-        <v>0</v>
-      </c>
-      <c r="H119" s="46">
-        <v>1</v>
-      </c>
-      <c r="I119" s="46" t="s">
+      <c r="G119" s="44">
+        <v>0</v>
+      </c>
+      <c r="H119" s="44">
+        <v>1</v>
+      </c>
+      <c r="I119" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J119" s="46" t="s">
+      <c r="J119" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K119" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L119" s="36"/>
-      <c r="M119" s="36"/>
-      <c r="N119" s="36"/>
-      <c r="O119" s="36"/>
-      <c r="P119" s="36"/>
-      <c r="Q119" s="36"/>
-      <c r="R119" s="36"/>
-      <c r="S119" s="36"/>
-      <c r="T119" s="36"/>
-      <c r="U119" s="36"/>
-      <c r="V119" s="36"/>
-      <c r="W119" s="36"/>
-      <c r="X119" s="36"/>
-      <c r="Y119" s="36"/>
-      <c r="Z119" s="36"/>
+      <c r="K119" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+      <c r="Q119" s="35"/>
+      <c r="R119" s="35"/>
+      <c r="S119" s="35"/>
+      <c r="T119" s="35"/>
+      <c r="U119" s="35"/>
+      <c r="V119" s="35"/>
+      <c r="W119" s="35"/>
+      <c r="X119" s="35"/>
+      <c r="Y119" s="35"/>
+      <c r="Z119" s="35"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" s="47">
+      <c r="A120" s="45">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C120" s="46" t="s">
+      <c r="C120" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D120" s="1">
         <v>43031</v>
       </c>
-      <c r="E120" s="46">
+      <c r="E120" s="44">
         <v>2017</v>
       </c>
-      <c r="F120" s="46" t="s">
+      <c r="F120" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G120" s="46">
+      <c r="G120" s="44">
         <v>2</v>
       </c>
-      <c r="H120" s="46">
-        <v>1</v>
-      </c>
-      <c r="I120" s="46" t="s">
+      <c r="H120" s="44">
+        <v>1</v>
+      </c>
+      <c r="I120" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="K120" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L120" s="36"/>
-      <c r="M120" s="36"/>
-      <c r="N120" s="36"/>
-      <c r="O120" s="36"/>
-      <c r="P120" s="36"/>
-      <c r="Q120" s="36"/>
-      <c r="R120" s="36"/>
-      <c r="S120" s="36"/>
-      <c r="T120" s="36"/>
-      <c r="U120" s="36"/>
-      <c r="V120" s="36"/>
-      <c r="W120" s="36"/>
-      <c r="X120" s="36"/>
-      <c r="Y120" s="36"/>
-      <c r="Z120" s="36"/>
+      <c r="J120" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="35"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="35"/>
+      <c r="Q120" s="35"/>
+      <c r="R120" s="35"/>
+      <c r="S120" s="35"/>
+      <c r="T120" s="35"/>
+      <c r="U120" s="35"/>
+      <c r="V120" s="35"/>
+      <c r="W120" s="35"/>
+      <c r="X120" s="35"/>
+      <c r="Y120" s="35"/>
+      <c r="Z120" s="35"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="48">
+      <c r="A121" s="46">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C121" s="47" t="s">
+      <c r="C121" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="1">
         <v>43043</v>
       </c>
-      <c r="E121" s="47">
+      <c r="E121" s="45">
         <v>2017</v>
       </c>
-      <c r="F121" s="47" t="s">
+      <c r="F121" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G121" s="47">
-        <v>1</v>
-      </c>
-      <c r="H121" s="47">
+      <c r="G121" s="45">
+        <v>1</v>
+      </c>
+      <c r="H121" s="45">
         <v>2</v>
       </c>
-      <c r="I121" s="47" t="s">
+      <c r="I121" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K121" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
-      <c r="N121" s="36"/>
-      <c r="O121" s="36"/>
-      <c r="P121" s="36"/>
-      <c r="Q121" s="36"/>
-      <c r="R121" s="36"/>
-      <c r="S121" s="36"/>
-      <c r="T121" s="36"/>
-      <c r="U121" s="36"/>
-      <c r="V121" s="36"/>
-      <c r="W121" s="36"/>
-      <c r="X121" s="36"/>
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="36"/>
+      <c r="J121" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="35"/>
+      <c r="T121" s="35"/>
+      <c r="U121" s="35"/>
+      <c r="V121" s="35"/>
+      <c r="W121" s="35"/>
+      <c r="X121" s="35"/>
+      <c r="Y121" s="35"/>
+      <c r="Z121" s="35"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="49">
+      <c r="A122" s="47">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C122" s="48" t="s">
+      <c r="C122" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="1">
         <v>43050</v>
       </c>
-      <c r="E122" s="48">
+      <c r="E122" s="46">
         <v>2017</v>
       </c>
-      <c r="F122" s="48" t="s">
+      <c r="F122" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G122" s="48">
-        <v>0</v>
-      </c>
-      <c r="H122" s="48">
-        <v>1</v>
-      </c>
-      <c r="I122" s="48" t="s">
+      <c r="G122" s="46">
+        <v>0</v>
+      </c>
+      <c r="H122" s="46">
+        <v>1</v>
+      </c>
+      <c r="I122" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="K122" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="36"/>
-      <c r="O122" s="36"/>
-      <c r="P122" s="36"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="36"/>
-      <c r="S122" s="36"/>
-      <c r="T122" s="36"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="36"/>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="36"/>
+      <c r="J122" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="35"/>
+      <c r="P122" s="35"/>
+      <c r="Q122" s="35"/>
+      <c r="R122" s="35"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="35"/>
+      <c r="U122" s="35"/>
+      <c r="V122" s="35"/>
+      <c r="W122" s="35"/>
+      <c r="X122" s="35"/>
+      <c r="Y122" s="35"/>
+      <c r="Z122" s="35"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="50">
+      <c r="A123" s="48">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="1">
         <v>43055</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="47">
         <v>2017</v>
       </c>
-      <c r="F123" s="49" t="s">
+      <c r="F123" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G123" s="49">
-        <v>1</v>
-      </c>
-      <c r="H123" s="49">
+      <c r="G123" s="47">
+        <v>1</v>
+      </c>
+      <c r="H123" s="47">
         <v>2</v>
       </c>
-      <c r="I123" s="49" t="s">
+      <c r="I123" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="K123" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L123" s="36"/>
-      <c r="M123" s="36"/>
-      <c r="N123" s="36"/>
-      <c r="O123" s="36"/>
-      <c r="P123" s="36"/>
-      <c r="Q123" s="36"/>
-      <c r="R123" s="36"/>
-      <c r="S123" s="36"/>
-      <c r="T123" s="36"/>
-      <c r="U123" s="36"/>
-      <c r="V123" s="36"/>
-      <c r="W123" s="36"/>
-      <c r="X123" s="36"/>
-      <c r="Y123" s="36"/>
-      <c r="Z123" s="36"/>
+      <c r="J123" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35"/>
+      <c r="R123" s="35"/>
+      <c r="S123" s="35"/>
+      <c r="T123" s="35"/>
+      <c r="U123" s="35"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="35"/>
+      <c r="X123" s="35"/>
+      <c r="Y123" s="35"/>
+      <c r="Z123" s="35"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124" s="51">
+      <c r="A124" s="49">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="B124" s="50" t="s">
+      <c r="B124" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C124" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="1">
         <v>43072</v>
       </c>
-      <c r="E124" s="50">
+      <c r="E124" s="48">
         <v>2017</v>
       </c>
-      <c r="F124" s="50" t="s">
+      <c r="F124" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G124" s="50">
+      <c r="G124" s="48">
         <v>2</v>
       </c>
-      <c r="H124" s="50">
+      <c r="H124" s="48">
         <v>2</v>
       </c>
-      <c r="I124" s="50" t="s">
+      <c r="I124" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J124" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K124" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L124" s="36"/>
-      <c r="M124" s="36"/>
-      <c r="N124" s="36"/>
-      <c r="O124" s="36"/>
-      <c r="P124" s="36"/>
-      <c r="Q124" s="36"/>
-      <c r="R124" s="36"/>
-      <c r="S124" s="36"/>
-      <c r="T124" s="36"/>
-      <c r="U124" s="36"/>
-      <c r="V124" s="36"/>
-      <c r="W124" s="36"/>
-      <c r="X124" s="36"/>
-      <c r="Y124" s="36"/>
-      <c r="Z124" s="36"/>
+      <c r="J124" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="35"/>
+      <c r="P124" s="35"/>
+      <c r="Q124" s="35"/>
+      <c r="R124" s="35"/>
+      <c r="S124" s="35"/>
+      <c r="T124" s="35"/>
+      <c r="U124" s="35"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="35"/>
+      <c r="X124" s="35"/>
+      <c r="Y124" s="35"/>
+      <c r="Z124" s="35"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="51">
+      <c r="A125" s="49">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B125" s="51" t="s">
+      <c r="B125" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="51"/>
+      <c r="C125" s="50" t="s">
+        <v>47</v>
+      </c>
       <c r="D125" s="1">
         <v>43116</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="49">
         <v>2018</v>
       </c>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51" t="s">
+      <c r="F125" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G125" s="49">
+        <v>2</v>
+      </c>
+      <c r="H125" s="49">
+        <v>2</v>
+      </c>
+      <c r="I125" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J125" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="K125" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="L125" s="36"/>
-      <c r="M125" s="36"/>
-      <c r="N125" s="36"/>
-      <c r="O125" s="36"/>
-      <c r="P125" s="36"/>
-      <c r="Q125" s="36"/>
-      <c r="R125" s="36"/>
-      <c r="S125" s="36"/>
-      <c r="T125" s="36"/>
-      <c r="U125" s="36"/>
-      <c r="V125" s="36"/>
-      <c r="W125" s="36"/>
-      <c r="X125" s="36"/>
-      <c r="Y125" s="36"/>
-      <c r="Z125" s="36"/>
+      <c r="J125" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="35"/>
+      <c r="P125" s="35"/>
+      <c r="Q125" s="35"/>
+      <c r="R125" s="35"/>
+      <c r="S125" s="35"/>
+      <c r="T125" s="35"/>
+      <c r="U125" s="35"/>
+      <c r="V125" s="35"/>
+      <c r="W125" s="35"/>
+      <c r="X125" s="35"/>
+      <c r="Y125" s="35"/>
+      <c r="Z125" s="35"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="36"/>
-      <c r="N126" s="36"/>
-      <c r="O126" s="36"/>
-      <c r="P126" s="36"/>
-      <c r="Q126" s="36"/>
-      <c r="R126" s="36"/>
-      <c r="S126" s="36"/>
-      <c r="T126" s="36"/>
-      <c r="U126" s="36"/>
-      <c r="V126" s="36"/>
-      <c r="W126" s="36"/>
-      <c r="X126" s="36"/>
-      <c r="Y126" s="36"/>
-      <c r="Z126" s="36"/>
+      <c r="A126" s="63">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="64">
+        <v>43120</v>
+      </c>
+      <c r="E126" s="63">
+        <v>2018</v>
+      </c>
+      <c r="F126" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G126" s="63">
+        <v>0</v>
+      </c>
+      <c r="H126" s="63">
+        <v>0</v>
+      </c>
+      <c r="I126" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J126" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35"/>
+      <c r="X126" s="35"/>
+      <c r="Y126" s="35"/>
+      <c r="Z126" s="35"/>
     </row>
   </sheetData>
   <sortState ref="N3:O7">

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -918,12 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,6 +925,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,34 +1249,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="64"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
@@ -1431,16 +1431,16 @@
         <v>1</v>
       </c>
       <c r="T3" s="56">
-        <f>COUNTIF(F4:F1008, "Vitória")</f>
+        <f>COUNTIF(F3:F1008, "Vitória")</f>
         <v>65</v>
       </c>
       <c r="U3" s="55">
-        <f>COUNTIF(F4:F1008, "Empate")</f>
+        <f>COUNTIF(F3:F1008, "Empate")</f>
         <v>25</v>
       </c>
       <c r="V3" s="56">
-        <f>COUNTIF(F4:F1008, "Derrota")</f>
-        <v>33</v>
+        <f>COUNTIF(F3:F1008, "Derrota")</f>
+        <v>34</v>
       </c>
       <c r="W3" s="57">
         <f>SUM(G4:G1002)</f>
@@ -4240,7 +4240,7 @@
       <c r="K47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="65" t="s">
+      <c r="L47" s="63" t="s">
         <v>111</v>
       </c>
       <c r="M47" s="50">
@@ -4301,7 +4301,7 @@
       <c r="K48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="65" t="s">
+      <c r="L48" s="63" t="s">
         <v>113</v>
       </c>
       <c r="M48" s="50">
@@ -4362,7 +4362,7 @@
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="65" t="s">
+      <c r="L49" s="63" t="s">
         <v>114</v>
       </c>
       <c r="M49" s="50">
@@ -4423,7 +4423,7 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="65" t="s">
+      <c r="L50" s="63" t="s">
         <v>115</v>
       </c>
       <c r="M50" s="50">
@@ -8528,38 +8528,38 @@
       <c r="Z125" s="35"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="63">
+      <c r="A126" s="61">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="63" t="s">
+      <c r="C126" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="64">
+      <c r="D126" s="62">
         <v>43120</v>
       </c>
-      <c r="E126" s="63">
+      <c r="E126" s="61">
         <v>2018</v>
       </c>
-      <c r="F126" s="63" t="s">
+      <c r="F126" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G126" s="63">
-        <v>0</v>
-      </c>
-      <c r="H126" s="63">
-        <v>0</v>
-      </c>
-      <c r="I126" s="63" t="s">
+      <c r="G126" s="61">
+        <v>0</v>
+      </c>
+      <c r="H126" s="61">
+        <v>0</v>
+      </c>
+      <c r="I126" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="63" t="s">
+      <c r="J126" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K126" s="63" t="s">
+      <c r="K126" s="61" t="s">
         <v>0</v>
       </c>
       <c r="L126" s="35"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -736,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,13 +918,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE126"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,34 +1246,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="63"/>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
@@ -1421,7 +1418,7 @@
       </c>
       <c r="Q3" s="6">
         <f>COUNTIF(J2:J1005,"Nilton Santos")</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R3" s="24">
         <v>2002</v>
@@ -1432,11 +1429,11 @@
       </c>
       <c r="T3" s="56">
         <f>COUNTIF(F3:F1008, "Vitória")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U3" s="55">
         <f>COUNTIF(F3:F1008, "Empate")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V3" s="56">
         <f>COUNTIF(F3:F1008, "Derrota")</f>
@@ -1444,7 +1441,7 @@
       </c>
       <c r="W3" s="57">
         <f>SUM(G4:G1002)</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X3" s="58">
         <f>SUM(H4:H1002)</f>
@@ -1452,7 +1449,7 @@
       </c>
       <c r="Y3" s="59">
         <f>COUNTIF(K4:K1007,"Sim")</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z3" s="56">
         <f>COUNTIF(K4:K1007,"Não")</f>
@@ -1510,7 +1507,7 @@
       </c>
       <c r="O4" s="7">
         <f>COUNTIF(I4:I1008,"Carioca")</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>23</v>
@@ -1800,7 +1797,7 @@
       </c>
       <c r="M8" s="17">
         <f>COUNTIF(B4:B1004,"Boavista")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>78</v>
@@ -2471,7 +2468,7 @@
       </c>
       <c r="M18" s="17">
         <f>COUNTIF(B4:B1009,"Madureira")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
@@ -2482,7 +2479,7 @@
       </c>
       <c r="S18" s="49">
         <f>COUNTIF(E125:E160, "2018")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T18" s="41"/>
       <c r="U18" s="37"/>
@@ -4240,7 +4237,7 @@
       <c r="K47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="63" t="s">
+      <c r="L47" s="61" t="s">
         <v>111</v>
       </c>
       <c r="M47" s="50">
@@ -4301,7 +4298,7 @@
       <c r="K48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="63" t="s">
+      <c r="L48" s="61" t="s">
         <v>113</v>
       </c>
       <c r="M48" s="50">
@@ -4362,7 +4359,7 @@
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="63" t="s">
+      <c r="L49" s="61" t="s">
         <v>114</v>
       </c>
       <c r="M49" s="50">
@@ -4423,7 +4420,7 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="63" t="s">
+      <c r="L50" s="61" t="s">
         <v>115</v>
       </c>
       <c r="M50" s="50">
@@ -7713,7 +7710,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="43">
-        <f t="shared" ref="A110:A126" si="5">SUM(A109+1)</f>
+        <f t="shared" ref="A110:A128" si="5">SUM(A109+1)</f>
         <v>108</v>
       </c>
       <c r="B110" s="43" t="s">
@@ -8477,38 +8474,38 @@
       <c r="Z124" s="35"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="49">
+      <c r="A125" s="62">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="B125" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="C125" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D125" s="1">
         <v>43116</v>
       </c>
-      <c r="E125" s="49">
+      <c r="E125" s="62">
         <v>2018</v>
       </c>
-      <c r="F125" s="50" t="s">
+      <c r="F125" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G125" s="49">
+      <c r="G125" s="62">
         <v>2</v>
       </c>
-      <c r="H125" s="49">
+      <c r="H125" s="62">
         <v>2</v>
       </c>
-      <c r="I125" s="49" t="s">
+      <c r="I125" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J125" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="K125" s="49" t="s">
+      <c r="J125" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" s="62" t="s">
         <v>0</v>
       </c>
       <c r="L125" s="35"/>
@@ -8528,38 +8525,38 @@
       <c r="Z125" s="35"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="61">
+      <c r="A126" s="62">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C126" s="61" t="s">
+      <c r="C126" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D126" s="62">
+      <c r="D126" s="1">
         <v>43120</v>
       </c>
-      <c r="E126" s="61">
+      <c r="E126" s="62">
         <v>2018</v>
       </c>
-      <c r="F126" s="61" t="s">
+      <c r="F126" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G126" s="61">
-        <v>0</v>
-      </c>
-      <c r="H126" s="61">
-        <v>0</v>
-      </c>
-      <c r="I126" s="61" t="s">
+      <c r="G126" s="62">
+        <v>0</v>
+      </c>
+      <c r="H126" s="62">
+        <v>0</v>
+      </c>
+      <c r="I126" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="61" t="s">
+      <c r="J126" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="K126" s="61" t="s">
+      <c r="K126" s="62" t="s">
         <v>0</v>
       </c>
       <c r="L126" s="35"/>
@@ -8578,6 +8575,78 @@
       <c r="Y126" s="35"/>
       <c r="Z126" s="35"/>
     </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="62">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D127" s="1">
+        <v>42763</v>
+      </c>
+      <c r="E127" s="62">
+        <v>2018</v>
+      </c>
+      <c r="F127" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="62">
+        <v>1</v>
+      </c>
+      <c r="H127" s="62">
+        <v>0</v>
+      </c>
+      <c r="I127" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J127" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A128" s="62">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="1">
+        <v>43134</v>
+      </c>
+      <c r="E128" s="62">
+        <v>2018</v>
+      </c>
+      <c r="F128" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G128" s="62">
+        <v>0</v>
+      </c>
+      <c r="H128" s="62">
+        <v>0</v>
+      </c>
+      <c r="I128" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Adversário</t>
   </si>
   <si>
-    <t>Jogos do Botafogo que já fui</t>
-  </si>
-  <si>
     <t>Nº de jogos</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Bangu</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,12 +919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,34 +1240,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63"/>
+      <c r="B1" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="35"/>
@@ -1281,83 +1325,94 @@
       <c r="AE1" s="35"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="43" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>37555</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="16">
+        <f>COUNTIF(B3:B1005,"Vasco")</f>
+        <v>12</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="6">
+        <f>COUNTIF(I3:I1007,"Série A")</f>
+        <v>65</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
+        <v>63</v>
+      </c>
+      <c r="R2" s="24">
+        <v>2002</v>
+      </c>
+      <c r="S2" s="6">
+        <f>COUNTIF(E2, "2002")</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="56">
+        <f>COUNTIF(F2:F1007, "Vitória")</f>
         <v>67</v>
       </c>
-      <c r="K2" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y2" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="53" t="s">
-        <v>99</v>
+      <c r="U2" s="55">
+        <f>COUNTIF(F2:F1007, "Empate")</f>
+        <v>26</v>
+      </c>
+      <c r="V2" s="56">
+        <f>COUNTIF(F2:F1007, "Derrota")</f>
+        <v>34</v>
+      </c>
+      <c r="W2" s="57">
+        <f>SUM(G3:G1001)</f>
+        <v>199</v>
+      </c>
+      <c r="X2" s="58">
+        <f>SUM(H3:H1001)</f>
+        <v>124</v>
+      </c>
+      <c r="Y2" s="59">
+        <f>COUNTIF(K3:K1006,"Sim")</f>
+        <v>74</v>
+      </c>
+      <c r="Z2" s="56">
+        <f>COUNTIF(K3:K1006,"Não")</f>
+        <v>52</v>
       </c>
       <c r="AA2" s="35"/>
       <c r="AB2" s="35"/>
@@ -1367,31 +1422,31 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4">
-        <v>37555</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3</v>
+        <v>38060</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2004</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>23</v>
@@ -1399,61 +1454,33 @@
       <c r="K3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="16">
-        <f>COUNTIF(B4:B1006,"Vasco")</f>
-        <v>12</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="17">
+        <f>COUNTIF(B3:B1005,"Fluminense")</f>
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="7">
+        <f>COUNTIF(I3:I1007,"Carioca")</f>
+        <v>39</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="7">
+        <f>COUNTIF(J3:J1008,"Maracanã")</f>
         <v>38</v>
       </c>
-      <c r="O3" s="6">
-        <f>COUNTIF(I4:I1008,"Série A")</f>
-        <v>65</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>COUNTIF(J2:J1005,"Nilton Santos")</f>
-        <v>62</v>
-      </c>
-      <c r="R3" s="24">
-        <v>2002</v>
-      </c>
-      <c r="S3" s="6">
-        <f>COUNTIF(E3, "2002")</f>
-        <v>1</v>
-      </c>
-      <c r="T3" s="56">
-        <f>COUNTIF(F3:F1008, "Vitória")</f>
-        <v>66</v>
-      </c>
-      <c r="U3" s="55">
-        <f>COUNTIF(F3:F1008, "Empate")</f>
-        <v>26</v>
-      </c>
-      <c r="V3" s="56">
-        <f>COUNTIF(F3:F1008, "Derrota")</f>
-        <v>34</v>
-      </c>
-      <c r="W3" s="57">
-        <f>SUM(G4:G1002)</f>
-        <v>198</v>
-      </c>
-      <c r="X3" s="58">
-        <f>SUM(H4:H1002)</f>
-        <v>124</v>
-      </c>
-      <c r="Y3" s="59">
-        <f>COUNTIF(K4:K1007,"Sim")</f>
-        <v>73</v>
-      </c>
-      <c r="Z3" s="56">
-        <f>COUNTIF(K4:K1007,"Não")</f>
-        <v>52</v>
+      <c r="R3" s="21">
+        <v>2004</v>
+      </c>
+      <c r="S3" s="7">
+        <f>COUNTIF(E3:E9, "2004")</f>
+        <v>7</v>
       </c>
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
@@ -1462,67 +1489,75 @@
       <c r="AE3" s="35"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
+      <c r="A4" s="43">
+        <f>SUM(A3+1)</f>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
-        <v>38060</v>
+        <v>38211</v>
       </c>
       <c r="E4" s="14">
         <v>2004</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M4" s="17">
-        <f>COUNTIF(B4:B1006,"Fluminense")</f>
-        <v>13</v>
+        <f>COUNTIF(B3:B1008,"Flamengo")</f>
+        <v>7</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="O4" s="7">
-        <f>COUNTIF(I4:I1008,"Carioca")</f>
-        <v>38</v>
+        <f>COUNTIF(I3:I1005,"Série B")</f>
+        <v>9</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7">
-        <f>COUNTIF(J4:J1009,"Maracanã")</f>
-        <v>38</v>
+        <f>COUNTIF(J3:J1003,"Arena Botafogo")</f>
+        <v>8</v>
       </c>
       <c r="R4" s="21">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="S4" s="7">
-        <f>COUNTIF(E4:E10, "2004")</f>
+        <f>COUNTIF(E10:E16, "2005")</f>
         <v>7</v>
       </c>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="36"/>
       <c r="AA4" s="35"/>
       <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
@@ -1531,65 +1566,65 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
-        <f>SUM(A4+1)</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <f t="shared" ref="A5:A6" si="0">SUM(A4+1)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
-        <v>38211</v>
+      <c r="D5" s="1">
+        <v>38227</v>
       </c>
       <c r="E5" s="14">
         <v>2004</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M5" s="17">
-        <f>COUNTIF(B4:B1009,"Flamengo")</f>
+        <f>COUNTIF(B3:B1005,"Grêmio")</f>
+        <v>6</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="49">
+        <f>COUNTIF(I1:I1007,"Libertadores")</f>
         <v>7</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="7">
-        <f>COUNTIF(I4:I1006,"Série B")</f>
-        <v>9</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="7">
-        <f>COUNTIF(J4:J1004,"Arena Botafogo")</f>
-        <v>8</v>
+      <c r="P5" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="17">
+        <f>COUNTIF(J3:J1006,"São Januário")</f>
+        <v>5</v>
       </c>
       <c r="R5" s="21">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="S5" s="7">
-        <f>COUNTIF(E11:E17, "2005")</f>
+        <f>COUNTIF(E17:E23, "2006")</f>
         <v>7</v>
       </c>
       <c r="T5" s="36"/>
@@ -1607,26 +1642,26 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
-        <f t="shared" ref="A6:A7" si="0">SUM(A5+1)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>38227</v>
+        <v>38262</v>
       </c>
       <c r="E6" s="14">
         <v>2004</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G6" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -1635,38 +1670,38 @@
         <v>38</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M6" s="17">
-        <f>COUNTIF(B4:B1006,"Grêmio")</f>
+        <f>COUNTIF(B3:B1003,"Atlético Mineiro")</f>
+        <v>5</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="49">
+        <f>COUNTIF(I3:I1009,"Copa do Brasil")</f>
         <v>6</v>
       </c>
-      <c r="N6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="49">
-        <f>COUNTIF(I2:I1008,"Libertadores")</f>
-        <v>7</v>
-      </c>
       <c r="P6" s="60" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="17">
-        <f>COUNTIF(J4:J1007,"São Januário")</f>
+        <f>COUNTIF(J3:J1010,"Caio Martins")</f>
         <v>5</v>
       </c>
       <c r="R6" s="21">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="S6" s="7">
-        <f>COUNTIF(E18:E24, "2006")</f>
-        <v>7</v>
+        <f>COUNTIF(E24:E28, "2007")</f>
+        <v>5</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="37"/>
@@ -1683,17 +1718,17 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="A7:A17" si="1">SUM(A6+1)</f>
+        <v>6</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1">
-        <v>38262</v>
+        <v>38304</v>
       </c>
       <c r="E7" s="14">
         <v>2004</v>
@@ -1711,38 +1746,31 @@
         <v>38</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M7" s="17">
-        <f>COUNTIF(B4:B1004,"Atlético Mineiro")</f>
-        <v>5</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="49">
-        <f>COUNTIF(I4:I1010,"Copa do Brasil")</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>62</v>
+        <f>COUNTIF(B3:B1003,"Boavista")</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="Q7" s="17">
-        <f>COUNTIF(J4:J1011,"Caio Martins")</f>
-        <v>5</v>
+        <f>COUNTIF(J3:J1010,"Luso Brasileiro")</f>
+        <v>4</v>
       </c>
       <c r="R7" s="21">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="S7" s="7">
-        <f>COUNTIF(E25:E29, "2007")</f>
-        <v>5</v>
+        <f>COUNTIF(E29:E32, "2008")</f>
+        <v>4</v>
       </c>
       <c r="T7" s="36"/>
       <c r="U7" s="37"/>
@@ -1759,17 +1787,17 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
-        <f t="shared" ref="A8:A18" si="1">SUM(A7+1)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
-        <v>38304</v>
+        <v>38318</v>
       </c>
       <c r="E8" s="14">
         <v>2004</v>
@@ -1778,10 +1806,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>38</v>
@@ -1793,25 +1821,27 @@
         <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M8" s="17">
-        <f>COUNTIF(B4:B1004,"Boavista")</f>
-        <v>4</v>
-      </c>
-      <c r="P8" s="5" t="s">
+        <f>COUNTIF(B3:B1006,"Internacional")</f>
+        <v>3</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="17">
-        <f>COUNTIF(J4:J1011,"Luso Brasileiro")</f>
-        <v>4</v>
-      </c>
-      <c r="R8" s="21">
-        <v>2008</v>
+      <c r="Q8" s="49">
+        <f>COUNTIF(J3:J1008,"Raulino de Oliveira")</f>
+        <v>2</v>
+      </c>
+      <c r="R8" s="23">
+        <v>2009</v>
       </c>
       <c r="S8" s="7">
-        <f>COUNTIF(E30:E33, "2008")</f>
-        <v>4</v>
+        <f>COUNTIF(E33, "2009")</f>
+        <v>1</v>
       </c>
       <c r="T8" s="36"/>
       <c r="U8" s="37"/>
@@ -1829,28 +1859,28 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>38318</v>
+        <v>38333</v>
       </c>
       <c r="E9" s="14">
         <v>2004</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="43" t="s">
         <v>38</v>
@@ -1862,27 +1892,27 @@
         <v>49</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M9" s="17">
-        <f>COUNTIF(B4:B1007,"Internacional")</f>
+        <f>COUNTIF(B3:B1004,"Criciúma")</f>
         <v>3</v>
       </c>
       <c r="N9" s="36"/>
       <c r="O9" s="40"/>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="8" t="s">
         <v>79</v>
       </c>
       <c r="Q9" s="49">
-        <f>COUNTIF(J4:J1009,"Raulino de Oliveira")</f>
-        <v>2</v>
+        <f>COUNTIF(J3:J1008,"Mário Helênio")</f>
+        <v>1</v>
       </c>
       <c r="R9" s="23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="S9" s="7">
-        <f>COUNTIF(E34, "2009")</f>
-        <v>1</v>
+        <f>COUNTIF(E34:E36, "2010")</f>
+        <v>3</v>
       </c>
       <c r="T9" s="36"/>
       <c r="U9" s="37"/>
@@ -1900,22 +1930,22 @@
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="43">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1">
-        <v>38333</v>
+        <v>38396</v>
       </c>
       <c r="E10" s="14">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -1924,36 +1954,29 @@
         <v>2</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M10" s="17">
-        <f>COUNTIF(B4:B1005,"Criciúma")</f>
+        <f>COUNTIF(B3:B1002,"Nova Iguaçu")</f>
         <v>3</v>
       </c>
       <c r="N10" s="36"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="49">
-        <f>COUNTIF(J4:J1009,"Mário Helênio")</f>
-        <v>1</v>
-      </c>
+      <c r="O10" s="36"/>
       <c r="R10" s="23">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="S10" s="7">
-        <f>COUNTIF(E35:E37, "2010")</f>
-        <v>3</v>
+        <f>COUNTIF(E37:E40, "2011")</f>
+        <v>4</v>
       </c>
       <c r="T10" s="36"/>
       <c r="U10" s="37"/>
@@ -1971,28 +1994,28 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1">
-        <v>38396</v>
-      </c>
-      <c r="E11" s="14">
+        <v>38406</v>
+      </c>
+      <c r="E11" s="15">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>24</v>
@@ -2004,20 +2027,22 @@
         <v>49</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M11" s="17">
-        <f>COUNTIF(B4:B1003,"Nova Iguaçu")</f>
-        <v>3</v>
+        <f>COUNTIF(B3:B1012,"Palmeiras")</f>
+        <v>4</v>
       </c>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="23">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="S11" s="7">
-        <f>COUNTIF(E38:E41, "2011")</f>
-        <v>4</v>
+        <f>COUNTIF(E41, "2012")</f>
+        <v>1</v>
       </c>
       <c r="T11" s="36"/>
       <c r="U11" s="37"/>
@@ -2035,55 +2060,55 @@
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
-        <v>38406</v>
+        <v>38501</v>
       </c>
       <c r="E12" s="15">
         <v>2005</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M12" s="17">
-        <f>COUNTIF(B4:B1013,"Palmeiras")</f>
-        <v>4</v>
+        <f>COUNTIF(B3:B977,"Atlético Paranaense")</f>
+        <v>3</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="23">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="S12" s="7">
-        <f>COUNTIF(E42, "2012")</f>
-        <v>1</v>
+        <f>COUNTIF(E42:E45, "2013")</f>
+        <v>4</v>
       </c>
       <c r="T12" s="36"/>
       <c r="U12" s="37"/>
@@ -2101,16 +2126,16 @@
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="43">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
-        <v>38501</v>
+        <v>38613</v>
       </c>
       <c r="E13" s="15">
         <v>2005</v>
@@ -2119,25 +2144,25 @@
         <v>20</v>
       </c>
       <c r="G13" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M13" s="17">
-        <f>COUNTIF(B4:B978,"Atlético Paranaense")</f>
+        <f>COUNTIF(B3:B999,"Bahia")</f>
         <v>3</v>
       </c>
       <c r="N13" s="36"/>
@@ -2145,11 +2170,11 @@
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="23">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="S13" s="7">
-        <f>COUNTIF(E43:E46, "2013")</f>
-        <v>4</v>
+        <f>COUNTIF(E46:E52, "2014")</f>
+        <v>7</v>
       </c>
       <c r="T13" s="36"/>
       <c r="U13" s="37"/>
@@ -2167,43 +2192,43 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
-        <v>38613</v>
+        <v>38633</v>
       </c>
       <c r="E14" s="15">
         <v>2005</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G14" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M14" s="17">
-        <f>COUNTIF(B4:B1000,"Bahia")</f>
+        <f>COUNTIF(B3:B999,"Chapecoense")</f>
         <v>3</v>
       </c>
       <c r="N14" s="36"/>
@@ -2211,11 +2236,11 @@
       <c r="P14" s="36"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="S14" s="7">
-        <f>COUNTIF(E47:E53, "2014")</f>
-        <v>7</v>
+        <f>COUNTIF(E53:E71, "2015")</f>
+        <v>19</v>
       </c>
       <c r="T14" s="36"/>
       <c r="U14" s="37"/>
@@ -2233,43 +2258,43 @@
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="43">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
-        <v>38633</v>
+        <v>38647</v>
       </c>
       <c r="E15" s="15">
         <v>2005</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>78</v>
+      <c r="J15" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M15" s="17">
-        <f>COUNTIF(B4:B1000,"Chapecoense")</f>
+        <f>COUNTIF(B3:B998,"Coritiba")</f>
         <v>3</v>
       </c>
       <c r="N15" s="36"/>
@@ -2277,11 +2302,11 @@
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
       <c r="R15" s="23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="S15" s="7">
-        <f>COUNTIF(E54:E72, "2015")</f>
-        <v>19</v>
+        <f>COUNTIF(E72:E85, "2016")</f>
+        <v>14</v>
       </c>
       <c r="T15" s="36"/>
       <c r="U15" s="37"/>
@@ -2299,16 +2324,16 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="43">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>38647</v>
+        <v>38668</v>
       </c>
       <c r="E16" s="15">
         <v>2005</v>
@@ -2320,36 +2345,36 @@
         <v>2</v>
       </c>
       <c r="H16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="M16" s="17">
-        <f>COUNTIF(B4:B999,"Coritiba")</f>
-        <v>3</v>
+        <f>COUNTIF(B3:B1005,"Figueirense")</f>
+        <v>2</v>
       </c>
       <c r="N16" s="36"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="36"/>
-      <c r="R16" s="23">
-        <v>2016</v>
-      </c>
-      <c r="S16" s="7">
-        <f>COUNTIF(E73:E86, "2016")</f>
-        <v>14</v>
-      </c>
-      <c r="T16" s="36"/>
+      <c r="R16" s="34">
+        <v>2017</v>
+      </c>
+      <c r="S16" s="49">
+        <f>COUNTIF(E86:E123, "2017")</f>
+        <v>38</v>
+      </c>
+      <c r="T16" s="41"/>
       <c r="U16" s="37"/>
       <c r="V16" s="36"/>
       <c r="W16" s="38"/>
@@ -2365,55 +2390,55 @@
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="43">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1">
-        <v>38668</v>
+        <v>38739</v>
       </c>
       <c r="E17" s="15">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M17" s="17">
-        <f>COUNTIF(B4:B1006,"Figueirense")</f>
-        <v>2</v>
+        <f>COUNTIF(B3:B1008,"Madureira")</f>
+        <v>3</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="36"/>
-      <c r="R17" s="34">
-        <v>2017</v>
+      <c r="R17" s="40">
+        <v>2018</v>
       </c>
       <c r="S17" s="49">
-        <f>COUNTIF(E87:E124, "2017")</f>
-        <v>38</v>
+        <f>COUNTIF(E124:E159, "2018")</f>
+        <v>5</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -2430,29 +2455,29 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ref="A18:A23" si="2">SUM(A17+1)</f>
+        <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>38739</v>
+        <v>38767</v>
       </c>
       <c r="E18" s="15">
         <v>2006</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G18" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>24</v>
@@ -2464,24 +2489,19 @@
         <v>49</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M18" s="17">
-        <f>COUNTIF(B4:B1009,"Madureira")</f>
-        <v>3</v>
+        <f>COUNTIF(B3:B1006,"Náutico")</f>
+        <v>2</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="40">
-        <v>2018</v>
-      </c>
-      <c r="S18" s="49">
-        <f>COUNTIF(E125:E160, "2018")</f>
-        <v>4</v>
-      </c>
-      <c r="T18" s="41"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="36"/>
       <c r="W18" s="38"/>
@@ -2496,26 +2516,26 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="43">
-        <f t="shared" ref="A19:A24" si="2">SUM(A18+1)</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
-        <v>38767</v>
+        <v>38816</v>
       </c>
       <c r="E19" s="15">
         <v>2006</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G19" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" s="15">
         <v>1</v>
@@ -2530,10 +2550,10 @@
         <v>49</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="M19" s="17">
-        <f>COUNTIF(B4:B1007,"Náutico")</f>
+        <f>COUNTIF(B3:B1003,"Santa Cruz")</f>
         <v>2</v>
       </c>
       <c r="N19" s="36"/>
@@ -2541,7 +2561,7 @@
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
-      <c r="S19" s="54"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="36"/>
       <c r="U19" s="37"/>
       <c r="V19" s="36"/>
@@ -2558,31 +2578,31 @@
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="43">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1">
-        <v>38816</v>
+        <v>38850</v>
       </c>
       <c r="E20" s="15">
         <v>2006</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G20" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>23</v>
@@ -2591,11 +2611,11 @@
         <v>49</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M20" s="17">
-        <f>COUNTIF(B4:B1004,"Santa Cruz")</f>
-        <v>2</v>
+        <f>COUNTIF(B3:B1007,"Vitória")</f>
+        <v>3</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
@@ -2619,28 +2639,28 @@
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="43">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
-        <v>38850</v>
+        <v>39004</v>
       </c>
       <c r="E21" s="15">
         <v>2006</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G21" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>38</v>
@@ -2652,11 +2672,11 @@
         <v>49</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M21" s="17">
-        <f>COUNTIF(B4:B1008,"Vitória")</f>
-        <v>3</v>
+        <f>COUNTIF(B3:B1003,"Volta Redonda")</f>
+        <v>2</v>
       </c>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
@@ -2680,28 +2700,28 @@
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="43">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>39004</v>
+        <v>39023</v>
       </c>
       <c r="E22" s="15">
         <v>2006</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G22" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H22" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="43" t="s">
         <v>38</v>
@@ -2713,10 +2733,10 @@
         <v>49</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M22" s="17">
-        <f>COUNTIF(B4:B1004,"Volta Redonda")</f>
+        <f>COUNTIF(B3:B1016,"Goiás")</f>
         <v>2</v>
       </c>
       <c r="N22" s="36"/>
@@ -2741,28 +2761,28 @@
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="43">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1">
-        <v>39023</v>
+        <v>39040</v>
       </c>
       <c r="E23" s="15">
         <v>2006</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>38</v>
@@ -2774,11 +2794,11 @@
         <v>49</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M23" s="17">
-        <f>COUNTIF(B4:B1017,"Goiás")</f>
-        <v>2</v>
+        <f>COUNTIF(B3:B1013,"Santos")</f>
+        <v>3</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
@@ -2801,32 +2821,32 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="43">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" ref="A24:A38" si="3">SUM(A23+1)</f>
+        <v>23</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
-        <v>39040</v>
+        <v>39225</v>
       </c>
       <c r="E24" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G24" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>23</v>
@@ -2835,11 +2855,11 @@
         <v>49</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="M24" s="17">
-        <f>COUNTIF(B4:B1014,"Santos")</f>
-        <v>3</v>
+        <f>COUNTIF(B3:B995,"América-MG")</f>
+        <v>1</v>
       </c>
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
@@ -2862,17 +2882,17 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="43">
-        <f t="shared" ref="A25:A39" si="3">SUM(A24+1)</f>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1">
-        <v>39225</v>
+        <v>39235</v>
       </c>
       <c r="E25" s="15">
         <v>2007</v>
@@ -2884,10 +2904,10 @@
         <v>3</v>
       </c>
       <c r="H25" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>23</v>
@@ -2896,10 +2916,10 @@
         <v>49</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="M25" s="17">
-        <f>COUNTIF(B4:B996,"América-MG")</f>
+        <f>COUNTIF(B3:B1022,"Americano")</f>
         <v>1</v>
       </c>
       <c r="N25" s="36"/>
@@ -2924,16 +2944,16 @@
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="43">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>39235</v>
+        <v>39250</v>
       </c>
       <c r="E26" s="15">
         <v>2007</v>
@@ -2945,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="43" t="s">
         <v>38</v>
@@ -2957,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="M26" s="17">
-        <f>COUNTIF(B4:B1023,"Americano")</f>
+        <f>COUNTIF(B3:B1000,"Boa Esporte")</f>
         <v>1</v>
       </c>
       <c r="N26" s="36"/>
@@ -2985,25 +3005,25 @@
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
-        <v>39250</v>
+        <v>39313</v>
       </c>
       <c r="E27" s="15">
         <v>2007</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G27" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="15">
         <v>1</v>
@@ -3018,10 +3038,10 @@
         <v>49</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M27" s="17">
-        <f>COUNTIF(B4:B1001,"Boa Esporte")</f>
+        <f>COUNTIF(B3:B1005,"Bonsucesso")</f>
         <v>1</v>
       </c>
       <c r="N27" s="36"/>
@@ -3046,43 +3066,43 @@
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43">
         <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <v>39313</v>
-      </c>
-      <c r="E28" s="15">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="27">
+        <v>39348</v>
+      </c>
+      <c r="E28" s="26">
         <v>2007</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1</v>
-      </c>
-      <c r="I28" s="43" t="s">
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <v>2</v>
+      </c>
+      <c r="I28" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="30" t="s">
         <v>49</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M28" s="17">
-        <f>COUNTIF(B4:B1006,"Bonsucesso")</f>
+        <f>COUNTIF(B3:B1000,"Bragantino")</f>
         <v>1</v>
       </c>
       <c r="N28" s="36"/>
@@ -3107,43 +3127,43 @@
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="27">
-        <v>39348</v>
-      </c>
-      <c r="E29" s="26">
-        <v>2007</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="32">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
-        <v>2</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="25" t="s">
+      <c r="C29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1">
+        <v>39537</v>
+      </c>
+      <c r="E29" s="15">
+        <v>2008</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="13">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="M29" s="17">
-        <f>COUNTIF(B4:B1001,"Bragantino")</f>
+        <f>COUNTIF(B3:B1010,"Ceará")</f>
         <v>1</v>
       </c>
       <c r="N29" s="36"/>
@@ -3168,16 +3188,16 @@
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="43">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1">
-        <v>39537</v>
+        <v>39582</v>
       </c>
       <c r="E30" s="15">
         <v>2008</v>
@@ -3186,25 +3206,25 @@
         <v>20</v>
       </c>
       <c r="G30" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M30" s="17">
-        <f>COUNTIF(B4:B1011,"Ceará")</f>
+        <f>COUNTIF(B3:B992,"Colo-Colo")</f>
         <v>1</v>
       </c>
       <c r="N30" s="36"/>
@@ -3229,31 +3249,31 @@
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
-        <v>39582</v>
+        <v>39593</v>
       </c>
       <c r="E31" s="15">
         <v>2008</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G31" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="43" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J31" s="43" t="s">
         <v>1</v>
@@ -3262,11 +3282,11 @@
         <v>49</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="M31" s="17">
-        <f>COUNTIF(B4:B993,"Colo-Colo")</f>
-        <v>1</v>
+        <f>COUNTIF(B3:B997,"Corinthians")</f>
+        <v>2</v>
       </c>
       <c r="N31" s="36"/>
       <c r="O31" s="36"/>
@@ -3290,22 +3310,22 @@
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="43">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>39593</v>
+        <v>39690</v>
       </c>
       <c r="E32" s="15">
         <v>2008</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="13">
         <v>1</v>
@@ -3323,11 +3343,11 @@
         <v>49</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M32" s="17">
-        <f>COUNTIF(B4:B998,"Corinthians")</f>
-        <v>2</v>
+        <f>COUNTIF(B3:B1008,"CRB")</f>
+        <v>1</v>
       </c>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
@@ -3351,19 +3371,19 @@
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="43">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1">
-        <v>39690</v>
+        <v>39900</v>
       </c>
       <c r="E33" s="15">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>86</v>
@@ -3372,22 +3392,22 @@
         <v>1</v>
       </c>
       <c r="H33" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M33" s="17">
-        <f>COUNTIF(B4:B1009,"CRB")</f>
+        <f>COUNTIF(B3:B1013,"Deportivo Quito")</f>
         <v>1</v>
       </c>
       <c r="N33" s="36"/>
@@ -3412,43 +3432,43 @@
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="43">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1">
-        <v>39900</v>
+        <v>40266</v>
       </c>
       <c r="E34" s="15">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G34" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M34" s="17">
-        <f>COUNTIF(B4:B1014,"Deportivo Quito")</f>
+        <f>COUNTIF(B3:B1001,"Guarani")</f>
         <v>1</v>
       </c>
       <c r="N34" s="36"/>
@@ -3473,16 +3493,16 @@
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="43">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1">
-        <v>40266</v>
+        <v>40397</v>
       </c>
       <c r="E35" s="15">
         <v>2010</v>
@@ -3491,25 +3511,25 @@
         <v>20</v>
       </c>
       <c r="G35" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M35" s="17">
-        <f>COUNTIF(B4:B1002,"Guarani")</f>
+        <f>COUNTIF(B3:B1014,"Independiente Del Valle")</f>
         <v>1</v>
       </c>
       <c r="N35" s="36"/>
@@ -3534,16 +3554,16 @@
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="43">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>40397</v>
+        <v>40474</v>
       </c>
       <c r="E36" s="15">
         <v>2010</v>
@@ -3552,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" s="15">
         <v>0</v>
@@ -3567,10 +3587,10 @@
         <v>49</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M36" s="17">
-        <f>COUNTIF(B4:B1015,"Independiente Del Valle")</f>
+        <f>COUNTIF(B3:B997,"Macaé")</f>
         <v>1</v>
       </c>
       <c r="N36" s="36"/>
@@ -3595,31 +3615,31 @@
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="43">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1">
-        <v>40474</v>
+        <v>40607</v>
       </c>
       <c r="E37" s="15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J37" s="43" t="s">
         <v>1</v>
@@ -3628,10 +3648,10 @@
         <v>49</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="M37" s="17">
-        <f>COUNTIF(B4:B998,"Macaé")</f>
+        <f>COUNTIF(B3:B1012,"Mogi Mirim")</f>
         <v>1</v>
       </c>
       <c r="N37" s="36"/>
@@ -3656,25 +3676,25 @@
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="43">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1">
-        <v>40607</v>
+        <v>40622</v>
       </c>
       <c r="E38" s="15">
         <v>2011</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G38" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="15">
         <v>2</v>
@@ -3689,10 +3709,10 @@
         <v>49</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="M38" s="17">
-        <f>COUNTIF(B4:B1013,"Mogi Mirim")</f>
+        <f>COUNTIF(B3:B998,"Olimpia")</f>
         <v>1</v>
       </c>
       <c r="N38" s="36"/>
@@ -3716,44 +3736,44 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="43">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" ref="A39:A108" si="4">SUM(A38+1)</f>
+        <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1">
-        <v>40622</v>
+        <v>40793</v>
       </c>
       <c r="E39" s="15">
         <v>2011</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G39" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J39" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="M39" s="17">
-        <f>COUNTIF(B4:B999,"Olimpia")</f>
+        <f>COUNTIF(B3:B1012,"Paysandu")</f>
         <v>1</v>
       </c>
       <c r="N39" s="36"/>
@@ -3777,45 +3797,45 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="43">
-        <f t="shared" ref="A40:A109" si="4">SUM(A39+1)</f>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>39</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1">
-        <v>40793</v>
+        <v>40824</v>
       </c>
       <c r="E40" s="15">
         <v>2011</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G40" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="M40" s="17">
-        <f>COUNTIF(B4:B1013,"Paysandu")</f>
-        <v>1</v>
+        <f>COUNTIF(B3:B1008,"Ponte Preta")</f>
+        <v>2</v>
       </c>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
@@ -3839,43 +3859,43 @@
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="43">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D41" s="1">
-        <v>40824</v>
+        <v>41028</v>
       </c>
       <c r="E41" s="15">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="M41" s="17">
-        <f>COUNTIF(B4:B1009,"Ponte Preta")</f>
+        <f>COUNTIF(B3:B1011,"Portuguesa-RJ")</f>
         <v>2</v>
       </c>
       <c r="N41" s="36"/>
@@ -3900,25 +3920,25 @@
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1">
-        <v>41028</v>
+        <v>41322</v>
       </c>
       <c r="E42" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G42" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" s="15">
         <v>1</v>
@@ -3932,12 +3952,12 @@
       <c r="K42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="17">
-        <f>COUNTIF(B4:B1012,"Portuguesa-RJ")</f>
-        <v>2</v>
+      <c r="L42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" s="7">
+        <f>COUNTIF(B3:B1019,"Resende")</f>
+        <v>1</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
@@ -3961,43 +3981,43 @@
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="43">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1">
-        <v>41322</v>
+        <v>41399</v>
       </c>
       <c r="E43" s="15">
         <v>2013</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G43" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="43" t="s">
-        <v>1</v>
+      <c r="J43" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="7">
-        <f>COUNTIF(B4:B1020,"Resende")</f>
+      <c r="L43" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="33">
+        <f>COUNTIF(B3:B1007,"São Caetano")</f>
         <v>1</v>
       </c>
       <c r="N43" s="36"/>
@@ -4022,46 +4042,46 @@
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="43">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1">
-        <v>41399</v>
+        <v>41552</v>
       </c>
       <c r="E44" s="15">
         <v>2013</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G44" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L44" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="33">
-        <f>COUNTIF(B4:B1008,"São Caetano")</f>
-        <v>1</v>
-      </c>
-      <c r="N44" s="36"/>
+      <c r="L44" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="50">
+        <f>COUNTIF(B3:B1013,"São Paulo")</f>
+        <v>2</v>
+      </c>
+      <c r="N44" s="41"/>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
       <c r="Q44" s="36"/>
@@ -4083,28 +4103,28 @@
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="43">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1">
-        <v>41552</v>
+        <v>41616</v>
       </c>
       <c r="E45" s="15">
         <v>2013</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G45" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H45" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>38</v>
@@ -4115,12 +4135,12 @@
       <c r="K45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L45" s="28" t="s">
-        <v>81</v>
+      <c r="L45" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="M45" s="50">
-        <f>COUNTIF(B4:B1014,"São Paulo")</f>
-        <v>2</v>
+        <f>COUNTIF(B3:B1037,"Paraná")</f>
+        <v>1</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="36"/>
@@ -4144,31 +4164,31 @@
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1">
-        <v>41616</v>
+        <v>41675</v>
       </c>
       <c r="E46" s="15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="15">
         <v>0</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J46" s="43" t="s">
         <v>23</v>
@@ -4176,11 +4196,11 @@
       <c r="K46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="s">
-        <v>100</v>
+      <c r="L46" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="M46" s="50">
-        <f>COUNTIF(B4:B1038,"Paraná")</f>
+        <f>COUNTIF(B3:B1037,"Avaí")</f>
         <v>1</v>
       </c>
       <c r="N46" s="41"/>
@@ -4205,16 +4225,16 @@
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1">
-        <v>41675</v>
+        <v>41716</v>
       </c>
       <c r="E47" s="15">
         <v>2014</v>
@@ -4223,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
@@ -4238,10 +4258,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M47" s="50">
-        <f>COUNTIF(B4:B1038,"Avaí")</f>
+        <f>COUNTIF(B3:B1000,"Nacional-URU")</f>
         <v>1</v>
       </c>
       <c r="N47" s="41"/>
@@ -4264,33 +4284,33 @@
       <c r="AE47" s="35"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
+      <c r="A48" s="42">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1">
-        <v>41716</v>
+        <v>41847</v>
       </c>
       <c r="E48" s="15">
         <v>2014</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J48" s="43" t="s">
         <v>23</v>
@@ -4302,7 +4322,7 @@
         <v>113</v>
       </c>
       <c r="M48" s="50">
-        <f>COUNTIF(B4:B1001,"Nacional-URU")</f>
+        <f>COUNTIF(B4:B1001,"Atlético Goianiense")</f>
         <v>1</v>
       </c>
       <c r="N48" s="41"/>
@@ -4325,30 +4345,30 @@
       <c r="AE48" s="35"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="42">
+      <c r="A49" s="43">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1">
-        <v>41847</v>
+        <v>41874</v>
       </c>
       <c r="E49" s="15">
         <v>2014</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="43" t="s">
         <v>38</v>
@@ -4363,7 +4383,7 @@
         <v>114</v>
       </c>
       <c r="M49" s="50">
-        <f>COUNTIF(B5:B1002,"Atlético Goianiense")</f>
+        <f>COUNTIF(B5:B1002,"Cruzeiro")</f>
         <v>1</v>
       </c>
       <c r="N49" s="41"/>
@@ -4388,16 +4408,16 @@
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="43">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="1">
-        <v>41874</v>
+        <v>41882</v>
       </c>
       <c r="E50" s="15">
         <v>2014</v>
@@ -4420,14 +4440,7 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="M50" s="50">
-        <f>COUNTIF(B6:B1003,"Cruzeiro")</f>
-        <v>1</v>
-      </c>
-      <c r="N50" s="41"/>
+      <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
@@ -4449,38 +4462,40 @@
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="43">
         <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="1">
-        <v>41882</v>
-      </c>
-      <c r="E51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="18">
+        <v>41899</v>
+      </c>
+      <c r="E51" s="20">
         <v>2014</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="13">
-        <v>1</v>
-      </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="43" t="s">
+      <c r="F51" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="19">
+        <v>2</v>
+      </c>
+      <c r="H51" s="20">
+        <v>3</v>
+      </c>
+      <c r="I51" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="43" t="s">
+      <c r="J51" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="K51" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="36"/>
+      <c r="M51" s="40"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
@@ -4503,36 +4518,36 @@
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="43">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="18">
-        <v>41899</v>
-      </c>
-      <c r="E52" s="20">
+        <v>51</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="1">
+        <v>41920</v>
+      </c>
+      <c r="E52" s="15">
         <v>2014</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G52" s="19">
-        <v>2</v>
-      </c>
-      <c r="H52" s="20">
-        <v>3</v>
-      </c>
-      <c r="I52" s="42" t="s">
+      <c r="F52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1</v>
+      </c>
+      <c r="I52" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="42" t="s">
+      <c r="J52" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L52" s="36"/>
@@ -4559,34 +4574,34 @@
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1">
-        <v>41920</v>
+        <v>42035</v>
       </c>
       <c r="E53" s="15">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>0</v>
@@ -4615,16 +4630,16 @@
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
-        <v>42035</v>
+        <v>42042</v>
       </c>
       <c r="E54" s="15">
         <v>2015</v>
@@ -4633,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" s="15">
         <v>0</v>
@@ -4642,7 +4657,7 @@
         <v>24</v>
       </c>
       <c r="J54" s="43" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>0</v>
@@ -4671,16 +4686,16 @@
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1">
-        <v>42042</v>
+        <v>42056</v>
       </c>
       <c r="E55" s="15">
         <v>2015</v>
@@ -4689,10 +4704,10 @@
         <v>20</v>
       </c>
       <c r="G55" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H55" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="43" t="s">
         <v>24</v>
@@ -4727,16 +4742,16 @@
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
         <f t="shared" si="4"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1">
-        <v>42056</v>
+        <v>42064</v>
       </c>
       <c r="E56" s="15">
         <v>2015</v>
@@ -4745,16 +4760,16 @@
         <v>20</v>
       </c>
       <c r="G56" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="43" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>0</v>
@@ -4783,28 +4798,28 @@
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1">
-        <v>42064</v>
+        <v>42071</v>
       </c>
       <c r="E57" s="15">
         <v>2015</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G57" s="13">
         <v>1</v>
       </c>
       <c r="H57" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57" s="43" t="s">
         <v>24</v>
@@ -4816,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="36"/>
-      <c r="M57" s="40"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="36"/>
       <c r="O57" s="36"/>
       <c r="P57" s="36"/>
@@ -4839,34 +4854,34 @@
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1">
-        <v>42071</v>
+        <v>42078</v>
       </c>
       <c r="E58" s="15">
         <v>2015</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G58" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J58" s="43" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>0</v>
@@ -4895,34 +4910,34 @@
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
         <f t="shared" si="4"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1">
-        <v>42078</v>
+        <v>42092</v>
       </c>
       <c r="E59" s="15">
         <v>2015</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G59" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J59" s="43" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>0</v>
@@ -4951,25 +4966,25 @@
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="43">
         <f t="shared" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D60" s="1">
-        <v>42092</v>
+        <v>42099</v>
       </c>
       <c r="E60" s="15">
         <v>2015</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G60" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" s="15">
         <v>1</v>
@@ -4978,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="J60" s="43" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>0</v>
@@ -5007,34 +5022,34 @@
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="43">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1">
-        <v>42099</v>
+        <v>42127</v>
       </c>
       <c r="E61" s="15">
         <v>2015</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G61" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="43" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>0</v>
@@ -5063,34 +5078,34 @@
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="43">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D62" s="1">
-        <v>42127</v>
+        <v>42140</v>
       </c>
       <c r="E62" s="15">
         <v>2015</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G62" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" s="15">
+        <v>1</v>
+      </c>
+      <c r="I62" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="I62" s="43" t="s">
-        <v>24</v>
-      </c>
       <c r="J62" s="43" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>0</v>
@@ -5119,16 +5134,16 @@
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="43">
         <f t="shared" si="4"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D63" s="1">
-        <v>42140</v>
+        <v>42154</v>
       </c>
       <c r="E63" s="15">
         <v>2015</v>
@@ -5137,10 +5152,10 @@
         <v>20</v>
       </c>
       <c r="G63" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="43" t="s">
         <v>2</v>
@@ -5175,16 +5190,16 @@
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="43">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1">
-        <v>42154</v>
+        <v>42160</v>
       </c>
       <c r="E64" s="15">
         <v>2015</v>
@@ -5193,7 +5208,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H64" s="15">
         <v>0</v>
@@ -5231,28 +5246,28 @@
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="43">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1">
-        <v>42160</v>
+        <v>42174</v>
       </c>
       <c r="E65" s="15">
         <v>2015</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G65" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>2</v>
@@ -5287,16 +5302,16 @@
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1">
-        <v>42174</v>
+        <v>42199</v>
       </c>
       <c r="E66" s="15">
         <v>2015</v>
@@ -5305,13 +5320,13 @@
         <v>86</v>
       </c>
       <c r="G66" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="15">
         <v>1</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J66" s="43" t="s">
         <v>1</v>
@@ -5343,31 +5358,31 @@
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
-        <v>42199</v>
+        <v>42213</v>
       </c>
       <c r="E67" s="15">
         <v>2015</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G67" s="13">
         <v>0</v>
       </c>
       <c r="H67" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J67" s="43" t="s">
         <v>1</v>
@@ -5399,16 +5414,16 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1">
-        <v>42213</v>
+        <v>42239</v>
       </c>
       <c r="E68" s="15">
         <v>2015</v>
@@ -5417,10 +5432,10 @@
         <v>86</v>
       </c>
       <c r="G68" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68" s="43" t="s">
         <v>2</v>
@@ -5455,28 +5470,28 @@
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="43">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
-        <v>42239</v>
+        <v>42233</v>
       </c>
       <c r="E69" s="15">
         <v>2015</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G69" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H69" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="43" t="s">
         <v>2</v>
@@ -5511,28 +5526,28 @@
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="43">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" s="1">
-        <v>42233</v>
+        <v>42322</v>
       </c>
       <c r="E70" s="15">
         <v>2015</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G70" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H70" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70" s="43" t="s">
         <v>2</v>
@@ -5567,28 +5582,28 @@
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="43">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>42322</v>
+        <v>42336</v>
       </c>
       <c r="E71" s="15">
         <v>2015</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G71" s="13">
         <v>0</v>
       </c>
       <c r="H71" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" s="43" t="s">
         <v>2</v>
@@ -5623,34 +5638,34 @@
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="43">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D72" s="1">
-        <v>42336</v>
+        <v>42402</v>
       </c>
       <c r="E72" s="15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G72" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J72" s="43" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>0</v>
@@ -5679,16 +5694,16 @@
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="43">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="1">
-        <v>42402</v>
+        <v>42435</v>
       </c>
       <c r="E73" s="15">
         <v>2016</v>
@@ -5697,10 +5712,10 @@
         <v>20</v>
       </c>
       <c r="G73" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="43" t="s">
         <v>24</v>
@@ -5735,34 +5750,34 @@
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="43">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1">
-        <v>42435</v>
+        <v>42491</v>
       </c>
       <c r="E74" s="15">
         <v>2016</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G74" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J74" s="43" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>0</v>
@@ -5791,25 +5806,25 @@
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D75" s="1">
-        <v>42491</v>
+        <v>42498</v>
       </c>
       <c r="E75" s="15">
         <v>2016</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="15">
         <v>1</v>
@@ -5847,16 +5862,16 @@
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="43">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1">
-        <v>42498</v>
+        <v>42505</v>
       </c>
       <c r="E76" s="15">
         <v>2016</v>
@@ -5865,16 +5880,16 @@
         <v>86</v>
       </c>
       <c r="G76" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="15">
         <v>1</v>
       </c>
       <c r="I76" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="43" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K76" s="7" t="s">
         <v>0</v>
@@ -5903,25 +5918,25 @@
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="43">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="D77" s="1">
-        <v>42505</v>
+        <v>42554</v>
       </c>
       <c r="E77" s="15">
         <v>2016</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G77" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="15">
         <v>1</v>
@@ -5929,7 +5944,7 @@
       <c r="I77" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="43" t="s">
         <v>79</v>
       </c>
       <c r="K77" s="7" t="s">
@@ -5959,16 +5974,16 @@
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="43">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D78" s="1">
-        <v>42554</v>
+        <v>42582</v>
       </c>
       <c r="E78" s="15">
         <v>2016</v>
@@ -5977,7 +5992,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H78" s="15">
         <v>1</v>
@@ -5986,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>0</v>
@@ -6015,25 +6030,25 @@
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D79" s="1">
-        <v>42582</v>
-      </c>
-      <c r="E79" s="15">
+        <v>42617</v>
+      </c>
+      <c r="E79" s="43">
         <v>2016</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="13">
-        <v>3</v>
+      <c r="G79" s="43">
+        <v>2</v>
       </c>
       <c r="H79" s="15">
         <v>1</v>
@@ -6042,7 +6057,7 @@
         <v>38</v>
       </c>
       <c r="J79" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>0</v>
@@ -6071,16 +6086,16 @@
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D80" s="1">
-        <v>42617</v>
+        <v>42620</v>
       </c>
       <c r="E80" s="43">
         <v>2016</v>
@@ -6089,16 +6104,16 @@
         <v>20</v>
       </c>
       <c r="G80" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J80" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>0</v>
@@ -6127,18 +6142,18 @@
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="43">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C81" s="43" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="1">
-        <v>42620</v>
-      </c>
-      <c r="E81" s="43">
+        <v>42655</v>
+      </c>
+      <c r="E81" s="15">
         <v>2016</v>
       </c>
       <c r="F81" s="43" t="s">
@@ -6154,7 +6169,7 @@
         <v>38</v>
       </c>
       <c r="J81" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>0</v>
@@ -6183,16 +6198,16 @@
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="43">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D82" s="1">
-        <v>42655</v>
+        <v>42659</v>
       </c>
       <c r="E82" s="15">
         <v>2016</v>
@@ -6201,16 +6216,16 @@
         <v>20</v>
       </c>
       <c r="G82" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J82" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>0</v>
@@ -6239,37 +6254,37 @@
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="43">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
-        <v>42659</v>
+        <v>42672</v>
       </c>
       <c r="E83" s="15">
         <v>2016</v>
       </c>
       <c r="F83" s="43" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G83" s="43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H83" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J83" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
@@ -6295,16 +6310,16 @@
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="43">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D84" s="1">
-        <v>42672</v>
+        <v>42690</v>
       </c>
       <c r="E84" s="15">
         <v>2016</v>
@@ -6316,13 +6331,13 @@
         <v>0</v>
       </c>
       <c r="H84" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J84" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>49</v>
@@ -6351,34 +6366,34 @@
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="43">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D85" s="1">
-        <v>42690</v>
+        <v>42700</v>
       </c>
       <c r="E85" s="15">
         <v>2016</v>
       </c>
       <c r="F85" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G85" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="43" t="s">
         <v>38</v>
       </c>
       <c r="J85" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>49</v>
@@ -6407,22 +6422,22 @@
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="1">
-        <v>42700</v>
-      </c>
-      <c r="E86" s="15">
-        <v>2016</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="27">
+        <v>42763</v>
+      </c>
+      <c r="E86" s="26">
+        <v>2017</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G86" s="43">
         <v>1</v>
@@ -6431,13 +6446,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J86" s="43" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
@@ -6463,31 +6478,31 @@
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="43">
         <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="27">
-        <v>42763</v>
-      </c>
-      <c r="E87" s="26">
+        <v>86</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42767</v>
+      </c>
+      <c r="E87" s="15">
         <v>2017</v>
       </c>
       <c r="F87" s="43" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G87" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="15">
         <v>1</v>
       </c>
       <c r="I87" s="43" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J87" s="43" t="s">
         <v>1</v>
@@ -6517,9 +6532,9 @@
       <c r="AE87" s="35"/>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="43">
+      <c r="A88" s="42">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="43" t="s">
         <v>101</v>
@@ -6528,9 +6543,9 @@
         <v>33</v>
       </c>
       <c r="D88" s="1">
-        <v>42767</v>
-      </c>
-      <c r="E88" s="15">
+        <v>42770</v>
+      </c>
+      <c r="E88" s="43">
         <v>2017</v>
       </c>
       <c r="F88" s="43" t="s">
@@ -6539,11 +6554,11 @@
       <c r="G88" s="43">
         <v>2</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="43">
         <v>1</v>
       </c>
       <c r="I88" s="43" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J88" s="43" t="s">
         <v>1</v>
@@ -6573,38 +6588,38 @@
       <c r="AE88" s="35"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="42">
+      <c r="A89" s="43">
         <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="B89" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="1">
-        <v>42770</v>
-      </c>
-      <c r="E89" s="43">
+      <c r="C89" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="18">
+        <v>42781</v>
+      </c>
+      <c r="E89" s="42">
         <v>2017</v>
       </c>
-      <c r="F89" s="43" t="s">
+      <c r="F89" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G89" s="43">
-        <v>2</v>
-      </c>
-      <c r="H89" s="43">
-        <v>1</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J89" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K89" s="7" t="s">
+      <c r="G89" s="42">
+        <v>1</v>
+      </c>
+      <c r="H89" s="42">
+        <v>0</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="11" t="s">
         <v>0</v>
       </c>
       <c r="L89" s="36"/>
@@ -6631,37 +6646,37 @@
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="43">
         <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D90" s="18">
-        <v>42781</v>
-      </c>
-      <c r="E90" s="42">
+      <c r="D90" s="1">
+        <v>42803</v>
+      </c>
+      <c r="E90" s="15">
         <v>2017</v>
       </c>
-      <c r="F90" s="42" t="s">
+      <c r="F90" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="42">
-        <v>1</v>
-      </c>
-      <c r="H90" s="42">
-        <v>0</v>
-      </c>
-      <c r="I90" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>0</v>
+      <c r="G90" s="43">
+        <v>1</v>
+      </c>
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
+      <c r="I90" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J90" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
@@ -6687,25 +6702,25 @@
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="43">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>42803</v>
+        <v>42813</v>
       </c>
       <c r="E91" s="15">
         <v>2017</v>
       </c>
       <c r="F91" s="43" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G91" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="15">
         <v>0</v>
@@ -6717,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -6743,16 +6758,16 @@
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
-        <v>42813</v>
+        <v>42817</v>
       </c>
       <c r="E92" s="15">
         <v>2017</v>
@@ -6761,10 +6776,10 @@
         <v>86</v>
       </c>
       <c r="G92" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92" s="43" t="s">
         <v>24</v>
@@ -6773,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
@@ -6799,28 +6814,28 @@
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="43">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="43" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D93" s="1">
-        <v>42817</v>
+        <v>42834</v>
       </c>
       <c r="E93" s="15">
         <v>2017</v>
       </c>
       <c r="F93" s="43" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G93" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" s="43" t="s">
         <v>24</v>
@@ -6855,28 +6870,28 @@
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="43">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D94" s="1">
-        <v>42834</v>
+        <v>42841</v>
       </c>
       <c r="E94" s="15">
         <v>2017</v>
       </c>
       <c r="F94" s="43" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G94" s="43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="43" t="s">
         <v>24</v>
@@ -6911,31 +6926,31 @@
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="43">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D95" s="1">
-        <v>42841</v>
+        <v>42851</v>
       </c>
       <c r="E95" s="15">
         <v>2017</v>
       </c>
       <c r="F95" s="43" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G95" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J95" s="43" t="s">
         <v>1</v>
@@ -6967,37 +6982,37 @@
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="43">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="D96" s="1">
-        <v>42851</v>
+        <v>42857</v>
       </c>
       <c r="E96" s="15">
         <v>2017</v>
       </c>
       <c r="F96" s="43" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G96" s="43">
+        <v>0</v>
+      </c>
+      <c r="H96" s="15">
         <v>2</v>
       </c>
-      <c r="H96" s="15">
-        <v>1</v>
-      </c>
       <c r="I96" s="43" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="J96" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
@@ -7023,28 +7038,28 @@
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="43">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>108</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D97" s="1">
-        <v>42857</v>
+        <v>42873</v>
       </c>
       <c r="E97" s="15">
         <v>2017</v>
       </c>
       <c r="F97" s="43" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G97" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="43" t="s">
         <v>43</v>
@@ -7064,11 +7079,11 @@
       <c r="R97" s="36"/>
       <c r="S97" s="40"/>
       <c r="T97" s="36"/>
-      <c r="U97" s="37"/>
+      <c r="U97" s="36"/>
       <c r="V97" s="36"/>
-      <c r="W97" s="38"/>
-      <c r="X97" s="39"/>
-      <c r="Y97" s="37"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
       <c r="Z97" s="36"/>
       <c r="AA97" s="35"/>
       <c r="AB97" s="35"/>
@@ -7079,16 +7094,16 @@
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
         <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="43" t="s">
-        <v>109</v>
-      </c>
       <c r="C98" s="43" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="D98" s="1">
-        <v>42873</v>
+        <v>42876</v>
       </c>
       <c r="E98" s="15">
         <v>2017</v>
@@ -7097,19 +7112,19 @@
         <v>20</v>
       </c>
       <c r="G98" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" s="15">
         <v>0</v>
       </c>
       <c r="I98" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J98" s="43" t="s">
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L98" s="36"/>
       <c r="M98" s="36"/>
@@ -7133,18 +7148,18 @@
       <c r="AE98" s="35"/>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A99" s="43">
+      <c r="A99" s="42">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="D99" s="1">
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="E99" s="15">
         <v>2017</v>
@@ -7153,7 +7168,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" s="15">
         <v>0</v>
@@ -7189,38 +7204,38 @@
       <c r="AE99" s="35"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="42">
+      <c r="A100" s="43">
         <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="1">
-        <v>42883</v>
-      </c>
-      <c r="E100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="18">
+        <v>42897</v>
+      </c>
+      <c r="E100" s="20">
         <v>2017</v>
       </c>
-      <c r="F100" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="43">
-        <v>1</v>
-      </c>
-      <c r="H100" s="15">
-        <v>0</v>
-      </c>
-      <c r="I100" s="43" t="s">
+      <c r="F100" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="42">
+        <v>2</v>
+      </c>
+      <c r="H100" s="20">
+        <v>2</v>
+      </c>
+      <c r="I100" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J100" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K100" s="7" t="s">
+      <c r="J100" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>49</v>
       </c>
       <c r="L100" s="36"/>
@@ -7247,84 +7262,79 @@
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="43">
         <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="B101" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="18">
-        <v>42897</v>
-      </c>
-      <c r="E101" s="20">
+        <v>100</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42907</v>
+      </c>
+      <c r="E101" s="15">
         <v>2017</v>
       </c>
-      <c r="F101" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G101" s="42">
-        <v>2</v>
-      </c>
-      <c r="H101" s="20">
-        <v>2</v>
-      </c>
-      <c r="I101" s="42" t="s">
+      <c r="F101" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="43">
+        <v>3</v>
+      </c>
+      <c r="H101" s="15">
+        <v>1</v>
+      </c>
+      <c r="I101" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L101" s="36"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="36"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
-      <c r="Z101" s="36"/>
-      <c r="AA101" s="35"/>
-      <c r="AB101" s="35"/>
-      <c r="AC101" s="35"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="35"/>
+      <c r="J101" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K101" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="35"/>
+      <c r="W101" s="35"/>
+      <c r="X101" s="35"/>
+      <c r="Y101" s="35"/>
+      <c r="Z101" s="35"/>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A102" s="43">
+      <c r="A102" s="42">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D102" s="1">
-        <v>42907</v>
+        <v>42912</v>
       </c>
       <c r="E102" s="15">
         <v>2017</v>
       </c>
       <c r="F102" s="43" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G102" s="43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" s="43" t="s">
         <v>38</v>
@@ -7354,37 +7364,37 @@
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="42">
         <f t="shared" si="4"/>
-        <v>101</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D103" s="1">
-        <v>42912</v>
-      </c>
-      <c r="E103" s="15">
+        <v>102</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="27">
+        <v>42925</v>
+      </c>
+      <c r="E103" s="26">
         <v>2017</v>
       </c>
-      <c r="F103" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G103" s="43">
-        <v>0</v>
-      </c>
-      <c r="H103" s="15">
-        <v>2</v>
-      </c>
-      <c r="I103" s="43" t="s">
+      <c r="F103" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" s="25">
+        <v>1</v>
+      </c>
+      <c r="H103" s="26">
+        <v>1</v>
+      </c>
+      <c r="I103" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J103" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K103" s="43" t="s">
-        <v>0</v>
+      <c r="J103" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="L103" s="35"/>
       <c r="M103" s="35"/>
@@ -7403,39 +7413,39 @@
       <c r="Z103" s="35"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="42">
+      <c r="A104" s="43">
         <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="27">
-        <v>42925</v>
-      </c>
-      <c r="E104" s="26">
+        <v>103</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="18">
+        <v>42928</v>
+      </c>
+      <c r="E104" s="20">
         <v>2017</v>
       </c>
-      <c r="F104" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G104" s="25">
-        <v>1</v>
-      </c>
-      <c r="H104" s="26">
-        <v>1</v>
-      </c>
-      <c r="I104" s="25" t="s">
+      <c r="F104" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="42">
+        <v>1</v>
+      </c>
+      <c r="H104" s="20">
+        <v>0</v>
+      </c>
+      <c r="I104" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J104" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K104" s="30" t="s">
-        <v>49</v>
+      <c r="J104" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>0</v>
       </c>
       <c r="L104" s="35"/>
       <c r="M104" s="35"/>
@@ -7454,38 +7464,38 @@
       <c r="Z104" s="35"/>
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A105" s="43">
+      <c r="A105" s="42">
         <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="18">
-        <v>42928</v>
-      </c>
-      <c r="E105" s="20">
+        <v>104</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42933</v>
+      </c>
+      <c r="E105" s="15">
         <v>2017</v>
       </c>
-      <c r="F105" s="42" t="s">
+      <c r="F105" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="42">
-        <v>1</v>
-      </c>
-      <c r="H105" s="20">
-        <v>0</v>
-      </c>
-      <c r="I105" s="42" t="s">
+      <c r="G105" s="43">
+        <v>2</v>
+      </c>
+      <c r="H105" s="15">
+        <v>1</v>
+      </c>
+      <c r="I105" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="42" t="s">
+      <c r="J105" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" s="43" t="s">
         <v>0</v>
       </c>
       <c r="L105" s="35"/>
@@ -7505,39 +7515,39 @@
       <c r="Z105" s="35"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="42">
+      <c r="A106" s="43">
         <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="1">
-        <v>42933</v>
-      </c>
-      <c r="E106" s="15">
+        <v>105</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="18">
+        <v>42942</v>
+      </c>
+      <c r="E106" s="20">
         <v>2017</v>
       </c>
-      <c r="F106" s="43" t="s">
+      <c r="F106" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G106" s="43">
-        <v>2</v>
-      </c>
-      <c r="H106" s="15">
-        <v>1</v>
-      </c>
-      <c r="I106" s="43" t="s">
+      <c r="G106" s="42">
+        <v>3</v>
+      </c>
+      <c r="H106" s="20">
+        <v>0</v>
+      </c>
+      <c r="I106" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J106" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K106" s="43" t="s">
-        <v>0</v>
+      <c r="J106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="L106" s="35"/>
       <c r="M106" s="35"/>
@@ -7556,39 +7566,39 @@
       <c r="Z106" s="35"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A107" s="43">
+      <c r="A107" s="42">
         <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-      <c r="B107" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="18">
-        <v>42942</v>
-      </c>
-      <c r="E107" s="20">
+        <v>106</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42945</v>
+      </c>
+      <c r="E107" s="15">
         <v>2017</v>
       </c>
-      <c r="F107" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="42">
+      <c r="F107" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G107" s="43">
         <v>3</v>
       </c>
-      <c r="H107" s="20">
-        <v>0</v>
-      </c>
-      <c r="I107" s="42" t="s">
+      <c r="H107" s="15">
+        <v>4</v>
+      </c>
+      <c r="I107" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K107" s="42" t="s">
-        <v>49</v>
+      <c r="J107" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="L107" s="35"/>
       <c r="M107" s="35"/>
@@ -7607,39 +7617,39 @@
       <c r="Z107" s="35"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="42">
+      <c r="A108" s="43">
         <f t="shared" si="4"/>
-        <v>106</v>
-      </c>
-      <c r="B108" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D108" s="1">
-        <v>42945</v>
-      </c>
-      <c r="E108" s="15">
+        <v>107</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="18">
+        <v>42949</v>
+      </c>
+      <c r="E108" s="20">
         <v>2017</v>
       </c>
-      <c r="F108" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G108" s="43">
-        <v>3</v>
-      </c>
-      <c r="H108" s="15">
-        <v>4</v>
-      </c>
-      <c r="I108" s="43" t="s">
+      <c r="F108" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G108" s="42">
+        <v>1</v>
+      </c>
+      <c r="H108" s="20">
+        <v>2</v>
+      </c>
+      <c r="I108" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="J108" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K108" s="43" t="s">
-        <v>0</v>
+      <c r="J108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="L108" s="35"/>
       <c r="M108" s="35"/>
@@ -7659,38 +7669,38 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
-        <f t="shared" si="4"/>
-        <v>107</v>
-      </c>
-      <c r="B109" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" s="18">
-        <v>42949</v>
-      </c>
-      <c r="E109" s="20">
+        <f t="shared" ref="A109:A128" si="5">SUM(A108+1)</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42957</v>
+      </c>
+      <c r="E109" s="15">
         <v>2017</v>
       </c>
-      <c r="F109" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G109" s="42">
-        <v>1</v>
-      </c>
-      <c r="H109" s="20">
+      <c r="F109" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="43">
         <v>2</v>
       </c>
-      <c r="I109" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J109" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K109" s="42" t="s">
-        <v>49</v>
+      <c r="H109" s="15">
+        <v>0</v>
+      </c>
+      <c r="I109" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J109" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>0</v>
       </c>
       <c r="L109" s="35"/>
       <c r="M109" s="35"/>
@@ -7710,17 +7720,17 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="43">
-        <f t="shared" ref="A110:A128" si="5">SUM(A109+1)</f>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>109</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D110" s="1">
-        <v>42957</v>
+        <v>42960</v>
       </c>
       <c r="E110" s="15">
         <v>2017</v>
@@ -7729,13 +7739,13 @@
         <v>20</v>
       </c>
       <c r="G110" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" s="15">
         <v>0</v>
       </c>
       <c r="I110" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J110" s="43" t="s">
         <v>1</v>
@@ -7760,33 +7770,33 @@
       <c r="Z110" s="35"/>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A111" s="43">
+      <c r="A111" s="42">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C111" s="43" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
-        <v>42960</v>
+        <v>42963</v>
       </c>
       <c r="E111" s="15">
         <v>2017</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G111" s="43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="15">
         <v>0</v>
       </c>
       <c r="I111" s="43" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J111" s="43" t="s">
         <v>1</v>
@@ -7811,38 +7821,38 @@
       <c r="Z111" s="35"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="42">
+      <c r="A112" s="43">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="B112" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C112" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="1">
-        <v>42963</v>
-      </c>
-      <c r="E112" s="15">
+      <c r="C112" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="18">
+        <v>42970</v>
+      </c>
+      <c r="E112" s="20">
         <v>2017</v>
       </c>
-      <c r="F112" s="43" t="s">
+      <c r="F112" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G112" s="43">
-        <v>0</v>
-      </c>
-      <c r="H112" s="15">
-        <v>0</v>
-      </c>
-      <c r="I112" s="43" t="s">
+      <c r="G112" s="42">
+        <v>0</v>
+      </c>
+      <c r="H112" s="20">
+        <v>1</v>
+      </c>
+      <c r="I112" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K112" s="43" t="s">
+      <c r="J112" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="42" t="s">
         <v>0</v>
       </c>
       <c r="L112" s="35"/>
@@ -7864,36 +7874,36 @@
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <f t="shared" si="5"/>
-        <v>111</v>
-      </c>
-      <c r="B113" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="18">
-        <v>42970</v>
-      </c>
-      <c r="E113" s="20">
+      <c r="C113" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42988</v>
+      </c>
+      <c r="E113" s="15">
         <v>2017</v>
       </c>
-      <c r="F113" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G113" s="42">
-        <v>0</v>
-      </c>
-      <c r="H113" s="20">
-        <v>1</v>
-      </c>
-      <c r="I113" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J113" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K113" s="42" t="s">
+      <c r="F113" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="43">
+        <v>2</v>
+      </c>
+      <c r="H113" s="15">
+        <v>0</v>
+      </c>
+      <c r="I113" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J113" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="43" t="s">
         <v>0</v>
       </c>
       <c r="L113" s="35"/>
@@ -7913,27 +7923,27 @@
       <c r="Z113" s="35"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="43">
+      <c r="A114" s="44">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C114" s="43" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>42988</v>
+        <v>42991</v>
       </c>
       <c r="E114" s="15">
         <v>2017</v>
       </c>
       <c r="F114" s="43" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G114" s="43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H114" s="15">
         <v>0</v>
@@ -7966,37 +7976,37 @@
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="44">
         <f t="shared" si="5"/>
-        <v>113</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="44" t="s">
+        <v>19</v>
       </c>
       <c r="D115" s="1">
-        <v>42991</v>
+        <v>42994</v>
       </c>
       <c r="E115" s="15">
         <v>2017</v>
       </c>
-      <c r="F115" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G115" s="43">
-        <v>0</v>
+      <c r="F115" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="44">
+        <v>2</v>
       </c>
       <c r="H115" s="15">
         <v>0</v>
       </c>
-      <c r="I115" s="43" t="s">
+      <c r="I115" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K115" s="43" t="s">
-        <v>0</v>
+      <c r="J115" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="L115" s="35"/>
       <c r="M115" s="35"/>
@@ -8017,28 +8027,28 @@
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="44">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C116" s="44" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1">
-        <v>42994</v>
-      </c>
-      <c r="E116" s="15">
+        <v>43009</v>
+      </c>
+      <c r="E116" s="44">
         <v>2017</v>
       </c>
       <c r="F116" s="44" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G116" s="44">
         <v>2</v>
       </c>
-      <c r="H116" s="15">
-        <v>0</v>
+      <c r="H116" s="44">
+        <v>3</v>
       </c>
       <c r="I116" s="44" t="s">
         <v>38</v>
@@ -8047,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="44" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L116" s="35"/>
       <c r="M116" s="35"/>
@@ -8068,28 +8078,28 @@
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="44">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D117" s="1">
-        <v>43009</v>
+        <v>43019</v>
       </c>
       <c r="E117" s="44">
         <v>2017</v>
       </c>
       <c r="F117" s="44" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G117" s="44">
         <v>2</v>
       </c>
       <c r="H117" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117" s="44" t="s">
         <v>38</v>
@@ -8098,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="44" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L117" s="35"/>
       <c r="M117" s="35"/>
@@ -8119,25 +8129,25 @@
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="44">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C118" s="44" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D118" s="1">
-        <v>43019</v>
+        <v>43022</v>
       </c>
       <c r="E118" s="44">
         <v>2017</v>
       </c>
       <c r="F118" s="44" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="G118" s="44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H118" s="44">
         <v>1</v>
@@ -8146,10 +8156,10 @@
         <v>38</v>
       </c>
       <c r="J118" s="44" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K118" s="44" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L118" s="35"/>
       <c r="M118" s="35"/>
@@ -8168,27 +8178,27 @@
       <c r="Z118" s="35"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="44">
+      <c r="A119" s="45">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="44" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C119" s="44" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D119" s="1">
-        <v>43022</v>
+        <v>43031</v>
       </c>
       <c r="E119" s="44">
         <v>2017</v>
       </c>
       <c r="F119" s="44" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G119" s="44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119" s="44">
         <v>1</v>
@@ -8197,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="J119" s="44" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K119" s="44" t="s">
         <v>0</v>
@@ -8219,38 +8229,38 @@
       <c r="Z119" s="35"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A120" s="45">
+      <c r="A120" s="46">
         <f t="shared" si="5"/>
-        <v>118</v>
-      </c>
-      <c r="B120" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="44" t="s">
-        <v>33</v>
+        <v>119</v>
+      </c>
+      <c r="B120" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="D120" s="1">
-        <v>43031</v>
-      </c>
-      <c r="E120" s="44">
+        <v>43043</v>
+      </c>
+      <c r="E120" s="45">
         <v>2017</v>
       </c>
-      <c r="F120" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="44">
+      <c r="F120" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G120" s="45">
+        <v>1</v>
+      </c>
+      <c r="H120" s="45">
         <v>2</v>
       </c>
-      <c r="H120" s="44">
-        <v>1</v>
-      </c>
-      <c r="I120" s="44" t="s">
+      <c r="I120" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K120" s="44" t="s">
+      <c r="J120" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" s="49" t="s">
         <v>0</v>
       </c>
       <c r="L120" s="35"/>
@@ -8270,35 +8280,35 @@
       <c r="Z120" s="35"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="46">
+      <c r="A121" s="47">
         <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="B121" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>25</v>
+        <v>120</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="D121" s="1">
-        <v>43043</v>
-      </c>
-      <c r="E121" s="45">
+        <v>43050</v>
+      </c>
+      <c r="E121" s="46">
         <v>2017</v>
       </c>
-      <c r="F121" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G121" s="45">
-        <v>1</v>
-      </c>
-      <c r="H121" s="45">
-        <v>2</v>
-      </c>
-      <c r="I121" s="45" t="s">
+      <c r="F121" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G121" s="46">
+        <v>0</v>
+      </c>
+      <c r="H121" s="46">
+        <v>1</v>
+      </c>
+      <c r="I121" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="45" t="s">
+      <c r="J121" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K121" s="49" t="s">
@@ -8321,35 +8331,35 @@
       <c r="Z121" s="35"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="47">
+      <c r="A122" s="48">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="B122" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="46" t="s">
-        <v>13</v>
+        <v>121</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="D122" s="1">
-        <v>43050</v>
-      </c>
-      <c r="E122" s="46">
+        <v>43055</v>
+      </c>
+      <c r="E122" s="47">
         <v>2017</v>
       </c>
-      <c r="F122" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="G122" s="46">
-        <v>0</v>
-      </c>
-      <c r="H122" s="46">
-        <v>1</v>
-      </c>
-      <c r="I122" s="46" t="s">
+      <c r="F122" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G122" s="47">
+        <v>1</v>
+      </c>
+      <c r="H122" s="47">
+        <v>2</v>
+      </c>
+      <c r="I122" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="46" t="s">
+      <c r="J122" s="47" t="s">
         <v>1</v>
       </c>
       <c r="K122" s="49" t="s">
@@ -8372,35 +8382,35 @@
       <c r="Z122" s="35"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="48">
+      <c r="A123" s="49">
         <f t="shared" si="5"/>
-        <v>121</v>
-      </c>
-      <c r="B123" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="47" t="s">
-        <v>25</v>
+      <c r="C123" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="D123" s="1">
-        <v>43055</v>
-      </c>
-      <c r="E123" s="47">
+        <v>43072</v>
+      </c>
+      <c r="E123" s="48">
         <v>2017</v>
       </c>
-      <c r="F123" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="G123" s="47">
-        <v>1</v>
-      </c>
-      <c r="H123" s="47">
+      <c r="F123" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123" s="48">
         <v>2</v>
       </c>
-      <c r="I123" s="47" t="s">
+      <c r="H123" s="48">
+        <v>2</v>
+      </c>
+      <c r="I123" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="47" t="s">
+      <c r="J123" s="48" t="s">
         <v>1</v>
       </c>
       <c r="K123" s="49" t="s">
@@ -8423,38 +8433,38 @@
       <c r="Z123" s="35"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124" s="49">
+      <c r="A124" s="62">
         <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-      <c r="B124" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C124" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="1">
-        <v>43072</v>
-      </c>
-      <c r="E124" s="48">
-        <v>2017</v>
-      </c>
-      <c r="F124" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G124" s="48">
+        <v>43116</v>
+      </c>
+      <c r="E124" s="62">
+        <v>2018</v>
+      </c>
+      <c r="F124" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G124" s="62">
         <v>2</v>
       </c>
-      <c r="H124" s="48">
+      <c r="H124" s="62">
         <v>2</v>
       </c>
-      <c r="I124" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J124" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="K124" s="49" t="s">
+      <c r="I124" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="J124" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" s="62" t="s">
         <v>0</v>
       </c>
       <c r="L124" s="35"/>
@@ -8476,34 +8486,34 @@
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="62">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="62" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C125" s="62" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
-        <v>43116</v>
+        <v>43120</v>
       </c>
       <c r="E125" s="62">
         <v>2018</v>
       </c>
       <c r="F125" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G125" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125" s="62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" s="62" t="s">
         <v>24</v>
       </c>
       <c r="J125" s="62" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="K125" s="62" t="s">
         <v>0</v>
@@ -8527,25 +8537,25 @@
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="62">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D126" s="1">
-        <v>43120</v>
+        <v>42763</v>
       </c>
       <c r="E126" s="62">
         <v>2018</v>
       </c>
       <c r="F126" s="62" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G126" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="62">
         <v>0</v>
@@ -8554,49 +8564,34 @@
         <v>24</v>
       </c>
       <c r="J126" s="62" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K126" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="L126" s="35"/>
-      <c r="M126" s="35"/>
-      <c r="N126" s="35"/>
-      <c r="O126" s="35"/>
-      <c r="P126" s="35"/>
-      <c r="Q126" s="35"/>
-      <c r="R126" s="35"/>
-      <c r="S126" s="35"/>
-      <c r="T126" s="35"/>
-      <c r="U126" s="35"/>
-      <c r="V126" s="35"/>
-      <c r="W126" s="35"/>
-      <c r="X126" s="35"/>
-      <c r="Y126" s="35"/>
-      <c r="Z126" s="35"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="62">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="62" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
-        <v>42763</v>
+        <v>43134</v>
       </c>
       <c r="E127" s="62">
         <v>2018</v>
       </c>
       <c r="F127" s="62" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G127" s="62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" s="62">
         <v>0</v>
@@ -8614,25 +8609,25 @@
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="62">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="62" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D128" s="1">
-        <v>43134</v>
+        <v>43165</v>
       </c>
       <c r="E128" s="62">
         <v>2018</v>
       </c>
       <c r="F128" s="62" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G128" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="62">
         <v>0</v>
@@ -8651,9 +8646,6 @@
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -1204,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="M2" s="16">
         <f>COUNTIF(B3:B1005,"Vasco")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>38</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1396,19 +1396,19 @@
       </c>
       <c r="V2" s="56">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" s="57">
         <f>SUM(G3:G1001)</f>
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="X2" s="58">
         <f>SUM(H3:H1001)</f>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="59">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="56">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="S17" s="49">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
-        <f t="shared" ref="A109:A128" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A129" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -8642,6 +8642,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="62">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43177</v>
+      </c>
+      <c r="E129" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G129" s="25">
+        <v>2</v>
+      </c>
+      <c r="H129" s="25">
+        <v>3</v>
+      </c>
+      <c r="I129" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -420,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -629,15 +629,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0"/>
       </left>
       <right/>
@@ -674,19 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="6"/>
@@ -697,15 +675,6 @@
       <bottom style="thin">
         <color theme="6"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -732,11 +701,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,22 +823,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,40 +868,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,22 +1268,22 @@
       <c r="T1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="X1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="57" t="s">
         <v>98</v>
       </c>
       <c r="AA1" s="35"/>
@@ -1363,7 +1331,7 @@
       </c>
       <c r="M2" s="16">
         <f>COUNTIF(B3:B1005,"Vasco")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>38</v>
@@ -1377,7 +1345,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1386,31 +1354,31 @@
         <f>COUNTIF(E2, "2002")</f>
         <v>1</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="21">
         <f>COUNTIF(F2:F1007, "Vitória")</f>
-        <v>67</v>
-      </c>
-      <c r="U2" s="55">
+        <v>68</v>
+      </c>
+      <c r="U2" s="54">
         <f>COUNTIF(F2:F1007, "Empate")</f>
         <v>26</v>
       </c>
-      <c r="V2" s="56">
+      <c r="V2" s="23">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
         <v>35</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>201</v>
-      </c>
-      <c r="X2" s="58">
+        <v>204</v>
+      </c>
+      <c r="X2" s="56">
         <f>SUM(H3:H1001)</f>
-        <v>127</v>
-      </c>
-      <c r="Y2" s="59">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="58">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>75</v>
-      </c>
-      <c r="Z2" s="56">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="55">
         <f>COUNTIF(K3:K1006,"Não")</f>
         <v>52</v>
       </c>
@@ -1466,7 +1434,7 @@
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -1613,7 +1581,7 @@
         <f>COUNTIF(I1:I1007,"Libertadores")</f>
         <v>7</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="52" t="s">
         <v>36</v>
       </c>
       <c r="Q5" s="17">
@@ -1689,7 +1657,7 @@
         <f>COUNTIF(I3:I1009,"Copa do Brasil")</f>
         <v>6</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="17">
@@ -2438,7 +2406,7 @@
       </c>
       <c r="S17" s="49">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -2500,7 +2468,7 @@
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="54"/>
+      <c r="S18" s="51"/>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="36"/>
@@ -4196,7 +4164,7 @@
       <c r="K46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L46" s="61" t="s">
+      <c r="L46" s="53" t="s">
         <v>110</v>
       </c>
       <c r="M46" s="50">
@@ -4257,7 +4225,7 @@
       <c r="K47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="61" t="s">
+      <c r="L47" s="53" t="s">
         <v>112</v>
       </c>
       <c r="M47" s="50">
@@ -4318,7 +4286,7 @@
       <c r="K48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="53" t="s">
         <v>113</v>
       </c>
       <c r="M48" s="50">
@@ -4379,7 +4347,7 @@
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="61" t="s">
+      <c r="L49" s="53" t="s">
         <v>114</v>
       </c>
       <c r="M49" s="50">
@@ -7669,7 +7637,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
-        <f t="shared" ref="A109:A129" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A130" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -8433,38 +8401,38 @@
       <c r="Z123" s="35"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124" s="62">
+      <c r="A124" s="54">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B124" s="62" t="s">
+      <c r="B124" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C124" s="62" t="s">
+      <c r="C124" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="1">
         <v>43116</v>
       </c>
-      <c r="E124" s="62">
+      <c r="E124" s="54">
         <v>2018</v>
       </c>
-      <c r="F124" s="62" t="s">
+      <c r="F124" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G124" s="62">
+      <c r="G124" s="54">
         <v>2</v>
       </c>
-      <c r="H124" s="62">
+      <c r="H124" s="54">
         <v>2</v>
       </c>
-      <c r="I124" s="62" t="s">
+      <c r="I124" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J124" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="K124" s="62" t="s">
+      <c r="J124" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L124" s="35"/>
@@ -8484,38 +8452,38 @@
       <c r="Z124" s="35"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="62">
+      <c r="A125" s="54">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B125" s="62" t="s">
+      <c r="B125" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="C125" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="1">
         <v>43120</v>
       </c>
-      <c r="E125" s="62">
+      <c r="E125" s="54">
         <v>2018</v>
       </c>
-      <c r="F125" s="62" t="s">
+      <c r="F125" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G125" s="62">
-        <v>0</v>
-      </c>
-      <c r="H125" s="62">
-        <v>0</v>
-      </c>
-      <c r="I125" s="62" t="s">
+      <c r="G125" s="54">
+        <v>0</v>
+      </c>
+      <c r="H125" s="54">
+        <v>0</v>
+      </c>
+      <c r="I125" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J125" s="62" t="s">
+      <c r="J125" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K125" s="62" t="s">
+      <c r="K125" s="54" t="s">
         <v>0</v>
       </c>
       <c r="L125" s="35"/>
@@ -8535,146 +8503,182 @@
       <c r="Z125" s="35"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="62">
+      <c r="A126" s="54">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="B126" s="62" t="s">
+      <c r="B126" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="62" t="s">
+      <c r="C126" s="54" t="s">
         <v>31</v>
       </c>
       <c r="D126" s="1">
         <v>42763</v>
       </c>
-      <c r="E126" s="62">
+      <c r="E126" s="54">
         <v>2018</v>
       </c>
-      <c r="F126" s="62" t="s">
+      <c r="F126" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G126" s="62">
-        <v>1</v>
-      </c>
-      <c r="H126" s="62">
-        <v>0</v>
-      </c>
-      <c r="I126" s="62" t="s">
+      <c r="G126" s="54">
+        <v>1</v>
+      </c>
+      <c r="H126" s="54">
+        <v>0</v>
+      </c>
+      <c r="I126" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="K126" s="62" t="s">
+      <c r="J126" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A127" s="62">
+      <c r="A127" s="54">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="B127" s="62" t="s">
+      <c r="B127" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="62" t="s">
+      <c r="C127" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="1">
         <v>43134</v>
       </c>
-      <c r="E127" s="62">
+      <c r="E127" s="54">
         <v>2018</v>
       </c>
-      <c r="F127" s="62" t="s">
+      <c r="F127" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G127" s="62">
-        <v>0</v>
-      </c>
-      <c r="H127" s="62">
-        <v>0</v>
-      </c>
-      <c r="I127" s="62" t="s">
+      <c r="G127" s="54">
+        <v>0</v>
+      </c>
+      <c r="H127" s="54">
+        <v>0</v>
+      </c>
+      <c r="I127" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J127" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="K127" s="62" t="s">
+      <c r="J127" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="54" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A128" s="62">
+      <c r="A128" s="42">
         <f t="shared" si="5"/>
         <v>127</v>
       </c>
-      <c r="B128" s="62" t="s">
+      <c r="B128" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="62" t="s">
+      <c r="C128" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="18">
         <v>43165</v>
       </c>
-      <c r="E128" s="62">
+      <c r="E128" s="42">
         <v>2018</v>
       </c>
-      <c r="F128" s="62" t="s">
+      <c r="F128" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="62">
-        <v>1</v>
-      </c>
-      <c r="H128" s="62">
-        <v>0</v>
-      </c>
-      <c r="I128" s="62" t="s">
+      <c r="G128" s="42">
+        <v>1</v>
+      </c>
+      <c r="H128" s="42">
+        <v>0</v>
+      </c>
+      <c r="I128" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J128" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="K128" s="62" t="s">
+      <c r="J128" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" s="42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="62">
+      <c r="A129" s="54">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="54" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="1">
         <v>43177</v>
       </c>
-      <c r="E129" s="25">
+      <c r="E129" s="54">
         <v>2018</v>
       </c>
-      <c r="F129" s="25" t="s">
+      <c r="F129" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G129" s="25">
+      <c r="G129" s="54">
         <v>2</v>
       </c>
-      <c r="H129" s="25">
+      <c r="H129" s="54">
         <v>3</v>
       </c>
-      <c r="I129" s="25" t="s">
+      <c r="I129" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J129" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K129" s="25" t="s">
+      <c r="J129" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="54">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43180</v>
+      </c>
+      <c r="E130" s="54">
+        <v>2018</v>
+      </c>
+      <c r="F130" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="54">
+        <v>3</v>
+      </c>
+      <c r="H130" s="54">
+        <v>2</v>
+      </c>
+      <c r="I130" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" s="54" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -1172,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE130"/>
+  <dimension ref="A1:AE131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="V2" s="23">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="X2" s="56">
         <f>SUM(H3:H1001)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Y2" s="58">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="55">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1427,14 +1427,14 @@
       </c>
       <c r="M3" s="17">
         <f>COUNTIF(B3:B1005,"Fluminense")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="S17" s="49">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="43">
-        <f t="shared" ref="A109:A130" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A131" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -8682,6 +8682,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="54">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43181</v>
+      </c>
+      <c r="E131" s="54">
+        <v>2018</v>
+      </c>
+      <c r="F131" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G131" s="54">
+        <v>0</v>
+      </c>
+      <c r="H131" s="54">
+        <v>3</v>
+      </c>
+      <c r="I131" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J131" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K131" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -716,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,30 +842,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE131"/>
+  <dimension ref="A1:AE132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,37 +1184,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="46" t="s">
         <v>66</v>
       </c>
       <c r="L1" s="24" t="s">
@@ -1268,22 +1244,22 @@
       <c r="T1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="46" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="46" t="s">
         <v>92</v>
       </c>
       <c r="X1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Y1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="49" t="s">
         <v>98</v>
       </c>
       <c r="AA1" s="35"/>
@@ -1345,7 +1321,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1356,9 +1332,9 @@
       </c>
       <c r="T2" s="21">
         <f>COUNTIF(F2:F1007, "Vitória")</f>
-        <v>68</v>
-      </c>
-      <c r="U2" s="54">
+        <v>69</v>
+      </c>
+      <c r="U2" s="46">
         <f>COUNTIF(F2:F1007, "Empate")</f>
         <v>26</v>
       </c>
@@ -1368,17 +1344,17 @@
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>204</v>
-      </c>
-      <c r="X2" s="56">
+        <v>205</v>
+      </c>
+      <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
         <v>132</v>
       </c>
-      <c r="Y2" s="58">
+      <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>77</v>
-      </c>
-      <c r="Z2" s="55">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
         <v>52</v>
       </c>
@@ -1434,14 +1410,14 @@
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="7">
         <f>COUNTIF(J3:J1008,"Maracanã")</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1450,6 +1426,13 @@
         <f>COUNTIF(E3:E9, "2004")</f>
         <v>7</v>
       </c>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
       <c r="AA3" s="35"/>
       <c r="AB3" s="35"/>
       <c r="AC3" s="35"/>
@@ -1457,7 +1440,7 @@
       <c r="AE3" s="35"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="46">
         <f>SUM(A3+1)</f>
         <v>3</v>
       </c>
@@ -1496,7 +1479,7 @@
       </c>
       <c r="M4" s="17">
         <f>COUNTIF(B3:B1008,"Flamengo")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>2</v>
@@ -1533,14 +1516,14 @@
       <c r="AE4" s="35"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="46">
         <f t="shared" ref="A5:A6" si="0">SUM(A4+1)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1">
@@ -1558,10 +1541,10 @@
       <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1577,11 +1560,11 @@
       <c r="N5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="49">
+      <c r="O5" s="46">
         <f>COUNTIF(I1:I1007,"Libertadores")</f>
         <v>7</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="44" t="s">
         <v>36</v>
       </c>
       <c r="Q5" s="17">
@@ -1609,14 +1592,14 @@
       <c r="AE5" s="35"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1">
@@ -1634,10 +1617,10 @@
       <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1653,11 +1636,11 @@
       <c r="N6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="46">
         <f>COUNTIF(I3:I1009,"Copa do Brasil")</f>
         <v>6</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="44" t="s">
         <v>62</v>
       </c>
       <c r="Q6" s="17">
@@ -1685,14 +1668,14 @@
       <c r="AE6" s="35"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="46">
         <f t="shared" ref="A7:A17" si="1">SUM(A6+1)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1">
@@ -1710,10 +1693,10 @@
       <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1726,6 +1709,8 @@
         <f>COUNTIF(B3:B1003,"Boavista")</f>
         <v>4</v>
       </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="5" t="s">
         <v>77</v>
       </c>
@@ -1754,14 +1739,14 @@
       <c r="AE7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1">
@@ -1779,10 +1764,10 @@
       <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -1800,7 +1785,7 @@
       <c r="P8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="46">
         <f>COUNTIF(J3:J1008,"Raulino de Oliveira")</f>
         <v>2</v>
       </c>
@@ -1825,14 +1810,14 @@
       <c r="AE8" s="35"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1">
@@ -1850,10 +1835,10 @@
       <c r="H9" s="15">
         <v>2</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1871,7 +1856,7 @@
       <c r="P9" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="Q9" s="46">
         <f>COUNTIF(J3:J1008,"Mário Helênio")</f>
         <v>1</v>
       </c>
@@ -1896,14 +1881,14 @@
       <c r="AE9" s="35"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="46" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="1">
@@ -1921,10 +1906,10 @@
       <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -1939,6 +1924,8 @@
       </c>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
       <c r="R10" s="23">
         <v>2011</v>
       </c>
@@ -1960,14 +1947,14 @@
       <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="1">
@@ -1985,10 +1972,10 @@
       <c r="H11" s="15">
         <v>4</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2026,14 +2013,14 @@
       <c r="AE11" s="35"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1">
@@ -2051,7 +2038,7 @@
       <c r="H12" s="15">
         <v>0</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="46" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -2092,14 +2079,14 @@
       <c r="AE12" s="35"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="1">
@@ -2117,7 +2104,7 @@
       <c r="H13" s="15">
         <v>1</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2158,14 +2145,14 @@
       <c r="AE13" s="35"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1">
@@ -2183,7 +2170,7 @@
       <c r="H14" s="15">
         <v>2</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="46" t="s">
         <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -2224,14 +2211,14 @@
       <c r="AE14" s="35"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
+      <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1">
@@ -2249,10 +2236,10 @@
       <c r="H15" s="15">
         <v>1</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2290,14 +2277,14 @@
       <c r="AE15" s="35"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
+      <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1">
@@ -2315,10 +2302,10 @@
       <c r="H16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="46" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2338,7 +2325,7 @@
       <c r="R16" s="34">
         <v>2017</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="46">
         <f>COUNTIF(E86:E123, "2017")</f>
         <v>38</v>
       </c>
@@ -2356,14 +2343,14 @@
       <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="46" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="1">
@@ -2381,10 +2368,10 @@
       <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2404,9 +2391,9 @@
       <c r="R17" s="40">
         <v>2018</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -2422,14 +2409,14 @@
       <c r="AE17" s="35"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
+      <c r="A18" s="46">
         <f t="shared" ref="A18:A23" si="2">SUM(A17+1)</f>
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1">
@@ -2447,10 +2434,10 @@
       <c r="H18" s="15">
         <v>1</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2468,7 +2455,7 @@
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="51"/>
+      <c r="S18" s="43"/>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="36"/>
@@ -2483,14 +2470,14 @@
       <c r="AE18" s="35"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="46">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="1">
@@ -2508,10 +2495,10 @@
       <c r="H19" s="15">
         <v>1</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2544,14 +2531,14 @@
       <c r="AE19" s="35"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
+      <c r="A20" s="46">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="1">
@@ -2569,10 +2556,10 @@
       <c r="H20" s="15">
         <v>2</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="43" t="s">
+      <c r="J20" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2605,14 +2592,14 @@
       <c r="AE20" s="35"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
+      <c r="A21" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="1">
@@ -2630,10 +2617,10 @@
       <c r="H21" s="15">
         <v>3</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2666,14 +2653,14 @@
       <c r="AE21" s="35"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="46">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1">
@@ -2691,10 +2678,10 @@
       <c r="H22" s="15">
         <v>1</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2727,14 +2714,14 @@
       <c r="AE22" s="35"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
+      <c r="A23" s="46">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="1">
@@ -2752,10 +2739,10 @@
       <c r="H23" s="15">
         <v>2</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="43" t="s">
+      <c r="J23" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2788,14 +2775,14 @@
       <c r="AE23" s="35"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="46">
         <f t="shared" ref="A24:A38" si="3">SUM(A23+1)</f>
         <v>23</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="1">
@@ -2813,10 +2800,10 @@
       <c r="H24" s="15">
         <v>1</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2849,14 +2836,14 @@
       <c r="AE24" s="35"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="46">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="1">
@@ -2874,10 +2861,10 @@
       <c r="H25" s="15">
         <v>0</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2910,14 +2897,14 @@
       <c r="AE25" s="35"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
+      <c r="A26" s="46">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="1">
@@ -2935,10 +2922,10 @@
       <c r="H26" s="15">
         <v>1</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2971,14 +2958,14 @@
       <c r="AE26" s="35"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="46">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1">
@@ -2996,10 +2983,10 @@
       <c r="H27" s="15">
         <v>1</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3032,7 +3019,7 @@
       <c r="AE27" s="35"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="46">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -3093,14 +3080,14 @@
       <c r="AE28" s="35"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
+      <c r="A29" s="46">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="1">
@@ -3118,10 +3105,10 @@
       <c r="H29" s="15">
         <v>1</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3154,14 +3141,14 @@
       <c r="AE29" s="35"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="46">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="1">
@@ -3179,10 +3166,10 @@
       <c r="H30" s="15">
         <v>0</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="43" t="s">
+      <c r="J30" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3215,14 +3202,14 @@
       <c r="AE30" s="35"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="46">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1">
@@ -3240,10 +3227,10 @@
       <c r="H31" s="15">
         <v>1</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3276,14 +3263,14 @@
       <c r="AE31" s="35"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="46">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="1">
@@ -3301,10 +3288,10 @@
       <c r="H32" s="15">
         <v>1</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3337,14 +3324,14 @@
       <c r="AE32" s="35"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="46">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="1">
@@ -3362,10 +3349,10 @@
       <c r="H33" s="15">
         <v>2</v>
       </c>
-      <c r="I33" s="43" t="s">
+      <c r="I33" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3398,14 +3385,14 @@
       <c r="AE33" s="35"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="46">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="1">
@@ -3423,10 +3410,10 @@
       <c r="H34" s="15">
         <v>1</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="46" t="s">
         <v>36</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3459,14 +3446,14 @@
       <c r="AE34" s="35"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="46">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1">
@@ -3484,10 +3471,10 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="43" t="s">
+      <c r="J35" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K35" s="7" t="s">
@@ -3520,14 +3507,14 @@
       <c r="AE35" s="35"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="46">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="1">
@@ -3545,10 +3532,10 @@
       <c r="H36" s="15">
         <v>0</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -3581,14 +3568,14 @@
       <c r="AE36" s="35"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
+      <c r="A37" s="46">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="46" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="1">
@@ -3606,10 +3593,10 @@
       <c r="H37" s="15">
         <v>2</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3642,14 +3629,14 @@
       <c r="AE37" s="35"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+      <c r="A38" s="46">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="1">
@@ -3667,10 +3654,10 @@
       <c r="H38" s="15">
         <v>2</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="43" t="s">
+      <c r="J38" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3703,14 +3690,14 @@
       <c r="AE38" s="35"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
+      <c r="A39" s="46">
         <f t="shared" ref="A39:A108" si="4">SUM(A38+1)</f>
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1">
@@ -3728,10 +3715,10 @@
       <c r="H39" s="15">
         <v>0</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
@@ -3764,14 +3751,14 @@
       <c r="AE39" s="35"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+      <c r="A40" s="46">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1">
@@ -3789,10 +3776,10 @@
       <c r="H40" s="15">
         <v>2</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="46" t="s">
         <v>36</v>
       </c>
       <c r="K40" s="7" t="s">
@@ -3825,14 +3812,14 @@
       <c r="AE40" s="35"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="46">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="1">
@@ -3850,10 +3837,10 @@
       <c r="H41" s="15">
         <v>1</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="43" t="s">
+      <c r="J41" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K41" s="7" t="s">
@@ -3886,14 +3873,14 @@
       <c r="AE41" s="35"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="46">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="1">
@@ -3911,10 +3898,10 @@
       <c r="H42" s="15">
         <v>1</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="43" t="s">
+      <c r="J42" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K42" s="7" t="s">
@@ -3947,14 +3934,14 @@
       <c r="AE42" s="35"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="46">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="1">
@@ -3972,7 +3959,7 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -4008,14 +3995,14 @@
       <c r="AE43" s="35"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="46">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="1">
@@ -4033,10 +4020,10 @@
       <c r="H44" s="15">
         <v>1</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="7" t="s">
@@ -4045,7 +4032,7 @@
       <c r="L44" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="M44" s="50">
+      <c r="M44" s="46">
         <f>COUNTIF(B3:B1013,"São Paulo")</f>
         <v>2</v>
       </c>
@@ -4069,14 +4056,14 @@
       <c r="AE44" s="35"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
+      <c r="A45" s="46">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="1">
@@ -4094,10 +4081,10 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="43" t="s">
+      <c r="J45" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="7" t="s">
@@ -4106,7 +4093,7 @@
       <c r="L45" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="46">
         <f>COUNTIF(B3:B1037,"Paraná")</f>
         <v>1</v>
       </c>
@@ -4130,14 +4117,14 @@
       <c r="AE45" s="35"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
+      <c r="A46" s="46">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1">
@@ -4155,19 +4142,19 @@
       <c r="H46" s="15">
         <v>0</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L46" s="53" t="s">
+      <c r="L46" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="46">
         <f>COUNTIF(B3:B1037,"Avaí")</f>
         <v>1</v>
       </c>
@@ -4191,14 +4178,14 @@
       <c r="AE46" s="35"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
+      <c r="A47" s="46">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="1">
@@ -4216,19 +4203,19 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J47" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L47" s="53" t="s">
+      <c r="L47" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="46">
         <f>COUNTIF(B3:B1000,"Nacional-URU")</f>
         <v>1</v>
       </c>
@@ -4256,10 +4243,10 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="1">
@@ -4277,19 +4264,19 @@
       <c r="H48" s="15">
         <v>1</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="43" t="s">
+      <c r="J48" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L48" s="53" t="s">
+      <c r="L48" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="M48" s="50">
+      <c r="M48" s="46">
         <f>COUNTIF(B4:B1001,"Atlético Goianiense")</f>
         <v>1</v>
       </c>
@@ -4313,14 +4300,14 @@
       <c r="AE48" s="35"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
+      <c r="A49" s="46">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1">
@@ -4338,19 +4325,19 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="43" t="s">
+      <c r="J49" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="53" t="s">
+      <c r="L49" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="M49" s="50">
+      <c r="M49" s="46">
         <f>COUNTIF(B5:B1002,"Cruzeiro")</f>
         <v>1</v>
       </c>
@@ -4374,14 +4361,14 @@
       <c r="AE49" s="35"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="46">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="1">
@@ -4399,15 +4386,17 @@
       <c r="H50" s="15">
         <v>0</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J50" s="43" t="s">
+      <c r="J50" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
@@ -4428,7 +4417,7 @@
       <c r="AE50" s="35"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="46">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
@@ -4484,14 +4473,14 @@
       <c r="AE51" s="35"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="46">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="1">
@@ -4509,10 +4498,10 @@
       <c r="H52" s="15">
         <v>1</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="43" t="s">
+      <c r="J52" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="7" t="s">
@@ -4540,14 +4529,14 @@
       <c r="AE52" s="35"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="46">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="1">
@@ -4565,10 +4554,10 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="43" t="s">
+      <c r="J53" s="46" t="s">
         <v>36</v>
       </c>
       <c r="K53" s="7" t="s">
@@ -4596,14 +4585,14 @@
       <c r="AE53" s="35"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="46">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1">
@@ -4621,10 +4610,10 @@
       <c r="H54" s="15">
         <v>0</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="43" t="s">
+      <c r="J54" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K54" s="7" t="s">
@@ -4652,14 +4641,14 @@
       <c r="AE54" s="35"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
+      <c r="A55" s="46">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="1">
@@ -4677,10 +4666,10 @@
       <c r="H55" s="15">
         <v>1</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="43" t="s">
+      <c r="J55" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K55" s="7" t="s">
@@ -4708,14 +4697,14 @@
       <c r="AE55" s="35"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
+      <c r="A56" s="46">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="1">
@@ -4733,10 +4722,10 @@
       <c r="H56" s="15">
         <v>0</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J56" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="7" t="s">
@@ -4764,14 +4753,14 @@
       <c r="AE56" s="35"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
+      <c r="A57" s="46">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="46" t="s">
         <v>75</v>
       </c>
       <c r="D57" s="1">
@@ -4789,10 +4778,10 @@
       <c r="H57" s="15">
         <v>3</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="43" t="s">
+      <c r="J57" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="7" t="s">
@@ -4820,14 +4809,14 @@
       <c r="AE57" s="35"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
+      <c r="A58" s="46">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="1">
@@ -4845,10 +4834,10 @@
       <c r="H58" s="15">
         <v>0</v>
       </c>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="43" t="s">
+      <c r="J58" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K58" s="7" t="s">
@@ -4876,14 +4865,14 @@
       <c r="AE58" s="35"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="46">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="1">
@@ -4901,10 +4890,10 @@
       <c r="H59" s="15">
         <v>1</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="43" t="s">
+      <c r="J59" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K59" s="7" t="s">
@@ -4932,14 +4921,14 @@
       <c r="AE59" s="35"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="43">
+      <c r="A60" s="46">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="1">
@@ -4957,10 +4946,10 @@
       <c r="H60" s="15">
         <v>1</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="43" t="s">
+      <c r="J60" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
@@ -4988,14 +4977,14 @@
       <c r="AE60" s="35"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="43">
+      <c r="A61" s="46">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="1">
@@ -5013,10 +5002,10 @@
       <c r="H61" s="15">
         <v>2</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="43" t="s">
+      <c r="J61" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K61" s="7" t="s">
@@ -5044,14 +5033,14 @@
       <c r="AE61" s="35"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="43">
+      <c r="A62" s="46">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="1">
@@ -5069,10 +5058,10 @@
       <c r="H62" s="15">
         <v>1</v>
       </c>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J62" s="43" t="s">
+      <c r="J62" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K62" s="7" t="s">
@@ -5100,14 +5089,14 @@
       <c r="AE62" s="35"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="43">
+      <c r="A63" s="46">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="1">
@@ -5125,10 +5114,10 @@
       <c r="H63" s="15">
         <v>0</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J63" s="43" t="s">
+      <c r="J63" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
@@ -5156,14 +5145,14 @@
       <c r="AE63" s="35"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="43">
+      <c r="A64" s="46">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="46" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="1">
@@ -5181,10 +5170,10 @@
       <c r="H64" s="15">
         <v>0</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J64" s="43" t="s">
+      <c r="J64" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
@@ -5212,14 +5201,14 @@
       <c r="AE64" s="35"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="43">
+      <c r="A65" s="46">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="1">
@@ -5237,10 +5226,10 @@
       <c r="H65" s="15">
         <v>1</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J65" s="43" t="s">
+      <c r="J65" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
@@ -5268,14 +5257,14 @@
       <c r="AE65" s="35"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="43">
+      <c r="A66" s="46">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="1">
@@ -5293,10 +5282,10 @@
       <c r="H66" s="15">
         <v>1</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="43" t="s">
+      <c r="J66" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
@@ -5324,14 +5313,14 @@
       <c r="AE66" s="35"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="43">
+      <c r="A67" s="46">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="1">
@@ -5349,10 +5338,10 @@
       <c r="H67" s="15">
         <v>0</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J67" s="43" t="s">
+      <c r="J67" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K67" s="7" t="s">
@@ -5380,14 +5369,14 @@
       <c r="AE67" s="35"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="43">
+      <c r="A68" s="46">
         <f t="shared" si="4"/>
         <v>67</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1">
@@ -5405,10 +5394,10 @@
       <c r="H68" s="15">
         <v>3</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J68" s="43" t="s">
+      <c r="J68" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K68" s="7" t="s">
@@ -5436,14 +5425,14 @@
       <c r="AE68" s="35"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="43">
+      <c r="A69" s="46">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1">
@@ -5461,10 +5450,10 @@
       <c r="H69" s="15">
         <v>0</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="43" t="s">
+      <c r="J69" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K69" s="7" t="s">
@@ -5492,14 +5481,14 @@
       <c r="AE69" s="35"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="43">
+      <c r="A70" s="46">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="1">
@@ -5517,10 +5506,10 @@
       <c r="H70" s="15">
         <v>3</v>
       </c>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="43" t="s">
+      <c r="J70" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K70" s="7" t="s">
@@ -5548,14 +5537,14 @@
       <c r="AE70" s="35"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="43">
+      <c r="A71" s="46">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="1">
@@ -5573,10 +5562,10 @@
       <c r="H71" s="15">
         <v>0</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="J71" s="43" t="s">
+      <c r="J71" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K71" s="7" t="s">
@@ -5604,14 +5593,14 @@
       <c r="AE71" s="35"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="43">
+      <c r="A72" s="46">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="1">
@@ -5629,10 +5618,10 @@
       <c r="H72" s="15">
         <v>1</v>
       </c>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J72" s="43" t="s">
+      <c r="J72" s="46" t="s">
         <v>36</v>
       </c>
       <c r="K72" s="7" t="s">
@@ -5660,14 +5649,14 @@
       <c r="AE72" s="35"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
+      <c r="A73" s="46">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="1">
@@ -5685,10 +5674,10 @@
       <c r="H73" s="15">
         <v>0</v>
       </c>
-      <c r="I73" s="43" t="s">
+      <c r="I73" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J73" s="43" t="s">
+      <c r="J73" s="46" t="s">
         <v>36</v>
       </c>
       <c r="K73" s="7" t="s">
@@ -5716,14 +5705,14 @@
       <c r="AE73" s="35"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="43">
+      <c r="A74" s="46">
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="1">
@@ -5741,10 +5730,10 @@
       <c r="H74" s="15">
         <v>1</v>
       </c>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="43" t="s">
+      <c r="J74" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K74" s="7" t="s">
@@ -5772,14 +5761,14 @@
       <c r="AE74" s="35"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="43">
+      <c r="A75" s="46">
         <f t="shared" si="4"/>
         <v>74</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="46" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="1">
@@ -5797,10 +5786,10 @@
       <c r="H75" s="15">
         <v>1</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="43" t="s">
+      <c r="J75" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="7" t="s">
@@ -5828,14 +5817,14 @@
       <c r="AE75" s="35"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="43">
+      <c r="A76" s="46">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="46" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="1">
@@ -5853,7 +5842,7 @@
       <c r="H76" s="15">
         <v>1</v>
       </c>
-      <c r="I76" s="43" t="s">
+      <c r="I76" s="46" t="s">
         <v>38</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -5884,14 +5873,14 @@
       <c r="AE76" s="35"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="43">
+      <c r="A77" s="46">
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="1">
@@ -5909,10 +5898,10 @@
       <c r="H77" s="15">
         <v>1</v>
       </c>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J77" s="43" t="s">
+      <c r="J77" s="46" t="s">
         <v>79</v>
       </c>
       <c r="K77" s="7" t="s">
@@ -5940,14 +5929,14 @@
       <c r="AE77" s="35"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="43">
+      <c r="A78" s="46">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="1">
@@ -5965,10 +5954,10 @@
       <c r="H78" s="15">
         <v>1</v>
       </c>
-      <c r="I78" s="43" t="s">
+      <c r="I78" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J78" s="43" t="s">
+      <c r="J78" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K78" s="7" t="s">
@@ -5996,35 +5985,35 @@
       <c r="AE78" s="35"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="43">
+      <c r="A79" s="46">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="1">
         <v>42617</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="46">
         <v>2016</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="46">
         <v>2</v>
       </c>
       <c r="H79" s="15">
         <v>1</v>
       </c>
-      <c r="I79" s="43" t="s">
+      <c r="I79" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="J79" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K79" s="7" t="s">
@@ -6052,35 +6041,35 @@
       <c r="AE79" s="35"/>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="43">
+      <c r="A80" s="46">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="43" t="s">
+      <c r="C80" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D80" s="1">
         <v>42620</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="46">
         <v>2016</v>
       </c>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="43">
+      <c r="G80" s="46">
         <v>1</v>
       </c>
       <c r="H80" s="15">
         <v>0</v>
       </c>
-      <c r="I80" s="43" t="s">
+      <c r="I80" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J80" s="43" t="s">
+      <c r="J80" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K80" s="7" t="s">
@@ -6108,14 +6097,14 @@
       <c r="AE80" s="35"/>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="43">
+      <c r="A81" s="46">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="1">
@@ -6124,19 +6113,19 @@
       <c r="E81" s="15">
         <v>2016</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="46">
         <v>1</v>
       </c>
       <c r="H81" s="15">
         <v>0</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J81" s="43" t="s">
+      <c r="J81" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K81" s="7" t="s">
@@ -6164,14 +6153,14 @@
       <c r="AE81" s="35"/>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="43">
+      <c r="A82" s="46">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D82" s="1">
@@ -6180,19 +6169,19 @@
       <c r="E82" s="15">
         <v>2016</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="46">
         <v>3</v>
       </c>
       <c r="H82" s="15">
         <v>2</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="43" t="s">
+      <c r="J82" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K82" s="7" t="s">
@@ -6220,14 +6209,14 @@
       <c r="AE82" s="35"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="43">
+      <c r="A83" s="46">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="1">
@@ -6236,19 +6225,19 @@
       <c r="E83" s="15">
         <v>2016</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G83" s="43">
+      <c r="G83" s="46">
         <v>0</v>
       </c>
       <c r="H83" s="15">
         <v>0</v>
       </c>
-      <c r="I83" s="43" t="s">
+      <c r="I83" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J83" s="43" t="s">
+      <c r="J83" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K83" s="7" t="s">
@@ -6276,14 +6265,14 @@
       <c r="AE83" s="35"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="43">
+      <c r="A84" s="46">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D84" s="1">
@@ -6292,19 +6281,19 @@
       <c r="E84" s="15">
         <v>2016</v>
       </c>
-      <c r="F84" s="43" t="s">
+      <c r="F84" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="46">
         <v>0</v>
       </c>
       <c r="H84" s="15">
         <v>2</v>
       </c>
-      <c r="I84" s="43" t="s">
+      <c r="I84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J84" s="43" t="s">
+      <c r="J84" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K84" s="7" t="s">
@@ -6332,14 +6321,14 @@
       <c r="AE84" s="35"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="43">
+      <c r="A85" s="46">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C85" s="46" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="1">
@@ -6348,19 +6337,19 @@
       <c r="E85" s="15">
         <v>2016</v>
       </c>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="46">
         <v>1</v>
       </c>
       <c r="H85" s="15">
         <v>1</v>
       </c>
-      <c r="I85" s="43" t="s">
+      <c r="I85" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J85" s="43" t="s">
+      <c r="J85" s="46" t="s">
         <v>94</v>
       </c>
       <c r="K85" s="7" t="s">
@@ -6388,7 +6377,7 @@
       <c r="AE85" s="35"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="43">
+      <c r="A86" s="46">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
@@ -6404,19 +6393,19 @@
       <c r="E86" s="26">
         <v>2017</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G86" s="43">
+      <c r="G86" s="46">
         <v>1</v>
       </c>
       <c r="H86" s="15">
         <v>1</v>
       </c>
-      <c r="I86" s="43" t="s">
+      <c r="I86" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J86" s="43" t="s">
+      <c r="J86" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K86" s="7" t="s">
@@ -6444,14 +6433,14 @@
       <c r="AE86" s="35"/>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
+      <c r="A87" s="46">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="1">
@@ -6460,19 +6449,19 @@
       <c r="E87" s="15">
         <v>2017</v>
       </c>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="43">
+      <c r="G87" s="46">
         <v>2</v>
       </c>
       <c r="H87" s="15">
         <v>1</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="I87" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J87" s="43" t="s">
+      <c r="J87" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K87" s="7" t="s">
@@ -6504,31 +6493,31 @@
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1">
         <v>42770</v>
       </c>
-      <c r="E88" s="43">
+      <c r="E88" s="46">
         <v>2017</v>
       </c>
-      <c r="F88" s="43" t="s">
+      <c r="F88" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G88" s="46">
         <v>2</v>
       </c>
-      <c r="H88" s="43">
-        <v>1</v>
-      </c>
-      <c r="I88" s="43" t="s">
+      <c r="H88" s="46">
+        <v>1</v>
+      </c>
+      <c r="I88" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="43" t="s">
+      <c r="J88" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K88" s="7" t="s">
@@ -6556,7 +6545,7 @@
       <c r="AE88" s="35"/>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="43">
+      <c r="A89" s="46">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
@@ -6612,14 +6601,14 @@
       <c r="AE89" s="35"/>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="43">
+      <c r="A90" s="46">
         <f t="shared" si="4"/>
         <v>89</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="1">
@@ -6628,19 +6617,19 @@
       <c r="E90" s="15">
         <v>2017</v>
       </c>
-      <c r="F90" s="43" t="s">
+      <c r="F90" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="46">
         <v>1</v>
       </c>
       <c r="H90" s="15">
         <v>0</v>
       </c>
-      <c r="I90" s="43" t="s">
+      <c r="I90" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J90" s="43" t="s">
+      <c r="J90" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K90" s="7" t="s">
@@ -6668,14 +6657,14 @@
       <c r="AE90" s="35"/>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="43">
+      <c r="A91" s="46">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="1">
@@ -6684,19 +6673,19 @@
       <c r="E91" s="15">
         <v>2017</v>
       </c>
-      <c r="F91" s="43" t="s">
+      <c r="F91" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G91" s="43">
+      <c r="G91" s="46">
         <v>0</v>
       </c>
       <c r="H91" s="15">
         <v>0</v>
       </c>
-      <c r="I91" s="43" t="s">
+      <c r="I91" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J91" s="43" t="s">
+      <c r="J91" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K91" s="7" t="s">
@@ -6724,14 +6713,14 @@
       <c r="AE91" s="35"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="43">
+      <c r="A92" s="46">
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1">
@@ -6740,19 +6729,19 @@
       <c r="E92" s="15">
         <v>2017</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="46">
         <v>2</v>
       </c>
       <c r="H92" s="15">
         <v>3</v>
       </c>
-      <c r="I92" s="43" t="s">
+      <c r="I92" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J92" s="43" t="s">
+      <c r="J92" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K92" s="7" t="s">
@@ -6780,14 +6769,14 @@
       <c r="AE92" s="35"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A93" s="43">
+      <c r="A93" s="46">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="1">
@@ -6796,19 +6785,19 @@
       <c r="E93" s="15">
         <v>2017</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G93" s="43">
+      <c r="G93" s="46">
         <v>3</v>
       </c>
       <c r="H93" s="15">
         <v>1</v>
       </c>
-      <c r="I93" s="43" t="s">
+      <c r="I93" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="43" t="s">
+      <c r="J93" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K93" s="7" t="s">
@@ -6836,14 +6825,14 @@
       <c r="AE93" s="35"/>
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
+      <c r="A94" s="46">
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D94" s="1">
@@ -6852,19 +6841,19 @@
       <c r="E94" s="15">
         <v>2017</v>
       </c>
-      <c r="F94" s="43" t="s">
+      <c r="F94" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="46">
         <v>0</v>
       </c>
       <c r="H94" s="15">
         <v>2</v>
       </c>
-      <c r="I94" s="43" t="s">
+      <c r="I94" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J94" s="43" t="s">
+      <c r="J94" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K94" s="7" t="s">
@@ -6892,14 +6881,14 @@
       <c r="AE94" s="35"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
+      <c r="A95" s="46">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D95" s="1">
@@ -6908,19 +6897,19 @@
       <c r="E95" s="15">
         <v>2017</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G95" s="43">
+      <c r="G95" s="46">
         <v>2</v>
       </c>
       <c r="H95" s="15">
         <v>1</v>
       </c>
-      <c r="I95" s="43" t="s">
+      <c r="I95" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="43" t="s">
+      <c r="J95" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K95" s="7" t="s">
@@ -6948,14 +6937,14 @@
       <c r="AE95" s="35"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+      <c r="A96" s="46">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="1">
@@ -6964,19 +6953,19 @@
       <c r="E96" s="15">
         <v>2017</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="F96" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="46">
         <v>0</v>
       </c>
       <c r="H96" s="15">
         <v>2</v>
       </c>
-      <c r="I96" s="43" t="s">
+      <c r="I96" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J96" s="43" t="s">
+      <c r="J96" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K96" s="7" t="s">
@@ -7004,14 +6993,14 @@
       <c r="AE96" s="35"/>
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A97" s="43">
+      <c r="A97" s="46">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D97" s="1">
@@ -7020,19 +7009,19 @@
       <c r="E97" s="15">
         <v>2017</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="43">
+      <c r="G97" s="46">
         <v>1</v>
       </c>
       <c r="H97" s="15">
         <v>0</v>
       </c>
-      <c r="I97" s="43" t="s">
+      <c r="I97" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J97" s="43" t="s">
+      <c r="J97" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K97" s="7" t="s">
@@ -7060,14 +7049,14 @@
       <c r="AE97" s="35"/>
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A98" s="43">
+      <c r="A98" s="46">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="1">
@@ -7076,19 +7065,19 @@
       <c r="E98" s="15">
         <v>2017</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G98" s="43">
+      <c r="G98" s="46">
         <v>2</v>
       </c>
       <c r="H98" s="15">
         <v>0</v>
       </c>
-      <c r="I98" s="43" t="s">
+      <c r="I98" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J98" s="43" t="s">
+      <c r="J98" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
@@ -7120,10 +7109,10 @@
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D99" s="1">
@@ -7132,19 +7121,19 @@
       <c r="E99" s="15">
         <v>2017</v>
       </c>
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G99" s="43">
+      <c r="G99" s="46">
         <v>1</v>
       </c>
       <c r="H99" s="15">
         <v>0</v>
       </c>
-      <c r="I99" s="43" t="s">
+      <c r="I99" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J99" s="43" t="s">
+      <c r="J99" s="46" t="s">
         <v>1</v>
       </c>
       <c r="K99" s="7" t="s">
@@ -7172,7 +7161,7 @@
       <c r="AE99" s="35"/>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A100" s="43">
+      <c r="A100" s="46">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
@@ -7228,14 +7217,14 @@
       <c r="AE100" s="35"/>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+      <c r="A101" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="46" t="s">
         <v>29</v>
       </c>
       <c r="D101" s="1">
@@ -7244,22 +7233,22 @@
       <c r="E101" s="15">
         <v>2017</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="F101" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G101" s="43">
+      <c r="G101" s="46">
         <v>3</v>
       </c>
       <c r="H101" s="15">
         <v>1</v>
       </c>
-      <c r="I101" s="43" t="s">
+      <c r="I101" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" s="43" t="s">
+      <c r="J101" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K101" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L101" s="35"/>
@@ -7283,10 +7272,10 @@
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D102" s="1">
@@ -7295,22 +7284,22 @@
       <c r="E102" s="15">
         <v>2017</v>
       </c>
-      <c r="F102" s="43" t="s">
+      <c r="F102" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G102" s="43">
+      <c r="G102" s="46">
         <v>0</v>
       </c>
       <c r="H102" s="15">
         <v>2</v>
       </c>
-      <c r="I102" s="43" t="s">
+      <c r="I102" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J102" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K102" s="43" t="s">
+      <c r="J102" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L102" s="35"/>
@@ -7381,7 +7370,7 @@
       <c r="Z103" s="35"/>
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A104" s="43">
+      <c r="A104" s="46">
         <f t="shared" si="4"/>
         <v>103</v>
       </c>
@@ -7436,10 +7425,10 @@
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="B105" s="43" t="s">
+      <c r="B105" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="1">
@@ -7448,22 +7437,22 @@
       <c r="E105" s="15">
         <v>2017</v>
       </c>
-      <c r="F105" s="43" t="s">
+      <c r="F105" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="43">
+      <c r="G105" s="46">
         <v>2</v>
       </c>
       <c r="H105" s="15">
         <v>1</v>
       </c>
-      <c r="I105" s="43" t="s">
+      <c r="I105" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J105" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K105" s="43" t="s">
+      <c r="J105" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L105" s="35"/>
@@ -7483,7 +7472,7 @@
       <c r="Z105" s="35"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A106" s="43">
+      <c r="A106" s="46">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
@@ -7538,10 +7527,10 @@
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="46" t="s">
         <v>111</v>
       </c>
       <c r="D107" s="1">
@@ -7550,22 +7539,22 @@
       <c r="E107" s="15">
         <v>2017</v>
       </c>
-      <c r="F107" s="43" t="s">
+      <c r="F107" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G107" s="43">
+      <c r="G107" s="46">
         <v>3</v>
       </c>
       <c r="H107" s="15">
         <v>4</v>
       </c>
-      <c r="I107" s="43" t="s">
+      <c r="I107" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J107" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K107" s="43" t="s">
+      <c r="J107" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L107" s="35"/>
@@ -7585,7 +7574,7 @@
       <c r="Z107" s="35"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A108" s="43">
+      <c r="A108" s="46">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
@@ -7636,14 +7625,14 @@
       <c r="Z108" s="35"/>
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A109" s="43">
-        <f t="shared" ref="A109:A131" si="5">SUM(A108+1)</f>
+      <c r="A109" s="46">
+        <f t="shared" ref="A109:A132" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="1">
@@ -7652,22 +7641,22 @@
       <c r="E109" s="15">
         <v>2017</v>
       </c>
-      <c r="F109" s="43" t="s">
+      <c r="F109" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G109" s="43">
+      <c r="G109" s="46">
         <v>2</v>
       </c>
       <c r="H109" s="15">
         <v>0</v>
       </c>
-      <c r="I109" s="43" t="s">
+      <c r="I109" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="J109" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K109" s="43" t="s">
+      <c r="J109" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L109" s="35"/>
@@ -7687,14 +7676,14 @@
       <c r="Z109" s="35"/>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A110" s="43">
+      <c r="A110" s="46">
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D110" s="1">
@@ -7703,22 +7692,22 @@
       <c r="E110" s="15">
         <v>2017</v>
       </c>
-      <c r="F110" s="43" t="s">
+      <c r="F110" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G110" s="43">
+      <c r="G110" s="46">
         <v>1</v>
       </c>
       <c r="H110" s="15">
         <v>0</v>
       </c>
-      <c r="I110" s="43" t="s">
+      <c r="I110" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J110" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K110" s="43" t="s">
+      <c r="J110" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L110" s="35"/>
@@ -7742,10 +7731,10 @@
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
-      <c r="B111" s="43" t="s">
+      <c r="B111" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="1">
@@ -7754,22 +7743,22 @@
       <c r="E111" s="15">
         <v>2017</v>
       </c>
-      <c r="F111" s="43" t="s">
+      <c r="F111" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G111" s="43">
+      <c r="G111" s="46">
         <v>0</v>
       </c>
       <c r="H111" s="15">
         <v>0</v>
       </c>
-      <c r="I111" s="43" t="s">
+      <c r="I111" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J111" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K111" s="43" t="s">
+      <c r="J111" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K111" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L111" s="35"/>
@@ -7789,7 +7778,7 @@
       <c r="Z111" s="35"/>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A112" s="43">
+      <c r="A112" s="46">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
@@ -7840,14 +7829,14 @@
       <c r="Z112" s="35"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A113" s="43">
+      <c r="A113" s="46">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="1">
@@ -7856,22 +7845,22 @@
       <c r="E113" s="15">
         <v>2017</v>
       </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G113" s="43">
+      <c r="G113" s="46">
         <v>2</v>
       </c>
       <c r="H113" s="15">
         <v>0</v>
       </c>
-      <c r="I113" s="43" t="s">
+      <c r="I113" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J113" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K113" s="43" t="s">
+      <c r="J113" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L113" s="35"/>
@@ -7891,14 +7880,14 @@
       <c r="Z113" s="35"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A114" s="44">
+      <c r="A114" s="46">
         <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="1">
@@ -7907,22 +7896,22 @@
       <c r="E114" s="15">
         <v>2017</v>
       </c>
-      <c r="F114" s="43" t="s">
+      <c r="F114" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="43">
+      <c r="G114" s="46">
         <v>0</v>
       </c>
       <c r="H114" s="15">
         <v>0</v>
       </c>
-      <c r="I114" s="43" t="s">
+      <c r="I114" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J114" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="K114" s="43" t="s">
+      <c r="J114" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L114" s="35"/>
@@ -7942,14 +7931,14 @@
       <c r="Z114" s="35"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A115" s="44">
+      <c r="A115" s="46">
         <f t="shared" si="5"/>
         <v>114</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="44" t="s">
+      <c r="C115" s="46" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="1">
@@ -7958,22 +7947,22 @@
       <c r="E115" s="15">
         <v>2017</v>
       </c>
-      <c r="F115" s="44" t="s">
+      <c r="F115" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G115" s="44">
+      <c r="G115" s="46">
         <v>2</v>
       </c>
       <c r="H115" s="15">
         <v>0</v>
       </c>
-      <c r="I115" s="44" t="s">
+      <c r="I115" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J115" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K115" s="44" t="s">
+      <c r="J115" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K115" s="46" t="s">
         <v>49</v>
       </c>
       <c r="L115" s="35"/>
@@ -7993,38 +7982,38 @@
       <c r="Z115" s="35"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A116" s="44">
+      <c r="A116" s="46">
         <f t="shared" si="5"/>
         <v>115</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="44" t="s">
+      <c r="C116" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="1">
         <v>43009</v>
       </c>
-      <c r="E116" s="44">
+      <c r="E116" s="46">
         <v>2017</v>
       </c>
-      <c r="F116" s="44" t="s">
+      <c r="F116" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G116" s="44">
+      <c r="G116" s="46">
         <v>2</v>
       </c>
-      <c r="H116" s="44">
+      <c r="H116" s="46">
         <v>3</v>
       </c>
-      <c r="I116" s="44" t="s">
+      <c r="I116" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J116" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K116" s="44" t="s">
+      <c r="J116" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L116" s="35"/>
@@ -8044,38 +8033,38 @@
       <c r="Z116" s="35"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A117" s="44">
+      <c r="A117" s="46">
         <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="C117" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D117" s="1">
         <v>43019</v>
       </c>
-      <c r="E117" s="44">
+      <c r="E117" s="46">
         <v>2017</v>
       </c>
-      <c r="F117" s="44" t="s">
+      <c r="F117" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G117" s="44">
+      <c r="G117" s="46">
         <v>2</v>
       </c>
-      <c r="H117" s="44">
-        <v>1</v>
-      </c>
-      <c r="I117" s="44" t="s">
+      <c r="H117" s="46">
+        <v>1</v>
+      </c>
+      <c r="I117" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J117" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K117" s="44" t="s">
+      <c r="J117" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="46" t="s">
         <v>49</v>
       </c>
       <c r="L117" s="35"/>
@@ -8095,38 +8084,38 @@
       <c r="Z117" s="35"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A118" s="44">
+      <c r="A118" s="46">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C118" s="44" t="s">
+      <c r="C118" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="1">
         <v>43022</v>
       </c>
-      <c r="E118" s="44">
+      <c r="E118" s="46">
         <v>2017</v>
       </c>
-      <c r="F118" s="44" t="s">
+      <c r="F118" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G118" s="44">
-        <v>0</v>
-      </c>
-      <c r="H118" s="44">
-        <v>1</v>
-      </c>
-      <c r="I118" s="44" t="s">
+      <c r="G118" s="46">
+        <v>0</v>
+      </c>
+      <c r="H118" s="46">
+        <v>1</v>
+      </c>
+      <c r="I118" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="44" t="s">
+      <c r="J118" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K118" s="44" t="s">
+      <c r="K118" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L118" s="35"/>
@@ -8146,38 +8135,38 @@
       <c r="Z118" s="35"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A119" s="45">
+      <c r="A119" s="46">
         <f t="shared" si="5"/>
         <v>118</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D119" s="1">
         <v>43031</v>
       </c>
-      <c r="E119" s="44">
+      <c r="E119" s="46">
         <v>2017</v>
       </c>
-      <c r="F119" s="44" t="s">
+      <c r="F119" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="44">
+      <c r="G119" s="46">
         <v>2</v>
       </c>
-      <c r="H119" s="44">
-        <v>1</v>
-      </c>
-      <c r="I119" s="44" t="s">
+      <c r="H119" s="46">
+        <v>1</v>
+      </c>
+      <c r="I119" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J119" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="K119" s="44" t="s">
+      <c r="J119" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K119" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L119" s="35"/>
@@ -8201,34 +8190,34 @@
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="1">
         <v>43043</v>
       </c>
-      <c r="E120" s="45">
+      <c r="E120" s="46">
         <v>2017</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G120" s="45">
-        <v>1</v>
-      </c>
-      <c r="H120" s="45">
+      <c r="G120" s="46">
+        <v>1</v>
+      </c>
+      <c r="H120" s="46">
         <v>2</v>
       </c>
-      <c r="I120" s="45" t="s">
+      <c r="I120" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="K120" s="49" t="s">
+      <c r="J120" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K120" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L120" s="35"/>
@@ -8248,7 +8237,7 @@
       <c r="Z120" s="35"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A121" s="47">
+      <c r="A121" s="46">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
@@ -8279,7 +8268,7 @@
       <c r="J121" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K121" s="49" t="s">
+      <c r="K121" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L121" s="35"/>
@@ -8299,38 +8288,38 @@
       <c r="Z121" s="35"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A122" s="48">
+      <c r="A122" s="46">
         <f t="shared" si="5"/>
         <v>121</v>
       </c>
-      <c r="B122" s="47" t="s">
+      <c r="B122" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="47" t="s">
+      <c r="C122" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="1">
         <v>43055</v>
       </c>
-      <c r="E122" s="47">
+      <c r="E122" s="46">
         <v>2017</v>
       </c>
-      <c r="F122" s="47" t="s">
+      <c r="F122" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G122" s="47">
-        <v>1</v>
-      </c>
-      <c r="H122" s="47">
+      <c r="G122" s="46">
+        <v>1</v>
+      </c>
+      <c r="H122" s="46">
         <v>2</v>
       </c>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K122" s="49" t="s">
+      <c r="J122" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L122" s="35"/>
@@ -8350,38 +8339,38 @@
       <c r="Z122" s="35"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A123" s="49">
+      <c r="A123" s="46">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D123" s="1">
         <v>43072</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="46">
         <v>2017</v>
       </c>
-      <c r="F123" s="48" t="s">
+      <c r="F123" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G123" s="48">
+      <c r="G123" s="46">
         <v>2</v>
       </c>
-      <c r="H123" s="48">
+      <c r="H123" s="46">
         <v>2</v>
       </c>
-      <c r="I123" s="48" t="s">
+      <c r="I123" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J123" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="K123" s="49" t="s">
+      <c r="J123" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K123" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L123" s="35"/>
@@ -8401,38 +8390,38 @@
       <c r="Z123" s="35"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A124" s="54">
+      <c r="A124" s="46">
         <f t="shared" si="5"/>
         <v>123</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="46" t="s">
         <v>47</v>
       </c>
       <c r="D124" s="1">
         <v>43116</v>
       </c>
-      <c r="E124" s="54">
+      <c r="E124" s="46">
         <v>2018</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G124" s="54">
+      <c r="G124" s="46">
         <v>2</v>
       </c>
-      <c r="H124" s="54">
+      <c r="H124" s="46">
         <v>2</v>
       </c>
-      <c r="I124" s="54" t="s">
+      <c r="I124" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J124" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K124" s="54" t="s">
+      <c r="J124" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K124" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L124" s="35"/>
@@ -8452,38 +8441,38 @@
       <c r="Z124" s="35"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A125" s="54">
+      <c r="A125" s="46">
         <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="B125" s="54" t="s">
+      <c r="B125" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D125" s="1">
         <v>43120</v>
       </c>
-      <c r="E125" s="54">
+      <c r="E125" s="46">
         <v>2018</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G125" s="54">
-        <v>0</v>
-      </c>
-      <c r="H125" s="54">
-        <v>0</v>
-      </c>
-      <c r="I125" s="54" t="s">
+      <c r="G125" s="46">
+        <v>0</v>
+      </c>
+      <c r="H125" s="46">
+        <v>0</v>
+      </c>
+      <c r="I125" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J125" s="54" t="s">
+      <c r="J125" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K125" s="54" t="s">
+      <c r="K125" s="46" t="s">
         <v>0</v>
       </c>
       <c r="L125" s="35"/>
@@ -8503,76 +8492,106 @@
       <c r="Z125" s="35"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A126" s="54">
+      <c r="A126" s="46">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
-      <c r="B126" s="54" t="s">
+      <c r="B126" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="46" t="s">
         <v>31</v>
       </c>
       <c r="D126" s="1">
-        <v>42763</v>
-      </c>
-      <c r="E126" s="54">
+        <v>43128</v>
+      </c>
+      <c r="E126" s="46">
         <v>2018</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G126" s="54">
-        <v>1</v>
-      </c>
-      <c r="H126" s="54">
-        <v>0</v>
-      </c>
-      <c r="I126" s="54" t="s">
+      <c r="G126" s="46">
+        <v>1</v>
+      </c>
+      <c r="H126" s="46">
+        <v>0</v>
+      </c>
+      <c r="I126" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K126" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="J126" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="35"/>
+      <c r="P126" s="35"/>
+      <c r="Q126" s="35"/>
+      <c r="R126" s="35"/>
+      <c r="S126" s="35"/>
+      <c r="T126" s="35"/>
+      <c r="U126" s="35"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35"/>
+      <c r="X126" s="35"/>
+      <c r="Y126" s="35"/>
+      <c r="Z126" s="35"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A127" s="54">
+      <c r="A127" s="46">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="46" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="1">
         <v>43134</v>
       </c>
-      <c r="E127" s="54">
+      <c r="E127" s="46">
         <v>2018</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G127" s="54">
-        <v>0</v>
-      </c>
-      <c r="H127" s="54">
-        <v>0</v>
-      </c>
-      <c r="I127" s="54" t="s">
+      <c r="G127" s="46">
+        <v>0</v>
+      </c>
+      <c r="H127" s="46">
+        <v>0</v>
+      </c>
+      <c r="I127" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J127" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K127" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="J127" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K127" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="35"/>
+      <c r="P127" s="35"/>
+      <c r="Q127" s="35"/>
+      <c r="R127" s="35"/>
+      <c r="S127" s="35"/>
+      <c r="T127" s="35"/>
+      <c r="U127" s="35"/>
+      <c r="V127" s="35"/>
+      <c r="W127" s="35"/>
+      <c r="X127" s="35"/>
+      <c r="Y127" s="35"/>
+      <c r="Z127" s="35"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="42">
@@ -8609,114 +8628,225 @@
       <c r="K128" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="54">
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+      <c r="N128" s="35"/>
+      <c r="O128" s="35"/>
+      <c r="P128" s="35"/>
+      <c r="Q128" s="35"/>
+      <c r="R128" s="35"/>
+      <c r="S128" s="35"/>
+      <c r="T128" s="35"/>
+      <c r="U128" s="35"/>
+      <c r="V128" s="35"/>
+      <c r="W128" s="35"/>
+      <c r="X128" s="35"/>
+      <c r="Y128" s="35"/>
+      <c r="Z128" s="35"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A129" s="46">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="46" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="1">
         <v>43177</v>
       </c>
-      <c r="E129" s="54">
+      <c r="E129" s="46">
         <v>2018</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G129" s="54">
+      <c r="G129" s="46">
         <v>2</v>
       </c>
-      <c r="H129" s="54">
+      <c r="H129" s="46">
         <v>3</v>
       </c>
-      <c r="I129" s="54" t="s">
+      <c r="I129" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J129" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K129" s="54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="54">
+      <c r="J129" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
+      <c r="Q129" s="35"/>
+      <c r="R129" s="35"/>
+      <c r="S129" s="35"/>
+      <c r="T129" s="35"/>
+      <c r="U129" s="35"/>
+      <c r="V129" s="35"/>
+      <c r="W129" s="35"/>
+      <c r="X129" s="35"/>
+      <c r="Y129" s="35"/>
+      <c r="Z129" s="35"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" s="46">
         <f t="shared" si="5"/>
         <v>129</v>
       </c>
-      <c r="B130" s="54" t="s">
+      <c r="B130" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C130" s="54" t="s">
+      <c r="C130" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D130" s="1">
         <v>43180</v>
       </c>
-      <c r="E130" s="54">
+      <c r="E130" s="46">
         <v>2018</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G130" s="54">
+      <c r="G130" s="46">
         <v>3</v>
       </c>
-      <c r="H130" s="54">
+      <c r="H130" s="46">
         <v>2</v>
       </c>
-      <c r="I130" s="54" t="s">
+      <c r="I130" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J130" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K130" s="54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="54">
+      <c r="J130" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="35"/>
+      <c r="P130" s="35"/>
+      <c r="Q130" s="35"/>
+      <c r="R130" s="35"/>
+      <c r="S130" s="35"/>
+      <c r="T130" s="35"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="35"/>
+      <c r="W130" s="35"/>
+      <c r="X130" s="35"/>
+      <c r="Y130" s="35"/>
+      <c r="Z130" s="35"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="46">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D131" s="1">
         <v>43181</v>
       </c>
-      <c r="E131" s="54">
+      <c r="E131" s="46">
         <v>2018</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G131" s="54">
-        <v>0</v>
-      </c>
-      <c r="H131" s="54">
+      <c r="G131" s="46">
+        <v>0</v>
+      </c>
+      <c r="H131" s="46">
         <v>3</v>
       </c>
-      <c r="I131" s="54" t="s">
+      <c r="I131" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J131" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K131" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="J131" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+      <c r="N131" s="35"/>
+      <c r="O131" s="35"/>
+      <c r="P131" s="35"/>
+      <c r="Q131" s="35"/>
+      <c r="R131" s="35"/>
+      <c r="S131" s="35"/>
+      <c r="T131" s="35"/>
+      <c r="U131" s="35"/>
+      <c r="V131" s="35"/>
+      <c r="W131" s="35"/>
+      <c r="X131" s="35"/>
+      <c r="Y131" s="35"/>
+      <c r="Z131" s="35"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="46">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43187</v>
+      </c>
+      <c r="E132" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F132" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="46">
+        <v>1</v>
+      </c>
+      <c r="H132" s="46">
+        <v>0</v>
+      </c>
+      <c r="I132" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J132" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="35"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35"/>
+      <c r="Q132" s="35"/>
+      <c r="R132" s="35"/>
+      <c r="S132" s="35"/>
+      <c r="T132" s="35"/>
+      <c r="U132" s="35"/>
+      <c r="V132" s="35"/>
+      <c r="W132" s="35"/>
+      <c r="X132" s="35"/>
+      <c r="Y132" s="35"/>
+      <c r="Z132" s="35"/>
     </row>
   </sheetData>
   <sortState ref="N3:O7">

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -1148,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE132"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="M2" s="16">
         <f>COUNTIF(B3:B1005,"Vasco")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>38</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1340,19 +1340,19 @@
       </c>
       <c r="V2" s="23">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A132" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A133" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -8848,6 +8848,42 @@
       <c r="Y132" s="35"/>
       <c r="Z132" s="35"/>
     </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" s="46">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E133" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F133" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G133" s="46">
+        <v>2</v>
+      </c>
+      <c r="H133" s="46">
+        <v>3</v>
+      </c>
+      <c r="I133" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J133" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K133" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfogo_000\Documents\GitHub\JogosDoBotafogo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="116">
   <si>
     <t>Sim</t>
   </si>
@@ -377,8 +372,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +384,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,6 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,7 +967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1140,21 +1144,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -1183,7 +1187,7 @@
     <col min="25" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="46" t="s">
         <v>72</v>
       </c>
@@ -1268,7 +1272,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="35"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1307,7 +1311,7 @@
       </c>
       <c r="M2" s="16">
         <f>COUNTIF(B3:B1005,"Vasco")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>38</v>
@@ -1332,7 +1336,7 @@
       </c>
       <c r="T2" s="21">
         <f>COUNTIF(F2:F1007, "Vitória")</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" s="46">
         <f>COUNTIF(F2:F1007, "Empate")</f>
@@ -1348,11 +1352,11 @@
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1364,7 +1368,7 @@
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1410,14 +1414,14 @@
       </c>
       <c r="O3" s="7">
         <f>COUNTIF(I3:I1007,"Carioca")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="7">
         <f>COUNTIF(J3:J1008,"Maracanã")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" s="21">
         <v>2004</v>
@@ -1439,7 +1443,7 @@
       <c r="AD3" s="35"/>
       <c r="AE3" s="35"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="46">
         <f>SUM(A3+1)</f>
         <v>3</v>
@@ -1515,7 +1519,7 @@
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="46">
         <f t="shared" ref="A5:A6" si="0">SUM(A4+1)</f>
         <v>4</v>
@@ -1591,7 +1595,7 @@
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1667,7 +1671,7 @@
       <c r="AD6" s="35"/>
       <c r="AE6" s="35"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="46">
         <f t="shared" ref="A7:A17" si="1">SUM(A6+1)</f>
         <v>6</v>
@@ -1738,7 +1742,7 @@
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1809,7 +1813,7 @@
       <c r="AD8" s="35"/>
       <c r="AE8" s="35"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1880,7 +1884,7 @@
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1946,7 +1950,7 @@
       <c r="AD10" s="35"/>
       <c r="AE10" s="35"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2012,7 +2016,7 @@
       <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2078,7 +2082,7 @@
       <c r="AD12" s="35"/>
       <c r="AE12" s="35"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2144,7 +2148,7 @@
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2210,7 +2214,7 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2276,7 +2280,7 @@
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2342,7 +2346,7 @@
       <c r="AD16" s="35"/>
       <c r="AE16" s="35"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2393,7 +2397,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -2408,7 +2412,7 @@
       <c r="AD17" s="35"/>
       <c r="AE17" s="35"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="46">
         <f t="shared" ref="A18:A23" si="2">SUM(A17+1)</f>
         <v>17</v>
@@ -2469,7 +2473,7 @@
       <c r="AD18" s="35"/>
       <c r="AE18" s="35"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="46">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2530,7 +2534,7 @@
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="46">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2591,7 +2595,7 @@
       <c r="AD20" s="35"/>
       <c r="AE20" s="35"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2652,7 +2656,7 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="46">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2713,7 +2717,7 @@
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="46">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2774,7 +2778,7 @@
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="46">
         <f t="shared" ref="A24:A38" si="3">SUM(A23+1)</f>
         <v>23</v>
@@ -2835,7 +2839,7 @@
       <c r="AD24" s="35"/>
       <c r="AE24" s="35"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="46">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2896,7 +2900,7 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" s="46">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2957,7 +2961,7 @@
       <c r="AD26" s="35"/>
       <c r="AE26" s="35"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="A27" s="46">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3018,7 +3022,7 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="A28" s="46">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3079,7 +3083,7 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" s="46">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3140,7 +3144,7 @@
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" s="46">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3201,7 +3205,7 @@
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" s="46">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3262,7 +3266,7 @@
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" s="46">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3323,7 +3327,7 @@
       <c r="AD32" s="35"/>
       <c r="AE32" s="35"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" s="46">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -3384,7 +3388,7 @@
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" s="46">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -3445,7 +3449,7 @@
       <c r="AD34" s="35"/>
       <c r="AE34" s="35"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" s="46">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -3506,7 +3510,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" s="46">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -3567,7 +3571,7 @@
       <c r="AD36" s="35"/>
       <c r="AE36" s="35"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" s="46">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -3628,7 +3632,7 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" s="46">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3689,7 +3693,7 @@
       <c r="AD38" s="35"/>
       <c r="AE38" s="35"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" s="46">
         <f t="shared" ref="A39:A108" si="4">SUM(A38+1)</f>
         <v>38</v>
@@ -3750,7 +3754,7 @@
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" s="46">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -3811,7 +3815,7 @@
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" s="46">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -3872,7 +3876,7 @@
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" s="46">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -3933,7 +3937,7 @@
       <c r="AD42" s="35"/>
       <c r="AE42" s="35"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" s="46">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -3994,7 +3998,7 @@
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" s="46">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -4055,7 +4059,7 @@
       <c r="AD44" s="35"/>
       <c r="AE44" s="35"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" s="46">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4116,7 +4120,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" s="46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -4177,7 +4181,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" s="46">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -4238,7 +4242,7 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" s="42">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -4299,7 +4303,7 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" s="46">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -4360,7 +4364,7 @@
       <c r="AD49" s="35"/>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" s="46">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -4416,7 +4420,7 @@
       <c r="AD50" s="35"/>
       <c r="AE50" s="35"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" s="46">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -4472,7 +4476,7 @@
       <c r="AD51" s="35"/>
       <c r="AE51" s="35"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" s="46">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4528,7 +4532,7 @@
       <c r="AD52" s="35"/>
       <c r="AE52" s="35"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" s="46">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4584,7 +4588,7 @@
       <c r="AD53" s="35"/>
       <c r="AE53" s="35"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" s="46">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4640,7 +4644,7 @@
       <c r="AD54" s="35"/>
       <c r="AE54" s="35"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" s="46">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4696,7 +4700,7 @@
       <c r="AD55" s="35"/>
       <c r="AE55" s="35"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" s="46">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4752,7 +4756,7 @@
       <c r="AD56" s="35"/>
       <c r="AE56" s="35"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" s="46">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4808,7 +4812,7 @@
       <c r="AD57" s="35"/>
       <c r="AE57" s="35"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" s="46">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4864,7 +4868,7 @@
       <c r="AD58" s="35"/>
       <c r="AE58" s="35"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" s="46">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4920,7 +4924,7 @@
       <c r="AD59" s="35"/>
       <c r="AE59" s="35"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" s="46">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -4976,7 +4980,7 @@
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" s="46">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -5032,7 +5036,7 @@
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" s="46">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -5088,7 +5092,7 @@
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" s="46">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -5144,7 +5148,7 @@
       <c r="AD63" s="35"/>
       <c r="AE63" s="35"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" s="46">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -5200,7 +5204,7 @@
       <c r="AD64" s="35"/>
       <c r="AE64" s="35"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" s="46">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -5256,7 +5260,7 @@
       <c r="AD65" s="35"/>
       <c r="AE65" s="35"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" s="46">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -5312,7 +5316,7 @@
       <c r="AD66" s="35"/>
       <c r="AE66" s="35"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" s="46">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -5368,7 +5372,7 @@
       <c r="AD67" s="35"/>
       <c r="AE67" s="35"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" s="46">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -5424,7 +5428,7 @@
       <c r="AD68" s="35"/>
       <c r="AE68" s="35"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" s="46">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -5480,7 +5484,7 @@
       <c r="AD69" s="35"/>
       <c r="AE69" s="35"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" s="46">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -5536,7 +5540,7 @@
       <c r="AD70" s="35"/>
       <c r="AE70" s="35"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" s="46">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -5592,7 +5596,7 @@
       <c r="AD71" s="35"/>
       <c r="AE71" s="35"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" s="46">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -5648,7 +5652,7 @@
       <c r="AD72" s="35"/>
       <c r="AE72" s="35"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" s="46">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -5704,7 +5708,7 @@
       <c r="AD73" s="35"/>
       <c r="AE73" s="35"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" s="46">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -5760,7 +5764,7 @@
       <c r="AD74" s="35"/>
       <c r="AE74" s="35"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" s="46">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -5816,7 +5820,7 @@
       <c r="AD75" s="35"/>
       <c r="AE75" s="35"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" s="46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -5872,7 +5876,7 @@
       <c r="AD76" s="35"/>
       <c r="AE76" s="35"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" s="46">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -5928,7 +5932,7 @@
       <c r="AD77" s="35"/>
       <c r="AE77" s="35"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" s="46">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -5984,7 +5988,7 @@
       <c r="AD78" s="35"/>
       <c r="AE78" s="35"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" s="46">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -6040,7 +6044,7 @@
       <c r="AD79" s="35"/>
       <c r="AE79" s="35"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" s="46">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -6096,7 +6100,7 @@
       <c r="AD80" s="35"/>
       <c r="AE80" s="35"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" s="46">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -6152,7 +6156,7 @@
       <c r="AD81" s="35"/>
       <c r="AE81" s="35"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" s="46">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -6208,7 +6212,7 @@
       <c r="AD82" s="35"/>
       <c r="AE82" s="35"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" s="46">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -6264,7 +6268,7 @@
       <c r="AD83" s="35"/>
       <c r="AE83" s="35"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" s="46">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -6320,7 +6324,7 @@
       <c r="AD84" s="35"/>
       <c r="AE84" s="35"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" s="46">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -6376,7 +6380,7 @@
       <c r="AD85" s="35"/>
       <c r="AE85" s="35"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" s="46">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -6432,7 +6436,7 @@
       <c r="AD86" s="35"/>
       <c r="AE86" s="35"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="46">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -6488,7 +6492,7 @@
       <c r="AD87" s="35"/>
       <c r="AE87" s="35"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31">
       <c r="A88" s="42">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -6544,7 +6548,7 @@
       <c r="AD88" s="35"/>
       <c r="AE88" s="35"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31">
       <c r="A89" s="46">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -6600,7 +6604,7 @@
       <c r="AD89" s="35"/>
       <c r="AE89" s="35"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31">
       <c r="A90" s="46">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -6656,7 +6660,7 @@
       <c r="AD90" s="35"/>
       <c r="AE90" s="35"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31">
       <c r="A91" s="46">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -6712,7 +6716,7 @@
       <c r="AD91" s="35"/>
       <c r="AE91" s="35"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31">
       <c r="A92" s="46">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -6768,7 +6772,7 @@
       <c r="AD92" s="35"/>
       <c r="AE92" s="35"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31">
       <c r="A93" s="46">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -6824,7 +6828,7 @@
       <c r="AD93" s="35"/>
       <c r="AE93" s="35"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31">
       <c r="A94" s="46">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -6880,7 +6884,7 @@
       <c r="AD94" s="35"/>
       <c r="AE94" s="35"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31">
       <c r="A95" s="46">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -6936,7 +6940,7 @@
       <c r="AD95" s="35"/>
       <c r="AE95" s="35"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31">
       <c r="A96" s="46">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -6992,7 +6996,7 @@
       <c r="AD96" s="35"/>
       <c r="AE96" s="35"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31">
       <c r="A97" s="46">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -7048,7 +7052,7 @@
       <c r="AD97" s="35"/>
       <c r="AE97" s="35"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31">
       <c r="A98" s="46">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -7104,7 +7108,7 @@
       <c r="AD98" s="35"/>
       <c r="AE98" s="35"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31">
       <c r="A99" s="42">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -7160,7 +7164,7 @@
       <c r="AD99" s="35"/>
       <c r="AE99" s="35"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31">
       <c r="A100" s="46">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -7216,7 +7220,7 @@
       <c r="AD100" s="35"/>
       <c r="AE100" s="35"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31">
       <c r="A101" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -7267,7 +7271,7 @@
       <c r="Y101" s="35"/>
       <c r="Z101" s="35"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31">
       <c r="A102" s="42">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -7318,7 +7322,7 @@
       <c r="Y102" s="35"/>
       <c r="Z102" s="35"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31">
       <c r="A103" s="42">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -7369,7 +7373,7 @@
       <c r="Y103" s="35"/>
       <c r="Z103" s="35"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31">
       <c r="A104" s="46">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -7420,7 +7424,7 @@
       <c r="Y104" s="35"/>
       <c r="Z104" s="35"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31">
       <c r="A105" s="42">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -7471,7 +7475,7 @@
       <c r="Y105" s="35"/>
       <c r="Z105" s="35"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31">
       <c r="A106" s="46">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -7522,7 +7526,7 @@
       <c r="Y106" s="35"/>
       <c r="Z106" s="35"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31">
       <c r="A107" s="42">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -7573,7 +7577,7 @@
       <c r="Y107" s="35"/>
       <c r="Z107" s="35"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31">
       <c r="A108" s="46">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -7624,9 +7628,9 @@
       <c r="Y108" s="35"/>
       <c r="Z108" s="35"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A133" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A134" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -7675,7 +7679,7 @@
       <c r="Y109" s="35"/>
       <c r="Z109" s="35"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31">
       <c r="A110" s="46">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -7726,7 +7730,7 @@
       <c r="Y110" s="35"/>
       <c r="Z110" s="35"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31">
       <c r="A111" s="42">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -7777,7 +7781,7 @@
       <c r="Y111" s="35"/>
       <c r="Z111" s="35"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31">
       <c r="A112" s="46">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -7828,7 +7832,7 @@
       <c r="Y112" s="35"/>
       <c r="Z112" s="35"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26">
       <c r="A113" s="46">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -7879,7 +7883,7 @@
       <c r="Y113" s="35"/>
       <c r="Z113" s="35"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26">
       <c r="A114" s="46">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -7930,7 +7934,7 @@
       <c r="Y114" s="35"/>
       <c r="Z114" s="35"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26">
       <c r="A115" s="46">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -7981,7 +7985,7 @@
       <c r="Y115" s="35"/>
       <c r="Z115" s="35"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26">
       <c r="A116" s="46">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -8032,7 +8036,7 @@
       <c r="Y116" s="35"/>
       <c r="Z116" s="35"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26">
       <c r="A117" s="46">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -8083,7 +8087,7 @@
       <c r="Y117" s="35"/>
       <c r="Z117" s="35"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26">
       <c r="A118" s="46">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -8134,7 +8138,7 @@
       <c r="Y118" s="35"/>
       <c r="Z118" s="35"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26">
       <c r="A119" s="46">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -8185,7 +8189,7 @@
       <c r="Y119" s="35"/>
       <c r="Z119" s="35"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26">
       <c r="A120" s="46">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -8236,7 +8240,7 @@
       <c r="Y120" s="35"/>
       <c r="Z120" s="35"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26">
       <c r="A121" s="46">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -8287,7 +8291,7 @@
       <c r="Y121" s="35"/>
       <c r="Z121" s="35"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26">
       <c r="A122" s="46">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -8338,7 +8342,7 @@
       <c r="Y122" s="35"/>
       <c r="Z122" s="35"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26">
       <c r="A123" s="46">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -8389,7 +8393,7 @@
       <c r="Y123" s="35"/>
       <c r="Z123" s="35"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26">
       <c r="A124" s="46">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -8440,7 +8444,7 @@
       <c r="Y124" s="35"/>
       <c r="Z124" s="35"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26">
       <c r="A125" s="46">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -8491,7 +8495,7 @@
       <c r="Y125" s="35"/>
       <c r="Z125" s="35"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26">
       <c r="A126" s="46">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -8542,7 +8546,7 @@
       <c r="Y126" s="35"/>
       <c r="Z126" s="35"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26">
       <c r="A127" s="46">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -8593,7 +8597,7 @@
       <c r="Y127" s="35"/>
       <c r="Z127" s="35"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26">
       <c r="A128" s="42">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -8644,7 +8648,7 @@
       <c r="Y128" s="35"/>
       <c r="Z128" s="35"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26">
       <c r="A129" s="46">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -8695,7 +8699,7 @@
       <c r="Y129" s="35"/>
       <c r="Z129" s="35"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26">
       <c r="A130" s="46">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -8746,7 +8750,7 @@
       <c r="Y130" s="35"/>
       <c r="Z130" s="35"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26">
       <c r="A131" s="46">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -8797,7 +8801,7 @@
       <c r="Y131" s="35"/>
       <c r="Z131" s="35"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26">
       <c r="A132" s="46">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -8848,7 +8852,7 @@
       <c r="Y132" s="35"/>
       <c r="Z132" s="35"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26">
       <c r="A133" s="46">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8883,6 +8887,45 @@
       <c r="K133" s="46" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="134" spans="1:26">
+      <c r="A134" s="46">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="1">
+        <v>43198</v>
+      </c>
+      <c r="E134" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F134" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="46">
+        <v>0</v>
+      </c>
+      <c r="H134" s="46">
+        <v>1</v>
+      </c>
+      <c r="I134" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
+      <c r="J135" s="51"/>
     </row>
   </sheetData>
   <sortState ref="N3:O7">

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfogo_000\Documents\GitHub\JogosDoBotafogo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="117">
   <si>
     <t>Sim</t>
   </si>
@@ -367,13 +372,16 @@
   </si>
   <si>
     <t>Bangu</t>
+  </si>
+  <si>
+    <t>(4) 1 x 0 (3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,25 +1152,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1187,7 +1195,7 @@
     <col min="25" max="26" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>72</v>
       </c>
@@ -1272,7 +1280,7 @@
       <c r="AD1" s="35"/>
       <c r="AE1" s="35"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1348,11 +1356,11 @@
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
@@ -1368,7 +1376,7 @@
       <c r="AD2" s="35"/>
       <c r="AE2" s="35"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1443,7 +1451,7 @@
       <c r="AD3" s="35"/>
       <c r="AE3" s="35"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <f>SUM(A3+1)</f>
         <v>3</v>
@@ -1519,7 +1527,7 @@
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <f t="shared" ref="A5:A6" si="0">SUM(A4+1)</f>
         <v>4</v>
@@ -1595,7 +1603,7 @@
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1671,7 +1679,7 @@
       <c r="AD6" s="35"/>
       <c r="AE6" s="35"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <f t="shared" ref="A7:A17" si="1">SUM(A6+1)</f>
         <v>6</v>
@@ -1742,7 +1750,7 @@
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1813,7 +1821,7 @@
       <c r="AD8" s="35"/>
       <c r="AE8" s="35"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1884,7 +1892,7 @@
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1950,7 +1958,7 @@
       <c r="AD10" s="35"/>
       <c r="AE10" s="35"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2016,7 +2024,7 @@
       <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2082,7 +2090,7 @@
       <c r="AD12" s="35"/>
       <c r="AE12" s="35"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2148,7 +2156,7 @@
       <c r="AD13" s="35"/>
       <c r="AE13" s="35"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2214,7 +2222,7 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2280,7 +2288,7 @@
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2346,7 +2354,7 @@
       <c r="AD16" s="35"/>
       <c r="AE16" s="35"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2412,7 +2420,7 @@
       <c r="AD17" s="35"/>
       <c r="AE17" s="35"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <f t="shared" ref="A18:A23" si="2">SUM(A17+1)</f>
         <v>17</v>
@@ -2473,7 +2481,7 @@
       <c r="AD18" s="35"/>
       <c r="AE18" s="35"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2534,7 +2542,7 @@
       <c r="AD19" s="35"/>
       <c r="AE19" s="35"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -2595,7 +2603,7 @@
       <c r="AD20" s="35"/>
       <c r="AE20" s="35"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2656,7 +2664,7 @@
       <c r="AD21" s="35"/>
       <c r="AE21" s="35"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -2717,7 +2725,7 @@
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2778,7 +2786,7 @@
       <c r="AD23" s="35"/>
       <c r="AE23" s="35"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <f t="shared" ref="A24:A38" si="3">SUM(A23+1)</f>
         <v>23</v>
@@ -2839,7 +2847,7 @@
       <c r="AD24" s="35"/>
       <c r="AE24" s="35"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -2900,7 +2908,7 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -2961,7 +2969,7 @@
       <c r="AD26" s="35"/>
       <c r="AE26" s="35"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -3022,7 +3030,7 @@
       <c r="AD27" s="35"/>
       <c r="AE27" s="35"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -3083,7 +3091,7 @@
       <c r="AD28" s="35"/>
       <c r="AE28" s="35"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -3144,7 +3152,7 @@
       <c r="AD29" s="35"/>
       <c r="AE29" s="35"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -3205,7 +3213,7 @@
       <c r="AD30" s="35"/>
       <c r="AE30" s="35"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -3266,7 +3274,7 @@
       <c r="AD31" s="35"/>
       <c r="AE31" s="35"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -3327,7 +3335,7 @@
       <c r="AD32" s="35"/>
       <c r="AE32" s="35"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="46">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -3388,7 +3396,7 @@
       <c r="AD33" s="35"/>
       <c r="AE33" s="35"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -3449,7 +3457,7 @@
       <c r="AD34" s="35"/>
       <c r="AE34" s="35"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="46">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -3510,7 +3518,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="46">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -3571,7 +3579,7 @@
       <c r="AD36" s="35"/>
       <c r="AE36" s="35"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -3632,7 +3640,7 @@
       <c r="AD37" s="35"/>
       <c r="AE37" s="35"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -3693,7 +3701,7 @@
       <c r="AD38" s="35"/>
       <c r="AE38" s="35"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="46">
         <f t="shared" ref="A39:A108" si="4">SUM(A38+1)</f>
         <v>38</v>
@@ -3754,7 +3762,7 @@
       <c r="AD39" s="35"/>
       <c r="AE39" s="35"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="46">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -3815,7 +3823,7 @@
       <c r="AD40" s="35"/>
       <c r="AE40" s="35"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -3876,7 +3884,7 @@
       <c r="AD41" s="35"/>
       <c r="AE41" s="35"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -3937,7 +3945,7 @@
       <c r="AD42" s="35"/>
       <c r="AE42" s="35"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="46">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -3998,7 +4006,7 @@
       <c r="AD43" s="35"/>
       <c r="AE43" s="35"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="46">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -4059,7 +4067,7 @@
       <c r="AD44" s="35"/>
       <c r="AE44" s="35"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="46">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -4120,7 +4128,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -4181,7 +4189,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -4242,7 +4250,7 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -4303,7 +4311,7 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="46">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -4364,7 +4372,7 @@
       <c r="AD49" s="35"/>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -4420,7 +4428,7 @@
       <c r="AD50" s="35"/>
       <c r="AE50" s="35"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -4476,7 +4484,7 @@
       <c r="AD51" s="35"/>
       <c r="AE51" s="35"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <f t="shared" si="4"/>
         <v>51</v>
@@ -4532,7 +4540,7 @@
       <c r="AD52" s="35"/>
       <c r="AE52" s="35"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <f t="shared" si="4"/>
         <v>52</v>
@@ -4588,7 +4596,7 @@
       <c r="AD53" s="35"/>
       <c r="AE53" s="35"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="46">
         <f t="shared" si="4"/>
         <v>53</v>
@@ -4644,7 +4652,7 @@
       <c r="AD54" s="35"/>
       <c r="AE54" s="35"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="46">
         <f t="shared" si="4"/>
         <v>54</v>
@@ -4700,7 +4708,7 @@
       <c r="AD55" s="35"/>
       <c r="AE55" s="35"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <f t="shared" si="4"/>
         <v>55</v>
@@ -4756,7 +4764,7 @@
       <c r="AD56" s="35"/>
       <c r="AE56" s="35"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <f t="shared" si="4"/>
         <v>56</v>
@@ -4812,7 +4820,7 @@
       <c r="AD57" s="35"/>
       <c r="AE57" s="35"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <f t="shared" si="4"/>
         <v>57</v>
@@ -4868,7 +4876,7 @@
       <c r="AD58" s="35"/>
       <c r="AE58" s="35"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="46">
         <f t="shared" si="4"/>
         <v>58</v>
@@ -4924,7 +4932,7 @@
       <c r="AD59" s="35"/>
       <c r="AE59" s="35"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <f t="shared" si="4"/>
         <v>59</v>
@@ -4980,7 +4988,7 @@
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
         <f t="shared" si="4"/>
         <v>60</v>
@@ -5036,7 +5044,7 @@
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
         <f t="shared" si="4"/>
         <v>61</v>
@@ -5092,7 +5100,7 @@
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <f t="shared" si="4"/>
         <v>62</v>
@@ -5148,7 +5156,7 @@
       <c r="AD63" s="35"/>
       <c r="AE63" s="35"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -5204,7 +5212,7 @@
       <c r="AD64" s="35"/>
       <c r="AE64" s="35"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -5260,7 +5268,7 @@
       <c r="AD65" s="35"/>
       <c r="AE65" s="35"/>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
         <f t="shared" si="4"/>
         <v>65</v>
@@ -5316,7 +5324,7 @@
       <c r="AD66" s="35"/>
       <c r="AE66" s="35"/>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="46">
         <f t="shared" si="4"/>
         <v>66</v>
@@ -5372,7 +5380,7 @@
       <c r="AD67" s="35"/>
       <c r="AE67" s="35"/>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="46">
         <f t="shared" si="4"/>
         <v>67</v>
@@ -5428,7 +5436,7 @@
       <c r="AD68" s="35"/>
       <c r="AE68" s="35"/>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
         <f t="shared" si="4"/>
         <v>68</v>
@@ -5484,7 +5492,7 @@
       <c r="AD69" s="35"/>
       <c r="AE69" s="35"/>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="46">
         <f t="shared" si="4"/>
         <v>69</v>
@@ -5540,7 +5548,7 @@
       <c r="AD70" s="35"/>
       <c r="AE70" s="35"/>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <f t="shared" si="4"/>
         <v>70</v>
@@ -5596,7 +5604,7 @@
       <c r="AD71" s="35"/>
       <c r="AE71" s="35"/>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="46">
         <f t="shared" si="4"/>
         <v>71</v>
@@ -5652,7 +5660,7 @@
       <c r="AD72" s="35"/>
       <c r="AE72" s="35"/>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="46">
         <f t="shared" si="4"/>
         <v>72</v>
@@ -5708,7 +5716,7 @@
       <c r="AD73" s="35"/>
       <c r="AE73" s="35"/>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -5764,7 +5772,7 @@
       <c r="AD74" s="35"/>
       <c r="AE74" s="35"/>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="46">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -5820,7 +5828,7 @@
       <c r="AD75" s="35"/>
       <c r="AE75" s="35"/>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="46">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -5876,7 +5884,7 @@
       <c r="AD76" s="35"/>
       <c r="AE76" s="35"/>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="46">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -5932,7 +5940,7 @@
       <c r="AD77" s="35"/>
       <c r="AE77" s="35"/>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="46">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -5988,7 +5996,7 @@
       <c r="AD78" s="35"/>
       <c r="AE78" s="35"/>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="46">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -6044,7 +6052,7 @@
       <c r="AD79" s="35"/>
       <c r="AE79" s="35"/>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="46">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -6100,7 +6108,7 @@
       <c r="AD80" s="35"/>
       <c r="AE80" s="35"/>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="46">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -6156,7 +6164,7 @@
       <c r="AD81" s="35"/>
       <c r="AE81" s="35"/>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="46">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -6212,7 +6220,7 @@
       <c r="AD82" s="35"/>
       <c r="AE82" s="35"/>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="46">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -6268,7 +6276,7 @@
       <c r="AD83" s="35"/>
       <c r="AE83" s="35"/>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="46">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -6324,7 +6332,7 @@
       <c r="AD84" s="35"/>
       <c r="AE84" s="35"/>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="46">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -6380,7 +6388,7 @@
       <c r="AD85" s="35"/>
       <c r="AE85" s="35"/>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="46">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -6436,7 +6444,7 @@
       <c r="AD86" s="35"/>
       <c r="AE86" s="35"/>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="46">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -6492,7 +6500,7 @@
       <c r="AD87" s="35"/>
       <c r="AE87" s="35"/>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="42">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -6548,7 +6556,7 @@
       <c r="AD88" s="35"/>
       <c r="AE88" s="35"/>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="46">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -6604,7 +6612,7 @@
       <c r="AD89" s="35"/>
       <c r="AE89" s="35"/>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="46">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -6660,7 +6668,7 @@
       <c r="AD90" s="35"/>
       <c r="AE90" s="35"/>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="46">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -6716,7 +6724,7 @@
       <c r="AD91" s="35"/>
       <c r="AE91" s="35"/>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="46">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -6772,7 +6780,7 @@
       <c r="AD92" s="35"/>
       <c r="AE92" s="35"/>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="46">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -6828,7 +6836,7 @@
       <c r="AD93" s="35"/>
       <c r="AE93" s="35"/>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="46">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -6884,7 +6892,7 @@
       <c r="AD94" s="35"/>
       <c r="AE94" s="35"/>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="46">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -6940,7 +6948,7 @@
       <c r="AD95" s="35"/>
       <c r="AE95" s="35"/>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="46">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -6996,7 +7004,7 @@
       <c r="AD96" s="35"/>
       <c r="AE96" s="35"/>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="46">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -7052,7 +7060,7 @@
       <c r="AD97" s="35"/>
       <c r="AE97" s="35"/>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="46">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -7108,7 +7116,7 @@
       <c r="AD98" s="35"/>
       <c r="AE98" s="35"/>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -7164,7 +7172,7 @@
       <c r="AD99" s="35"/>
       <c r="AE99" s="35"/>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="46">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -7220,7 +7228,7 @@
       <c r="AD100" s="35"/>
       <c r="AE100" s="35"/>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="46">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -7271,7 +7279,7 @@
       <c r="Y101" s="35"/>
       <c r="Z101" s="35"/>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="42">
         <f t="shared" si="4"/>
         <v>101</v>
@@ -7322,7 +7330,7 @@
       <c r="Y102" s="35"/>
       <c r="Z102" s="35"/>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="42">
         <f t="shared" si="4"/>
         <v>102</v>
@@ -7373,7 +7381,7 @@
       <c r="Y103" s="35"/>
       <c r="Z103" s="35"/>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="46">
         <f t="shared" si="4"/>
         <v>103</v>
@@ -7424,7 +7432,7 @@
       <c r="Y104" s="35"/>
       <c r="Z104" s="35"/>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="42">
         <f t="shared" si="4"/>
         <v>104</v>
@@ -7475,7 +7483,7 @@
       <c r="Y105" s="35"/>
       <c r="Z105" s="35"/>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="46">
         <f t="shared" si="4"/>
         <v>105</v>
@@ -7526,7 +7534,7 @@
       <c r="Y106" s="35"/>
       <c r="Z106" s="35"/>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="42">
         <f t="shared" si="4"/>
         <v>106</v>
@@ -7577,7 +7585,7 @@
       <c r="Y107" s="35"/>
       <c r="Z107" s="35"/>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="46">
         <f t="shared" si="4"/>
         <v>107</v>
@@ -7628,7 +7636,7 @@
       <c r="Y108" s="35"/>
       <c r="Z108" s="35"/>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
         <f t="shared" ref="A109:A134" si="5">SUM(A108+1)</f>
         <v>108</v>
@@ -7679,7 +7687,7 @@
       <c r="Y109" s="35"/>
       <c r="Z109" s="35"/>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="46">
         <f t="shared" si="5"/>
         <v>109</v>
@@ -7730,7 +7738,7 @@
       <c r="Y110" s="35"/>
       <c r="Z110" s="35"/>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="42">
         <f t="shared" si="5"/>
         <v>110</v>
@@ -7781,7 +7789,7 @@
       <c r="Y111" s="35"/>
       <c r="Z111" s="35"/>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="46">
         <f t="shared" si="5"/>
         <v>111</v>
@@ -7832,7 +7840,7 @@
       <c r="Y112" s="35"/>
       <c r="Z112" s="35"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="46">
         <f t="shared" si="5"/>
         <v>112</v>
@@ -7883,7 +7891,7 @@
       <c r="Y113" s="35"/>
       <c r="Z113" s="35"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="46">
         <f t="shared" si="5"/>
         <v>113</v>
@@ -7934,7 +7942,7 @@
       <c r="Y114" s="35"/>
       <c r="Z114" s="35"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="46">
         <f t="shared" si="5"/>
         <v>114</v>
@@ -7985,7 +7993,7 @@
       <c r="Y115" s="35"/>
       <c r="Z115" s="35"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="46">
         <f t="shared" si="5"/>
         <v>115</v>
@@ -8036,7 +8044,7 @@
       <c r="Y116" s="35"/>
       <c r="Z116" s="35"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="46">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -8087,7 +8095,7 @@
       <c r="Y117" s="35"/>
       <c r="Z117" s="35"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="46">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -8138,7 +8146,7 @@
       <c r="Y118" s="35"/>
       <c r="Z118" s="35"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="46">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -8189,7 +8197,7 @@
       <c r="Y119" s="35"/>
       <c r="Z119" s="35"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="46">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -8240,7 +8248,7 @@
       <c r="Y120" s="35"/>
       <c r="Z120" s="35"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="46">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -8291,7 +8299,7 @@
       <c r="Y121" s="35"/>
       <c r="Z121" s="35"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="46">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -8342,7 +8350,7 @@
       <c r="Y122" s="35"/>
       <c r="Z122" s="35"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="46">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -8393,7 +8401,7 @@
       <c r="Y123" s="35"/>
       <c r="Z123" s="35"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="46">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -8444,7 +8452,7 @@
       <c r="Y124" s="35"/>
       <c r="Z124" s="35"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="46">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -8495,7 +8503,7 @@
       <c r="Y125" s="35"/>
       <c r="Z125" s="35"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="46">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -8546,7 +8554,7 @@
       <c r="Y126" s="35"/>
       <c r="Z126" s="35"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="46">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -8597,7 +8605,7 @@
       <c r="Y127" s="35"/>
       <c r="Z127" s="35"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="42">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -8648,7 +8656,7 @@
       <c r="Y128" s="35"/>
       <c r="Z128" s="35"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="46">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -8699,7 +8707,7 @@
       <c r="Y129" s="35"/>
       <c r="Z129" s="35"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="46">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -8750,7 +8758,7 @@
       <c r="Y130" s="35"/>
       <c r="Z130" s="35"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="46">
         <f t="shared" si="5"/>
         <v>130</v>
@@ -8801,7 +8809,7 @@
       <c r="Y131" s="35"/>
       <c r="Z131" s="35"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="46">
         <f t="shared" si="5"/>
         <v>131</v>
@@ -8852,7 +8860,7 @@
       <c r="Y132" s="35"/>
       <c r="Z132" s="35"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="46">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -8888,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="46">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -8897,7 +8905,7 @@
         <v>26</v>
       </c>
       <c r="C134" s="46" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D134" s="1">
         <v>43198</v>
@@ -8909,10 +8917,10 @@
         <v>20</v>
       </c>
       <c r="G134" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" s="46" t="s">
         <v>24</v>
@@ -8924,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J135" s="51"/>
     </row>
   </sheetData>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="117">
   <si>
     <t>Sim</t>
   </si>
@@ -381,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,14 +392,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,7 +871,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,22 +1154,22 @@
   <dimension ref="A1:AE135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1326,14 +1317,14 @@
       </c>
       <c r="O2" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1344,7 +1335,7 @@
       </c>
       <c r="T2" s="21">
         <f>COUNTIF(F2:F1007, "Vitória")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" s="46">
         <f>COUNTIF(F2:F1007, "Empate")</f>
@@ -1356,15 +1347,15 @@
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1567,7 +1558,7 @@
       </c>
       <c r="M5" s="17">
         <f>COUNTIF(B3:B1005,"Grêmio")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="22" t="s">
         <v>43</v>
@@ -2405,7 +2396,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -7638,7 +7629,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A134" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A135" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -8933,7 +8924,40 @@
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J135" s="51"/>
+      <c r="A135" s="46">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="1">
+        <v>43218</v>
+      </c>
+      <c r="E135" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F135" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="46">
+        <v>2</v>
+      </c>
+      <c r="H135" s="46">
+        <v>1</v>
+      </c>
+      <c r="I135" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J135" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" s="46" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="N3:O7">

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="119">
   <si>
     <t>Sim</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>(4) 1 x 0 (3)</t>
+  </si>
+  <si>
+    <t>Sulamericana</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -715,11 +721,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,6 +916,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE135"/>
+  <dimension ref="A1:AE136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1383,7 @@
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1339,7 +1398,7 @@
       </c>
       <c r="U2" s="46">
         <f>COUNTIF(F2:F1007, "Empate")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V2" s="23">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
@@ -1347,15 +1406,15 @@
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1636,7 +1695,7 @@
         <f>COUNTIF(B3:B1003,"Atlético Mineiro")</f>
         <v>5</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="46">
@@ -1712,8 +1771,13 @@
         <f>COUNTIF(B3:B1003,"Boavista")</f>
         <v>4</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="N7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="51">
+        <f>COUNTIF(I136:I1010,"Sulamericana")</f>
+        <v>1</v>
+      </c>
       <c r="P7" s="5" t="s">
         <v>77</v>
       </c>
@@ -1783,7 +1847,7 @@
         <f>COUNTIF(B3:B1006,"Internacional")</f>
         <v>3</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="40"/>
       <c r="P8" s="22" t="s">
         <v>78</v>
@@ -2396,7 +2460,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -4337,7 +4401,7 @@
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="45" t="s">
+      <c r="L49" s="52" t="s">
         <v>114</v>
       </c>
       <c r="M49" s="46">
@@ -4398,8 +4462,13 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="L50" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" s="51">
+        <f>COUNTIF(B136:B1003,"Audax Italiano")</f>
+        <v>1</v>
+      </c>
       <c r="N50" s="36"/>
       <c r="O50" s="36"/>
       <c r="P50" s="36"/>
@@ -4454,7 +4523,7 @@
       <c r="K51" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="40"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
@@ -7629,7 +7698,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A135" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A136" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -8959,6 +9028,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="46">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="1">
+        <v>43229</v>
+      </c>
+      <c r="E136" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F136" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G136" s="46">
+        <v>1</v>
+      </c>
+      <c r="H136" s="46">
+        <v>1</v>
+      </c>
+      <c r="I136" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J136" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K136" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="119">
   <si>
     <t>Sim</t>
   </si>
@@ -1210,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE136"/>
+  <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,14 +1376,14 @@
       </c>
       <c r="O2" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="T2" s="21">
         <f>COUNTIF(F2:F1007, "Vitória")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" s="46">
         <f>COUNTIF(F2:F1007, "Empate")</f>
@@ -1406,15 +1406,15 @@
       </c>
       <c r="W2" s="15">
         <f>SUM(G3:G1001)</f>
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="X2" s="48">
         <f>SUM(H3:H1001)</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="M3" s="17">
         <f>COUNTIF(B3:B1005,"Fluminense")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>24</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A136" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A137" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -9064,6 +9064,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="46">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="1">
+        <v>43234</v>
+      </c>
+      <c r="E137" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F137" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="46">
+        <v>2</v>
+      </c>
+      <c r="H137" s="46">
+        <v>1</v>
+      </c>
+      <c r="I137" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J137" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="N3:O7">
     <sortCondition descending="1" ref="O3:O7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K106" sqref="A106:K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="Y2" s="50">
         <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="47">
         <f>COUNTIF(K3:K1006,"Não")</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA2" s="35"/>
       <c r="AB2" s="35"/>
@@ -7677,8 +7677,8 @@
       <c r="J108" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K108" s="42" t="s">
-        <v>49</v>
+      <c r="K108" s="46" t="s">
+        <v>0</v>
       </c>
       <c r="L108" s="35"/>
       <c r="M108" s="35"/>
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="46" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L115" s="35"/>
       <c r="M115" s="35"/>
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="46" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L117" s="35"/>
       <c r="M117" s="35"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -403,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +425,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +934,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K106" sqref="A106:K106"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,7 +2546,7 @@
       <c r="AE18" s="35"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="55">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -3879,7 +3888,7 @@
       <c r="AE40" s="35"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="55">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -4001,7 +4010,7 @@
       <c r="AE42" s="35"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="46">
+      <c r="A43" s="55">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -8957,7 +8966,7 @@
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="46">
+      <c r="A134" s="55">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="119">
   <si>
     <t>Sim</t>
   </si>
@@ -772,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,9 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,6 +934,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE137"/>
+  <dimension ref="A1:AE138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,9 +1249,9 @@
     <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
     <col min="23" max="23" width="17.85546875" customWidth="1"/>
     <col min="24" max="24" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="14" customWidth="1"/>
@@ -1315,23 +1318,11 @@
       <c r="T1" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="56" t="s">
         <v>88</v>
-      </c>
-      <c r="W1" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="49" t="s">
-        <v>98</v>
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
@@ -1385,14 +1376,14 @@
       </c>
       <c r="O2" s="6">
         <f>COUNTIF(I3:I1007,"Série A")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f>COUNTIF(J1:J1004,"Nilton Santos")</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R2" s="24">
         <v>2002</v>
@@ -1405,29 +1396,13 @@
         <f>COUNTIF(F2:F1007, "Vitória")</f>
         <v>72</v>
       </c>
-      <c r="U2" s="46">
+      <c r="U2" s="7">
         <f>COUNTIF(F2:F1007, "Empate")</f>
-        <v>27</v>
-      </c>
-      <c r="V2" s="23">
+        <v>28</v>
+      </c>
+      <c r="V2" s="53">
         <f>COUNTIF(F2:F1007, "Derrota")</f>
         <v>37</v>
-      </c>
-      <c r="W2" s="15">
-        <f>SUM(G3:G1001)</f>
-        <v>213</v>
-      </c>
-      <c r="X2" s="48">
-        <f>SUM(H3:H1001)</f>
-        <v>138</v>
-      </c>
-      <c r="Y2" s="50">
-        <f>COUNTIF(K3:K1006,"Sim")</f>
-        <v>86</v>
-      </c>
-      <c r="Z2" s="47">
-        <f>COUNTIF(K3:K1006,"Não")</f>
-        <v>49</v>
       </c>
       <c r="AA2" s="35"/>
       <c r="AB2" s="35"/>
@@ -1497,8 +1472,6 @@
         <f>COUNTIF(E3:E9, "2004")</f>
         <v>7</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
       <c r="V3" s="35"/>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
@@ -1573,9 +1546,13 @@
         <f>COUNTIF(E10:E16, "2005")</f>
         <v>7</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="36"/>
+      <c r="T4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="41"/>
       <c r="W4" s="38"/>
       <c r="X4" s="39"/>
       <c r="Y4" s="37"/>
@@ -1649,8 +1626,14 @@
         <f>COUNTIF(E17:E23, "2006")</f>
         <v>7</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
+      <c r="T5" s="15">
+        <f>SUM(G3:G1001)</f>
+        <v>214</v>
+      </c>
+      <c r="U5" s="55">
+        <f>SUM(H3:H1001)</f>
+        <v>139</v>
+      </c>
       <c r="V5" s="36"/>
       <c r="W5" s="38"/>
       <c r="X5" s="39"/>
@@ -1725,8 +1708,6 @@
         <f>COUNTIF(E24:E28, "2007")</f>
         <v>5</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
       <c r="V6" s="36"/>
       <c r="W6" s="38"/>
       <c r="X6" s="39"/>
@@ -1780,10 +1761,10 @@
         <f>COUNTIF(B3:B1003,"Boavista")</f>
         <v>4</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="50">
         <f>COUNTIF(I136:I1010,"Sulamericana")</f>
         <v>1</v>
       </c>
@@ -1801,8 +1782,12 @@
         <f>COUNTIF(E29:E32, "2008")</f>
         <v>4</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
+      <c r="T7" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>97</v>
+      </c>
       <c r="V7" s="36"/>
       <c r="W7" s="38"/>
       <c r="X7" s="39"/>
@@ -1856,7 +1841,7 @@
         <f>COUNTIF(B3:B1006,"Internacional")</f>
         <v>3</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="40"/>
       <c r="P8" s="22" t="s">
         <v>78</v>
@@ -1872,8 +1857,14 @@
         <f>COUNTIF(E33, "2009")</f>
         <v>1</v>
       </c>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
+      <c r="T8" s="47">
+        <f>COUNTIF(K3:K1006,"Não")</f>
+        <v>49</v>
+      </c>
+      <c r="U8" s="49">
+        <f>COUNTIF(K3:K1006,"Sim")</f>
+        <v>87</v>
+      </c>
       <c r="V8" s="36"/>
       <c r="W8" s="38"/>
       <c r="X8" s="39"/>
@@ -2009,8 +2000,6 @@
         <f>COUNTIF(E37:E40, "2011")</f>
         <v>4</v>
       </c>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
       <c r="V10" s="36"/>
       <c r="W10" s="38"/>
       <c r="X10" s="39"/>
@@ -2075,8 +2064,6 @@
         <f>COUNTIF(E41, "2012")</f>
         <v>1</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
       <c r="V11" s="36"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
@@ -2469,7 +2456,7 @@
       </c>
       <c r="S17" s="46">
         <f>COUNTIF(E124:E159, "2018")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T17" s="41"/>
       <c r="U17" s="37"/>
@@ -2546,7 +2533,7 @@
       <c r="AE18" s="35"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="54">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -2646,7 +2633,7 @@
       </c>
       <c r="M20" s="17">
         <f>COUNTIF(B3:B1007,"Vitória")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
@@ -3888,7 +3875,7 @@
       <c r="AE40" s="35"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="54">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -4010,7 +3997,7 @@
       <c r="AE42" s="35"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
+      <c r="A43" s="54">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -4410,7 +4397,7 @@
       <c r="K49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L49" s="52" t="s">
+      <c r="L49" s="51" t="s">
         <v>114</v>
       </c>
       <c r="M49" s="46">
@@ -4471,10 +4458,10 @@
       <c r="K50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="54" t="s">
+      <c r="L50" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="51">
+      <c r="M50" s="50">
         <f>COUNTIF(B136:B1003,"Audax Italiano")</f>
         <v>1</v>
       </c>
@@ -4532,7 +4519,7 @@
       <c r="K51" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="53"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="40"/>
       <c r="N51" s="36"/>
       <c r="O51" s="36"/>
@@ -7707,7 +7694,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="46">
-        <f t="shared" ref="A109:A137" si="5">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A138" si="5">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="46" t="s">
@@ -8966,7 +8953,7 @@
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A134" s="55">
+      <c r="A134" s="54">
         <f t="shared" si="5"/>
         <v>133</v>
       </c>
@@ -9106,6 +9093,42 @@
         <v>1</v>
       </c>
       <c r="K137" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="46">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="1">
+        <v>43247</v>
+      </c>
+      <c r="E138" s="46">
+        <v>2018</v>
+      </c>
+      <c r="F138" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G138" s="46">
+        <v>1</v>
+      </c>
+      <c r="H138" s="46">
+        <v>1</v>
+      </c>
+      <c r="I138" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J138" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="46" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -18,7 +18,6 @@
     <definedName name="Escudo">INDEX(Plan1!#REF!,MATCH(Plan1!$C$2,Plan1!$M$2:$M$51,0))</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="120">
   <si>
     <t>Sim</t>
   </si>
@@ -6386,13 +6385,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:colOff>261938</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>147814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1643062</xdr:colOff>
+      <xdr:colOff>1571626</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>1548058</xdr:rowOff>
     </xdr:to>
@@ -6417,8 +6416,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1785937" y="188880751"/>
-          <a:ext cx="1381125" cy="1476620"/>
+          <a:off x="1785938" y="188957127"/>
+          <a:ext cx="1309688" cy="1400244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7123,6 +7122,50 @@
         <a:xfrm>
           <a:off x="1881188" y="214074376"/>
           <a:ext cx="1144330" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1657349</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>1490662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Imagem 153"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1728787" y="215565038"/>
+          <a:ext cx="1452562" cy="1452562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7397,10 +7440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7416,11 +7459,11 @@
     <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -7548,14 +7591,14 @@
       </c>
       <c r="N2" s="18">
         <f>COUNTIF(C3:C1005,"Vasco")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="13">
         <f>COUNTIF(J3:J1007,"Série A")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>1</v>
@@ -7573,7 +7616,7 @@
       </c>
       <c r="U2" s="20">
         <f>COUNTIF(G2:G1007, "Vitória")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" s="6">
         <f>COUNTIF(G2:G1007, "Empate")</f>
@@ -7801,7 +7844,7 @@
       </c>
       <c r="R5" s="26">
         <f>COUNTIF(K3:K1006,"São Januário")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="20">
         <v>2006</v>
@@ -7812,11 +7855,11 @@
       </c>
       <c r="U5" s="33">
         <f>SUM(H3:H1001)</f>
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V5" s="35">
         <f>SUM(I3:I1001)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W5" s="36"/>
       <c r="X5" s="4"/>
@@ -8052,7 +8095,7 @@
       </c>
       <c r="V8" s="43">
         <f>COUNTIF(L3:L1006,"Sim")</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W8" s="36"/>
       <c r="X8" s="4"/>
@@ -8658,7 +8701,7 @@
       </c>
       <c r="T17" s="7">
         <f>COUNTIF(F124:F159, "2018")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U17" s="30"/>
       <c r="V17" s="44"/>
@@ -14007,7 +14050,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A138" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A147" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="22"/>
@@ -15541,6 +15584,43 @@
       <c r="V138" s="28"/>
       <c r="W138" s="28"/>
     </row>
+    <row r="139" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="6">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="68"/>
+      <c r="C139" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="31">
+        <v>43253</v>
+      </c>
+      <c r="F139" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="7">
+        <v>2</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="O3:P7">
     <sortCondition descending="1" ref="P3:P7"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="120">
   <si>
     <t>Sim</t>
   </si>
@@ -7133,15 +7133,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1657349</xdr:colOff>
+      <xdr:colOff>1633537</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>1490662</xdr:rowOff>
+      <xdr:rowOff>1514474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7164,8 +7164,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1728787" y="215565038"/>
+          <a:off x="1704975" y="215588850"/>
           <a:ext cx="1452562" cy="1452562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1690687</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1547812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Imagem 144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="217146188"/>
+          <a:ext cx="1500187" cy="1500187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7440,10 +7484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF139"/>
+  <dimension ref="A1:AF140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7598,14 +7642,14 @@
       </c>
       <c r="P2" s="13">
         <f>COUNTIF(J3:J1007,"Série A")</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="13">
         <f>COUNTIF(K1:K1004,"Nilton Santos")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" s="9">
         <v>2002</v>
@@ -7620,7 +7664,7 @@
       </c>
       <c r="V2" s="6">
         <f>COUNTIF(G2:G1007, "Empate")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W2" s="21">
         <f>COUNTIF(G2:G1007, "Derrota")</f>
@@ -8095,7 +8139,7 @@
       </c>
       <c r="V8" s="43">
         <f>COUNTIF(L3:L1006,"Sim")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W8" s="36"/>
       <c r="X8" s="4"/>
@@ -8701,7 +8745,7 @@
       </c>
       <c r="T17" s="7">
         <f>COUNTIF(F124:F159, "2018")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U17" s="30"/>
       <c r="V17" s="44"/>
@@ -9439,7 +9483,7 @@
       </c>
       <c r="N29" s="26">
         <f>COUNTIF(C3:C1010,"Ceará")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="36"/>
@@ -14050,7 +14094,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A147" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A140" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="22"/>
@@ -15584,7 +15628,7 @@
       <c r="V138" s="28"/>
       <c r="W138" s="28"/>
     </row>
-    <row r="139" spans="1:27" ht="120" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -15618,6 +15662,43 @@
         <v>36</v>
       </c>
       <c r="L139" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="6">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="68"/>
+      <c r="C140" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="31">
+        <v>43257</v>
+      </c>
+      <c r="F140" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H140" s="7">
+        <v>0</v>
+      </c>
+      <c r="I140" s="7">
+        <v>0</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L140" s="6" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="120">
   <si>
     <t>Sim</t>
   </si>
@@ -4541,7 +4541,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="129182813"/>
+          <a:off x="1905000" y="129182813"/>
           <a:ext cx="1476261" cy="1381124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7007,6 +7007,50 @@
         <a:xfrm>
           <a:off x="1714500" y="217146188"/>
           <a:ext cx="1500187" cy="1500187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1642949</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>1500187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="Imagem 145"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1881188" y="218789251"/>
+          <a:ext cx="1476261" cy="1381124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7281,10 +7325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF140"/>
+  <dimension ref="A1:AF141"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A137" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12831,7 +12875,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A140" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A141" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14436,6 +14480,43 @@
         <v>1</v>
       </c>
       <c r="L140" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="6">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="48"/>
+      <c r="C141" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" s="22">
+        <v>43307</v>
+      </c>
+      <c r="F141" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" s="7">
+        <v>1</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L141" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14466,7 +14547,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14532,14 +14613,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14550,7 +14631,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Vitória")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
@@ -14662,7 +14743,7 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1001)</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1001)</f>
@@ -14770,7 +14851,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -14900,7 +14981,7 @@
       </c>
       <c r="B14" s="18">
         <f>COUNTIF(Principal!C3:C999,"Chapecoense")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -14980,7 +15061,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="120">
   <si>
     <t>Sim</t>
   </si>
@@ -7059,6 +7059,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1648115</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>1501805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Imagem 147"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="220408500"/>
+          <a:ext cx="1362365" cy="1335118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7325,10 +7369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF141"/>
+  <dimension ref="A1:AF142"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView topLeftCell="A135" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12875,7 +12919,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A141" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A142" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14517,6 +14561,43 @@
         <v>1</v>
       </c>
       <c r="L141" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="6">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="48"/>
+      <c r="C142" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="22">
+        <v>43316</v>
+      </c>
+      <c r="F142" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H142" s="7">
+        <v>0</v>
+      </c>
+      <c r="I142" s="7">
+        <v>0</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L142" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14546,8 +14627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14613,14 +14694,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14635,7 +14716,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Derrota")</f>
@@ -14851,7 +14932,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15061,7 +15142,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -15163,7 +15244,7 @@
       </c>
       <c r="B23" s="18">
         <f>COUNTIF(Principal!C3:C1013,"Santos")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="121">
   <si>
     <t>Sim</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Escudo</t>
+  </si>
+  <si>
+    <t>Nacional-PAR</t>
   </si>
 </sst>
 </file>
@@ -7103,6 +7106,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>54891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000251" y="221868329"/>
+          <a:ext cx="1333499" cy="1469109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7369,10 +7416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF142"/>
+  <dimension ref="A1:AF143"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView topLeftCell="A141" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12919,7 +12966,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A142" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A143" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14598,6 +14645,43 @@
         <v>1</v>
       </c>
       <c r="L142" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="6">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="48"/>
+      <c r="C143" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="22">
+        <v>43328</v>
+      </c>
+      <c r="F143" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" s="7">
+        <v>2</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L143" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14625,10 +14709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14701,7 +14785,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14712,7 +14796,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Vitória")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
@@ -14824,7 +14908,7 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1001)</f>
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1001)</f>
@@ -14878,7 +14962,7 @@
       </c>
       <c r="D7" s="18">
         <f>COUNTIF(Principal!J136:J1010,"Sulamericana")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>77</v>
@@ -14932,7 +15016,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15142,7 +15226,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -15814,6 +15898,15 @@
       <c r="J54" s="29"/>
       <c r="K54" s="25"/>
     </row>
+    <row r="55" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="47">
+        <f>COUNTIF(Principal!C143:C1007,"Nacional-PAR")</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="122">
   <si>
     <t>Sim</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Nacional-PAR</t>
+  </si>
+  <si>
+    <t>Atlético-MG</t>
   </si>
 </sst>
 </file>
@@ -7150,6 +7153,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1566675</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>1523999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Imagem 148"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2071687" y="223456501"/>
+          <a:ext cx="1209488" cy="1452561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7416,10 +7463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF143"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12966,7 +13013,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A143" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A144" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14682,6 +14729,43 @@
         <v>1</v>
       </c>
       <c r="L143" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="6">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="48"/>
+      <c r="C144" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="22">
+        <v>43331</v>
+      </c>
+      <c r="F144" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H144" s="7">
+        <v>0</v>
+      </c>
+      <c r="I144" s="7">
+        <v>3</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L144" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14711,7 +14795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -14778,14 +14862,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14804,7 +14888,7 @@
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Derrota")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -14912,7 +14996,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1001)</f>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15016,7 +15100,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15226,7 +15310,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="122">
   <si>
     <t>Sim</t>
   </si>
@@ -7197,6 +7197,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1605696</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>1518793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="Imagem 149"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="225051936"/>
+          <a:ext cx="1272320" cy="1423545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7463,10 +7507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AF145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13013,7 +13057,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A144" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A145" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14766,6 +14810,43 @@
         <v>1</v>
       </c>
       <c r="L144" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="6">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="48"/>
+      <c r="C145" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="22">
+        <v>43337</v>
+      </c>
+      <c r="F145" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="7">
+        <v>2</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L145" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14862,14 +14943,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14880,7 +14961,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Vitória")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
@@ -14992,7 +15073,7 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1001)</f>
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1001)</f>
@@ -15100,7 +15181,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15310,7 +15391,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -15934,7 +16015,7 @@
       </c>
       <c r="B52" s="47">
         <f>COUNTIF(Principal!C95:C1004,"Sport")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="122">
   <si>
     <t>Sim</t>
   </si>
@@ -7241,6 +7241,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1451133</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1428749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="Imagem 150"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="226623563"/>
+          <a:ext cx="1070133" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7507,10 +7551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF145"/>
+  <dimension ref="A1:AF146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView topLeftCell="A140" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13057,7 +13101,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A145" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A146" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14847,6 +14891,43 @@
         <v>1</v>
       </c>
       <c r="L145" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="6">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="48"/>
+      <c r="C146" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="22">
+        <v>43348</v>
+      </c>
+      <c r="F146" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H146" s="7">
+        <v>1</v>
+      </c>
+      <c r="I146" s="7">
+        <v>1</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L146" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14876,8 +14957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14943,14 +15024,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -14965,7 +15046,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1007, "Derrota")</f>
@@ -15073,11 +15154,11 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1001)</f>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1001)</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15181,7 +15262,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15391,7 +15472,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F159, "2018")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -15961,7 +16042,7 @@
       </c>
       <c r="B49" s="8">
         <f>COUNTIF(Principal!C5:C1002,"Cruzeiro")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="125">
   <si>
     <t>Sim</t>
   </si>
@@ -395,6 +395,15 @@
   <si>
     <t>Atlético-MG</t>
   </si>
+  <si>
+    <t>Treino aberto</t>
+  </si>
+  <si>
+    <t>BOTAFOGO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -462,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -734,11 +743,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +908,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6673,13 +6710,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1671636</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>1528762</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6761,13 +6798,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>71439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1619249</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>1476375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6805,13 +6842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>1547812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6849,13 +6886,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1628776</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>1551774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6893,13 +6930,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1501518</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>1452562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6937,13 +6974,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1633537</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>1514474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6981,13 +7018,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1690687</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>1547812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7025,13 +7062,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1642949</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>1500187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7069,13 +7106,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1648115</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>1501805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7113,13 +7150,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>54891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7157,13 +7194,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1566675</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>1523999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7201,13 +7238,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1605696</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>1518793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7245,13 +7282,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451133</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>1428749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7277,6 +7314,50 @@
         <a:xfrm>
           <a:off x="2095500" y="226623563"/>
           <a:ext cx="1070133" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1556769</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>1534480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagem 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="207740250"/>
+          <a:ext cx="1271019" cy="1463043"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7551,10 +7632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF146"/>
+  <dimension ref="A1:AF147"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13101,7 +13182,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A146" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A147" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14256,7 +14337,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="22">
-        <v>43181</v>
+        <v>43184</v>
       </c>
       <c r="F131" s="7">
         <v>2018</v>
@@ -14396,41 +14477,28 @@
       <c r="W133" s="19"/>
     </row>
     <row r="134" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="32">
-        <f t="shared" si="4"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="A134" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B134" s="26"/>
+      <c r="C134" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="54"/>
       <c r="E134" s="22">
-        <v>43198</v>
-      </c>
-      <c r="F134" s="7">
-        <v>2018</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="7">
-        <v>1</v>
-      </c>
-      <c r="I134" s="7">
-        <v>0</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K134" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L134" s="6" t="s">
-        <v>0</v>
-      </c>
+        <v>43197</v>
+      </c>
+      <c r="F134" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="53"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -14444,19 +14512,19 @@
       <c r="W134" s="19"/>
     </row>
     <row r="135" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="6">
-        <f t="shared" si="4"/>
-        <v>134</v>
+      <c r="A135" s="32">
+        <f>SUM(A133+1)</f>
+        <v>133</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="E135" s="22">
-        <v>43218</v>
+        <v>43198</v>
       </c>
       <c r="F135" s="7">
         <v>2018</v>
@@ -14465,16 +14533,16 @@
         <v>20</v>
       </c>
       <c r="H135" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L135" s="6" t="s">
         <v>0</v>
@@ -14494,32 +14562,32 @@
     <row r="136" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="6">
         <f t="shared" si="4"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="8" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E136" s="22">
-        <v>43229</v>
+        <v>43218</v>
       </c>
       <c r="F136" s="7">
         <v>2018</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H136" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" s="7">
         <v>1</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="K136" s="7" t="s">
         <v>1</v>
@@ -14542,32 +14610,32 @@
     <row r="137" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="8" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E137" s="22">
-        <v>43234</v>
+        <v>43229</v>
       </c>
       <c r="F137" s="7">
         <v>2018</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H137" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" s="7">
         <v>1</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>1</v>
@@ -14590,26 +14658,26 @@
     <row r="138" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <f t="shared" si="4"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="48"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="15"/>
       <c r="C138" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E138" s="22">
-        <v>43247</v>
+        <v>43234</v>
       </c>
       <c r="F138" s="7">
         <v>2018</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H138" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" s="7">
         <v>1</v>
@@ -14638,26 +14706,26 @@
     <row r="139" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <f t="shared" si="4"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="48"/>
       <c r="C139" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E139" s="22">
-        <v>43253</v>
+        <v>43247</v>
       </c>
       <c r="F139" s="7">
         <v>2018</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H139" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" s="7">
         <v>1</v>
@@ -14666,44 +14734,55 @@
         <v>38</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="L139" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
     </row>
     <row r="140" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="48"/>
       <c r="C140" s="8" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E140" s="22">
-        <v>43257</v>
+        <v>43253</v>
       </c>
       <c r="F140" s="7">
         <v>2018</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H140" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="L140" s="6" t="s">
         <v>0</v>
@@ -14712,26 +14791,26 @@
     <row r="141" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="48"/>
       <c r="C141" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E141" s="22">
-        <v>43307</v>
+        <v>43257</v>
       </c>
       <c r="F141" s="7">
         <v>2018</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H141" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" s="7">
         <v>0</v>
@@ -14749,26 +14828,26 @@
     <row r="142" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <f t="shared" si="4"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="48"/>
       <c r="C142" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E142" s="22">
-        <v>43316</v>
+        <v>43307</v>
       </c>
       <c r="F142" s="7">
         <v>2018</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H142" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" s="7">
         <v>0</v>
@@ -14786,32 +14865,32 @@
     <row r="143" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <f t="shared" si="4"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="48"/>
       <c r="C143" s="8" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E143" s="22">
-        <v>43328</v>
+        <v>43316</v>
       </c>
       <c r="F143" s="7">
         <v>2018</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H143" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" s="7">
         <v>0</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="K143" s="7" t="s">
         <v>1</v>
@@ -14823,32 +14902,32 @@
     <row r="144" spans="1:27" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="48"/>
       <c r="C144" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E144" s="22">
-        <v>43331</v>
+        <v>43328</v>
       </c>
       <c r="F144" s="7">
         <v>2018</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="H144" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="K144" s="7" t="s">
         <v>1</v>
@@ -14860,29 +14939,29 @@
     <row r="145" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="48"/>
       <c r="C145" s="8" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E145" s="22">
-        <v>43337</v>
+        <v>43331</v>
       </c>
       <c r="F145" s="7">
         <v>2018</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H145" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145" s="7" t="s">
         <v>38</v>
@@ -14897,29 +14976,29 @@
     <row r="146" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="48"/>
       <c r="C146" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E146" s="22">
-        <v>43348</v>
+        <v>43337</v>
       </c>
       <c r="F146" s="7">
         <v>2018</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="H146" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>38</v>
@@ -14928,6 +15007,43 @@
         <v>1</v>
       </c>
       <c r="L146" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="6">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="48"/>
+      <c r="C147" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="22">
+        <v>43348</v>
+      </c>
+      <c r="F147" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" s="7">
+        <v>1</v>
+      </c>
+      <c r="I147" s="7">
+        <v>1</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L147" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14935,6 +15051,11 @@
   <sortState ref="O3:P7">
     <sortCondition descending="1" ref="P3:P7"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="F134:J134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="K134:L134"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -14957,8 +15078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15016,22 +15137,22 @@
         <v>26</v>
       </c>
       <c r="B2" s="14">
-        <f>COUNTIF(Principal!C3:C1005,"Vasco")</f>
+        <f>COUNTIF(Principal!C3:C1006,"Vasco")</f>
         <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="14">
-        <f>COUNTIF(Principal!J3:J1007,"Série A")</f>
+        <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
         <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
-        <f>COUNTIF(Principal!K1:K1004,"Nilton Santos")</f>
-        <v>77</v>
+        <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
+        <v>78</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15041,15 +15162,15 @@
         <v>1</v>
       </c>
       <c r="I2" s="7">
-        <f>COUNTIF(Principal!G2:G1007, "Vitória")</f>
+        <f>COUNTIF(Principal!G2:G1008, "Vitória")</f>
         <v>76</v>
       </c>
       <c r="J2" s="7">
-        <f>COUNTIF(Principal!G2:G1007, "Empate")</f>
+        <f>COUNTIF(Principal!G2:G1008, "Empate")</f>
         <v>31</v>
       </c>
       <c r="K2" s="7">
-        <f>COUNTIF(Principal!G2:G1007, "Derrota")</f>
+        <f>COUNTIF(Principal!G2:G1008, "Derrota")</f>
         <v>38</v>
       </c>
     </row>
@@ -15058,21 +15179,21 @@
         <v>30</v>
       </c>
       <c r="B3" s="18">
-        <f>COUNTIF(Principal!C3:C1005,"Fluminense")</f>
+        <f>COUNTIF(Principal!C3:C1006,"Fluminense")</f>
         <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="18">
-        <f>COUNTIF(Principal!J3:J1007,"Carioca")</f>
+        <f>COUNTIF(Principal!J3:J1008,"Carioca")</f>
         <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="18">
-        <f>COUNTIF(Principal!K3:K1008,"Maracanã")</f>
+        <f>COUNTIF(Principal!K3:K1009,"Maracanã")</f>
         <v>41</v>
       </c>
       <c r="G3" s="7">
@@ -15091,21 +15212,21 @@
         <v>32</v>
       </c>
       <c r="B4" s="18">
-        <f>COUNTIF(Principal!C3:C1008,"Flamengo")</f>
+        <f>COUNTIF(Principal!C3:C1009,"Flamengo")</f>
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="18">
-        <f>COUNTIF(Principal!J3:J1005,"Série B")</f>
+        <f>COUNTIF(Principal!J3:J1006,"Série B")</f>
         <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="18">
-        <f>COUNTIF(Principal!K3:K1003,"Arena Botafogo")</f>
+        <f>COUNTIF(Principal!K3:K1004,"Arena Botafogo")</f>
         <v>8</v>
       </c>
       <c r="G4" s="7">
@@ -15128,21 +15249,21 @@
         <v>46</v>
       </c>
       <c r="B5" s="18">
-        <f>COUNTIF(Principal!C3:C1005,"Grêmio")</f>
+        <f>COUNTIF(Principal!C3:C1006,"Grêmio")</f>
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="18">
-        <f>COUNTIF(Principal!J1:J1007,"Libertadores")</f>
+        <f>COUNTIF(Principal!J1:J1008,"Libertadores")</f>
         <v>7</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="18">
-        <f>COUNTIF(Principal!K3:K1006,"São Januário")</f>
+        <f>COUNTIF(Principal!K3:K1007,"São Januário")</f>
         <v>6</v>
       </c>
       <c r="G5" s="7">
@@ -15153,11 +15274,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="49">
-        <f>SUM(Principal!H3:H1001)</f>
+        <f>SUM(Principal!H3:H1002)</f>
         <v>222</v>
       </c>
       <c r="J5" s="24">
-        <f>SUM(Principal!I3:I1001)</f>
+        <f>SUM(Principal!I3:I1002)</f>
         <v>144</v>
       </c>
       <c r="K5" s="21"/>
@@ -15167,21 +15288,21 @@
         <v>53</v>
       </c>
       <c r="B6" s="18">
-        <f>COUNTIF(Principal!C3:C1003,"Atlético Mineiro")</f>
+        <f>COUNTIF(Principal!C3:C1004,"Atlético Mineiro")</f>
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="18">
-        <f>COUNTIF(Principal!J3:J1009,"Copa do Brasil")</f>
+        <f>COUNTIF(Principal!J3:J1010,"Copa do Brasil")</f>
         <v>6</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="18">
-        <f>COUNTIF(Principal!K3:K1010,"Caio Martins")</f>
+        <f>COUNTIF(Principal!K3:K1011,"Caio Martins")</f>
         <v>5</v>
       </c>
       <c r="G6" s="7">
@@ -15200,21 +15321,21 @@
         <v>37</v>
       </c>
       <c r="B7" s="18">
-        <f>COUNTIF(Principal!C3:C1003,"Boavista")</f>
+        <f>COUNTIF(Principal!C3:C1004,"Boavista")</f>
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="18">
-        <f>COUNTIF(Principal!J136:J1010,"Sulamericana")</f>
+        <f>COUNTIF(Principal!J137:J1011,"Sulamericana")</f>
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="18">
-        <f>COUNTIF(Principal!K3:K1010,"Luso Brasileiro")</f>
+        <f>COUNTIF(Principal!K3:K1011,"Luso Brasileiro")</f>
         <v>4</v>
       </c>
       <c r="G7" s="7">
@@ -15237,7 +15358,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="18">
-        <f>COUNTIF(Principal!C3:C1006,"Internacional")</f>
+        <f>COUNTIF(Principal!C3:C1007,"Internacional")</f>
         <v>3</v>
       </c>
       <c r="C8" s="27"/>
@@ -15246,7 +15367,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="18">
-        <f>COUNTIF(Principal!K3:K1008,"Raulino de Oliveira")</f>
+        <f>COUNTIF(Principal!K3:K1009,"Raulino de Oliveira")</f>
         <v>2</v>
       </c>
       <c r="G8" s="7">
@@ -15257,11 +15378,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <f>COUNTIF(Principal!L3:L1006,"Não")</f>
+        <f>COUNTIF(Principal!L3:L1007,"Não")</f>
         <v>49</v>
       </c>
       <c r="J8" s="50">
-        <f>COUNTIF(Principal!L3:L1006,"Sim")</f>
+        <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
         <v>95</v>
       </c>
       <c r="K8" s="25"/>
@@ -15271,7 +15392,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="18">
-        <f>COUNTIF(Principal!C3:C1004,"Criciúma")</f>
+        <f>COUNTIF(Principal!C3:C1005,"Criciúma")</f>
         <v>3</v>
       </c>
       <c r="C9" s="25"/>
@@ -15280,7 +15401,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="18">
-        <f>COUNTIF(Principal!K3:K1008,"Mário Helênio")</f>
+        <f>COUNTIF(Principal!K3:K1009,"Mário Helênio")</f>
         <v>1</v>
       </c>
       <c r="G9" s="7">
@@ -15299,7 +15420,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="18">
-        <f>COUNTIF(Principal!C3:C1002,"Nova Iguaçu")</f>
+        <f>COUNTIF(Principal!C3:C1003,"Nova Iguaçu")</f>
         <v>3</v>
       </c>
       <c r="C10" s="25"/>
@@ -15322,7 +15443,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="18">
-        <f>COUNTIF(Principal!C3:C1012,"Palmeiras")</f>
+        <f>COUNTIF(Principal!C3:C1013,"Palmeiras")</f>
         <v>4</v>
       </c>
       <c r="C11" s="25"/>
@@ -15345,7 +15466,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="18">
-        <f>COUNTIF(Principal!C3:C977,"Atlético Paranaense")</f>
+        <f>COUNTIF(Principal!C3:C978,"Atlético Paranaense")</f>
         <v>3</v>
       </c>
       <c r="C12" s="25"/>
@@ -15368,7 +15489,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="18">
-        <f>COUNTIF(Principal!C3:C999,"Bahia")</f>
+        <f>COUNTIF(Principal!C3:C1000,"Bahia")</f>
         <v>3</v>
       </c>
       <c r="C13" s="25"/>
@@ -15391,7 +15512,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="18">
-        <f>COUNTIF(Principal!C3:C999,"Chapecoense")</f>
+        <f>COUNTIF(Principal!C3:C1000,"Chapecoense")</f>
         <v>4</v>
       </c>
       <c r="C14" s="25"/>
@@ -15414,7 +15535,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="18">
-        <f>COUNTIF(Principal!C3:C998,"Coritiba")</f>
+        <f>COUNTIF(Principal!C3:C999,"Coritiba")</f>
         <v>3</v>
       </c>
       <c r="C15" s="25"/>
@@ -15437,7 +15558,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="18">
-        <f>COUNTIF(Principal!C3:C1005,"Figueirense")</f>
+        <f>COUNTIF(Principal!C3:C1006,"Figueirense")</f>
         <v>2</v>
       </c>
       <c r="C16" s="25"/>
@@ -15460,7 +15581,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="18">
-        <f>COUNTIF(Principal!C3:C1008,"Madureira")</f>
+        <f>COUNTIF(Principal!C3:C1009,"Madureira")</f>
         <v>3</v>
       </c>
       <c r="C17" s="25"/>
@@ -15471,7 +15592,7 @@
         <v>2018</v>
       </c>
       <c r="H17" s="7">
-        <f>COUNTIF(Principal!F124:F159, "2018")</f>
+        <f>COUNTIF(Principal!F124:F160, "2018")</f>
         <v>23</v>
       </c>
       <c r="I17" s="21"/>
@@ -15483,7 +15604,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="18">
-        <f>COUNTIF(Principal!C3:C1006,"Náutico")</f>
+        <f>COUNTIF(Principal!C3:C1007,"Náutico")</f>
         <v>2</v>
       </c>
       <c r="C18" s="25"/>
@@ -15501,7 +15622,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="18">
-        <f>COUNTIF(Principal!C3:C1003,"Santa Cruz")</f>
+        <f>COUNTIF(Principal!C3:C1004,"Santa Cruz")</f>
         <v>2</v>
       </c>
       <c r="C19" s="25"/>
@@ -15519,7 +15640,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="18">
-        <f>COUNTIF(Principal!C3:C1007,"Vitória")</f>
+        <f>COUNTIF(Principal!C3:C1008,"Vitória")</f>
         <v>4</v>
       </c>
       <c r="C20" s="25"/>
@@ -15537,7 +15658,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="18">
-        <f>COUNTIF(Principal!C3:C1003,"Volta Redonda")</f>
+        <f>COUNTIF(Principal!C3:C1004,"Volta Redonda")</f>
         <v>2</v>
       </c>
       <c r="C21" s="25"/>
@@ -15555,7 +15676,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="18">
-        <f>COUNTIF(Principal!C3:C1016,"Goiás")</f>
+        <f>COUNTIF(Principal!C3:C1017,"Goiás")</f>
         <v>2</v>
       </c>
       <c r="C22" s="25"/>
@@ -15573,7 +15694,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="18">
-        <f>COUNTIF(Principal!C3:C1013,"Santos")</f>
+        <f>COUNTIF(Principal!C3:C1014,"Santos")</f>
         <v>4</v>
       </c>
       <c r="C23" s="25"/>
@@ -15591,7 +15712,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="18">
-        <f>COUNTIF(Principal!C3:C995,"América-MG")</f>
+        <f>COUNTIF(Principal!C3:C996,"América-MG")</f>
         <v>1</v>
       </c>
       <c r="C24" s="25"/>
@@ -15609,7 +15730,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="18">
-        <f>COUNTIF(Principal!C3:C1022,"Americano")</f>
+        <f>COUNTIF(Principal!C3:C1023,"Americano")</f>
         <v>1</v>
       </c>
       <c r="C25" s="25"/>
@@ -15627,7 +15748,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="18">
-        <f>COUNTIF(Principal!C3:C1000,"Boa Esporte")</f>
+        <f>COUNTIF(Principal!C3:C1001,"Boa Esporte")</f>
         <v>1</v>
       </c>
       <c r="C26" s="25"/>
@@ -15645,7 +15766,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="18">
-        <f>COUNTIF(Principal!C3:C1005,"Bonsucesso")</f>
+        <f>COUNTIF(Principal!C3:C1006,"Bonsucesso")</f>
         <v>1</v>
       </c>
       <c r="C27" s="25"/>
@@ -15663,7 +15784,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="18">
-        <f>COUNTIF(Principal!C3:C1000,"Bragantino")</f>
+        <f>COUNTIF(Principal!C3:C1001,"Bragantino")</f>
         <v>1</v>
       </c>
       <c r="C28" s="25"/>
@@ -15681,7 +15802,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="18">
-        <f>COUNTIF(Principal!C3:C1010,"Ceará")</f>
+        <f>COUNTIF(Principal!C3:C1011,"Ceará")</f>
         <v>2</v>
       </c>
       <c r="C29" s="25"/>
@@ -15699,7 +15820,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="18">
-        <f>COUNTIF(Principal!C3:C992,"Colo-Colo")</f>
+        <f>COUNTIF(Principal!C3:C993,"Colo-Colo")</f>
         <v>1</v>
       </c>
       <c r="C30" s="25"/>
@@ -15717,7 +15838,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="18">
-        <f>COUNTIF(Principal!C3:C997,"Corinthians")</f>
+        <f>COUNTIF(Principal!C3:C998,"Corinthians")</f>
         <v>2</v>
       </c>
       <c r="C31" s="25"/>
@@ -15735,7 +15856,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18">
-        <f>COUNTIF(Principal!C3:C1008,"CRB")</f>
+        <f>COUNTIF(Principal!C3:C1009,"CRB")</f>
         <v>1</v>
       </c>
       <c r="C32" s="25"/>
@@ -15753,7 +15874,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="18">
-        <f>COUNTIF(Principal!C3:C1013,"Deportivo Quito")</f>
+        <f>COUNTIF(Principal!C3:C1014,"Deportivo Quito")</f>
         <v>1</v>
       </c>
       <c r="C33" s="25"/>
@@ -15771,7 +15892,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="18">
-        <f>COUNTIF(Principal!C3:C1001,"Guarani")</f>
+        <f>COUNTIF(Principal!C3:C1002,"Guarani")</f>
         <v>1</v>
       </c>
       <c r="C34" s="25"/>
@@ -15789,7 +15910,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="18">
-        <f>COUNTIF(Principal!C3:C1014,"Independiente Del Valle")</f>
+        <f>COUNTIF(Principal!C3:C1015,"Independiente Del Valle")</f>
         <v>1</v>
       </c>
       <c r="C35" s="25"/>
@@ -15807,7 +15928,7 @@
         <v>101</v>
       </c>
       <c r="B36" s="18">
-        <f>COUNTIF(Principal!C3:C997,"Macaé")</f>
+        <f>COUNTIF(Principal!C3:C998,"Macaé")</f>
         <v>1</v>
       </c>
       <c r="C36" s="25"/>
@@ -15825,7 +15946,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="18">
-        <f>COUNTIF(Principal!C3:C1012,"Mogi Mirim")</f>
+        <f>COUNTIF(Principal!C3:C1013,"Mogi Mirim")</f>
         <v>1</v>
       </c>
       <c r="C37" s="25"/>
@@ -15843,7 +15964,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="18">
-        <f>COUNTIF(Principal!C3:C998,"Olimpia")</f>
+        <f>COUNTIF(Principal!C3:C999,"Olimpia")</f>
         <v>1</v>
       </c>
       <c r="C38" s="25"/>
@@ -15861,7 +15982,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="18">
-        <f>COUNTIF(Principal!C3:C1012,"Paysandu")</f>
+        <f>COUNTIF(Principal!C3:C1013,"Paysandu")</f>
         <v>1</v>
       </c>
       <c r="C39" s="25"/>
@@ -15879,7 +16000,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="18">
-        <f>COUNTIF(Principal!C3:C1008,"Ponte Preta")</f>
+        <f>COUNTIF(Principal!C3:C1009,"Ponte Preta")</f>
         <v>2</v>
       </c>
       <c r="C40" s="25"/>
@@ -15897,7 +16018,7 @@
         <v>73</v>
       </c>
       <c r="B41" s="18">
-        <f>COUNTIF(Principal!C3:C1011,"Portuguesa-RJ")</f>
+        <f>COUNTIF(Principal!C3:C1012,"Portuguesa-RJ")</f>
         <v>2</v>
       </c>
       <c r="C41" s="25"/>
@@ -15915,7 +16036,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="18">
-        <f>COUNTIF(Principal!C3:C1019,"Resende")</f>
+        <f>COUNTIF(Principal!C3:C1020,"Resende")</f>
         <v>1</v>
       </c>
       <c r="C42" s="25"/>
@@ -15933,7 +16054,7 @@
         <v>59</v>
       </c>
       <c r="B43" s="40">
-        <f>COUNTIF(Principal!C3:C1007,"São Caetano")</f>
+        <f>COUNTIF(Principal!C3:C1008,"São Caetano")</f>
         <v>1</v>
       </c>
       <c r="C43" s="25"/>
@@ -15951,7 +16072,7 @@
         <v>80</v>
       </c>
       <c r="B44" s="8">
-        <f>COUNTIF(Principal!C3:C1013,"São Paulo")</f>
+        <f>COUNTIF(Principal!C3:C1014,"São Paulo")</f>
         <v>2</v>
       </c>
       <c r="C44" s="21"/>
@@ -15969,7 +16090,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="8">
-        <f>COUNTIF(Principal!C3:C1037,"Paraná")</f>
+        <f>COUNTIF(Principal!C3:C1038,"Paraná")</f>
         <v>1</v>
       </c>
       <c r="C45" s="21"/>
@@ -15987,7 +16108,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="8">
-        <f>COUNTIF(Principal!C3:C1037,"Avaí")</f>
+        <f>COUNTIF(Principal!C3:C1038,"Avaí")</f>
         <v>1</v>
       </c>
       <c r="C46" s="21"/>
@@ -16005,7 +16126,7 @@
         <v>112</v>
       </c>
       <c r="B47" s="8">
-        <f>COUNTIF(Principal!C3:C1000,"Nacional-URU")</f>
+        <f>COUNTIF(Principal!C3:C1001,"Nacional-URU")</f>
         <v>1</v>
       </c>
       <c r="C47" s="21"/>
@@ -16023,7 +16144,7 @@
         <v>113</v>
       </c>
       <c r="B48" s="8">
-        <f>COUNTIF(Principal!C4:C1001,"Atlético Goianiense")</f>
+        <f>COUNTIF(Principal!C4:C1002,"Atlético Goianiense")</f>
         <v>1</v>
       </c>
       <c r="C48" s="21"/>
@@ -16041,7 +16162,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="8">
-        <f>COUNTIF(Principal!C5:C1002,"Cruzeiro")</f>
+        <f>COUNTIF(Principal!C5:C1003,"Cruzeiro")</f>
         <v>2</v>
       </c>
       <c r="C49" s="21"/>
@@ -16059,7 +16180,7 @@
         <v>118</v>
       </c>
       <c r="B50" s="8">
-        <f>COUNTIF(Principal!C136:C1003,"Audax Italiano")</f>
+        <f>COUNTIF(Principal!C137:C1004,"Audax Italiano")</f>
         <v>1</v>
       </c>
       <c r="C50" s="25"/>
@@ -16077,7 +16198,7 @@
         <v>108</v>
       </c>
       <c r="B51" s="47">
-        <f>COUNTIF(Principal!C97:C1003,"Atlético Nacional")</f>
+        <f>COUNTIF(Principal!C97:C1004,"Atlético Nacional")</f>
         <v>1</v>
       </c>
       <c r="C51" s="25"/>
@@ -16095,7 +16216,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="47">
-        <f>COUNTIF(Principal!C95:C1004,"Sport")</f>
+        <f>COUNTIF(Principal!C95:C1005,"Sport")</f>
         <v>3</v>
       </c>
       <c r="C52" s="25"/>
@@ -16113,7 +16234,7 @@
         <v>107</v>
       </c>
       <c r="B53" s="47">
-        <f>COUNTIF(Principal!C96:C1005,"Barcelona SC")</f>
+        <f>COUNTIF(Principal!C96:C1006,"Barcelona SC")</f>
         <v>1</v>
       </c>
       <c r="C53" s="25"/>
@@ -16131,7 +16252,7 @@
         <v>115</v>
       </c>
       <c r="B54" s="47">
-        <f>COUNTIF(Principal!C128:C1006,"Bangu")</f>
+        <f>COUNTIF(Principal!C128:C1007,"Bangu")</f>
         <v>1</v>
       </c>
       <c r="C54" s="25"/>
@@ -16149,7 +16270,7 @@
         <v>120</v>
       </c>
       <c r="B55" s="47">
-        <f>COUNTIF(Principal!C143:C1007,"Nacional-PAR")</f>
+        <f>COUNTIF(Principal!C144:C1008,"Nacional-PAR")</f>
         <v>1</v>
       </c>
     </row>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="125">
   <si>
     <t>Sim</t>
   </si>
@@ -760,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,6 +914,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7358,6 +7364,50 @@
         <a:xfrm>
           <a:off x="2000250" y="207740250"/>
           <a:ext cx="1271019" cy="1463043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271464</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1604964</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>3961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Imagem 152"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1985964" y="229704900"/>
+          <a:ext cx="1333500" cy="1542249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7632,10 +7682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF147"/>
+  <dimension ref="A1:AF148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A143" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13182,7 +13232,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A147" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A148" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14481,24 +14531,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="55" t="s">
+      <c r="C134" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="54"/>
+      <c r="D134" s="56"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="52" t="s">
+      <c r="F134" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="53"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="55"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15044,6 +15094,43 @@
         <v>1</v>
       </c>
       <c r="L147" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="52">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="48"/>
+      <c r="C148" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="22">
+        <v>43352</v>
+      </c>
+      <c r="F148" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H148" s="7">
+        <v>1</v>
+      </c>
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148" s="52" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15078,8 +15165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15145,7 +15232,7 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
@@ -15171,7 +15258,7 @@
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Derrota")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -15180,7 +15267,7 @@
       </c>
       <c r="B3" s="18">
         <f>COUNTIF(Principal!C3:C1006,"Fluminense")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
@@ -15194,7 +15281,7 @@
       </c>
       <c r="F3" s="18">
         <f>COUNTIF(Principal!K3:K1009,"Maracanã")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7">
         <v>2004</v>
@@ -15275,7 +15362,7 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1002)</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
@@ -15383,7 +15470,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15593,7 +15680,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="125">
   <si>
     <t>Sim</t>
   </si>
@@ -760,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,6 +920,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7408,6 +7414,50 @@
         <a:xfrm>
           <a:off x="1985964" y="229704900"/>
           <a:ext cx="1333500" cy="1542249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>1546894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Imagem 154"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024063" y="231362251"/>
+          <a:ext cx="1214437" cy="1427831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7682,10 +7732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF148"/>
+  <dimension ref="A1:AF149"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14531,24 +14581,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="57" t="s">
+      <c r="C134" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="56"/>
+      <c r="D134" s="58"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="55"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="58"/>
+      <c r="K134" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="57"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15099,7 +15149,7 @@
     </row>
     <row r="148" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="52">
-        <f t="shared" si="4"/>
+        <f>SUM(A147+1)</f>
         <v>146</v>
       </c>
       <c r="B148" s="48"/>
@@ -15119,10 +15169,10 @@
         <v>86</v>
       </c>
       <c r="H148" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" s="7" t="s">
         <v>38</v>
@@ -15131,6 +15181,43 @@
         <v>23</v>
       </c>
       <c r="L148" s="52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="54">
+        <f>SUM(A148+1)</f>
+        <v>147</v>
+      </c>
+      <c r="B149" s="48"/>
+      <c r="C149" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="22">
+        <v>43359</v>
+      </c>
+      <c r="F149" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="7">
+        <v>1</v>
+      </c>
+      <c r="I149" s="7">
+        <v>0</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L149" s="54" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15165,7 +15252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -15232,14 +15319,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15250,7 +15337,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Vitória")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Empate")</f>
@@ -15366,7 +15453,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15470,7 +15557,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15680,7 +15767,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -15800,7 +15887,7 @@
       </c>
       <c r="B24" s="18">
         <f>COUNTIF(Principal!C3:C996,"América-MG")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="125">
   <si>
     <t>Sim</t>
   </si>
@@ -760,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,6 +926,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1881,13 +1887,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1738312</xdr:colOff>
+      <xdr:colOff>1690687</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1524000</xdr:rowOff>
     </xdr:to>
@@ -1912,7 +1918,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1785937" y="33266063"/>
+          <a:off x="1928812" y="33266063"/>
           <a:ext cx="1476375" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7458,6 +7464,50 @@
         <a:xfrm>
           <a:off x="2024063" y="231362251"/>
           <a:ext cx="1214437" cy="1427831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>1549859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Imagem 156"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2071688" y="232910063"/>
+          <a:ext cx="1071562" cy="1454609"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7732,10 +7782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF149"/>
+  <dimension ref="A1:AF150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13282,7 +13332,7 @@
     </row>
     <row r="109" spans="1:32" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <f t="shared" ref="A109:A148" si="4">SUM(A108+1)</f>
+        <f t="shared" ref="A109:A147" si="4">SUM(A108+1)</f>
         <v>108</v>
       </c>
       <c r="B109" s="15"/>
@@ -14581,24 +14631,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="59" t="s">
+      <c r="C134" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="58"/>
+      <c r="D134" s="60"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="56" t="s">
+      <c r="F134" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="57"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="60"/>
+      <c r="K134" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="59"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15218,6 +15268,43 @@
         <v>1</v>
       </c>
       <c r="L149" s="54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="56">
+        <f>SUM(A149+1)</f>
+        <v>148</v>
+      </c>
+      <c r="B150" s="48"/>
+      <c r="C150" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E150" s="22">
+        <v>43373</v>
+      </c>
+      <c r="F150" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H150" s="7">
+        <v>2</v>
+      </c>
+      <c r="I150" s="7">
+        <v>2</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L150" s="56" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15252,8 +15339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15319,14 +15406,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15341,7 +15428,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Empate")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Derrota")</f>
@@ -15449,11 +15536,11 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1002)</f>
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15557,7 +15644,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15767,7 +15854,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -16247,7 +16334,7 @@
       </c>
       <c r="B44" s="8">
         <f>COUNTIF(Principal!C3:C1014,"São Paulo")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="126">
   <si>
     <t>Sim</t>
   </si>
@@ -404,6 +404,9 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>(4) 2 x 1 (5)</t>
+  </si>
 </sst>
 </file>
 
@@ -760,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,6 +935,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2666,7 +2675,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="60031313"/>
+          <a:off x="2000250" y="60031313"/>
           <a:ext cx="1381125" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7508,6 +7517,50 @@
         <a:xfrm>
           <a:off x="2071688" y="232910063"/>
           <a:ext cx="1071562" cy="1454609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>1500188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="Imagem 151"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="234505501"/>
+          <a:ext cx="1381125" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7782,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF150"/>
+  <dimension ref="A1:AF151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L151" sqref="L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7793,7 +7846,7 @@
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -14631,24 +14684,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="61" t="s">
+      <c r="C134" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="60"/>
+      <c r="D134" s="62"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="58" t="s">
+      <c r="F134" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="59"/>
-      <c r="H134" s="59"/>
-      <c r="I134" s="59"/>
-      <c r="J134" s="60"/>
-      <c r="K134" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="59"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="62"/>
+      <c r="K134" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="61"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15305,6 +15358,43 @@
         <v>1</v>
       </c>
       <c r="L150" s="56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="58">
+        <f>SUM(A150+1)</f>
+        <v>149</v>
+      </c>
+      <c r="B151" s="48"/>
+      <c r="C151" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E151" s="22">
+        <v>43376</v>
+      </c>
+      <c r="F151" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="7">
+        <v>2</v>
+      </c>
+      <c r="I151" s="7">
+        <v>1</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L151" s="58" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15413,7 +15503,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15424,7 +15514,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Vitória")</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Empate")</f>
@@ -15536,11 +15626,11 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1002)</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15590,7 +15680,7 @@
       </c>
       <c r="D7" s="18">
         <f>COUNTIF(Principal!J137:J1011,"Sulamericana")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>77</v>
@@ -15644,7 +15734,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15751,7 +15841,7 @@
       </c>
       <c r="B13" s="18">
         <f>COUNTIF(Principal!C3:C1000,"Bahia")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -15854,7 +15944,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="126">
   <si>
     <t>Sim</t>
   </si>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,6 +941,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7561,6 +7567,50 @@
         <a:xfrm>
           <a:off x="2000250" y="234505501"/>
           <a:ext cx="1381125" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1690687</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>1547812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="Imagem 157"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="236053313"/>
+          <a:ext cx="1452562" cy="1452562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7835,10 +7885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF151"/>
+  <dimension ref="A1:AF152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L151" sqref="L151"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14684,24 +14734,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="63" t="s">
+      <c r="C134" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="62"/>
+      <c r="D134" s="64"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="60" t="s">
+      <c r="F134" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="61"/>
-      <c r="H134" s="61"/>
-      <c r="I134" s="61"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="61"/>
+      <c r="G134" s="63"/>
+      <c r="H134" s="63"/>
+      <c r="I134" s="63"/>
+      <c r="J134" s="64"/>
+      <c r="K134" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="63"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15395,6 +15445,43 @@
         <v>1</v>
       </c>
       <c r="L151" s="58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="60">
+        <f>SUM(A151+1)</f>
+        <v>150</v>
+      </c>
+      <c r="B152" s="48"/>
+      <c r="C152" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="22">
+        <v>43382</v>
+      </c>
+      <c r="F152" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H152" s="7">
+        <v>1</v>
+      </c>
+      <c r="I152" s="7">
+        <v>1</v>
+      </c>
+      <c r="J152" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L152" s="60" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15489,21 +15576,21 @@
       </c>
       <c r="B2" s="14">
         <f>COUNTIF(Principal!C3:C1006,"Vasco")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15518,7 +15605,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Empate")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Derrota")</f>
@@ -15626,11 +15713,11 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!H3:H1002)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15734,7 +15821,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15944,7 +16031,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="126">
   <si>
     <t>Sim</t>
   </si>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,6 +947,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7611,6 +7617,50 @@
         <a:xfrm>
           <a:off x="1952625" y="236053313"/>
           <a:ext cx="1452562" cy="1452562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1652587</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="Imagem 158"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1985962" y="237634463"/>
+          <a:ext cx="1381125" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7885,10 +7935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF152"/>
+  <dimension ref="A1:AF153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14734,24 +14784,24 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="65" t="s">
+      <c r="C134" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="64"/>
+      <c r="D134" s="66"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="62" t="s">
+      <c r="F134" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="63"/>
-      <c r="H134" s="63"/>
-      <c r="I134" s="63"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="L134" s="63"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="65"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L134" s="65"/>
       <c r="M134" s="19"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
@@ -15482,6 +15532,43 @@
         <v>1</v>
       </c>
       <c r="L152" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="62">
+        <f>SUM(A152+1)</f>
+        <v>151</v>
+      </c>
+      <c r="B153" s="48"/>
+      <c r="C153" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="22">
+        <v>43393</v>
+      </c>
+      <c r="F153" s="7">
+        <v>2018</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" s="7">
+        <v>0</v>
+      </c>
+      <c r="I153" s="7">
+        <v>1</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L153" s="62" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15583,14 +15670,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!J3:J1008,"Série A")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!K1:K1005,"Nilton Santos")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -15609,7 +15696,7 @@
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!G2:G1008, "Derrota")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -15717,7 +15804,7 @@
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K5" s="21"/>
     </row>
@@ -15821,7 +15908,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!L3:L1007,"Sim")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" s="25"/>
     </row>
@@ -15928,7 +16015,7 @@
       </c>
       <c r="B13" s="18">
         <f>COUNTIF(Principal!C3:C1000,"Bahia")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -16031,7 +16118,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!F124:F160, "2018")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="136">
   <si>
     <t>Sim</t>
   </si>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,13 +983,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7691,6 +7697,50 @@
         <a:xfrm>
           <a:off x="1985962" y="237634463"/>
           <a:ext cx="1381125" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="Imagem 159"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="239101313"/>
+          <a:ext cx="1905000" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7965,10 +8015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG153"/>
+  <dimension ref="A1:AG154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15214,25 +15264,25 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="67" t="s">
+      <c r="C134" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="66"/>
+      <c r="D134" s="67"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="64" t="s">
+      <c r="F134" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="65"/>
-      <c r="H134" s="65"/>
-      <c r="I134" s="65"/>
-      <c r="J134" s="65"/>
-      <c r="K134" s="66"/>
-      <c r="L134" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="M134" s="65"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="69"/>
+      <c r="J134" s="69"/>
+      <c r="K134" s="67"/>
+      <c r="L134" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M134" s="69"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
@@ -15822,7 +15872,7 @@
     </row>
     <row r="148" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="52">
-        <f t="shared" ref="A148:A153" si="5">SUM(A147+1)</f>
+        <f t="shared" ref="A148:A154" si="5">SUM(A147+1)</f>
         <v>146</v>
       </c>
       <c r="B148" s="48"/>
@@ -16057,6 +16107,46 @@
         <v>1</v>
       </c>
       <c r="M153" s="62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="64">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="48"/>
+      <c r="C154" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="22">
+        <v>43408</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G154" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1</v>
+      </c>
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M154" s="64" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16091,8 +16181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16166,14 +16256,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!K3:K1008,"Série A")</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!L1:L1005,"Nilton Santos")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16184,7 +16274,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -16199,7 +16289,7 @@
       </c>
       <c r="M2" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Domingo")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -16317,7 +16407,7 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
@@ -16446,7 +16536,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!M3:M1007,"Sim")</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
@@ -16663,7 +16753,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!G124:G160, "2018")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -16909,7 +16999,7 @@
       </c>
       <c r="B31" s="18">
         <f>COUNTIF(Principal!C3:C998,"Corinthians")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="136">
   <si>
     <t>Sim</t>
   </si>
@@ -793,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,6 +986,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7741,6 +7747,50 @@
         <a:xfrm>
           <a:off x="1714500" y="239101313"/>
           <a:ext cx="1905000" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>1547813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="Imagem 160"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="240792001"/>
+          <a:ext cx="1428750" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8015,10 +8065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG154"/>
+  <dimension ref="A1:AG155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F179" sqref="F179"/>
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15264,25 +15314,25 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="66" t="s">
+      <c r="C134" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="67"/>
+      <c r="D134" s="69"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="68" t="s">
+      <c r="F134" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="69"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="69"/>
-      <c r="J134" s="69"/>
-      <c r="K134" s="67"/>
-      <c r="L134" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M134" s="69"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="M134" s="71"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
@@ -15872,7 +15922,7 @@
     </row>
     <row r="148" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="52">
-        <f t="shared" ref="A148:A154" si="5">SUM(A147+1)</f>
+        <f t="shared" ref="A148:A155" si="5">SUM(A147+1)</f>
         <v>146</v>
       </c>
       <c r="B148" s="48"/>
@@ -16147,6 +16197,46 @@
         <v>1</v>
       </c>
       <c r="M154" s="64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="67">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="B155" s="48"/>
+      <c r="C155" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="22">
+        <v>43414</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155" s="7">
+        <v>1</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M155" s="67" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16256,14 +16346,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!K3:K1008,"Série A")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!L1:L1005,"Nilton Santos")</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16274,7 +16364,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -16338,7 +16428,7 @@
       </c>
       <c r="B4" s="18">
         <f>COUNTIF(Principal!C3:C1009,"Flamengo")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
@@ -16407,11 +16497,11 @@
       </c>
       <c r="I5" s="49">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
@@ -16536,7 +16626,7 @@
       </c>
       <c r="J8" s="50">
         <f>COUNTIF(Principal!M3:M1007,"Sim")</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
@@ -16544,7 +16634,7 @@
       </c>
       <c r="M8" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Sábado")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -16753,7 +16843,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!G124:G160, "2018")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="136">
   <si>
     <t>Sim</t>
   </si>
@@ -504,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -766,17 +766,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="6"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -793,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,9 +920,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,7 +978,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7791,6 +7783,50 @@
         <a:xfrm>
           <a:off x="1952625" y="240792001"/>
           <a:ext cx="1428750" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1762124</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="163" name="Imagem 162"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1833562" y="242268375"/>
+          <a:ext cx="1643062" cy="1643062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8065,10 +8101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG155"/>
+  <dimension ref="A1:AG156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15310,29 +15346,29 @@
       <c r="X133" s="19"/>
     </row>
     <row r="134" spans="1:28" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="50" t="s">
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="68" t="s">
+      <c r="C134" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="69"/>
+      <c r="D134" s="70"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="70" t="s">
+      <c r="F134" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="69"/>
-      <c r="L134" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="M134" s="71"/>
+      <c r="G134" s="72"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="72"/>
+      <c r="J134" s="72"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="M134" s="72"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
@@ -15554,7 +15590,7 @@
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="B139" s="48"/>
+      <c r="B139" s="47"/>
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
@@ -15605,7 +15641,7 @@
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="B140" s="48"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="8" t="s">
         <v>26</v>
       </c>
@@ -15645,7 +15681,7 @@
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="B141" s="48"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="8" t="s">
         <v>48</v>
       </c>
@@ -15685,7 +15721,7 @@
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="B142" s="48"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="8" t="s">
         <v>42</v>
       </c>
@@ -15725,7 +15761,7 @@
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="B143" s="48"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="8" t="s">
         <v>41</v>
       </c>
@@ -15765,7 +15801,7 @@
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="B144" s="48"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="8" t="s">
         <v>120</v>
       </c>
@@ -15805,7 +15841,7 @@
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="B145" s="48"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="8" t="s">
         <v>121</v>
       </c>
@@ -15845,7 +15881,7 @@
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="B146" s="48"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="8" t="s">
         <v>105</v>
       </c>
@@ -15885,7 +15921,7 @@
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="B147" s="48"/>
+      <c r="B147" s="47"/>
       <c r="C147" s="8" t="s">
         <v>114</v>
       </c>
@@ -15921,12 +15957,12 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="52">
-        <f t="shared" ref="A148:A155" si="5">SUM(A147+1)</f>
+      <c r="A148" s="51">
+        <f t="shared" ref="A148:A156" si="5">SUM(A147+1)</f>
         <v>146</v>
       </c>
-      <c r="B148" s="48"/>
-      <c r="C148" s="53" t="s">
+      <c r="B148" s="47"/>
+      <c r="C148" s="52" t="s">
         <v>30</v>
       </c>
       <c r="D148" s="7" t="s">
@@ -15956,17 +15992,17 @@
       <c r="L148" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M148" s="52" t="s">
+      <c r="M148" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A149" s="54">
+      <c r="A149" s="53">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="55" t="s">
+      <c r="B149" s="47"/>
+      <c r="C149" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="7" t="s">
@@ -15996,17 +16032,17 @@
       <c r="L149" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M149" s="54" t="s">
+      <c r="M149" s="53" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="56">
+      <c r="A150" s="55">
         <f t="shared" si="5"/>
         <v>148</v>
       </c>
-      <c r="B150" s="48"/>
-      <c r="C150" s="57" t="s">
+      <c r="B150" s="47"/>
+      <c r="C150" s="56" t="s">
         <v>80</v>
       </c>
       <c r="D150" s="7" t="s">
@@ -16036,17 +16072,17 @@
       <c r="L150" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M150" s="56" t="s">
+      <c r="M150" s="55" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="58">
+      <c r="A151" s="57">
         <f t="shared" si="5"/>
         <v>149</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="59" t="s">
+      <c r="B151" s="47"/>
+      <c r="C151" s="58" t="s">
         <v>40</v>
       </c>
       <c r="D151" s="7" t="s">
@@ -16076,17 +16112,17 @@
       <c r="L151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M151" s="58" t="s">
+      <c r="M151" s="57" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="60">
+      <c r="A152" s="59">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="B152" s="48"/>
-      <c r="C152" s="61" t="s">
+      <c r="B152" s="47"/>
+      <c r="C152" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="7" t="s">
@@ -16116,17 +16152,17 @@
       <c r="L152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M152" s="60" t="s">
+      <c r="M152" s="59" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="62">
+      <c r="A153" s="61">
         <f t="shared" si="5"/>
         <v>151</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="63" t="s">
+      <c r="B153" s="47"/>
+      <c r="C153" s="62" t="s">
         <v>40</v>
       </c>
       <c r="D153" s="7" t="s">
@@ -16156,17 +16192,17 @@
       <c r="L153" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M153" s="62" t="s">
+      <c r="M153" s="61" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="64">
+      <c r="A154" s="63">
         <f t="shared" si="5"/>
         <v>152</v>
       </c>
-      <c r="B154" s="48"/>
-      <c r="C154" s="65" t="s">
+      <c r="B154" s="47"/>
+      <c r="C154" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D154" s="7" t="s">
@@ -16196,17 +16232,17 @@
       <c r="L154" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M154" s="64" t="s">
+      <c r="M154" s="63" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="67">
+      <c r="A155" s="66">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="B155" s="48"/>
-      <c r="C155" s="66" t="s">
+      <c r="B155" s="47"/>
+      <c r="C155" s="65" t="s">
         <v>32</v>
       </c>
       <c r="D155" s="7" t="s">
@@ -16236,7 +16272,47 @@
       <c r="L155" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M155" s="67" t="s">
+      <c r="M155" s="66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="68">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="47"/>
+      <c r="C156" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" s="22">
+        <v>43422</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="7">
+        <v>1</v>
+      </c>
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M156" s="68" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16271,8 +16347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16346,14 +16422,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!K3:K1008,"Série A")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!L1:L1005,"Nilton Santos")</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16364,7 +16440,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -16379,7 +16455,7 @@
       </c>
       <c r="M2" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Domingo")</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -16495,9 +16571,9 @@
         <f>COUNTIF(Principal!G17:G23, "2006")</f>
         <v>7</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
@@ -16602,7 +16678,7 @@
       </c>
       <c r="B8" s="18">
         <f>COUNTIF(Principal!C3:C1007,"Internacional")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
@@ -16624,9 +16700,9 @@
         <f>COUNTIF(Principal!M3:M1007,"Não")</f>
         <v>49</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="49">
         <f>COUNTIF(Principal!M3:M1007,"Sim")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
@@ -16843,7 +16919,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!G124:G160, "2018")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -17339,7 +17415,7 @@
       <c r="A45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="42">
         <f>COUNTIF(Principal!C3:C1038,"Paraná")</f>
         <v>1</v>
       </c>
@@ -17354,10 +17430,10 @@
       <c r="K45" s="25"/>
     </row>
     <row r="46" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <f>COUNTIF(Principal!C3:C1038,"Avaí")</f>
         <v>1</v>
       </c>
@@ -17372,10 +17448,10 @@
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <f>COUNTIF(Principal!C3:C1001,"Nacional-URU")</f>
         <v>1</v>
       </c>
@@ -17390,10 +17466,10 @@
       <c r="K47" s="25"/>
     </row>
     <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <f>COUNTIF(Principal!C4:C1002,"Atlético Goianiense")</f>
         <v>1</v>
       </c>
@@ -17408,10 +17484,10 @@
       <c r="K48" s="25"/>
     </row>
     <row r="49" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <f>COUNTIF(Principal!C5:C1003,"Cruzeiro")</f>
         <v>2</v>
       </c>
@@ -17426,14 +17502,14 @@
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <f>COUNTIF(Principal!C137:C1004,"Audax Italiano")</f>
         <v>1</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -17444,14 +17520,14 @@
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="47">
+      <c r="B51" s="7">
         <f>COUNTIF(Principal!C97:C1004,"Atlético Nacional")</f>
         <v>1</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -17462,14 +17538,14 @@
       <c r="K51" s="25"/>
     </row>
     <row r="52" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="47">
+      <c r="B52" s="7">
         <f>COUNTIF(Principal!C95:C1005,"Sport")</f>
         <v>3</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
@@ -17480,14 +17556,14 @@
       <c r="K52" s="25"/>
     </row>
     <row r="53" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="7">
         <f>COUNTIF(Principal!C96:C1006,"Barcelona SC")</f>
         <v>1</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
@@ -17498,14 +17574,14 @@
       <c r="K53" s="25"/>
     </row>
     <row r="54" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="7">
         <f>COUNTIF(Principal!C128:C1007,"Bangu")</f>
         <v>1</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
@@ -17516,10 +17592,10 @@
       <c r="K54" s="25"/>
     </row>
     <row r="55" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="7">
         <f>COUNTIF(Principal!C144:C1008,"Nacional-PAR")</f>
         <v>1</v>
       </c>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="137">
   <si>
     <t>Sim</t>
   </si>
@@ -437,6 +437,9 @@
   <si>
     <t>Quantas vezes</t>
   </si>
+  <si>
+    <t>Despedida do Jefferson</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -984,6 +993,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,6 +1009,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7827,6 +7848,50 @@
         <a:xfrm>
           <a:off x="1833562" y="242268375"/>
           <a:ext cx="1643062" cy="1643062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1567793</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="Imagem 163"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="243840001"/>
+          <a:ext cx="1234418" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8101,15 +8166,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG156"/>
+  <dimension ref="A1:AG157"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N169" sqref="N169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
@@ -15350,25 +15415,25 @@
         <v>122</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="69" t="s">
+      <c r="C134" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="70"/>
+      <c r="D134" s="72"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F134" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="72"/>
-      <c r="J134" s="72"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="M134" s="72"/>
+      <c r="G134" s="74"/>
+      <c r="H134" s="74"/>
+      <c r="I134" s="74"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="72"/>
+      <c r="L134" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="M134" s="74"/>
       <c r="N134" s="19"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
@@ -15836,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -15876,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -15916,7 +15981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -15956,9 +16021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="51">
-        <f t="shared" ref="A148:A156" si="5">SUM(A147+1)</f>
+        <f t="shared" ref="A148:A157" si="5">SUM(A147+1)</f>
         <v>146</v>
       </c>
       <c r="B148" s="47"/>
@@ -15996,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="53">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -16036,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="55">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -16076,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="57">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -16116,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="59">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -16156,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="61">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -16196,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="63">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -16236,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="66">
         <f t="shared" si="5"/>
         <v>153</v>
@@ -16276,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="68">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -16314,6 +16379,49 @@
       </c>
       <c r="M156" s="68" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="75">
+        <f>SUM(A156+1)</f>
+        <v>155</v>
+      </c>
+      <c r="B157" s="47"/>
+      <c r="C157" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="22">
+        <v>43430</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G157" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="7">
+        <v>2</v>
+      </c>
+      <c r="J157" s="7">
+        <v>1</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M157" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="N157" s="76" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -16347,7 +16455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -16422,14 +16530,14 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!K3:K1008,"Série A")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!L1:L1005,"Nilton Santos")</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16440,7 +16548,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -16495,7 +16603,7 @@
       </c>
       <c r="M3" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Segunda-feira")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -16573,11 +16681,11 @@
       </c>
       <c r="I5" s="48">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
@@ -16702,7 +16810,7 @@
       </c>
       <c r="J8" s="49">
         <f>COUNTIF(Principal!M3:M1007,"Sim")</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
@@ -16919,7 +17027,7 @@
       </c>
       <c r="H17" s="7">
         <f>COUNTIF(Principal!G124:G160, "2018")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="29"/>
@@ -17417,7 +17525,7 @@
       </c>
       <c r="B45" s="42">
         <f>COUNTIF(Principal!C3:C1038,"Paraná")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -1080,13 +1080,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8240,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8249,13 +8249,13 @@
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="4" width="54.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
     <col min="13" max="13" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" customWidth="1"/>
@@ -8284,29 +8284,29 @@
       <c r="C1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>137</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>68</v>
@@ -8332,28 +8332,28 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13">
+        <v>37555</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="9">
+        <v>2002</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13">
-        <v>37555</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="9">
-        <v>2002</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2</v>
-      </c>
-      <c r="K2" s="9">
-        <v>3</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>38</v>
@@ -8378,29 +8378,29 @@
       <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="13">
+        <v>38060</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="13">
-        <v>38060</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="17">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>24</v>
@@ -8430,29 +8430,29 @@
       <c r="C4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13">
+        <v>38211</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13">
-        <v>38211</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>38</v>
@@ -8482,29 +8482,29 @@
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="22">
+        <v>38227</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1</v>
+      </c>
+      <c r="K5" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="22">
-        <v>38227</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24">
-        <v>1</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>38</v>
@@ -8534,29 +8534,29 @@
       <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22">
+        <v>38262</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="23">
+        <v>4</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="22">
-        <v>38262</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="23">
-        <v>4</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>38</v>
@@ -8586,29 +8586,29 @@
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="22">
+        <v>38304</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="23">
+        <v>4</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="22">
-        <v>38304</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="23">
-        <v>4</v>
-      </c>
-      <c r="K7" s="24">
-        <v>1</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -8638,29 +8638,29 @@
       <c r="C8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22">
+        <v>38318</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0</v>
+      </c>
+      <c r="K8" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="22">
-        <v>38318</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="23">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24">
-        <v>0</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -8690,29 +8690,29 @@
       <c r="C9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="22">
+        <v>38333</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2004</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>2</v>
+      </c>
+      <c r="K9" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="22">
-        <v>38333</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="16">
-        <v>2004</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="23">
-        <v>1</v>
-      </c>
-      <c r="K9" s="24">
-        <v>2</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>38</v>
@@ -8742,29 +8742,29 @@
       <c r="C10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="22">
+        <v>38396</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2005</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24">
+        <v>2</v>
+      </c>
+      <c r="K10" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="22">
-        <v>38396</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2005</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="23">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24">
-        <v>2</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -8794,29 +8794,29 @@
       <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="22">
+        <v>38434</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>4</v>
+      </c>
+      <c r="K11" s="71" t="s">
         <v>156</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="22">
-        <v>38434</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="23">
-        <v>0</v>
-      </c>
-      <c r="K11" s="24">
-        <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -8846,29 +8846,29 @@
       <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22">
+        <v>38501</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="23">
+        <v>2</v>
+      </c>
+      <c r="J12" s="24">
+        <v>0</v>
+      </c>
+      <c r="K12" s="71" t="s">
         <v>157</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="22">
-        <v>38501</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="23">
-        <v>2</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -8898,29 +8898,29 @@
       <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="22">
+        <v>38613</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="23">
+        <v>3</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="71" t="s">
         <v>158</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="22">
-        <v>38613</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="23">
-        <v>3</v>
-      </c>
-      <c r="K13" s="24">
-        <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>38</v>
@@ -8950,29 +8950,29 @@
       <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22">
+        <v>38633</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="23">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <v>2</v>
+      </c>
+      <c r="K14" s="71" t="s">
         <v>158</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="22">
-        <v>38633</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="23">
-        <v>1</v>
-      </c>
-      <c r="K14" s="24">
-        <v>2</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>38</v>
@@ -9002,29 +9002,29 @@
       <c r="C15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="22">
+        <v>38647</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="23">
+        <v>2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="71" t="s">
         <v>158</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="22">
-        <v>38647</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="23">
-        <v>2</v>
-      </c>
-      <c r="K15" s="24">
-        <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>38</v>
@@ -9054,29 +9054,29 @@
       <c r="C16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22">
+        <v>38668</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="24">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="23">
+        <v>2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="71" t="s">
         <v>158</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="22">
-        <v>38668</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="24">
-        <v>2005</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="23">
-        <v>2</v>
-      </c>
-      <c r="K16" s="24">
-        <v>0</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -9106,29 +9106,29 @@
       <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="22">
+        <v>38739</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="23">
+        <v>5</v>
+      </c>
+      <c r="J17" s="24">
+        <v>3</v>
+      </c>
+      <c r="K17" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="22">
-        <v>38739</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="23">
-        <v>5</v>
-      </c>
-      <c r="K17" s="24">
-        <v>3</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -9158,29 +9158,29 @@
       <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="22">
+        <v>38767</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="22">
-        <v>38767</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="23">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24">
-        <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>24</v>
@@ -9210,29 +9210,29 @@
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="22">
+        <v>38816</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3</v>
+      </c>
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="22">
-        <v>38816</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="23">
-        <v>3</v>
-      </c>
-      <c r="K19" s="24">
-        <v>1</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
@@ -9262,29 +9262,29 @@
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="22">
+        <v>38850</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
+      <c r="J20" s="24">
+        <v>2</v>
+      </c>
+      <c r="K20" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="22">
-        <v>38850</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="23">
-        <v>2</v>
-      </c>
-      <c r="K20" s="24">
-        <v>2</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -9314,29 +9314,29 @@
       <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="22">
+        <v>39004</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="23">
+        <v>4</v>
+      </c>
+      <c r="J21" s="24">
+        <v>3</v>
+      </c>
+      <c r="K21" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="22">
-        <v>39004</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="23">
-        <v>4</v>
-      </c>
-      <c r="K21" s="24">
-        <v>3</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
@@ -9366,29 +9366,29 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22">
+        <v>39023</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24">
+        <v>1</v>
+      </c>
+      <c r="K22" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="22">
-        <v>39023</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H22" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0</v>
-      </c>
-      <c r="K22" s="24">
-        <v>1</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -9418,29 +9418,29 @@
       <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="22">
+        <v>39040</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="24">
+        <v>2006</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="24">
+        <v>2</v>
+      </c>
+      <c r="K23" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="22">
-        <v>39040</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="24">
-        <v>2006</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="24">
-        <v>2</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>38</v>
@@ -9470,29 +9470,29 @@
       <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22">
+        <v>39225</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="24">
+        <v>2007</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="23">
+        <v>3</v>
+      </c>
+      <c r="J24" s="24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="22">
-        <v>39225</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="24">
-        <v>2007</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="23">
-        <v>3</v>
-      </c>
-      <c r="K24" s="24">
-        <v>1</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>12</v>
@@ -9522,29 +9522,29 @@
       <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="22">
+        <v>39235</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="24">
+        <v>2007</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="23">
+        <v>3</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0</v>
+      </c>
+      <c r="K25" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="22">
-        <v>39235</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="24">
-        <v>2007</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="23">
-        <v>3</v>
-      </c>
-      <c r="K25" s="24">
-        <v>0</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>38</v>
@@ -9574,29 +9574,29 @@
       <c r="C26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="22">
+        <v>39250</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="24">
+        <v>2007</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="23">
+        <v>3</v>
+      </c>
+      <c r="J26" s="24">
+        <v>1</v>
+      </c>
+      <c r="K26" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="22">
-        <v>39250</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="24">
-        <v>2007</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="23">
-        <v>3</v>
-      </c>
-      <c r="K26" s="24">
-        <v>1</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>38</v>
@@ -9626,29 +9626,29 @@
       <c r="C27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="22">
+        <v>39313</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="24">
+        <v>2007</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+      <c r="K27" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="22">
-        <v>39313</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H27" s="24">
-        <v>2007</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="23">
-        <v>1</v>
-      </c>
-      <c r="K27" s="24">
-        <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -9678,29 +9678,29 @@
       <c r="C28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="35">
+        <v>39348</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="36">
+        <v>2007</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0</v>
+      </c>
+      <c r="J28" s="36">
+        <v>2</v>
+      </c>
+      <c r="K28" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="35">
-        <v>39348</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="36">
-        <v>2007</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="38">
-        <v>0</v>
-      </c>
-      <c r="K28" s="36">
-        <v>2</v>
       </c>
       <c r="L28" s="34" t="s">
         <v>38</v>
@@ -9730,29 +9730,29 @@
       <c r="C29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="22">
+        <v>39537</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="24">
+        <v>2008</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="23">
+        <v>3</v>
+      </c>
+      <c r="J29" s="24">
+        <v>1</v>
+      </c>
+      <c r="K29" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="22">
-        <v>39537</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="24">
-        <v>2008</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="23">
-        <v>3</v>
-      </c>
-      <c r="K29" s="24">
-        <v>1</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>24</v>
@@ -9782,29 +9782,29 @@
       <c r="C30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="22">
+        <v>39582</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="24">
+        <v>2008</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="23">
+        <v>2</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="22">
-        <v>39582</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="24">
-        <v>2008</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="23">
-        <v>2</v>
-      </c>
-      <c r="K30" s="24">
-        <v>0</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>12</v>
@@ -9834,29 +9834,29 @@
       <c r="C31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22">
+        <v>39593</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="24">
+        <v>2008</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1</v>
+      </c>
+      <c r="J31" s="24">
+        <v>1</v>
+      </c>
+      <c r="K31" s="71" t="s">
         <v>149</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="22">
-        <v>39593</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="24">
-        <v>2008</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="23">
-        <v>1</v>
-      </c>
-      <c r="K31" s="24">
-        <v>1</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>38</v>
@@ -9886,29 +9886,29 @@
       <c r="C32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22">
+        <v>39690</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="24">
+        <v>2008</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1</v>
+      </c>
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>150</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="22">
-        <v>39690</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="24">
-        <v>2008</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="23">
-        <v>1</v>
-      </c>
-      <c r="K32" s="24">
-        <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -9938,29 +9938,29 @@
       <c r="C33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="22">
+        <v>39900</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="24">
+        <v>2009</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1</v>
+      </c>
+      <c r="J33" s="24">
+        <v>2</v>
+      </c>
+      <c r="K33" s="71" t="s">
         <v>150</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="22">
-        <v>39900</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="24">
-        <v>2009</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" s="23">
-        <v>1</v>
-      </c>
-      <c r="K33" s="24">
-        <v>2</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
@@ -9990,29 +9990,29 @@
       <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="22">
+        <v>40266</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="24">
+        <v>2010</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="23">
+        <v>4</v>
+      </c>
+      <c r="J34" s="24">
+        <v>1</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>151</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="22">
-        <v>40266</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="24">
-        <v>2010</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="23">
-        <v>4</v>
-      </c>
-      <c r="K34" s="24">
-        <v>1</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>24</v>
@@ -10042,29 +10042,29 @@
       <c r="C35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="22">
+        <v>40397</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2010</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="23">
+        <v>3</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0</v>
+      </c>
+      <c r="K35" s="71" t="s">
         <v>151</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="22">
-        <v>40397</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="24">
-        <v>2010</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="23">
-        <v>3</v>
-      </c>
-      <c r="K35" s="24">
-        <v>0</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>38</v>
@@ -10094,29 +10094,29 @@
       <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="22">
+        <v>40474</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="24">
+        <v>2010</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="23">
+        <v>1</v>
+      </c>
+      <c r="J36" s="24">
+        <v>0</v>
+      </c>
+      <c r="K36" s="71" t="s">
         <v>151</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="22">
-        <v>40474</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="24">
-        <v>2010</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="23">
-        <v>1</v>
-      </c>
-      <c r="K36" s="24">
-        <v>0</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -10146,29 +10146,29 @@
       <c r="C37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="22">
+        <v>40607</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2011</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="23">
+        <v>4</v>
+      </c>
+      <c r="J37" s="24">
+        <v>2</v>
+      </c>
+      <c r="K37" s="71" t="s">
         <v>151</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="22">
-        <v>40607</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="24">
-        <v>2011</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="23">
-        <v>4</v>
-      </c>
-      <c r="K37" s="24">
-        <v>2</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
@@ -10198,29 +10198,29 @@
       <c r="C38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="22">
+        <v>40622</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2011</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="23">
+        <v>0</v>
+      </c>
+      <c r="J38" s="24">
+        <v>2</v>
+      </c>
+      <c r="K38" s="71" t="s">
         <v>151</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="22">
-        <v>40622</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H38" s="24">
-        <v>2011</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0</v>
-      </c>
-      <c r="K38" s="24">
-        <v>2</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>24</v>
@@ -10250,29 +10250,29 @@
       <c r="C39" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="22">
+        <v>40793</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="24">
+        <v>2011</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="23">
+        <v>4</v>
+      </c>
+      <c r="J39" s="24">
+        <v>0</v>
+      </c>
+      <c r="K39" s="71" t="s">
         <v>147</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="22">
-        <v>40793</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="24">
-        <v>2011</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="23">
-        <v>4</v>
-      </c>
-      <c r="K39" s="24">
-        <v>0</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>38</v>
@@ -10302,29 +10302,29 @@
       <c r="C40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="22">
+        <v>40824</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="24">
+        <v>2011</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="23">
+        <v>2</v>
+      </c>
+      <c r="J40" s="24">
+        <v>2</v>
+      </c>
+      <c r="K40" s="71" t="s">
         <v>147</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="22">
-        <v>40824</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="24">
-        <v>2011</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J40" s="23">
-        <v>2</v>
-      </c>
-      <c r="K40" s="24">
-        <v>2</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>38</v>
@@ -10354,29 +10354,29 @@
       <c r="C41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="22">
+        <v>41028</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="24">
+        <v>2012</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="23">
+        <v>3</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1</v>
+      </c>
+      <c r="K41" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="22">
-        <v>41028</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="24">
-        <v>2012</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="23">
-        <v>3</v>
-      </c>
-      <c r="K41" s="24">
-        <v>1</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>24</v>
@@ -10406,29 +10406,29 @@
       <c r="C42" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="22">
+        <v>41322</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="24">
+        <v>2013</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="23">
+        <v>0</v>
+      </c>
+      <c r="J42" s="24">
+        <v>1</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="22">
-        <v>41322</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="24">
-        <v>2013</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="23">
-        <v>0</v>
-      </c>
-      <c r="K42" s="24">
-        <v>1</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>24</v>
@@ -10458,29 +10458,29 @@
       <c r="C43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="22">
+        <v>41399</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="24">
+        <v>2013</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="23">
+        <v>1</v>
+      </c>
+      <c r="J43" s="24">
+        <v>0</v>
+      </c>
+      <c r="K43" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="22">
-        <v>41399</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H43" s="24">
-        <v>2013</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="23">
-        <v>1</v>
-      </c>
-      <c r="K43" s="24">
-        <v>0</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>24</v>
@@ -10510,29 +10510,29 @@
       <c r="C44" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="22">
+        <v>41552</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="24">
+        <v>2013</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
+      <c r="J44" s="24">
+        <v>1</v>
+      </c>
+      <c r="K44" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="22">
-        <v>41552</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="24">
-        <v>2013</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="24">
-        <v>1</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>38</v>
@@ -10562,29 +10562,29 @@
       <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="22">
+        <v>41616</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="24">
+        <v>2013</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="23">
+        <v>3</v>
+      </c>
+      <c r="J45" s="24">
+        <v>0</v>
+      </c>
+      <c r="K45" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="22">
-        <v>41616</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="24">
-        <v>2013</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="23">
-        <v>3</v>
-      </c>
-      <c r="K45" s="24">
-        <v>0</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>38</v>
@@ -10614,29 +10614,29 @@
       <c r="C46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="71" t="s">
+      <c r="D46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="22">
+        <v>41675</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="23">
+        <v>4</v>
+      </c>
+      <c r="J46" s="24">
+        <v>0</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>148</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="22">
-        <v>41675</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="23">
-        <v>4</v>
-      </c>
-      <c r="K46" s="24">
-        <v>0</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>43</v>
@@ -10666,29 +10666,29 @@
       <c r="C47" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="22">
+        <v>41716</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="23">
+        <v>1</v>
+      </c>
+      <c r="J47" s="24">
+        <v>0</v>
+      </c>
+      <c r="K47" s="71" t="s">
         <v>148</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="22">
-        <v>41716</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="23">
-        <v>1</v>
-      </c>
-      <c r="K47" s="24">
-        <v>0</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>43</v>
@@ -10718,29 +10718,29 @@
       <c r="C48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="22">
+        <v>41847</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="23">
+        <v>0</v>
+      </c>
+      <c r="J48" s="24">
+        <v>1</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="22">
-        <v>41847</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H48" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="24">
-        <v>1</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>38</v>
@@ -10770,29 +10770,29 @@
       <c r="C49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="22">
+        <v>41874</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="23">
+        <v>1</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+      <c r="K49" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="22">
-        <v>41874</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="23">
-        <v>1</v>
-      </c>
-      <c r="K49" s="24">
-        <v>0</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>38</v>
@@ -10822,29 +10822,29 @@
       <c r="C50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="22">
+        <v>41882</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="23">
+        <v>1</v>
+      </c>
+      <c r="J50" s="24">
+        <v>0</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="22">
-        <v>41882</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H50" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="23">
-        <v>1</v>
-      </c>
-      <c r="K50" s="24">
-        <v>0</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>38</v>
@@ -10874,29 +10874,29 @@
       <c r="C51" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="44">
+        <v>41899</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="45">
+        <v>2014</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="46">
+        <v>2</v>
+      </c>
+      <c r="J51" s="45">
+        <v>3</v>
+      </c>
+      <c r="K51" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="44">
-        <v>41899</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="45">
-        <v>2014</v>
-      </c>
-      <c r="I51" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="46">
-        <v>2</v>
-      </c>
-      <c r="K51" s="45">
-        <v>3</v>
       </c>
       <c r="L51" s="43" t="s">
         <v>38</v>
@@ -10926,29 +10926,29 @@
       <c r="C52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="71" t="s">
+      <c r="D52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="22">
+        <v>41920</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="24">
+        <v>2014</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="23">
+        <v>0</v>
+      </c>
+      <c r="J52" s="24">
+        <v>1</v>
+      </c>
+      <c r="K52" s="71" t="s">
         <v>152</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="22">
-        <v>41920</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="24">
-        <v>2014</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="23">
-        <v>0</v>
-      </c>
-      <c r="K52" s="24">
-        <v>1</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>38</v>
@@ -10978,29 +10978,29 @@
       <c r="C53" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="22">
+        <v>42035</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="23">
+        <v>1</v>
+      </c>
+      <c r="J53" s="24">
+        <v>0</v>
+      </c>
+      <c r="K53" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="22">
-        <v>42035</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="23">
-        <v>1</v>
-      </c>
-      <c r="K53" s="24">
-        <v>0</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>24</v>
@@ -11030,29 +11030,29 @@
       <c r="C54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="22">
+        <v>42042</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="23">
+        <v>4</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0</v>
+      </c>
+      <c r="K54" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="22">
-        <v>42042</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="23">
-        <v>4</v>
-      </c>
-      <c r="K54" s="24">
-        <v>0</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>24</v>
@@ -11082,29 +11082,29 @@
       <c r="C55" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="22">
+        <v>42056</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="23">
+        <v>2</v>
+      </c>
+      <c r="J55" s="24">
+        <v>1</v>
+      </c>
+      <c r="K55" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="22">
-        <v>42056</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="23">
-        <v>2</v>
-      </c>
-      <c r="K55" s="24">
-        <v>1</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>24</v>
@@ -11145,29 +11145,29 @@
       <c r="C56" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="22">
+        <v>42064</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="23">
+        <v>1</v>
+      </c>
+      <c r="J56" s="24">
+        <v>0</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="22">
-        <v>42064</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="23">
-        <v>1</v>
-      </c>
-      <c r="K56" s="24">
-        <v>0</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>24</v>
@@ -11208,29 +11208,29 @@
       <c r="C57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="22">
+        <v>42071</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="23">
+        <v>1</v>
+      </c>
+      <c r="J57" s="24">
+        <v>3</v>
+      </c>
+      <c r="K57" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="22">
-        <v>42071</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J57" s="23">
-        <v>1</v>
-      </c>
-      <c r="K57" s="24">
-        <v>3</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>24</v>
@@ -11271,29 +11271,29 @@
       <c r="C58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="22">
+        <v>42078</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="23">
+        <v>3</v>
+      </c>
+      <c r="J58" s="24">
+        <v>0</v>
+      </c>
+      <c r="K58" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="22">
-        <v>42078</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="23">
-        <v>3</v>
-      </c>
-      <c r="K58" s="24">
-        <v>0</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>24</v>
@@ -11334,29 +11334,29 @@
       <c r="C59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="22">
+        <v>42092</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59" s="23">
+        <v>1</v>
+      </c>
+      <c r="J59" s="24">
+        <v>1</v>
+      </c>
+      <c r="K59" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="22">
-        <v>42092</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I59" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J59" s="23">
-        <v>1</v>
-      </c>
-      <c r="K59" s="24">
-        <v>1</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
@@ -11397,29 +11397,29 @@
       <c r="C60" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="22">
+        <v>42099</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="23">
+        <v>4</v>
+      </c>
+      <c r="J60" s="24">
+        <v>1</v>
+      </c>
+      <c r="K60" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="22">
-        <v>42099</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I60" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="23">
-        <v>4</v>
-      </c>
-      <c r="K60" s="24">
-        <v>1</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>24</v>
@@ -11460,29 +11460,29 @@
       <c r="C61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="22">
+        <v>42127</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="23">
+        <v>1</v>
+      </c>
+      <c r="J61" s="24">
+        <v>2</v>
+      </c>
+      <c r="K61" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="22">
-        <v>42127</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I61" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J61" s="23">
-        <v>1</v>
-      </c>
-      <c r="K61" s="24">
-        <v>2</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
@@ -11523,29 +11523,29 @@
       <c r="C62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="22">
+        <v>42140</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="23">
+        <v>4</v>
+      </c>
+      <c r="J62" s="24">
+        <v>1</v>
+      </c>
+      <c r="K62" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="22">
-        <v>42140</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I62" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="23">
-        <v>4</v>
-      </c>
-      <c r="K62" s="24">
-        <v>1</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>2</v>
@@ -11586,29 +11586,29 @@
       <c r="C63" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="71" t="s">
+      <c r="D63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="22">
+        <v>42154</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="23">
+        <v>2</v>
+      </c>
+      <c r="J63" s="24">
+        <v>0</v>
+      </c>
+      <c r="K63" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="22">
-        <v>42154</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="23">
-        <v>2</v>
-      </c>
-      <c r="K63" s="24">
-        <v>0</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>2</v>
@@ -11649,29 +11649,29 @@
       <c r="C64" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="22">
+        <v>42160</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H64" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="23">
+        <v>3</v>
+      </c>
+      <c r="J64" s="24">
+        <v>0</v>
+      </c>
+      <c r="K64" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="22">
-        <v>42160</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H64" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I64" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="23">
-        <v>3</v>
-      </c>
-      <c r="K64" s="24">
-        <v>0</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>2</v>
@@ -11712,29 +11712,29 @@
       <c r="C65" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="22">
+        <v>42174</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I65" s="23">
+        <v>1</v>
+      </c>
+      <c r="J65" s="24">
+        <v>1</v>
+      </c>
+      <c r="K65" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="22">
-        <v>42174</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J65" s="23">
-        <v>1</v>
-      </c>
-      <c r="K65" s="24">
-        <v>1</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>2</v>
@@ -11775,29 +11775,29 @@
       <c r="C66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="22">
+        <v>42199</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="23">
+        <v>0</v>
+      </c>
+      <c r="J66" s="24">
+        <v>1</v>
+      </c>
+      <c r="K66" s="71" t="s">
         <v>146</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="22">
-        <v>42199</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H66" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I66" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J66" s="23">
-        <v>0</v>
-      </c>
-      <c r="K66" s="24">
-        <v>1</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>12</v>
@@ -11838,29 +11838,29 @@
       <c r="C67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="22">
+        <v>42213</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="23">
+        <v>0</v>
+      </c>
+      <c r="J67" s="24">
+        <v>0</v>
+      </c>
+      <c r="K67" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="22">
-        <v>42213</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J67" s="23">
-        <v>0</v>
-      </c>
-      <c r="K67" s="24">
-        <v>0</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>2</v>
@@ -11901,29 +11901,29 @@
       <c r="C68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="22">
+        <v>42239</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="23">
+        <v>2</v>
+      </c>
+      <c r="J68" s="24">
+        <v>3</v>
+      </c>
+      <c r="K68" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="22">
-        <v>42239</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J68" s="23">
-        <v>2</v>
-      </c>
-      <c r="K68" s="24">
-        <v>3</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>2</v>
@@ -11964,29 +11964,29 @@
       <c r="C69" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="22">
+        <v>42233</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="23">
+        <v>4</v>
+      </c>
+      <c r="J69" s="24">
+        <v>0</v>
+      </c>
+      <c r="K69" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="22">
-        <v>42233</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H69" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="23">
-        <v>4</v>
-      </c>
-      <c r="K69" s="24">
-        <v>0</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>2</v>
@@ -12027,29 +12027,29 @@
       <c r="C70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="22">
+        <v>42322</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="23">
+        <v>0</v>
+      </c>
+      <c r="J70" s="24">
+        <v>3</v>
+      </c>
+      <c r="K70" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="22">
-        <v>42322</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H70" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="23">
-        <v>0</v>
-      </c>
-      <c r="K70" s="24">
-        <v>3</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>2</v>
@@ -12090,29 +12090,29 @@
       <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="22">
+        <v>42336</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="24">
+        <v>2015</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="23">
+        <v>0</v>
+      </c>
+      <c r="J71" s="24">
+        <v>0</v>
+      </c>
+      <c r="K71" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="22">
-        <v>42336</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H71" s="24">
-        <v>2015</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J71" s="23">
-        <v>0</v>
-      </c>
-      <c r="K71" s="24">
-        <v>0</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>2</v>
@@ -12153,29 +12153,29 @@
       <c r="C72" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="22">
+        <v>42402</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G72" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="23">
+        <v>2</v>
+      </c>
+      <c r="J72" s="24">
+        <v>1</v>
+      </c>
+      <c r="K72" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="22">
-        <v>42402</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="23">
-        <v>2</v>
-      </c>
-      <c r="K72" s="24">
-        <v>1</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>24</v>
@@ -12216,29 +12216,29 @@
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="22">
+        <v>42435</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G73" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="23">
+        <v>1</v>
+      </c>
+      <c r="J73" s="24">
+        <v>0</v>
+      </c>
+      <c r="K73" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F73" s="22">
-        <v>42435</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H73" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="23">
-        <v>1</v>
-      </c>
-      <c r="K73" s="24">
-        <v>0</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>24</v>
@@ -12279,29 +12279,29 @@
       <c r="C74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="22">
+        <v>42491</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="23">
+        <v>0</v>
+      </c>
+      <c r="J74" s="24">
+        <v>1</v>
+      </c>
+      <c r="K74" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="22">
-        <v>42491</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J74" s="23">
-        <v>0</v>
-      </c>
-      <c r="K74" s="24">
-        <v>1</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>24</v>
@@ -12342,29 +12342,29 @@
       <c r="C75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="71" t="s">
+      <c r="D75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="22">
+        <v>42498</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G75" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" s="23">
+        <v>1</v>
+      </c>
+      <c r="J75" s="24">
+        <v>1</v>
+      </c>
+      <c r="K75" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="22">
-        <v>42498</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H75" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I75" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J75" s="23">
-        <v>1</v>
-      </c>
-      <c r="K75" s="24">
-        <v>1</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>24</v>
@@ -12405,29 +12405,29 @@
       <c r="C76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="22">
+        <v>42505</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76" s="23">
+        <v>0</v>
+      </c>
+      <c r="J76" s="24">
+        <v>1</v>
+      </c>
+      <c r="K76" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" s="22">
-        <v>42505</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H76" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="24">
-        <v>1</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>38</v>
@@ -12468,29 +12468,29 @@
       <c r="C77" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="22">
+        <v>42554</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G77" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="23">
+        <v>2</v>
+      </c>
+      <c r="J77" s="24">
+        <v>1</v>
+      </c>
+      <c r="K77" s="71" t="s">
         <v>145</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="22">
-        <v>42554</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H77" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="23">
-        <v>2</v>
-      </c>
-      <c r="K77" s="24">
-        <v>1</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>38</v>
@@ -12531,29 +12531,29 @@
       <c r="C78" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="22">
+        <v>42582</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="23">
+        <v>3</v>
+      </c>
+      <c r="J78" s="24">
+        <v>1</v>
+      </c>
+      <c r="K78" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F78" s="22">
-        <v>42582</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H78" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="23">
-        <v>3</v>
-      </c>
-      <c r="K78" s="24">
-        <v>1</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>38</v>
@@ -12594,29 +12594,29 @@
       <c r="C79" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="22">
+        <v>42617</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="7">
+        <v>2</v>
+      </c>
+      <c r="J79" s="24">
+        <v>1</v>
+      </c>
+      <c r="K79" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" s="22">
-        <v>42617</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H79" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="7">
-        <v>2</v>
-      </c>
-      <c r="K79" s="24">
-        <v>1</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>38</v>
@@ -12657,29 +12657,29 @@
       <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="22">
+        <v>42620</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2016</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+      <c r="J80" s="24">
+        <v>0</v>
+      </c>
+      <c r="K80" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="22">
-        <v>42620</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H80" s="7">
-        <v>2016</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="7">
-        <v>1</v>
-      </c>
-      <c r="K80" s="24">
-        <v>0</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>38</v>
@@ -12720,29 +12720,29 @@
       <c r="C81" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="22">
+        <v>42655</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+      <c r="J81" s="24">
+        <v>0</v>
+      </c>
+      <c r="K81" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="22">
-        <v>42655</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H81" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="7">
-        <v>1</v>
-      </c>
-      <c r="K81" s="24">
-        <v>0</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>38</v>
@@ -12783,29 +12783,29 @@
       <c r="C82" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="71" t="s">
+      <c r="D82" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82" s="22">
+        <v>42659</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G82" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="7">
+        <v>3</v>
+      </c>
+      <c r="J82" s="24">
+        <v>2</v>
+      </c>
+      <c r="K82" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" s="22">
-        <v>42659</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="7">
-        <v>3</v>
-      </c>
-      <c r="K82" s="24">
-        <v>2</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>38</v>
@@ -12846,29 +12846,29 @@
       <c r="C83" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="22">
+        <v>42672</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="24">
+        <v>0</v>
+      </c>
+      <c r="K83" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="22">
-        <v>42672</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H83" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J83" s="7">
-        <v>0</v>
-      </c>
-      <c r="K83" s="24">
-        <v>0</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>38</v>
@@ -12909,29 +12909,29 @@
       <c r="C84" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="22">
+        <v>42690</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="24">
+        <v>2</v>
+      </c>
+      <c r="K84" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84" s="22">
-        <v>42690</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H84" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J84" s="7">
-        <v>0</v>
-      </c>
-      <c r="K84" s="24">
-        <v>2</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>38</v>
@@ -12972,29 +12972,29 @@
       <c r="C85" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="71" t="s">
+      <c r="D85" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E85" s="22">
+        <v>42700</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G85" s="24">
+        <v>2016</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+      <c r="J85" s="24">
+        <v>1</v>
+      </c>
+      <c r="K85" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F85" s="22">
-        <v>42700</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H85" s="24">
-        <v>2016</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J85" s="7">
-        <v>1</v>
-      </c>
-      <c r="K85" s="24">
-        <v>1</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>38</v>
@@ -13035,29 +13035,29 @@
       <c r="C86" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="35">
+        <v>42763</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G86" s="36">
+        <v>2017</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+      <c r="J86" s="24">
+        <v>1</v>
+      </c>
+      <c r="K86" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="35">
-        <v>42763</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H86" s="36">
-        <v>2017</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J86" s="7">
-        <v>1</v>
-      </c>
-      <c r="K86" s="24">
-        <v>1</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>24</v>
@@ -13098,29 +13098,29 @@
       <c r="C87" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="71" t="s">
+      <c r="D87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="22">
+        <v>42767</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="7">
+        <v>2</v>
+      </c>
+      <c r="J87" s="24">
+        <v>1</v>
+      </c>
+      <c r="K87" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" s="22">
-        <v>42767</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H87" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="7">
-        <v>2</v>
-      </c>
-      <c r="K87" s="24">
-        <v>1</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>43</v>
@@ -13161,29 +13161,29 @@
       <c r="C88" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="22">
+        <v>42770</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="7">
+        <v>2</v>
+      </c>
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+      <c r="K88" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F88" s="22">
-        <v>42770</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H88" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="7">
-        <v>2</v>
-      </c>
-      <c r="K88" s="7">
-        <v>1</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>24</v>
@@ -13224,29 +13224,29 @@
       <c r="C89" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="71" t="s">
+      <c r="D89" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="44">
+        <v>42781</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="43">
+        <v>2017</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="43">
+        <v>1</v>
+      </c>
+      <c r="J89" s="43">
+        <v>0</v>
+      </c>
+      <c r="K89" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E89" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" s="44">
-        <v>42781</v>
-      </c>
-      <c r="G89" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H89" s="43">
-        <v>2017</v>
-      </c>
-      <c r="I89" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="43">
-        <v>1</v>
-      </c>
-      <c r="K89" s="43">
-        <v>0</v>
       </c>
       <c r="L89" s="43" t="s">
         <v>43</v>
@@ -13287,29 +13287,29 @@
       <c r="C90" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="22">
+        <v>42803</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G90" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1</v>
+      </c>
+      <c r="J90" s="24">
+        <v>0</v>
+      </c>
+      <c r="K90" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" s="22">
-        <v>42803</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H90" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="7">
-        <v>1</v>
-      </c>
-      <c r="K90" s="24">
-        <v>0</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>24</v>
@@ -13350,29 +13350,29 @@
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="22">
+        <v>42813</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G91" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="7">
+        <v>0</v>
+      </c>
+      <c r="J91" s="24">
+        <v>0</v>
+      </c>
+      <c r="K91" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="22">
-        <v>42813</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J91" s="7">
-        <v>0</v>
-      </c>
-      <c r="K91" s="24">
-        <v>0</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>24</v>
@@ -13413,29 +13413,29 @@
       <c r="C92" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="22">
+        <v>42817</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I92" s="7">
+        <v>2</v>
+      </c>
+      <c r="J92" s="24">
+        <v>3</v>
+      </c>
+      <c r="K92" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="22">
-        <v>42817</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H92" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J92" s="7">
-        <v>2</v>
-      </c>
-      <c r="K92" s="24">
-        <v>3</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>24</v>
@@ -13476,29 +13476,29 @@
       <c r="C93" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="71" t="s">
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="22">
+        <v>42834</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="7">
+        <v>3</v>
+      </c>
+      <c r="J93" s="24">
+        <v>1</v>
+      </c>
+      <c r="K93" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="22">
-        <v>42834</v>
-      </c>
-      <c r="G93" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H93" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J93" s="7">
-        <v>3</v>
-      </c>
-      <c r="K93" s="24">
-        <v>1</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>24</v>
@@ -13539,29 +13539,29 @@
       <c r="C94" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="71" t="s">
+      <c r="D94" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="22">
+        <v>42841</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="24">
+        <v>2</v>
+      </c>
+      <c r="K94" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F94" s="22">
-        <v>42841</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H94" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J94" s="7">
-        <v>0</v>
-      </c>
-      <c r="K94" s="24">
-        <v>2</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>24</v>
@@ -13602,29 +13602,29 @@
       <c r="C95" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="71" t="s">
+      <c r="D95" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" s="22">
+        <v>42851</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="7">
+        <v>2</v>
+      </c>
+      <c r="J95" s="24">
+        <v>1</v>
+      </c>
+      <c r="K95" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F95" s="22">
-        <v>42851</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="7">
-        <v>2</v>
-      </c>
-      <c r="K95" s="24">
-        <v>1</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>12</v>
@@ -13665,29 +13665,29 @@
       <c r="C96" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D96" s="71" t="s">
+      <c r="D96" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="22">
+        <v>42857</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G96" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="24">
+        <v>2</v>
+      </c>
+      <c r="K96" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F96" s="22">
-        <v>42857</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H96" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0</v>
-      </c>
-      <c r="K96" s="24">
-        <v>2</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>43</v>
@@ -13728,29 +13728,29 @@
       <c r="C97" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D97" s="71" t="s">
+      <c r="D97" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="22">
+        <v>42873</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+      <c r="J97" s="24">
+        <v>0</v>
+      </c>
+      <c r="K97" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F97" s="22">
-        <v>42873</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H97" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J97" s="7">
-        <v>1</v>
-      </c>
-      <c r="K97" s="24">
-        <v>0</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>43</v>
@@ -13791,29 +13791,29 @@
       <c r="C98" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="71" t="s">
+      <c r="D98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="22">
+        <v>42876</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="7">
+        <v>2</v>
+      </c>
+      <c r="J98" s="24">
+        <v>0</v>
+      </c>
+      <c r="K98" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="22">
-        <v>42876</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H98" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J98" s="7">
-        <v>2</v>
-      </c>
-      <c r="K98" s="24">
-        <v>0</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>38</v>
@@ -13854,29 +13854,29 @@
       <c r="C99" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D99" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="22">
+        <v>42883</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1</v>
+      </c>
+      <c r="J99" s="24">
+        <v>0</v>
+      </c>
+      <c r="K99" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F99" s="22">
-        <v>42883</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H99" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" s="7">
-        <v>1</v>
-      </c>
-      <c r="K99" s="24">
-        <v>0</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>38</v>
@@ -13917,29 +13917,29 @@
       <c r="C100" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="71" t="s">
+      <c r="D100" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="44">
+        <v>42897</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G100" s="45">
+        <v>2017</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="43">
+        <v>2</v>
+      </c>
+      <c r="J100" s="45">
+        <v>2</v>
+      </c>
+      <c r="K100" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="44">
-        <v>42897</v>
-      </c>
-      <c r="G100" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H100" s="45">
-        <v>2017</v>
-      </c>
-      <c r="I100" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="J100" s="43">
-        <v>2</v>
-      </c>
-      <c r="K100" s="45">
-        <v>2</v>
       </c>
       <c r="L100" s="43" t="s">
         <v>38</v>
@@ -13980,29 +13980,29 @@
       <c r="C101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D101" s="71" t="s">
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="22">
+        <v>42907</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="7">
+        <v>3</v>
+      </c>
+      <c r="J101" s="24">
+        <v>1</v>
+      </c>
+      <c r="K101" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F101" s="22">
-        <v>42907</v>
-      </c>
-      <c r="G101" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H101" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J101" s="7">
-        <v>3</v>
-      </c>
-      <c r="K101" s="24">
-        <v>1</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>38</v>
@@ -14038,29 +14038,29 @@
       <c r="C102" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D102" s="71" t="s">
+      <c r="D102" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="22">
+        <v>42912</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G102" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="24">
+        <v>2</v>
+      </c>
+      <c r="K102" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" s="22">
-        <v>42912</v>
-      </c>
-      <c r="G102" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H102" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J102" s="7">
-        <v>0</v>
-      </c>
-      <c r="K102" s="24">
-        <v>2</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>38</v>
@@ -14096,29 +14096,29 @@
       <c r="C103" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="71" t="s">
+      <c r="D103" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="35">
+        <v>42925</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G103" s="36">
+        <v>2017</v>
+      </c>
+      <c r="H103" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103" s="34">
+        <v>1</v>
+      </c>
+      <c r="J103" s="36">
+        <v>1</v>
+      </c>
+      <c r="K103" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E103" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="35">
-        <v>42925</v>
-      </c>
-      <c r="G103" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H103" s="36">
-        <v>2017</v>
-      </c>
-      <c r="I103" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J103" s="34">
-        <v>1</v>
-      </c>
-      <c r="K103" s="36">
-        <v>1</v>
       </c>
       <c r="L103" s="34" t="s">
         <v>38</v>
@@ -14154,29 +14154,29 @@
       <c r="C104" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D104" s="71" t="s">
+      <c r="D104" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="44">
+        <v>42928</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="45">
+        <v>2017</v>
+      </c>
+      <c r="H104" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="43">
+        <v>1</v>
+      </c>
+      <c r="J104" s="45">
+        <v>0</v>
+      </c>
+      <c r="K104" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F104" s="44">
-        <v>42928</v>
-      </c>
-      <c r="G104" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" s="45">
-        <v>2017</v>
-      </c>
-      <c r="I104" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" s="43">
-        <v>1</v>
-      </c>
-      <c r="K104" s="45">
-        <v>0</v>
       </c>
       <c r="L104" s="43" t="s">
         <v>38</v>
@@ -14212,29 +14212,29 @@
       <c r="C105" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D105" s="71" t="s">
+      <c r="D105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="22">
+        <v>42933</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2</v>
+      </c>
+      <c r="J105" s="24">
+        <v>1</v>
+      </c>
+      <c r="K105" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F105" s="22">
-        <v>42933</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H105" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J105" s="7">
-        <v>2</v>
-      </c>
-      <c r="K105" s="24">
-        <v>1</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>38</v>
@@ -14270,29 +14270,29 @@
       <c r="C106" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="71" t="s">
+      <c r="D106" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="44">
+        <v>42942</v>
+      </c>
+      <c r="F106" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G106" s="45">
+        <v>2017</v>
+      </c>
+      <c r="H106" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="43">
+        <v>3</v>
+      </c>
+      <c r="J106" s="45">
+        <v>0</v>
+      </c>
+      <c r="K106" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E106" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="44">
-        <v>42942</v>
-      </c>
-      <c r="G106" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H106" s="45">
-        <v>2017</v>
-      </c>
-      <c r="I106" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J106" s="43">
-        <v>3</v>
-      </c>
-      <c r="K106" s="45">
-        <v>0</v>
       </c>
       <c r="L106" s="43" t="s">
         <v>38</v>
@@ -14328,29 +14328,29 @@
       <c r="C107" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="71" t="s">
+      <c r="D107" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="22">
+        <v>42945</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G107" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107" s="7">
+        <v>3</v>
+      </c>
+      <c r="J107" s="24">
+        <v>4</v>
+      </c>
+      <c r="K107" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F107" s="22">
-        <v>42945</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J107" s="7">
-        <v>3</v>
-      </c>
-      <c r="K107" s="24">
-        <v>4</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>38</v>
@@ -14386,29 +14386,29 @@
       <c r="C108" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D108" s="71" t="s">
+      <c r="D108" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="44">
+        <v>42949</v>
+      </c>
+      <c r="F108" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G108" s="45">
+        <v>2017</v>
+      </c>
+      <c r="H108" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I108" s="43">
+        <v>1</v>
+      </c>
+      <c r="J108" s="45">
+        <v>2</v>
+      </c>
+      <c r="K108" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E108" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="44">
-        <v>42949</v>
-      </c>
-      <c r="G108" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H108" s="45">
-        <v>2017</v>
-      </c>
-      <c r="I108" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="J108" s="43">
-        <v>1</v>
-      </c>
-      <c r="K108" s="45">
-        <v>2</v>
       </c>
       <c r="L108" s="43" t="s">
         <v>38</v>
@@ -14444,29 +14444,29 @@
       <c r="C109" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="71" t="s">
+      <c r="D109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="22">
+        <v>42957</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G109" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="7">
+        <v>2</v>
+      </c>
+      <c r="J109" s="24">
+        <v>0</v>
+      </c>
+      <c r="K109" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="22">
-        <v>42957</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" s="7">
-        <v>2</v>
-      </c>
-      <c r="K109" s="24">
-        <v>0</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>43</v>
@@ -14502,29 +14502,29 @@
       <c r="C110" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="71" t="s">
+      <c r="D110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="22">
+        <v>42960</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G110" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="7">
+        <v>1</v>
+      </c>
+      <c r="J110" s="24">
+        <v>0</v>
+      </c>
+      <c r="K110" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="22">
-        <v>42960</v>
-      </c>
-      <c r="G110" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H110" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J110" s="7">
-        <v>1</v>
-      </c>
-      <c r="K110" s="24">
-        <v>0</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>38</v>
@@ -14560,29 +14560,29 @@
       <c r="C111" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="71" t="s">
+      <c r="D111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="22">
+        <v>42963</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="7">
+        <v>0</v>
+      </c>
+      <c r="J111" s="24">
+        <v>0</v>
+      </c>
+      <c r="K111" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="22">
-        <v>42963</v>
-      </c>
-      <c r="G111" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H111" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J111" s="7">
-        <v>0</v>
-      </c>
-      <c r="K111" s="24">
-        <v>0</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>12</v>
@@ -14618,29 +14618,29 @@
       <c r="C112" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="71" t="s">
+      <c r="D112" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="44">
+        <v>42970</v>
+      </c>
+      <c r="F112" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="45">
+        <v>2017</v>
+      </c>
+      <c r="H112" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I112" s="43">
+        <v>0</v>
+      </c>
+      <c r="J112" s="45">
+        <v>1</v>
+      </c>
+      <c r="K112" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E112" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="44">
-        <v>42970</v>
-      </c>
-      <c r="G112" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H112" s="45">
-        <v>2017</v>
-      </c>
-      <c r="I112" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="J112" s="43">
-        <v>0</v>
-      </c>
-      <c r="K112" s="45">
-        <v>1</v>
       </c>
       <c r="L112" s="43" t="s">
         <v>12</v>
@@ -14676,29 +14676,29 @@
       <c r="C113" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="22">
+        <v>42988</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G113" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="7">
+        <v>2</v>
+      </c>
+      <c r="J113" s="24">
+        <v>0</v>
+      </c>
+      <c r="K113" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="22">
-        <v>42988</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H113" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J113" s="7">
-        <v>2</v>
-      </c>
-      <c r="K113" s="24">
-        <v>0</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>38</v>
@@ -14734,29 +14734,29 @@
       <c r="C114" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="22">
+        <v>42991</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G114" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" s="7">
+        <v>0</v>
+      </c>
+      <c r="J114" s="24">
+        <v>0</v>
+      </c>
+      <c r="K114" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="22">
-        <v>42991</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H114" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J114" s="7">
-        <v>0</v>
-      </c>
-      <c r="K114" s="24">
-        <v>0</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>38</v>
@@ -14792,29 +14792,29 @@
       <c r="C115" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="71" t="s">
+      <c r="D115" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="22">
+        <v>42994</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G115" s="24">
+        <v>2017</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="7">
+        <v>2</v>
+      </c>
+      <c r="J115" s="24">
+        <v>0</v>
+      </c>
+      <c r="K115" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="22">
-        <v>42994</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" s="24">
-        <v>2017</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J115" s="7">
-        <v>2</v>
-      </c>
-      <c r="K115" s="24">
-        <v>0</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>38</v>
@@ -14850,29 +14850,29 @@
       <c r="C116" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="71" t="s">
+      <c r="D116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="22">
+        <v>43009</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G116" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I116" s="7">
+        <v>2</v>
+      </c>
+      <c r="J116" s="7">
+        <v>3</v>
+      </c>
+      <c r="K116" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F116" s="22">
-        <v>43009</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H116" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J116" s="7">
-        <v>2</v>
-      </c>
-      <c r="K116" s="7">
-        <v>3</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>38</v>
@@ -14908,29 +14908,29 @@
       <c r="C117" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D117" s="71" t="s">
+      <c r="D117" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" s="22">
+        <v>43019</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G117" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="7">
+        <v>2</v>
+      </c>
+      <c r="J117" s="7">
+        <v>1</v>
+      </c>
+      <c r="K117" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F117" s="22">
-        <v>43019</v>
-      </c>
-      <c r="G117" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H117" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J117" s="7">
-        <v>2</v>
-      </c>
-      <c r="K117" s="7">
-        <v>1</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>38</v>
@@ -14966,29 +14966,29 @@
       <c r="C118" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="71" t="s">
+      <c r="D118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="22">
+        <v>43022</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G118" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I118" s="7">
+        <v>0</v>
+      </c>
+      <c r="J118" s="7">
+        <v>1</v>
+      </c>
+      <c r="K118" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="22">
-        <v>43022</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H118" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J118" s="7">
-        <v>0</v>
-      </c>
-      <c r="K118" s="7">
-        <v>1</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>38</v>
@@ -15024,29 +15024,29 @@
       <c r="C119" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D119" s="71" t="s">
+      <c r="D119" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="22">
+        <v>43031</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="7">
+        <v>2</v>
+      </c>
+      <c r="J119" s="7">
+        <v>1</v>
+      </c>
+      <c r="K119" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F119" s="22">
-        <v>43031</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H119" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" s="7">
-        <v>2</v>
-      </c>
-      <c r="K119" s="7">
-        <v>1</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>38</v>
@@ -15082,29 +15082,29 @@
       <c r="C120" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="71" t="s">
+      <c r="D120" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="22">
+        <v>43043</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I120" s="7">
+        <v>1</v>
+      </c>
+      <c r="J120" s="7">
+        <v>2</v>
+      </c>
+      <c r="K120" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="22">
-        <v>43043</v>
-      </c>
-      <c r="G120" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H120" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J120" s="7">
-        <v>1</v>
-      </c>
-      <c r="K120" s="7">
-        <v>2</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>38</v>
@@ -15140,29 +15140,29 @@
       <c r="C121" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="71" t="s">
+      <c r="D121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="22">
+        <v>43050</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G121" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+      <c r="J121" s="7">
+        <v>1</v>
+      </c>
+      <c r="K121" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="22">
-        <v>43050</v>
-      </c>
-      <c r="G121" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H121" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J121" s="7">
-        <v>0</v>
-      </c>
-      <c r="K121" s="7">
-        <v>1</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>38</v>
@@ -15198,29 +15198,29 @@
       <c r="C122" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="71" t="s">
+      <c r="D122" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="22">
+        <v>43055</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G122" s="7">
+        <v>2017</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I122" s="7">
+        <v>1</v>
+      </c>
+      <c r="J122" s="7">
+        <v>2</v>
+      </c>
+      <c r="K122" s="71" t="s">
         <v>139</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="22">
-        <v>43055</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H122" s="7">
-        <v>2017</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J122" s="7">
-        <v>1</v>
-      </c>
-      <c r="K122" s="7">
-        <v>2</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>38</v>
@@ -15256,29 +15256,29 @@
       <c r="C123" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D123" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="E123" s="7" t="s">
+      <c r="D123" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F123" s="22">
+      <c r="E123" s="22">
         <v>43072</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="F123" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H123" s="7">
+      <c r="G123" s="7">
         <v>2017</v>
       </c>
-      <c r="I123" s="7" t="s">
+      <c r="H123" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="I123" s="7">
+        <v>2</v>
       </c>
       <c r="J123" s="7">
         <v>2</v>
       </c>
-      <c r="K123" s="7">
-        <v>2</v>
+      <c r="K123" s="71" t="s">
+        <v>139</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>38</v>
@@ -15314,29 +15314,29 @@
       <c r="C124" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D124" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F124" s="22">
+      <c r="E124" s="22">
         <v>43116</v>
       </c>
-      <c r="G124" s="22" t="s">
+      <c r="F124" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H124" s="7">
+      <c r="G124" s="7">
         <v>2018</v>
       </c>
-      <c r="I124" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="I124" s="7">
+        <v>2</v>
       </c>
       <c r="J124" s="7">
         <v>2</v>
       </c>
-      <c r="K124" s="7">
-        <v>2</v>
+      <c r="K124" s="71" t="s">
+        <v>140</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>24</v>
@@ -15372,29 +15372,29 @@
       <c r="C125" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="71" t="s">
+      <c r="D125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="22">
+        <v>43120</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G125" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125" s="7">
+        <v>0</v>
+      </c>
+      <c r="J125" s="7">
+        <v>0</v>
+      </c>
+      <c r="K125" s="71" t="s">
         <v>140</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="22">
-        <v>43120</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J125" s="7">
-        <v>0</v>
-      </c>
-      <c r="K125" s="7">
-        <v>0</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>24</v>
@@ -15430,29 +15430,29 @@
       <c r="C126" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="71" t="s">
+      <c r="D126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" s="22">
+        <v>43128</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G126" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="7">
+        <v>1</v>
+      </c>
+      <c r="J126" s="7">
+        <v>0</v>
+      </c>
+      <c r="K126" s="71" t="s">
         <v>140</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F126" s="22">
-        <v>43128</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H126" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" s="7">
-        <v>1</v>
-      </c>
-      <c r="K126" s="7">
-        <v>0</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>24</v>
@@ -15488,29 +15488,29 @@
       <c r="C127" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D127" s="71" t="s">
+      <c r="D127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="22">
+        <v>43134</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G127" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I127" s="7">
+        <v>0</v>
+      </c>
+      <c r="J127" s="7">
+        <v>0</v>
+      </c>
+      <c r="K127" s="71" t="s">
         <v>140</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="22">
-        <v>43134</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H127" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J127" s="7">
-        <v>0</v>
-      </c>
-      <c r="K127" s="7">
-        <v>0</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>24</v>
@@ -15546,29 +15546,29 @@
       <c r="C128" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="71" t="s">
+      <c r="D128" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="44">
+        <v>43165</v>
+      </c>
+      <c r="F128" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G128" s="43">
+        <v>2018</v>
+      </c>
+      <c r="H128" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="43">
+        <v>1</v>
+      </c>
+      <c r="J128" s="43">
+        <v>0</v>
+      </c>
+      <c r="K128" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E128" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" s="44">
-        <v>43165</v>
-      </c>
-      <c r="G128" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H128" s="43">
-        <v>2018</v>
-      </c>
-      <c r="I128" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J128" s="43">
-        <v>1</v>
-      </c>
-      <c r="K128" s="43">
-        <v>0</v>
       </c>
       <c r="L128" s="43" t="s">
         <v>24</v>
@@ -15604,29 +15604,29 @@
       <c r="C129" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="71" t="s">
+      <c r="D129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="22">
+        <v>43177</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G129" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I129" s="7">
+        <v>2</v>
+      </c>
+      <c r="J129" s="7">
+        <v>3</v>
+      </c>
+      <c r="K129" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="22">
-        <v>43177</v>
-      </c>
-      <c r="G129" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H129" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J129" s="7">
-        <v>2</v>
-      </c>
-      <c r="K129" s="7">
-        <v>3</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>24</v>
@@ -15662,29 +15662,29 @@
       <c r="C130" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="71" t="s">
+      <c r="D130" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="22">
+        <v>43180</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G130" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="7">
+        <v>3</v>
+      </c>
+      <c r="J130" s="7">
+        <v>2</v>
+      </c>
+      <c r="K130" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F130" s="22">
-        <v>43180</v>
-      </c>
-      <c r="G130" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H130" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J130" s="7">
-        <v>3</v>
-      </c>
-      <c r="K130" s="7">
-        <v>2</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>24</v>
@@ -15720,29 +15720,29 @@
       <c r="C131" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="71" t="s">
+      <c r="D131" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="22">
+        <v>43184</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G131" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
+      <c r="J131" s="7">
+        <v>3</v>
+      </c>
+      <c r="K131" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" s="22">
-        <v>43184</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H131" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J131" s="7">
-        <v>0</v>
-      </c>
-      <c r="K131" s="7">
-        <v>3</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>24</v>
@@ -15778,29 +15778,29 @@
       <c r="C132" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D132" s="71" t="s">
+      <c r="D132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="22">
+        <v>43187</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+      <c r="J132" s="7">
+        <v>0</v>
+      </c>
+      <c r="K132" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F132" s="22">
-        <v>43187</v>
-      </c>
-      <c r="G132" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H132" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J132" s="7">
-        <v>1</v>
-      </c>
-      <c r="K132" s="7">
-        <v>0</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>24</v>
@@ -15836,29 +15836,29 @@
       <c r="C133" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D133" s="71" t="s">
+      <c r="D133" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="22">
+        <v>43191</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G133" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I133" s="7">
+        <v>2</v>
+      </c>
+      <c r="J133" s="7">
+        <v>3</v>
+      </c>
+      <c r="K133" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="22">
-        <v>43191</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H133" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J133" s="7">
-        <v>2</v>
-      </c>
-      <c r="K133" s="7">
-        <v>3</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>24</v>
@@ -15889,23 +15889,23 @@
       <c r="C134" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D134" s="77"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="22">
+      <c r="D134" s="75"/>
+      <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="G134" s="76" t="s">
+      <c r="F134" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="H134" s="77"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="77"/>
-      <c r="L134" s="75"/>
-      <c r="M134" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="N134" s="77"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="75"/>
+      <c r="L134" s="76"/>
+      <c r="M134" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="N134" s="75"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="19"/>
@@ -15927,29 +15927,29 @@
       <c r="C135" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D135" s="71" t="s">
+      <c r="D135" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E135" s="22">
+        <v>43198</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G135" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="7">
+        <v>1</v>
+      </c>
+      <c r="J135" s="7">
+        <v>0</v>
+      </c>
+      <c r="K135" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F135" s="22">
-        <v>43198</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H135" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J135" s="7">
-        <v>1</v>
-      </c>
-      <c r="K135" s="7">
-        <v>0</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>24</v>
@@ -15981,29 +15981,29 @@
       <c r="C136" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D136" s="71" t="s">
+      <c r="D136" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" s="22">
+        <v>43218</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G136" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="7">
+        <v>2</v>
+      </c>
+      <c r="J136" s="7">
+        <v>1</v>
+      </c>
+      <c r="K136" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F136" s="22">
-        <v>43218</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H136" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J136" s="7">
-        <v>2</v>
-      </c>
-      <c r="K136" s="7">
-        <v>1</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>38</v>
@@ -16035,29 +16035,29 @@
       <c r="C137" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="22">
+        <v>43229</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G137" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137" s="7">
+        <v>1</v>
+      </c>
+      <c r="J137" s="7">
+        <v>1</v>
+      </c>
+      <c r="K137" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" s="22">
-        <v>43229</v>
-      </c>
-      <c r="G137" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H137" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J137" s="7">
-        <v>1</v>
-      </c>
-      <c r="K137" s="7">
-        <v>1</v>
       </c>
       <c r="L137" s="7" t="s">
         <v>117</v>
@@ -16089,29 +16089,29 @@
       <c r="C138" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="71" t="s">
+      <c r="D138" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" s="22">
+        <v>43234</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G138" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="7">
+        <v>2</v>
+      </c>
+      <c r="J138" s="7">
+        <v>1</v>
+      </c>
+      <c r="K138" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138" s="22">
-        <v>43234</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H138" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J138" s="7">
-        <v>2</v>
-      </c>
-      <c r="K138" s="7">
-        <v>1</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>38</v>
@@ -16143,29 +16143,29 @@
       <c r="C139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="71" t="s">
+      <c r="D139" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="22">
+        <v>43247</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G139" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I139" s="7">
+        <v>1</v>
+      </c>
+      <c r="J139" s="7">
+        <v>1</v>
+      </c>
+      <c r="K139" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" s="22">
-        <v>43247</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H139" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J139" s="7">
-        <v>1</v>
-      </c>
-      <c r="K139" s="7">
-        <v>1</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>38</v>
@@ -16197,29 +16197,29 @@
       <c r="C140" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="71" t="s">
+      <c r="D140" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="22">
+        <v>43253</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G140" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="7">
+        <v>2</v>
+      </c>
+      <c r="J140" s="7">
+        <v>1</v>
+      </c>
+      <c r="K140" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F140" s="22">
-        <v>43253</v>
-      </c>
-      <c r="G140" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H140" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J140" s="7">
-        <v>2</v>
-      </c>
-      <c r="K140" s="7">
-        <v>1</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>38</v>
@@ -16240,29 +16240,29 @@
       <c r="C141" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="71" t="s">
+      <c r="D141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="22">
+        <v>43257</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G141" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="7">
+        <v>0</v>
+      </c>
+      <c r="K141" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="22">
-        <v>43257</v>
-      </c>
-      <c r="G141" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H141" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J141" s="7">
-        <v>0</v>
-      </c>
-      <c r="K141" s="7">
-        <v>0</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>38</v>
@@ -16283,29 +16283,29 @@
       <c r="C142" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D142" s="71" t="s">
+      <c r="D142" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" s="22">
+        <v>43307</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G142" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="7">
+        <v>1</v>
+      </c>
+      <c r="J142" s="7">
+        <v>0</v>
+      </c>
+      <c r="K142" s="71" t="s">
         <v>142</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F142" s="22">
-        <v>43307</v>
-      </c>
-      <c r="G142" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H142" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J142" s="7">
-        <v>1</v>
-      </c>
-      <c r="K142" s="7">
-        <v>0</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>38</v>
@@ -16326,29 +16326,29 @@
       <c r="C143" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="71" t="s">
+      <c r="D143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="22">
+        <v>43316</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G143" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I143" s="7">
+        <v>0</v>
+      </c>
+      <c r="J143" s="7">
+        <v>0</v>
+      </c>
+      <c r="K143" s="71" t="s">
         <v>144</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="22">
-        <v>43316</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H143" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J143" s="7">
-        <v>0</v>
-      </c>
-      <c r="K143" s="7">
-        <v>0</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>38</v>
@@ -16369,29 +16369,29 @@
       <c r="C144" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D144" s="71" t="s">
+      <c r="D144" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="22">
+        <v>43328</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G144" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="7">
+        <v>2</v>
+      </c>
+      <c r="J144" s="7">
+        <v>0</v>
+      </c>
+      <c r="K144" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="22">
-        <v>43328</v>
-      </c>
-      <c r="G144" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H144" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" s="7">
-        <v>2</v>
-      </c>
-      <c r="K144" s="7">
-        <v>0</v>
       </c>
       <c r="L144" s="7" t="s">
         <v>117</v>
@@ -16412,29 +16412,29 @@
       <c r="C145" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="22">
+        <v>43331</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G145" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I145" s="7">
+        <v>0</v>
+      </c>
+      <c r="J145" s="7">
+        <v>3</v>
+      </c>
+      <c r="K145" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="22">
-        <v>43331</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H145" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J145" s="7">
-        <v>0</v>
-      </c>
-      <c r="K145" s="7">
-        <v>3</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>38</v>
@@ -16455,29 +16455,29 @@
       <c r="C146" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D146" s="71" t="s">
+      <c r="D146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="22">
+        <v>43337</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G146" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="7">
+        <v>2</v>
+      </c>
+      <c r="J146" s="7">
+        <v>0</v>
+      </c>
+      <c r="K146" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" s="22">
-        <v>43337</v>
-      </c>
-      <c r="G146" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H146" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" s="7">
-        <v>2</v>
-      </c>
-      <c r="K146" s="7">
-        <v>0</v>
       </c>
       <c r="L146" s="7" t="s">
         <v>38</v>
@@ -16498,29 +16498,29 @@
       <c r="C147" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D147" s="71" t="s">
+      <c r="D147" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="22">
+        <v>43348</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G147" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I147" s="7">
+        <v>1</v>
+      </c>
+      <c r="J147" s="7">
+        <v>1</v>
+      </c>
+      <c r="K147" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="22">
-        <v>43348</v>
-      </c>
-      <c r="G147" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H147" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J147" s="7">
-        <v>1</v>
-      </c>
-      <c r="K147" s="7">
-        <v>1</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>38</v>
@@ -16541,29 +16541,29 @@
       <c r="C148" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D148" s="71" t="s">
+      <c r="D148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="22">
+        <v>43352</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G148" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I148" s="7">
+        <v>0</v>
+      </c>
+      <c r="J148" s="7">
+        <v>1</v>
+      </c>
+      <c r="K148" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="22">
-        <v>43352</v>
-      </c>
-      <c r="G148" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H148" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J148" s="7">
-        <v>0</v>
-      </c>
-      <c r="K148" s="7">
-        <v>1</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>38</v>
@@ -16584,29 +16584,29 @@
       <c r="C149" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="71" t="s">
+      <c r="D149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="22">
+        <v>43359</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G149" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="7">
+        <v>1</v>
+      </c>
+      <c r="J149" s="7">
+        <v>0</v>
+      </c>
+      <c r="K149" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F149" s="22">
-        <v>43359</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H149" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J149" s="7">
-        <v>1</v>
-      </c>
-      <c r="K149" s="7">
-        <v>0</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>38</v>
@@ -16627,29 +16627,29 @@
       <c r="C150" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D150" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E150" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F150" s="22">
+      <c r="E150" s="22">
         <v>43373</v>
       </c>
-      <c r="G150" s="22" t="s">
+      <c r="F150" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H150" s="7">
+      <c r="G150" s="7">
         <v>2018</v>
       </c>
-      <c r="I150" s="7" t="s">
+      <c r="H150" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="I150" s="7">
+        <v>2</v>
       </c>
       <c r="J150" s="7">
         <v>2</v>
       </c>
-      <c r="K150" s="7">
-        <v>2</v>
+      <c r="K150" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="L150" s="7" t="s">
         <v>38</v>
@@ -16670,29 +16670,29 @@
       <c r="C151" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="D151" s="71" t="s">
+      <c r="D151" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E151" s="22">
+        <v>43376</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G151" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="7">
+        <v>2</v>
+      </c>
+      <c r="J151" s="7">
+        <v>1</v>
+      </c>
+      <c r="K151" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F151" s="22">
-        <v>43376</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H151" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J151" s="7">
-        <v>2</v>
-      </c>
-      <c r="K151" s="7">
-        <v>1</v>
       </c>
       <c r="L151" s="7" t="s">
         <v>117</v>
@@ -16713,29 +16713,29 @@
       <c r="C152" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="71" t="s">
+      <c r="D152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="22">
+        <v>43382</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G152" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152" s="7">
+        <v>1</v>
+      </c>
+      <c r="J152" s="7">
+        <v>1</v>
+      </c>
+      <c r="K152" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="22">
-        <v>43382</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="H152" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J152" s="7">
-        <v>1</v>
-      </c>
-      <c r="K152" s="7">
-        <v>1</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>38</v>
@@ -16756,29 +16756,29 @@
       <c r="C153" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D153" s="71" t="s">
+      <c r="D153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="22">
+        <v>43393</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0</v>
+      </c>
+      <c r="J153" s="7">
+        <v>1</v>
+      </c>
+      <c r="K153" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="22">
-        <v>43393</v>
-      </c>
-      <c r="G153" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H153" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J153" s="7">
-        <v>0</v>
-      </c>
-      <c r="K153" s="7">
-        <v>1</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>38</v>
@@ -16799,29 +16799,29 @@
       <c r="C154" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D154" s="71" t="s">
+      <c r="D154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="22">
+        <v>43408</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G154" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="7">
+        <v>1</v>
+      </c>
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F154" s="22">
-        <v>43408</v>
-      </c>
-      <c r="G154" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H154" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J154" s="7">
-        <v>1</v>
-      </c>
-      <c r="K154" s="7">
-        <v>0</v>
       </c>
       <c r="L154" s="7" t="s">
         <v>38</v>
@@ -16842,29 +16842,29 @@
       <c r="C155" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D155" s="71" t="s">
+      <c r="D155" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E155" s="22">
+        <v>43414</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="7">
+        <v>2</v>
+      </c>
+      <c r="J155" s="7">
+        <v>1</v>
+      </c>
+      <c r="K155" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F155" s="22">
-        <v>43414</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H155" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J155" s="7">
-        <v>2</v>
-      </c>
-      <c r="K155" s="7">
-        <v>1</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>38</v>
@@ -16885,29 +16885,29 @@
       <c r="C156" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D156" s="71" t="s">
+      <c r="D156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" s="22">
+        <v>43422</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="7">
+        <v>1</v>
+      </c>
+      <c r="J156" s="7">
+        <v>0</v>
+      </c>
+      <c r="K156" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F156" s="22">
-        <v>43422</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H156" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J156" s="7">
-        <v>1</v>
-      </c>
-      <c r="K156" s="7">
-        <v>0</v>
       </c>
       <c r="L156" s="7" t="s">
         <v>38</v>
@@ -16928,29 +16928,29 @@
       <c r="C157" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D157" s="71" t="s">
+      <c r="D157" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="22">
+        <v>43430</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G157" s="7">
+        <v>2018</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="7">
+        <v>2</v>
+      </c>
+      <c r="J157" s="7">
+        <v>1</v>
+      </c>
+      <c r="K157" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F157" s="22">
-        <v>43430</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H157" s="7">
-        <v>2018</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J157" s="7">
-        <v>2</v>
-      </c>
-      <c r="K157" s="7">
-        <v>1</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>38</v>
@@ -16970,9 +16970,9 @@
     <sortCondition descending="1" ref="R3:R7"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C134:D134"/>
     <mergeCell ref="M134:N134"/>
-    <mergeCell ref="G134:L134"/>
+    <mergeCell ref="F134:L134"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16984,8 +16984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17072,26 +17072,26 @@
         <v>2002</v>
       </c>
       <c r="H2" s="10">
-        <f>COUNTIF(Principal!H2, "2002")</f>
+        <f>COUNTIF(Principal!G2, "2002")</f>
         <v>1</v>
       </c>
       <c r="I2" s="7">
-        <f>COUNTIF(Principal!I2:I1008, "Vitória")</f>
+        <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
         <v>82</v>
       </c>
       <c r="J2" s="7">
-        <f>COUNTIF(Principal!I2:I1008, "Empate")</f>
+        <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
         <v>33</v>
       </c>
       <c r="K2" s="7">
-        <f>COUNTIF(Principal!I2:I1008, "Derrota")</f>
+        <f>COUNTIF(Principal!H2:H1008, "Derrota")</f>
         <v>40</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Domingo")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Domingo")</f>
         <v>60</v>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
         <v>2004</v>
       </c>
       <c r="H3" s="6">
-        <f>COUNTIF(Principal!H3:H9, "2004")</f>
+        <f>COUNTIF(Principal!G3:G9, "2004")</f>
         <v>7</v>
       </c>
       <c r="I3" s="19"/>
@@ -17131,7 +17131,7 @@
         <v>131</v>
       </c>
       <c r="M3" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Segunda-feira")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Segunda-feira")</f>
         <v>6</v>
       </c>
     </row>
@@ -17161,7 +17161,7 @@
         <v>2005</v>
       </c>
       <c r="H4" s="6">
-        <f>COUNTIF(Principal!H10:H16, "2005")</f>
+        <f>COUNTIF(Principal!G10:G16, "2005")</f>
         <v>7</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -17175,7 +17175,7 @@
         <v>132</v>
       </c>
       <c r="M4" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Terça-feira")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Terça-feira")</f>
         <v>8</v>
       </c>
     </row>
@@ -17205,15 +17205,15 @@
         <v>2006</v>
       </c>
       <c r="H5" s="6">
-        <f>COUNTIF(Principal!H17:H23, "2006")</f>
+        <f>COUNTIF(Principal!G17:G23, "2006")</f>
         <v>7</v>
       </c>
       <c r="I5" s="48">
+        <f>SUM(Principal!I3:I1002)</f>
+        <v>234</v>
+      </c>
+      <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
-        <v>234</v>
-      </c>
-      <c r="J5" s="24">
-        <f>SUM(Principal!K3:K1002)</f>
         <v>152</v>
       </c>
       <c r="K5" s="21"/>
@@ -17221,7 +17221,7 @@
         <v>130</v>
       </c>
       <c r="M5" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Quarta-feira")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Quarta-feira")</f>
         <v>26</v>
       </c>
     </row>
@@ -17251,7 +17251,7 @@
         <v>2007</v>
       </c>
       <c r="H6" s="6">
-        <f>COUNTIF(Principal!H24:H28, "2007")</f>
+        <f>COUNTIF(Principal!G24:G28, "2007")</f>
         <v>5</v>
       </c>
       <c r="I6" s="19"/>
@@ -17261,7 +17261,7 @@
         <v>129</v>
       </c>
       <c r="M6" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Quinta-feira")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Quinta-feira")</f>
         <v>9</v>
       </c>
     </row>
@@ -17291,7 +17291,7 @@
         <v>2008</v>
       </c>
       <c r="H7" s="6">
-        <f>COUNTIF(Principal!H29:H32, "2008")</f>
+        <f>COUNTIF(Principal!G29:G32, "2008")</f>
         <v>4</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -17305,7 +17305,7 @@
         <v>133</v>
       </c>
       <c r="M7" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Sexta-feira")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Sexta-feira")</f>
         <v>2</v>
       </c>
     </row>
@@ -17330,7 +17330,7 @@
         <v>2009</v>
       </c>
       <c r="H8" s="6">
-        <f>COUNTIF(Principal!H33, "2009")</f>
+        <f>COUNTIF(Principal!G33, "2009")</f>
         <v>1</v>
       </c>
       <c r="I8" s="7">
@@ -17346,7 +17346,7 @@
         <v>127</v>
       </c>
       <c r="M8" s="7">
-        <f>COUNTIF(Principal!G2:G1008, "Sábado")</f>
+        <f>COUNTIF(Principal!F2:F1008, "Sábado")</f>
         <v>44</v>
       </c>
     </row>
@@ -17371,7 +17371,7 @@
         <v>2010</v>
       </c>
       <c r="H9" s="6">
-        <f>COUNTIF(Principal!H34:H36, "2010")</f>
+        <f>COUNTIF(Principal!G34:G36, "2010")</f>
         <v>3</v>
       </c>
       <c r="I9" s="27"/>
@@ -17394,7 +17394,7 @@
         <v>2011</v>
       </c>
       <c r="H10" s="6">
-        <f>COUNTIF(Principal!H37:H40, "2011")</f>
+        <f>COUNTIF(Principal!G37:G40, "2011")</f>
         <v>4</v>
       </c>
       <c r="I10" s="19"/>
@@ -17417,7 +17417,7 @@
         <v>2012</v>
       </c>
       <c r="H11" s="6">
-        <f>COUNTIF(Principal!H41, "2012")</f>
+        <f>COUNTIF(Principal!G41, "2012")</f>
         <v>1</v>
       </c>
       <c r="I11" s="19"/>
@@ -17440,7 +17440,7 @@
         <v>2013</v>
       </c>
       <c r="H12" s="6">
-        <f>COUNTIF(Principal!H42:H45, "2013")</f>
+        <f>COUNTIF(Principal!G42:G45, "2013")</f>
         <v>4</v>
       </c>
       <c r="I12" s="25"/>
@@ -17463,7 +17463,7 @@
         <v>2014</v>
       </c>
       <c r="H13" s="6">
-        <f>COUNTIF(Principal!H46:H52, "2014")</f>
+        <f>COUNTIF(Principal!G46:G52, "2014")</f>
         <v>7</v>
       </c>
       <c r="I13" s="25"/>
@@ -17486,7 +17486,7 @@
         <v>2015</v>
       </c>
       <c r="H14" s="6">
-        <f>COUNTIF(Principal!H53:H71, "2015")</f>
+        <f>COUNTIF(Principal!G53:G71, "2015")</f>
         <v>19</v>
       </c>
       <c r="I14" s="25"/>
@@ -17509,7 +17509,7 @@
         <v>2016</v>
       </c>
       <c r="H15" s="6">
-        <f>COUNTIF(Principal!H72:H85, "2016")</f>
+        <f>COUNTIF(Principal!G72:G85, "2016")</f>
         <v>14</v>
       </c>
       <c r="I15" s="25"/>
@@ -17532,7 +17532,7 @@
         <v>2017</v>
       </c>
       <c r="H16" s="7">
-        <f>COUNTIF(Principal!H86:H123, "2017")</f>
+        <f>COUNTIF(Principal!G86:G123, "2017")</f>
         <v>38</v>
       </c>
       <c r="I16" s="21"/>
@@ -17555,7 +17555,7 @@
         <v>2018</v>
       </c>
       <c r="H17" s="7">
-        <f>COUNTIF(Principal!H124:H160, "2018")</f>
+        <f>COUNTIF(Principal!G124:G160, "2018")</f>
         <v>33</v>
       </c>
       <c r="I17" s="21"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="159">
   <si>
     <t>Sim</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Atlético Nacional</t>
-  </si>
-  <si>
-    <t>1  x 0</t>
   </si>
   <si>
     <t>Avaí</t>
@@ -1083,10 +1080,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8240,8 +8237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8279,7 +8276,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>71</v>
@@ -8291,7 +8288,7 @@
         <v>69</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>83</v>
@@ -8306,7 +8303,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>68</v>
@@ -8338,7 +8335,7 @@
         <v>37555</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="9">
         <v>2002</v>
@@ -8353,7 +8350,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>38</v>
@@ -8385,7 +8382,7 @@
         <v>38060</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G3" s="16">
         <v>2004</v>
@@ -8400,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>24</v>
@@ -8437,7 +8434,7 @@
         <v>38211</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="16">
         <v>2004</v>
@@ -8452,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>38</v>
@@ -8489,7 +8486,7 @@
         <v>38227</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="16">
         <v>2004</v>
@@ -8504,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>38</v>
@@ -8541,7 +8538,7 @@
         <v>38262</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="16">
         <v>2004</v>
@@ -8556,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>38</v>
@@ -8593,7 +8590,7 @@
         <v>38304</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="16">
         <v>2004</v>
@@ -8608,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>38</v>
@@ -8645,7 +8642,7 @@
         <v>38318</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="16">
         <v>2004</v>
@@ -8660,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -8697,7 +8694,7 @@
         <v>38333</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="16">
         <v>2004</v>
@@ -8712,7 +8709,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>38</v>
@@ -8749,7 +8746,7 @@
         <v>38396</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G10" s="16">
         <v>2005</v>
@@ -8764,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -8801,7 +8798,7 @@
         <v>38434</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G11" s="24">
         <v>2005</v>
@@ -8816,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -8853,7 +8850,7 @@
         <v>38501</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="24">
         <v>2005</v>
@@ -8868,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -8905,7 +8902,7 @@
         <v>38613</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G13" s="24">
         <v>2005</v>
@@ -8920,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>38</v>
@@ -8957,7 +8954,7 @@
         <v>38633</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="24">
         <v>2005</v>
@@ -8972,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>38</v>
@@ -9009,7 +9006,7 @@
         <v>38647</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="24">
         <v>2005</v>
@@ -9024,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>38</v>
@@ -9061,7 +9058,7 @@
         <v>38668</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" s="24">
         <v>2005</v>
@@ -9076,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -9113,7 +9110,7 @@
         <v>38739</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G17" s="24">
         <v>2006</v>
@@ -9128,7 +9125,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -9165,7 +9162,7 @@
         <v>38767</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="24">
         <v>2006</v>
@@ -9180,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>24</v>
@@ -9217,7 +9214,7 @@
         <v>38816</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="24">
         <v>2006</v>
@@ -9232,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>24</v>
@@ -9269,7 +9266,7 @@
         <v>38850</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="24">
         <v>2006</v>
@@ -9284,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -9321,7 +9318,7 @@
         <v>39004</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="24">
         <v>2006</v>
@@ -9336,7 +9333,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
@@ -9373,7 +9370,7 @@
         <v>39023</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="24">
         <v>2006</v>
@@ -9388,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -9425,7 +9422,7 @@
         <v>39040</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="24">
         <v>2006</v>
@@ -9440,7 +9437,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>38</v>
@@ -9477,7 +9474,7 @@
         <v>39225</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="24">
         <v>2007</v>
@@ -9492,7 +9489,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>12</v>
@@ -9529,7 +9526,7 @@
         <v>39235</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="24">
         <v>2007</v>
@@ -9544,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>38</v>
@@ -9581,7 +9578,7 @@
         <v>39250</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="24">
         <v>2007</v>
@@ -9596,7 +9593,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>38</v>
@@ -9633,7 +9630,7 @@
         <v>39313</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="24">
         <v>2007</v>
@@ -9648,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>38</v>
@@ -9685,7 +9682,7 @@
         <v>39348</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="36">
         <v>2007</v>
@@ -9700,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L28" s="34" t="s">
         <v>38</v>
@@ -9737,7 +9734,7 @@
         <v>39537</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="24">
         <v>2008</v>
@@ -9752,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>24</v>
@@ -9789,7 +9786,7 @@
         <v>39582</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="24">
         <v>2008</v>
@@ -9804,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>12</v>
@@ -9841,7 +9838,7 @@
         <v>39593</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G31" s="24">
         <v>2008</v>
@@ -9856,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>38</v>
@@ -9893,7 +9890,7 @@
         <v>39690</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G32" s="24">
         <v>2008</v>
@@ -9908,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -9945,7 +9942,7 @@
         <v>39900</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G33" s="24">
         <v>2009</v>
@@ -9960,7 +9957,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>24</v>
@@ -9997,7 +9994,7 @@
         <v>40266</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="24">
         <v>2010</v>
@@ -10012,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>24</v>
@@ -10049,7 +10046,7 @@
         <v>40397</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" s="24">
         <v>2010</v>
@@ -10064,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>38</v>
@@ -10101,7 +10098,7 @@
         <v>40474</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="24">
         <v>2010</v>
@@ -10116,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -10153,7 +10150,7 @@
         <v>40607</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G37" s="24">
         <v>2011</v>
@@ -10168,7 +10165,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>24</v>
@@ -10205,7 +10202,7 @@
         <v>40622</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="24">
         <v>2011</v>
@@ -10220,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>24</v>
@@ -10257,7 +10254,7 @@
         <v>40793</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="24">
         <v>2011</v>
@@ -10272,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>38</v>
@@ -10309,7 +10306,7 @@
         <v>40824</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40" s="24">
         <v>2011</v>
@@ -10324,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="K40" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>38</v>
@@ -10361,7 +10358,7 @@
         <v>41028</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="24">
         <v>2012</v>
@@ -10376,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>24</v>
@@ -10413,7 +10410,7 @@
         <v>41322</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="24">
         <v>2013</v>
@@ -10428,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>24</v>
@@ -10465,7 +10462,7 @@
         <v>41399</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G43" s="24">
         <v>2013</v>
@@ -10480,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>24</v>
@@ -10517,7 +10514,7 @@
         <v>41552</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="24">
         <v>2013</v>
@@ -10532,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>38</v>
@@ -10569,7 +10566,7 @@
         <v>41616</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G45" s="24">
         <v>2013</v>
@@ -10584,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>38</v>
@@ -10621,7 +10618,7 @@
         <v>41675</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="24">
         <v>2014</v>
@@ -10636,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>43</v>
@@ -10673,7 +10670,7 @@
         <v>41716</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G47" s="24">
         <v>2014</v>
@@ -10688,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>43</v>
@@ -10725,7 +10722,7 @@
         <v>41847</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="24">
         <v>2014</v>
@@ -10740,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>38</v>
@@ -10777,7 +10774,7 @@
         <v>41874</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G49" s="24">
         <v>2014</v>
@@ -10792,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>38</v>
@@ -10829,7 +10826,7 @@
         <v>41882</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G50" s="24">
         <v>2014</v>
@@ -10844,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>38</v>
@@ -10881,7 +10878,7 @@
         <v>41899</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="45">
         <v>2014</v>
@@ -10896,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="K51" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L51" s="43" t="s">
         <v>38</v>
@@ -10933,7 +10930,7 @@
         <v>41920</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="24">
         <v>2014</v>
@@ -10948,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>38</v>
@@ -10985,7 +10982,7 @@
         <v>42035</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G53" s="24">
         <v>2015</v>
@@ -11000,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>24</v>
@@ -11037,7 +11034,7 @@
         <v>42042</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G54" s="24">
         <v>2015</v>
@@ -11052,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>24</v>
@@ -11089,7 +11086,7 @@
         <v>42056</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" s="24">
         <v>2015</v>
@@ -11104,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>24</v>
@@ -11152,7 +11149,7 @@
         <v>42064</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G56" s="24">
         <v>2015</v>
@@ -11167,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>24</v>
@@ -11215,7 +11212,7 @@
         <v>42071</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="24">
         <v>2015</v>
@@ -11230,7 +11227,7 @@
         <v>3</v>
       </c>
       <c r="K57" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>24</v>
@@ -11278,7 +11275,7 @@
         <v>42078</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G58" s="24">
         <v>2015</v>
@@ -11293,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>24</v>
@@ -11341,7 +11338,7 @@
         <v>42092</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" s="24">
         <v>2015</v>
@@ -11356,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>24</v>
@@ -11404,7 +11401,7 @@
         <v>42099</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G60" s="24">
         <v>2015</v>
@@ -11419,7 +11416,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>24</v>
@@ -11467,7 +11464,7 @@
         <v>42127</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G61" s="24">
         <v>2015</v>
@@ -11482,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L61" s="7" t="s">
         <v>24</v>
@@ -11530,7 +11527,7 @@
         <v>42140</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G62" s="24">
         <v>2015</v>
@@ -11545,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>2</v>
@@ -11593,7 +11590,7 @@
         <v>42154</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="24">
         <v>2015</v>
@@ -11608,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>2</v>
@@ -11656,7 +11653,7 @@
         <v>42160</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" s="24">
         <v>2015</v>
@@ -11671,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>2</v>
@@ -11719,7 +11716,7 @@
         <v>42174</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G65" s="24">
         <v>2015</v>
@@ -11734,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L65" s="7" t="s">
         <v>2</v>
@@ -11782,7 +11779,7 @@
         <v>42199</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="24">
         <v>2015</v>
@@ -11797,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>12</v>
@@ -11845,7 +11842,7 @@
         <v>42213</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G67" s="24">
         <v>2015</v>
@@ -11860,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>2</v>
@@ -11908,7 +11905,7 @@
         <v>42239</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="24">
         <v>2015</v>
@@ -11923,7 +11920,7 @@
         <v>3</v>
       </c>
       <c r="K68" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L68" s="7" t="s">
         <v>2</v>
@@ -11968,10 +11965,10 @@
         <v>6</v>
       </c>
       <c r="E69" s="22">
-        <v>42233</v>
+        <v>42294</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G69" s="24">
         <v>2015</v>
@@ -11986,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>2</v>
@@ -12034,7 +12031,7 @@
         <v>42322</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" s="24">
         <v>2015</v>
@@ -12049,7 +12046,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>2</v>
@@ -12097,7 +12094,7 @@
         <v>42336</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G71" s="24">
         <v>2015</v>
@@ -12112,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L71" s="7" t="s">
         <v>2</v>
@@ -12160,7 +12157,7 @@
         <v>42402</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G72" s="24">
         <v>2016</v>
@@ -12175,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>24</v>
@@ -12223,7 +12220,7 @@
         <v>42435</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G73" s="24">
         <v>2016</v>
@@ -12238,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>24</v>
@@ -12286,7 +12283,7 @@
         <v>42491</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G74" s="24">
         <v>2016</v>
@@ -12301,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>24</v>
@@ -12349,7 +12346,7 @@
         <v>42498</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G75" s="24">
         <v>2016</v>
@@ -12364,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L75" s="7" t="s">
         <v>24</v>
@@ -12412,7 +12409,7 @@
         <v>42505</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" s="24">
         <v>2016</v>
@@ -12427,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>38</v>
@@ -12475,7 +12472,7 @@
         <v>42554</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G77" s="24">
         <v>2016</v>
@@ -12490,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>38</v>
@@ -12538,7 +12535,7 @@
         <v>42582</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G78" s="24">
         <v>2016</v>
@@ -12553,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L78" s="7" t="s">
         <v>38</v>
@@ -12601,7 +12598,7 @@
         <v>42617</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G79" s="7">
         <v>2016</v>
@@ -12616,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L79" s="7" t="s">
         <v>38</v>
@@ -12664,7 +12661,7 @@
         <v>42620</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G80" s="7">
         <v>2016</v>
@@ -12679,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>38</v>
@@ -12727,7 +12724,7 @@
         <v>42655</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G81" s="24">
         <v>2016</v>
@@ -12742,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>38</v>
@@ -12790,7 +12787,7 @@
         <v>42659</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G82" s="24">
         <v>2016</v>
@@ -12805,7 +12802,7 @@
         <v>2</v>
       </c>
       <c r="K82" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>38</v>
@@ -12853,7 +12850,7 @@
         <v>42672</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G83" s="24">
         <v>2016</v>
@@ -12868,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>38</v>
@@ -12916,7 +12913,7 @@
         <v>42690</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G84" s="24">
         <v>2016</v>
@@ -12931,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="K84" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L84" s="7" t="s">
         <v>38</v>
@@ -12979,7 +12976,7 @@
         <v>42700</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G85" s="24">
         <v>2016</v>
@@ -12994,7 +12991,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>38</v>
@@ -13042,7 +13039,7 @@
         <v>42763</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G86" s="36">
         <v>2017</v>
@@ -13057,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>24</v>
@@ -13105,7 +13102,7 @@
         <v>42767</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G87" s="24">
         <v>2017</v>
@@ -13120,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>43</v>
@@ -13168,7 +13165,7 @@
         <v>42770</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G88" s="7">
         <v>2017</v>
@@ -13183,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>24</v>
@@ -13231,7 +13228,7 @@
         <v>42781</v>
       </c>
       <c r="F89" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G89" s="43">
         <v>2017</v>
@@ -13246,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L89" s="43" t="s">
         <v>43</v>
@@ -13294,7 +13291,7 @@
         <v>42803</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G90" s="24">
         <v>2017</v>
@@ -13309,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>24</v>
@@ -13357,7 +13354,7 @@
         <v>42813</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G91" s="24">
         <v>2017</v>
@@ -13372,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>24</v>
@@ -13420,7 +13417,7 @@
         <v>42817</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G92" s="24">
         <v>2017</v>
@@ -13435,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="K92" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L92" s="7" t="s">
         <v>24</v>
@@ -13483,7 +13480,7 @@
         <v>42834</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G93" s="24">
         <v>2017</v>
@@ -13498,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>24</v>
@@ -13546,7 +13543,7 @@
         <v>42841</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G94" s="24">
         <v>2017</v>
@@ -13561,7 +13558,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L94" s="7" t="s">
         <v>24</v>
@@ -13609,7 +13606,7 @@
         <v>42851</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G95" s="24">
         <v>2017</v>
@@ -13624,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>12</v>
@@ -13672,7 +13669,7 @@
         <v>42857</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G96" s="24">
         <v>2017</v>
@@ -13687,7 +13684,7 @@
         <v>2</v>
       </c>
       <c r="K96" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>43</v>
@@ -13729,13 +13726,13 @@
         <v>108</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E97" s="22">
         <v>42873</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="24">
         <v>2017</v>
@@ -13750,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>43</v>
@@ -13798,7 +13795,7 @@
         <v>42876</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G98" s="24">
         <v>2017</v>
@@ -13813,7 +13810,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>38</v>
@@ -13855,13 +13852,13 @@
         <v>40</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E99" s="22">
         <v>42883</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G99" s="24">
         <v>2017</v>
@@ -13876,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>38</v>
@@ -13924,7 +13921,7 @@
         <v>42897</v>
       </c>
       <c r="F100" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G100" s="45">
         <v>2017</v>
@@ -13939,7 +13936,7 @@
         <v>2</v>
       </c>
       <c r="K100" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L100" s="43" t="s">
         <v>38</v>
@@ -13987,7 +13984,7 @@
         <v>42907</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G101" s="24">
         <v>2017</v>
@@ -14002,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L101" s="7" t="s">
         <v>38</v>
@@ -14036,7 +14033,7 @@
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>50</v>
@@ -14045,7 +14042,7 @@
         <v>42912</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G102" s="24">
         <v>2017</v>
@@ -14060,7 +14057,7 @@
         <v>2</v>
       </c>
       <c r="K102" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>38</v>
@@ -14103,7 +14100,7 @@
         <v>42925</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G103" s="36">
         <v>2017</v>
@@ -14118,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L103" s="34" t="s">
         <v>38</v>
@@ -14161,7 +14158,7 @@
         <v>42928</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G104" s="45">
         <v>2017</v>
@@ -14176,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L104" s="43" t="s">
         <v>38</v>
@@ -14219,7 +14216,7 @@
         <v>42933</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G105" s="24">
         <v>2017</v>
@@ -14234,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L105" s="7" t="s">
         <v>38</v>
@@ -14277,7 +14274,7 @@
         <v>42942</v>
       </c>
       <c r="F106" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G106" s="45">
         <v>2017</v>
@@ -14292,10 +14289,10 @@
         <v>0</v>
       </c>
       <c r="K106" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L106" s="43" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M106" s="43" t="s">
         <v>1</v>
@@ -14329,13 +14326,13 @@
         <v>80</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E107" s="22">
         <v>42945</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G107" s="24">
         <v>2017</v>
@@ -14350,7 +14347,7 @@
         <v>4</v>
       </c>
       <c r="K107" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>38</v>
@@ -14393,7 +14390,7 @@
         <v>42949</v>
       </c>
       <c r="F108" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G108" s="45">
         <v>2017</v>
@@ -14408,7 +14405,7 @@
         <v>2</v>
       </c>
       <c r="K108" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L108" s="43" t="s">
         <v>38</v>
@@ -14442,7 +14439,7 @@
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>19</v>
@@ -14451,7 +14448,7 @@
         <v>42957</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G109" s="24">
         <v>2017</v>
@@ -14466,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L109" s="7" t="s">
         <v>43</v>
@@ -14509,7 +14506,7 @@
         <v>42960</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G110" s="24">
         <v>2017</v>
@@ -14524,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L110" s="7" t="s">
         <v>38</v>
@@ -14567,7 +14564,7 @@
         <v>42963</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G111" s="24">
         <v>2017</v>
@@ -14582,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>12</v>
@@ -14625,7 +14622,7 @@
         <v>42970</v>
       </c>
       <c r="F112" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G112" s="45">
         <v>2017</v>
@@ -14640,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L112" s="43" t="s">
         <v>12</v>
@@ -14683,7 +14680,7 @@
         <v>42988</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G113" s="24">
         <v>2017</v>
@@ -14698,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>38</v>
@@ -14741,7 +14738,7 @@
         <v>42991</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G114" s="24">
         <v>2017</v>
@@ -14756,10 +14753,10 @@
         <v>0</v>
       </c>
       <c r="K114" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M114" s="7" t="s">
         <v>1</v>
@@ -14799,7 +14796,7 @@
         <v>42994</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G115" s="24">
         <v>2017</v>
@@ -14814,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L115" s="7" t="s">
         <v>38</v>
@@ -14857,7 +14854,7 @@
         <v>43009</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G116" s="7">
         <v>2017</v>
@@ -14872,7 +14869,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>38</v>
@@ -14915,7 +14912,7 @@
         <v>43019</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G117" s="7">
         <v>2017</v>
@@ -14930,7 +14927,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>38</v>
@@ -14973,7 +14970,7 @@
         <v>43022</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G118" s="7">
         <v>2017</v>
@@ -14988,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L118" s="7" t="s">
         <v>38</v>
@@ -15031,7 +15028,7 @@
         <v>43031</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G119" s="7">
         <v>2017</v>
@@ -15046,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L119" s="7" t="s">
         <v>38</v>
@@ -15089,7 +15086,7 @@
         <v>43043</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G120" s="7">
         <v>2017</v>
@@ -15104,7 +15101,7 @@
         <v>2</v>
       </c>
       <c r="K120" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L120" s="7" t="s">
         <v>38</v>
@@ -15147,7 +15144,7 @@
         <v>43050</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G121" s="7">
         <v>2017</v>
@@ -15162,7 +15159,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>38</v>
@@ -15196,7 +15193,7 @@
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>25</v>
@@ -15205,7 +15202,7 @@
         <v>43055</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G122" s="7">
         <v>2017</v>
@@ -15220,7 +15217,7 @@
         <v>2</v>
       </c>
       <c r="K122" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>38</v>
@@ -15254,7 +15251,7 @@
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>47</v>
@@ -15263,7 +15260,7 @@
         <v>43072</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G123" s="7">
         <v>2017</v>
@@ -15278,7 +15275,7 @@
         <v>2</v>
       </c>
       <c r="K123" s="71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L123" s="7" t="s">
         <v>38</v>
@@ -15321,7 +15318,7 @@
         <v>43116</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G124" s="7">
         <v>2018</v>
@@ -15336,7 +15333,7 @@
         <v>2</v>
       </c>
       <c r="K124" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L124" s="7" t="s">
         <v>24</v>
@@ -15379,7 +15376,7 @@
         <v>43120</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G125" s="7">
         <v>2018</v>
@@ -15394,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L125" s="7" t="s">
         <v>24</v>
@@ -15437,7 +15434,7 @@
         <v>43128</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G126" s="7">
         <v>2018</v>
@@ -15452,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L126" s="7" t="s">
         <v>24</v>
@@ -15495,7 +15492,7 @@
         <v>43134</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G127" s="7">
         <v>2018</v>
@@ -15510,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L127" s="7" t="s">
         <v>24</v>
@@ -15544,7 +15541,7 @@
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="43" t="s">
         <v>31</v>
@@ -15553,7 +15550,7 @@
         <v>43165</v>
       </c>
       <c r="F128" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G128" s="43">
         <v>2018</v>
@@ -15568,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L128" s="43" t="s">
         <v>24</v>
@@ -15611,7 +15608,7 @@
         <v>43177</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G129" s="7">
         <v>2018</v>
@@ -15626,7 +15623,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>24</v>
@@ -15669,7 +15666,7 @@
         <v>43180</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G130" s="7">
         <v>2018</v>
@@ -15684,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="K130" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L130" s="7" t="s">
         <v>24</v>
@@ -15727,7 +15724,7 @@
         <v>43184</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G131" s="7">
         <v>2018</v>
@@ -15742,7 +15739,7 @@
         <v>3</v>
       </c>
       <c r="K131" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L131" s="7" t="s">
         <v>24</v>
@@ -15785,7 +15782,7 @@
         <v>43187</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G132" s="7">
         <v>2018</v>
@@ -15800,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L132" s="7" t="s">
         <v>24</v>
@@ -15843,7 +15840,7 @@
         <v>43191</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G133" s="7">
         <v>2018</v>
@@ -15858,7 +15855,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L133" s="7" t="s">
         <v>24</v>
@@ -15883,26 +15880,26 @@
     </row>
     <row r="134" spans="1:29" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B134" s="26"/>
       <c r="C134" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D134" s="75"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="77" t="s">
-        <v>124</v>
+      <c r="F134" s="76" t="s">
+        <v>123</v>
       </c>
       <c r="G134" s="75"/>
       <c r="H134" s="75"/>
       <c r="I134" s="75"/>
       <c r="J134" s="75"/>
       <c r="K134" s="75"/>
-      <c r="L134" s="76"/>
-      <c r="M134" s="77" t="s">
+      <c r="L134" s="77"/>
+      <c r="M134" s="76" t="s">
         <v>1</v>
       </c>
       <c r="N134" s="75"/>
@@ -15928,13 +15925,13 @@
         <v>26</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="22">
         <v>43198</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G135" s="7">
         <v>2018</v>
@@ -15949,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L135" s="7" t="s">
         <v>24</v>
@@ -15988,7 +15985,7 @@
         <v>43218</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G136" s="7">
         <v>2018</v>
@@ -16003,7 +16000,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L136" s="7" t="s">
         <v>38</v>
@@ -16033,7 +16030,7 @@
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>15</v>
@@ -16042,7 +16039,7 @@
         <v>43229</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G137" s="7">
         <v>2018</v>
@@ -16057,10 +16054,10 @@
         <v>1</v>
       </c>
       <c r="K137" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M137" s="7" t="s">
         <v>1</v>
@@ -16096,7 +16093,7 @@
         <v>43234</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G138" s="7">
         <v>2018</v>
@@ -16111,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L138" s="7" t="s">
         <v>38</v>
@@ -16150,7 +16147,7 @@
         <v>43247</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G139" s="7">
         <v>2018</v>
@@ -16165,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L139" s="7" t="s">
         <v>38</v>
@@ -16204,7 +16201,7 @@
         <v>43253</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G140" s="7">
         <v>2018</v>
@@ -16219,7 +16216,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L140" s="7" t="s">
         <v>38</v>
@@ -16247,7 +16244,7 @@
         <v>43257</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G141" s="7">
         <v>2018</v>
@@ -16262,7 +16259,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L141" s="7" t="s">
         <v>38</v>
@@ -16290,7 +16287,7 @@
         <v>43307</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G142" s="7">
         <v>2018</v>
@@ -16305,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L142" s="7" t="s">
         <v>38</v>
@@ -16333,7 +16330,7 @@
         <v>43316</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G143" s="7">
         <v>2018</v>
@@ -16348,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L143" s="7" t="s">
         <v>38</v>
@@ -16367,7 +16364,7 @@
       </c>
       <c r="B144" s="47"/>
       <c r="C144" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>19</v>
@@ -16376,7 +16373,7 @@
         <v>43328</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G144" s="7">
         <v>2018</v>
@@ -16391,10 +16388,10 @@
         <v>0</v>
       </c>
       <c r="K144" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M144" s="7" t="s">
         <v>1</v>
@@ -16410,7 +16407,7 @@
       </c>
       <c r="B145" s="47"/>
       <c r="C145" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>4</v>
@@ -16419,7 +16416,7 @@
         <v>43331</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G145" s="7">
         <v>2018</v>
@@ -16434,7 +16431,7 @@
         <v>3</v>
       </c>
       <c r="K145" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L145" s="7" t="s">
         <v>38</v>
@@ -16462,7 +16459,7 @@
         <v>43337</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G146" s="7">
         <v>2018</v>
@@ -16477,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L146" s="7" t="s">
         <v>38</v>
@@ -16496,7 +16493,7 @@
       </c>
       <c r="B147" s="47"/>
       <c r="C147" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>15</v>
@@ -16505,7 +16502,7 @@
         <v>43348</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G147" s="7">
         <v>2018</v>
@@ -16520,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L147" s="7" t="s">
         <v>38</v>
@@ -16548,7 +16545,7 @@
         <v>43352</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G148" s="7">
         <v>2018</v>
@@ -16563,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="K148" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L148" s="7" t="s">
         <v>38</v>
@@ -16591,7 +16588,7 @@
         <v>43359</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G149" s="7">
         <v>2018</v>
@@ -16606,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L149" s="7" t="s">
         <v>38</v>
@@ -16634,7 +16631,7 @@
         <v>43373</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G150" s="7">
         <v>2018</v>
@@ -16649,7 +16646,7 @@
         <v>2</v>
       </c>
       <c r="K150" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L150" s="7" t="s">
         <v>38</v>
@@ -16671,13 +16668,13 @@
         <v>40</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E151" s="22">
         <v>43376</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G151" s="7">
         <v>2018</v>
@@ -16692,10 +16689,10 @@
         <v>1</v>
       </c>
       <c r="K151" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>1</v>
@@ -16720,7 +16717,7 @@
         <v>43382</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G152" s="7">
         <v>2018</v>
@@ -16735,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="K152" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>38</v>
@@ -16763,7 +16760,7 @@
         <v>43393</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G153" s="7">
         <v>2018</v>
@@ -16778,7 +16775,7 @@
         <v>1</v>
       </c>
       <c r="K153" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>38</v>
@@ -16806,7 +16803,7 @@
         <v>43408</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G154" s="7">
         <v>2018</v>
@@ -16821,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L154" s="7" t="s">
         <v>38</v>
@@ -16849,7 +16846,7 @@
         <v>43414</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G155" s="7">
         <v>2018</v>
@@ -16864,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="K155" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L155" s="7" t="s">
         <v>38</v>
@@ -16892,7 +16889,7 @@
         <v>43422</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G156" s="7">
         <v>2018</v>
@@ -16907,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L156" s="7" t="s">
         <v>38</v>
@@ -16935,7 +16932,7 @@
         <v>43430</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G157" s="7">
         <v>2018</v>
@@ -16950,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>38</v>
@@ -16962,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -17040,10 +17037,10 @@
         <v>88</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -17059,7 +17056,7 @@
       </c>
       <c r="D2" s="14">
         <f>COUNTIF(Principal!L3:L1008,"Série A")</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>1</v>
@@ -17088,7 +17085,7 @@
         <v>40</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M2" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Domingo")</f>
@@ -17128,7 +17125,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
       <c r="L3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M3" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Segunda-feira")</f>
@@ -17172,7 +17169,7 @@
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Terça-feira")</f>
@@ -17192,7 +17189,7 @@
       </c>
       <c r="D5" s="18">
         <f>COUNTIF(Principal!L1:L1008,"Libertadores")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>36</v>
@@ -17218,7 +17215,7 @@
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Quarta-feira")</f>
@@ -17238,7 +17235,7 @@
       </c>
       <c r="D6" s="18">
         <f>COUNTIF(Principal!L3:L1010,"Copa do Brasil")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>62</v>
@@ -17258,7 +17255,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="25"/>
       <c r="L6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Quinta-feira")</f>
@@ -17274,7 +17271,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="18">
         <f>COUNTIF(Principal!L137:L1011,"Sulamericana")</f>
@@ -17302,7 +17299,7 @@
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Sexta-feira")</f>
@@ -17343,7 +17340,7 @@
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Sábado")</f>
@@ -18068,7 +18065,7 @@
     </row>
     <row r="46" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="7">
         <f>COUNTIF(Principal!C3:C1038,"Avaí")</f>
@@ -18086,7 +18083,7 @@
     </row>
     <row r="47" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="7">
         <f>COUNTIF(Principal!C3:C1001,"Nacional-URU")</f>
@@ -18104,7 +18101,7 @@
     </row>
     <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="7">
         <f>COUNTIF(Principal!C4:C1002,"Atlético Goianiense")</f>
@@ -18122,7 +18119,7 @@
     </row>
     <row r="49" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="7">
         <f>COUNTIF(Principal!C5:C1003,"Cruzeiro")</f>
@@ -18140,7 +18137,7 @@
     </row>
     <row r="50" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="7">
         <f>COUNTIF(Principal!C137:C1004,"Audax Italiano")</f>
@@ -18212,7 +18209,7 @@
     </row>
     <row r="54" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="7">
         <f>COUNTIF(Principal!C128:C1007,"Bangu")</f>
@@ -18230,7 +18227,7 @@
     </row>
     <row r="55" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="7">
         <f>COUNTIF(Principal!C144:C1008,"Nacional-PAR")</f>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,6 +1074,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1681,13 +1684,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1581151</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>12282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1725,13 +1728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1577318</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1769,13 +1772,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1504950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1813,13 +1816,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1503199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1857,13 +1860,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1507998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1901,13 +1904,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1657351</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1543051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1945,13 +1948,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1714501</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>6858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8237,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,7 +8579,7 @@
     </row>
     <row r="7" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A17" si="0">SUM(A6+1)</f>
+        <f t="shared" ref="A7:A22" si="0">SUM(A6+1)</f>
         <v>6</v>
       </c>
       <c r="B7" s="15"/>
@@ -8991,19 +8994,19 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="74">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="8" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E15" s="22">
-        <v>38647</v>
+        <v>38668</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>126</v>
@@ -9018,7 +9021,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="71" t="s">
         <v>157</v>
@@ -9027,14 +9030,11 @@
         <v>38</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="3"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -9043,43 +9043,43 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="74">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="8" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E16" s="22">
-        <v>38668</v>
+        <v>38739</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G16" s="24">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J16" s="24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>49</v>
@@ -9095,19 +9095,19 @@
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="74">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E17" s="22">
-        <v>38739</v>
+        <v>38767</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>127</v>
@@ -9116,13 +9116,13 @@
         <v>2006</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I17" s="23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="71" t="s">
         <v>158</v>
@@ -9147,19 +9147,19 @@
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" ref="A18:A23" si="1">SUM(A17+1)</f>
+      <c r="A18" s="74">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E18" s="22">
-        <v>38767</v>
+        <v>38816</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>127</v>
@@ -9168,10 +9168,10 @@
         <v>2006</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I18" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="24">
         <v>1</v>
@@ -9199,40 +9199,40 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <f t="shared" si="1"/>
+      <c r="A19" s="74">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E19" s="22">
-        <v>38816</v>
+        <v>38850</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" s="24">
         <v>2006</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I19" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="71" t="s">
         <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>23</v>
@@ -9251,19 +9251,19 @@
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <f t="shared" si="1"/>
+      <c r="A20" s="74">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E20" s="22">
-        <v>38850</v>
+        <v>39004</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>126</v>
@@ -9272,16 +9272,16 @@
         <v>2006</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I20" s="23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -9303,19 +9303,19 @@
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <f t="shared" si="1"/>
+      <c r="A21" s="74">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="8" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E21" s="22">
-        <v>39004</v>
+        <v>39012</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>126</v>
@@ -9327,13 +9327,13 @@
         <v>20</v>
       </c>
       <c r="I21" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
@@ -9355,8 +9355,8 @@
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <f t="shared" si="1"/>
+      <c r="A22" s="74">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="15"/>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="23" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A18:A23" si="1">SUM(A22+1)</f>
         <v>22</v>
       </c>
       <c r="B23" s="15"/>
@@ -15883,26 +15883,26 @@
         <v>121</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="74" t="s">
+      <c r="C134" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D134" s="75"/>
+      <c r="D134" s="76"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="76" t="s">
+      <c r="F134" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="G134" s="75"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="75"/>
-      <c r="L134" s="77"/>
-      <c r="M134" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="N134" s="75"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
+      <c r="K134" s="76"/>
+      <c r="L134" s="78"/>
+      <c r="M134" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="N134" s="76"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="19"/>
@@ -17158,8 +17158,8 @@
         <v>2005</v>
       </c>
       <c r="H4" s="6">
-        <f>COUNTIF(Principal!G10:G16, "2005")</f>
-        <v>7</v>
+        <f>COUNTIF(Principal!G10:G15, "2005")</f>
+        <v>6</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>92</v>
@@ -17202,8 +17202,8 @@
         <v>2006</v>
       </c>
       <c r="H5" s="6">
-        <f>COUNTIF(Principal!G17:G23, "2006")</f>
-        <v>7</v>
+        <f>COUNTIF(Principal!G16:G23, "2006")</f>
+        <v>8</v>
       </c>
       <c r="I5" s="48">
         <f>SUM(Principal!I3:I1002)</f>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -8240,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8798,7 +8798,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="22">
-        <v>38434</v>
+        <v>38424</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>127</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="23" spans="1:34" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" ref="A18:A23" si="1">SUM(A22+1)</f>
+        <f t="shared" ref="A23" si="1">SUM(A22+1)</f>
         <v>22</v>
       </c>
       <c r="B23" s="15"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="159">
   <si>
     <t>Sim</t>
   </si>
@@ -857,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,6 +1077,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6774,7 +6783,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724025" y="201463276"/>
+          <a:off x="2200275" y="201463276"/>
           <a:ext cx="1452562" cy="1452562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7964,6 +7973,50 @@
         <a:xfrm>
           <a:off x="2047875" y="243840001"/>
           <a:ext cx="1234418" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1643062</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>1495424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Imagem 165"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="245435438"/>
+          <a:ext cx="1357312" cy="1447799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8238,10 +8291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH157"/>
+  <dimension ref="A1:AH158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9332,8 +9385,8 @@
       <c r="J21" s="24">
         <v>1</v>
       </c>
-      <c r="K21" s="71" t="s">
-        <v>157</v>
+      <c r="K21" s="75" t="s">
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>38</v>
@@ -15883,26 +15936,26 @@
         <v>121</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="75" t="s">
+      <c r="C134" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D134" s="76"/>
+      <c r="D134" s="79"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="77" t="s">
+      <c r="F134" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="76"/>
-      <c r="J134" s="76"/>
-      <c r="K134" s="76"/>
-      <c r="L134" s="78"/>
-      <c r="M134" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="N134" s="76"/>
+      <c r="G134" s="79"/>
+      <c r="H134" s="79"/>
+      <c r="I134" s="79"/>
+      <c r="J134" s="79"/>
+      <c r="K134" s="79"/>
+      <c r="L134" s="81"/>
+      <c r="M134" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="N134" s="79"/>
       <c r="O134" s="19"/>
       <c r="P134" s="19"/>
       <c r="Q134" s="19"/>
@@ -16960,6 +17013,49 @@
       </c>
       <c r="O157" s="73" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="76">
+        <f>SUM(A157+1)</f>
+        <v>156</v>
+      </c>
+      <c r="B158" s="47"/>
+      <c r="C158" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="22">
+        <v>43488</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G158" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I158" s="7">
+        <v>0</v>
+      </c>
+      <c r="J158" s="7">
+        <v>0</v>
+      </c>
+      <c r="K158" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="L158" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M158" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N158" s="76" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17063,7 +17159,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!M1:M1005,"Nilton Santos")</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -17078,7 +17174,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Derrota")</f>
@@ -17105,7 +17201,7 @@
       </c>
       <c r="D3" s="18">
         <f>COUNTIF(Principal!L3:L1008,"Carioca")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>23</v>
@@ -17219,7 +17315,7 @@
       </c>
       <c r="M5" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Quarta-feira")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -17336,7 +17432,7 @@
       </c>
       <c r="J8" s="49">
         <f>COUNTIF(Principal!N3:N1007,"Sim")</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="7" t="s">
@@ -18213,7 +18309,7 @@
       </c>
       <c r="B54" s="7">
         <f>COUNTIF(Principal!C128:C1007,"Bangu")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="25"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="157">
   <si>
     <t>Nilton Santos</t>
   </si>
@@ -497,6 +497,9 @@
   <si>
     <t>Carlos Roberto</t>
   </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,6 +1080,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8052,6 +8064,50 @@
         <a:xfrm>
           <a:off x="2238375" y="247030876"/>
           <a:ext cx="1476375" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1608297</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>1547812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagem 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2262188" y="248578688"/>
+          <a:ext cx="1346359" cy="1500187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8326,10 +8382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG159"/>
+  <dimension ref="A1:AG160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView topLeftCell="A156" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15571,22 +15627,22 @@
         <v>118</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="78" t="s">
+      <c r="C134" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="79"/>
+      <c r="D134" s="82"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="80" t="s">
+      <c r="F134" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="G134" s="79"/>
-      <c r="H134" s="79"/>
-      <c r="I134" s="79"/>
-      <c r="J134" s="79"/>
-      <c r="K134" s="79"/>
-      <c r="L134" s="81"/>
+      <c r="G134" s="82"/>
+      <c r="H134" s="82"/>
+      <c r="I134" s="82"/>
+      <c r="J134" s="82"/>
+      <c r="K134" s="82"/>
+      <c r="L134" s="84"/>
       <c r="M134" s="76" t="s">
         <v>0</v>
       </c>
@@ -16657,6 +16713,46 @@
         <v>23</v>
       </c>
       <c r="M159" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="78">
+        <f>SUM(A159+1)</f>
+        <v>158</v>
+      </c>
+      <c r="B160" s="46"/>
+      <c r="C160" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="22">
+        <v>43502</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1</v>
+      </c>
+      <c r="J160" s="7">
+        <v>0</v>
+      </c>
+      <c r="K160" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M160" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16676,10 +16772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16760,7 +16856,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!M1:M1005,"Nilton Santos")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16771,7 +16867,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -16904,7 +17000,7 @@
       </c>
       <c r="I5" s="47">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
@@ -16916,7 +17012,7 @@
       </c>
       <c r="M5" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Quarta-feira")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -16972,7 +17068,7 @@
       </c>
       <c r="D7" s="18">
         <f>COUNTIF(Principal!L137:L1011,"Sulamericana")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>74</v>
@@ -17931,6 +18027,15 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="7">
+        <f>COUNTIF(Principal!C160:C1009,"Defensa y Justicia")</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="157">
   <si>
     <t>Nilton Santos</t>
   </si>
@@ -851,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,6 +1089,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8108,6 +8114,50 @@
         <a:xfrm>
           <a:off x="2262188" y="248578688"/>
           <a:ext cx="1346359" cy="1500187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>1523999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="Imagem 164"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2214563" y="250174125"/>
+          <a:ext cx="1452562" cy="1452562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8382,10 +8432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG160"/>
+  <dimension ref="A1:AG161"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160:XFD160"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15627,22 +15677,22 @@
         <v>118</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="81" t="s">
+      <c r="C134" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="82"/>
+      <c r="D134" s="84"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="83" t="s">
+      <c r="F134" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="G134" s="82"/>
-      <c r="H134" s="82"/>
-      <c r="I134" s="82"/>
-      <c r="J134" s="82"/>
-      <c r="K134" s="82"/>
-      <c r="L134" s="84"/>
+      <c r="G134" s="84"/>
+      <c r="H134" s="84"/>
+      <c r="I134" s="84"/>
+      <c r="J134" s="84"/>
+      <c r="K134" s="84"/>
+      <c r="L134" s="86"/>
       <c r="M134" s="76" t="s">
         <v>0</v>
       </c>
@@ -16753,6 +16803,46 @@
         <v>113</v>
       </c>
       <c r="M160" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="81">
+        <f>SUM(A160+1)</f>
+        <v>159</v>
+      </c>
+      <c r="B161" s="46"/>
+      <c r="C161" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="22">
+        <v>43519</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G161" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I161" s="7">
+        <v>1</v>
+      </c>
+      <c r="J161" s="7">
+        <v>1</v>
+      </c>
+      <c r="K161" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="L161" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M161" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16774,8 +16864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16842,7 +16932,7 @@
       </c>
       <c r="B2" s="14">
         <f>COUNTIF(Principal!C3:C1006,"Vasco")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>37</v>
@@ -16856,7 +16946,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!M1:M1005,"Nilton Santos")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16871,7 +16961,7 @@
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Derrota")</f>
@@ -16882,7 +16972,7 @@
       </c>
       <c r="M2" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Domingo")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -16898,7 +16988,7 @@
       </c>
       <c r="D3" s="18">
         <f>COUNTIF(Principal!L3:L1008,"Carioca")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -17000,11 +17090,11 @@
       </c>
       <c r="I5" s="47">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="158">
   <si>
     <t>Nilton Santos</t>
   </si>
@@ -500,6 +500,9 @@
   <si>
     <t>Defensa y Justicia</t>
   </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,6 +1098,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8158,6 +8167,50 @@
         <a:xfrm>
           <a:off x="2214563" y="250174125"/>
           <a:ext cx="1452562" cy="1452562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1690686</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1523999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagem 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2214562" y="251721938"/>
+          <a:ext cx="1476374" cy="1476374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8432,26 +8485,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG161"/>
+  <dimension ref="A1:AG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="4" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="54.85546875" customWidth="1"/>
     <col min="12" max="12" width="32" customWidth="1"/>
-    <col min="13" max="13" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.28515625" customWidth="1"/>
     <col min="14" max="14" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" customWidth="1"/>
@@ -15677,22 +15731,22 @@
         <v>118</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="83" t="s">
+      <c r="C134" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="84"/>
+      <c r="D134" s="86"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="85" t="s">
+      <c r="F134" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="G134" s="84"/>
-      <c r="H134" s="84"/>
-      <c r="I134" s="84"/>
-      <c r="J134" s="84"/>
-      <c r="K134" s="84"/>
-      <c r="L134" s="86"/>
+      <c r="G134" s="86"/>
+      <c r="H134" s="86"/>
+      <c r="I134" s="86"/>
+      <c r="J134" s="86"/>
+      <c r="K134" s="86"/>
+      <c r="L134" s="88"/>
       <c r="M134" s="76" t="s">
         <v>0</v>
       </c>
@@ -16843,6 +16897,46 @@
         <v>23</v>
       </c>
       <c r="M161" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="83">
+        <f>SUM(A161+1)</f>
+        <v>160</v>
+      </c>
+      <c r="B162" s="46"/>
+      <c r="C162" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="22">
+        <v>43523</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G162" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="7">
+        <v>3</v>
+      </c>
+      <c r="J162" s="7">
+        <v>0</v>
+      </c>
+      <c r="K162" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M162" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16946,7 +17040,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!M1:M1005,"Nilton Santos")</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -16957,7 +17051,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -17090,7 +17184,7 @@
       </c>
       <c r="I5" s="47">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
@@ -17102,7 +17196,7 @@
       </c>
       <c r="M5" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Quarta-feira")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
@@ -17118,7 +17212,7 @@
       </c>
       <c r="D6" s="18">
         <f>COUNTIF(Principal!L3:L1010,"Copa do Brasil")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>60</v>

--- a/Jogos do Botafogo que já fui.xlsx
+++ b/Jogos do Botafogo que já fui.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="158">
   <si>
     <t>Nilton Santos</t>
   </si>
@@ -854,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,6 +1104,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8211,6 +8217,50 @@
         <a:xfrm>
           <a:off x="2214562" y="251721938"/>
           <a:ext cx="1476374" cy="1476374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1655587</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>1566672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="Imagem 168"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="253293563"/>
+          <a:ext cx="1417462" cy="1519047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8485,10 +8535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG162"/>
+  <dimension ref="A1:AG163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15731,22 +15781,22 @@
         <v>118</v>
       </c>
       <c r="B134" s="26"/>
-      <c r="C134" s="85" t="s">
+      <c r="C134" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D134" s="86"/>
+      <c r="D134" s="88"/>
       <c r="E134" s="22">
         <v>43197</v>
       </c>
-      <c r="F134" s="87" t="s">
+      <c r="F134" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="G134" s="86"/>
-      <c r="H134" s="86"/>
-      <c r="I134" s="86"/>
-      <c r="J134" s="86"/>
-      <c r="K134" s="86"/>
-      <c r="L134" s="88"/>
+      <c r="G134" s="88"/>
+      <c r="H134" s="88"/>
+      <c r="I134" s="88"/>
+      <c r="J134" s="88"/>
+      <c r="K134" s="88"/>
+      <c r="L134" s="90"/>
       <c r="M134" s="76" t="s">
         <v>0</v>
       </c>
@@ -16699,7 +16749,7 @@
     </row>
     <row r="157" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="70">
-        <f>SUM(A156+1)</f>
+        <f t="shared" ref="A157:A162" si="6">SUM(A156+1)</f>
         <v>155</v>
       </c>
       <c r="B157" s="46"/>
@@ -16742,7 +16792,7 @@
     </row>
     <row r="158" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="74">
-        <f>SUM(A157+1)</f>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="B158" s="46"/>
@@ -16782,7 +16832,7 @@
     </row>
     <row r="159" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="76">
-        <f>SUM(A158+1)</f>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="B159" s="46"/>
@@ -16822,7 +16872,7 @@
     </row>
     <row r="160" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="78">
-        <f>SUM(A159+1)</f>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="B160" s="46"/>
@@ -16862,7 +16912,7 @@
     </row>
     <row r="161" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="81">
-        <f>SUM(A160+1)</f>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="B161" s="46"/>
@@ -16902,7 +16952,7 @@
     </row>
     <row r="162" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="83">
-        <f>SUM(A161+1)</f>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="B162" s="46"/>
@@ -16937,6 +16987,46 @@
         <v>11</v>
       </c>
       <c r="M162" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="85">
+        <f t="shared" ref="A163" si="7">SUM(A162+1)</f>
+        <v>161</v>
+      </c>
+      <c r="B163" s="46"/>
+      <c r="C163" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="22">
+        <v>43535</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G163" s="7">
+        <v>2019</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="7">
+        <v>2</v>
+      </c>
+      <c r="J163" s="7">
+        <v>1</v>
+      </c>
+      <c r="K163" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M163" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -17040,7 +17130,7 @@
       </c>
       <c r="F2" s="14">
         <f>COUNTIF(Principal!M1:M1005,"Nilton Santos")</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7">
         <v>2002</v>
@@ -17051,7 +17141,7 @@
       </c>
       <c r="I2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Vitória")</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J2" s="7">
         <f>COUNTIF(Principal!H2:H1008, "Empate")</f>
@@ -17082,7 +17172,7 @@
       </c>
       <c r="D3" s="18">
         <f>COUNTIF(Principal!L3:L1008,"Carioca")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>22</v>
@@ -17106,7 +17196,7 @@
       </c>
       <c r="M3" s="7">
         <f>COUNTIF(Principal!F2:F1008, "Segunda-feira")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -17184,11 +17274,11 @@
       </c>
       <c r="I5" s="47">
         <f>SUM(Principal!I3:I1002)</f>
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J5" s="24">
         <f>SUM(Principal!J3:J1002)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="7" t="s">
@@ -17519,7 +17609,7 @@
       </c>
       <c r="B17" s="18">
         <f>COUNTIF(Principal!C3:C1009,"Madureira")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
